--- a/src/test/java/com/nablarch/example/app/web/action/ProjectBulkActionRequestTest.xlsx
+++ b/src/test/java/com/nablarch/example/app/web/action/ProjectBulkActionRequestTest.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="23565" windowHeight="5190" tabRatio="766"/>
@@ -789,10 +789,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>302</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>// DBが更新されていること</t>
     <rPh sb="6" eb="8">
       <t>コウシン</t>
@@ -1110,12 +1106,16 @@
     <t>イッパンイチ</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>303</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="メイリオ"/>
@@ -1166,12 +1166,6 @@
     <font>
       <sz val="9"/>
       <color indexed="8"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="17"/>
-      <color indexed="9"/>
       <name val="メイリオ"/>
       <family val="3"/>
     </font>
@@ -1345,8 +1339,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1384,7 +1378,7 @@
     <xf numFmtId="49" fontId="5" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -1462,11 +1456,16 @@
       <rgbColor rgb="001A1A1A"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1540,6 +1539,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1574,6 +1574,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1749,15 +1750,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="9" width="19" style="1" customWidth="1"/>
     <col min="10" max="10" width="16.5703125" style="1" customWidth="1"/>
@@ -1769,7 +1768,7 @@
     <col min="19" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="26" customFormat="1" ht="27">
+    <row r="1" spans="1:16" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.6">
       <c r="A1" s="23" t="s">
         <v>21</v>
       </c>
@@ -1783,123 +1782,123 @@
       <c r="I1" s="25"/>
       <c r="J1" s="25"/>
     </row>
-    <row r="2" spans="1:16" s="26" customFormat="1">
+    <row r="2" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="19" customFormat="1">
+    <row r="3" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:16" s="19" customFormat="1">
+    <row r="4" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="C4" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="D4" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="E4" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="F4" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="G4" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="H4" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="I4" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="J4" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="J4" s="39" t="s">
+    </row>
+    <row r="5" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="35" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" s="19" customFormat="1">
-      <c r="A5" s="35" t="s">
+      <c r="B5" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="C5" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="D5" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="E5" s="50" t="s">
         <v>192</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="F5" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="G5" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="H5" s="42" t="s">
         <v>195</v>
-      </c>
-      <c r="H5" s="42" t="s">
-        <v>196</v>
       </c>
       <c r="I5" s="51"/>
       <c r="J5" s="42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="19" customFormat="1" ht="15">
+    <row r="6" spans="1:16" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="9"/>
     </row>
-    <row r="7" spans="1:16" s="19" customFormat="1">
+    <row r="7" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:16" s="19" customFormat="1">
+    <row r="8" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="C8" s="39" t="s">
         <v>199</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>200</v>
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:16" s="19" customFormat="1">
+    <row r="9" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="B9" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="C9" s="31" t="s">
         <v>202</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>203</v>
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:16" s="19" customFormat="1">
+    <row r="10" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="45"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="27" t="s">
         <v>61</v>
       </c>
@@ -1919,7 +1918,7 @@
       <c r="O11" s="26"/>
       <c r="P11" s="26"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="29" t="s">
         <v>23</v>
       </c>
@@ -1969,12 +1968,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="39" t="s">
         <v>63</v>
       </c>
@@ -1982,7 +1981,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="35" t="s">
         <v>69</v>
       </c>
@@ -1990,12 +1989,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="39" t="s">
         <v>62</v>
       </c>
@@ -2006,7 +2005,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="35" t="s">
         <v>1</v>
       </c>
@@ -2030,14 +2029,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" style="1" customWidth="1"/>
@@ -2048,7 +2045,7 @@
     <col min="10" max="16384" width="11.28515625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="6" customFormat="1" ht="22.5">
+    <row r="1" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -2307,7 +2304,7 @@
       <c r="IT1" s="5"/>
       <c r="IU1" s="5"/>
     </row>
-    <row r="2" spans="1:256" s="8" customFormat="1">
+    <row r="2" spans="1:256" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2319,7 +2316,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="3" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A3" s="37" t="s">
         <v>9</v>
       </c>
@@ -2350,12 +2347,12 @@
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:256" s="8" customFormat="1" ht="15">
+    <row r="4" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -2372,10 +2369,10 @@
       <c r="G4" s="36"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5">
+    <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A7" s="20" t="s">
         <v>20</v>
       </c>
@@ -2635,7 +2632,7 @@
       <c r="IU7" s="17"/>
       <c r="IV7" s="17"/>
     </row>
-    <row r="8" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="8" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A8" s="15" t="s">
         <v>0</v>
       </c>
@@ -2895,7 +2892,7 @@
       <c r="IU8" s="17"/>
       <c r="IV8" s="17"/>
     </row>
-    <row r="9" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="9" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A9" s="37" t="s">
         <v>18</v>
       </c>
@@ -3157,9 +3154,9 @@
       <c r="IU9" s="17"/>
       <c r="IV9" s="17"/>
     </row>
-    <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>22</v>
@@ -3419,7 +3416,7 @@
       <c r="IU10" s="17"/>
       <c r="IV10" s="17"/>
     </row>
-    <row r="12" spans="1:256" s="6" customFormat="1" ht="22.5">
+    <row r="12" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
@@ -3678,7 +3675,7 @@
       <c r="IT12" s="5"/>
       <c r="IU12" s="5"/>
     </row>
-    <row r="13" spans="1:256" ht="15.75" customHeight="1">
+    <row r="13" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>3</v>
       </c>
@@ -3687,7 +3684,7 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:256" ht="15">
+    <row r="14" spans="1:256" ht="15" x14ac:dyDescent="0.35">
       <c r="A14" s="38" t="s">
         <v>8</v>
       </c>
@@ -3695,7 +3692,7 @@
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
     </row>
-    <row r="15" spans="1:256" ht="15">
+    <row r="15" spans="1:256" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" s="34" t="s">
         <v>1</v>
       </c>
@@ -3703,7 +3700,7 @@
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
     </row>
-    <row r="17" spans="1:256" s="6" customFormat="1" ht="22.5">
+    <row r="17" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>60</v>
       </c>
@@ -3962,9 +3959,9 @@
       <c r="IT17" s="5"/>
       <c r="IU17" s="5"/>
     </row>
-    <row r="18" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="18" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
@@ -4232,15 +4229,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV88"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" style="1" customWidth="1"/>
@@ -4254,7 +4249,7 @@
     <col min="10" max="16384" width="11.28515625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="6" customFormat="1" ht="22.5">
+    <row r="1" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -4513,7 +4508,7 @@
       <c r="IT1" s="5"/>
       <c r="IU1" s="5"/>
     </row>
-    <row r="2" spans="1:256" s="8" customFormat="1">
+    <row r="2" spans="1:256" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -4525,7 +4520,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="3" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A3" s="37" t="s">
         <v>9</v>
       </c>
@@ -4556,12 +4551,12 @@
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:256" s="8" customFormat="1" ht="15">
+    <row r="4" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -4581,7 +4576,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5">
+    <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A7" s="20" t="s">
         <v>20</v>
       </c>
@@ -4841,7 +4836,7 @@
       <c r="IU7" s="17"/>
       <c r="IV7" s="17"/>
     </row>
-    <row r="8" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="8" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A8" s="15" t="s">
         <v>0</v>
       </c>
@@ -5101,7 +5096,7 @@
       <c r="IU8" s="17"/>
       <c r="IV8" s="17"/>
     </row>
-    <row r="9" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="9" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A9" s="37" t="s">
         <v>18</v>
       </c>
@@ -5109,7 +5104,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -5365,7 +5360,7 @@
       <c r="IU9" s="17"/>
       <c r="IV9" s="17"/>
     </row>
-    <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
         <v>114</v>
       </c>
@@ -5373,7 +5368,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -5629,9 +5624,9 @@
       <c r="IU10" s="17"/>
       <c r="IV10" s="17"/>
     </row>
-    <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="49" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="17"/>
@@ -5889,7 +5884,7 @@
       <c r="IU11" s="17"/>
       <c r="IV11" s="17"/>
     </row>
-    <row r="12" spans="1:256" s="26" customFormat="1">
+    <row r="12" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="27" t="s">
         <v>74</v>
       </c>
@@ -5903,7 +5898,7 @@
       <c r="I12" s="27"/>
       <c r="J12" s="27"/>
     </row>
-    <row r="13" spans="1:256" s="26" customFormat="1">
+    <row r="13" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="30" t="s">
         <v>94</v>
       </c>
@@ -5953,7 +5948,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:256" s="26" customFormat="1">
+    <row r="14" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44" t="s">
         <v>98</v>
       </c>
@@ -6003,7 +5998,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:256" s="26" customFormat="1">
+    <row r="15" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
         <v>95</v>
       </c>
@@ -6053,7 +6048,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:255" s="6" customFormat="1" ht="22.5">
+    <row r="17" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
@@ -6312,7 +6307,7 @@
       <c r="IT17" s="5"/>
       <c r="IU17" s="5"/>
     </row>
-    <row r="18" spans="1:255" ht="15.75" customHeight="1">
+    <row r="18" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>3</v>
       </c>
@@ -6321,7 +6316,7 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:255" ht="15">
+    <row r="19" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="38" t="s">
         <v>8</v>
       </c>
@@ -6329,7 +6324,7 @@
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
     </row>
-    <row r="20" spans="1:255" ht="15">
+    <row r="20" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="34">
         <v>1</v>
       </c>
@@ -6337,7 +6332,7 @@
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
     </row>
-    <row r="22" spans="1:255" s="6" customFormat="1" ht="22.5">
+    <row r="22" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>60</v>
       </c>
@@ -6596,17 +6591,17 @@
       <c r="IT22" s="5"/>
       <c r="IU22" s="5"/>
     </row>
-    <row r="23" spans="1:255">
+    <row r="23" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:255">
+    <row r="24" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:255">
+    <row r="25" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A25" s="33" t="s">
         <v>42</v>
       </c>
@@ -6614,49 +6609,49 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:255">
+    <row r="26" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A26" s="31" t="s">
         <v>49</v>
       </c>
       <c r="B26" s="31"/>
     </row>
-    <row r="27" spans="1:255">
+    <row r="27" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A27" s="31" t="s">
         <v>81</v>
       </c>
       <c r="B27" s="31"/>
     </row>
-    <row r="28" spans="1:255">
+    <row r="28" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A28" s="31" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="31"/>
     </row>
-    <row r="29" spans="1:255">
+    <row r="29" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A29" s="31" t="s">
         <v>45</v>
       </c>
       <c r="B29" s="35"/>
     </row>
-    <row r="30" spans="1:255">
+    <row r="30" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A30" s="31" t="s">
         <v>46</v>
       </c>
       <c r="B30" s="32"/>
     </row>
-    <row r="31" spans="1:255">
+    <row r="31" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A31" s="31" t="s">
         <v>82</v>
       </c>
       <c r="B31" s="32"/>
     </row>
-    <row r="32" spans="1:255">
+    <row r="32" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A32" s="31" t="s">
         <v>83</v>
       </c>
       <c r="B32" s="31"/>
     </row>
-    <row r="33" spans="1:256" s="1" customFormat="1">
+    <row r="33" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="31" t="s">
         <v>84</v>
       </c>
@@ -6914,7 +6909,7 @@
       <c r="IU33" s="19"/>
       <c r="IV33" s="19"/>
     </row>
-    <row r="34" spans="1:256" s="1" customFormat="1">
+    <row r="34" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="31" t="s">
         <v>85</v>
       </c>
@@ -7172,7 +7167,7 @@
       <c r="IU34" s="19"/>
       <c r="IV34" s="19"/>
     </row>
-    <row r="35" spans="1:256" s="1" customFormat="1">
+    <row r="35" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="31" t="s">
         <v>122</v>
       </c>
@@ -7432,7 +7427,7 @@
       <c r="IU35" s="19"/>
       <c r="IV35" s="19"/>
     </row>
-    <row r="36" spans="1:256" s="1" customFormat="1">
+    <row r="36" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="31" t="s">
         <v>87</v>
       </c>
@@ -7690,7 +7685,7 @@
       <c r="IU36" s="19"/>
       <c r="IV36" s="19"/>
     </row>
-    <row r="37" spans="1:256" s="1" customFormat="1">
+    <row r="37" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="31" t="s">
         <v>120</v>
       </c>
@@ -7950,17 +7945,17 @@
       <c r="IU37" s="19"/>
       <c r="IV37" s="19"/>
     </row>
-    <row r="39" spans="1:256">
+    <row r="39" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="1:256">
+    <row r="40" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:256">
+    <row r="41" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A41" s="33" t="s">
         <v>42</v>
       </c>
@@ -7968,7 +7963,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:256">
+    <row r="42" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A42" s="31" t="s">
         <v>96</v>
       </c>
@@ -7976,7 +7971,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:256">
+    <row r="43" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A43" s="31" t="s">
         <v>44</v>
       </c>
@@ -7984,7 +7979,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="1:256">
+    <row r="44" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A44" s="31" t="s">
         <v>105</v>
       </c>
@@ -7992,7 +7987,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:256">
+    <row r="45" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A45" s="31" t="s">
         <v>47</v>
       </c>
@@ -8000,15 +7995,15 @@
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:256">
+    <row r="46" spans="1:256" x14ac:dyDescent="0.35">
       <c r="B46" s="45"/>
     </row>
-    <row r="47" spans="1:256">
+    <row r="47" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:256">
+    <row r="48" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A48" s="33" t="s">
         <v>42</v>
       </c>
@@ -8016,7 +8011,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="31" t="s">
         <v>96</v>
       </c>
@@ -8024,7 +8019,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="31" t="s">
         <v>44</v>
       </c>
@@ -8032,7 +8027,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="31" t="s">
         <v>105</v>
       </c>
@@ -8040,7 +8035,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="31" t="s">
         <v>47</v>
       </c>
@@ -8048,17 +8043,17 @@
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="33" t="s">
         <v>42</v>
       </c>
@@ -8066,7 +8061,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="31" t="s">
         <v>44</v>
       </c>
@@ -8074,7 +8069,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="31" t="s">
         <v>45</v>
       </c>
@@ -8082,7 +8077,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="31" t="s">
         <v>46</v>
       </c>
@@ -8090,7 +8085,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="31" t="s">
         <v>49</v>
       </c>
@@ -8098,61 +8093,61 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="31" t="s">
         <v>47</v>
       </c>
       <c r="B61" s="32"/>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="31" t="s">
         <v>48</v>
       </c>
       <c r="B62" s="32"/>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="31" t="s">
         <v>50</v>
       </c>
       <c r="B63" s="31"/>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="31" t="s">
         <v>51</v>
       </c>
       <c r="B64" s="31"/>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="31" t="s">
         <v>52</v>
       </c>
       <c r="B65" s="31"/>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="31" t="s">
         <v>53</v>
       </c>
       <c r="B66" s="31"/>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="31" t="s">
         <v>54</v>
       </c>
       <c r="B67" s="31"/>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="31" t="s">
         <v>55</v>
       </c>
       <c r="B68" s="31"/>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B69" s="31"/>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="31" t="s">
         <v>57</v>
       </c>
@@ -8160,12 +8155,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="33" t="s">
         <v>42</v>
       </c>
@@ -8173,7 +8168,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="31" t="s">
         <v>44</v>
       </c>
@@ -8181,7 +8176,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="31" t="s">
         <v>45</v>
       </c>
@@ -8189,7 +8184,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="31" t="s">
         <v>46</v>
       </c>
@@ -8197,7 +8192,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="31" t="s">
         <v>49</v>
       </c>
@@ -8205,61 +8200,61 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="31" t="s">
         <v>47</v>
       </c>
       <c r="B78" s="32"/>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="31" t="s">
         <v>48</v>
       </c>
       <c r="B79" s="32"/>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="31" t="s">
         <v>50</v>
       </c>
       <c r="B80" s="31"/>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="31" t="s">
         <v>51</v>
       </c>
       <c r="B81" s="31"/>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="31" t="s">
         <v>52</v>
       </c>
       <c r="B82" s="31"/>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="31" t="s">
         <v>53</v>
       </c>
       <c r="B83" s="31"/>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="31" t="s">
         <v>54</v>
       </c>
       <c r="B84" s="31"/>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="31" t="s">
         <v>55</v>
       </c>
       <c r="B85" s="31"/>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B86" s="31"/>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="31" t="s">
         <v>57</v>
       </c>
@@ -8267,7 +8262,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="15" customHeight="1"/>
+    <row r="88" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <phoneticPr fontId="2"/>
@@ -8281,14 +8276,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV97"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" style="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" customWidth="1"/>
@@ -8302,7 +8295,7 @@
     <col min="10" max="16384" width="11.28515625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="6" customFormat="1" ht="22.5">
+    <row r="1" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -8561,7 +8554,7 @@
       <c r="IT1" s="5"/>
       <c r="IU1" s="5"/>
     </row>
-    <row r="2" spans="1:256" s="8" customFormat="1">
+    <row r="2" spans="1:256" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -8573,7 +8566,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="3" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A3" s="37" t="s">
         <v>9</v>
       </c>
@@ -8604,12 +8597,12 @@
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:256" s="8" customFormat="1" ht="15">
+    <row r="4" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -8629,7 +8622,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5">
+    <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A7" s="20" t="s">
         <v>20</v>
       </c>
@@ -8889,7 +8882,7 @@
       <c r="IU7" s="17"/>
       <c r="IV7" s="17"/>
     </row>
-    <row r="8" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="8" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A8" s="15" t="s">
         <v>0</v>
       </c>
@@ -9149,7 +9142,7 @@
       <c r="IU8" s="17"/>
       <c r="IV8" s="17"/>
     </row>
-    <row r="9" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="9" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A9" s="37" t="s">
         <v>18</v>
       </c>
@@ -9157,7 +9150,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -9413,7 +9406,7 @@
       <c r="IU9" s="17"/>
       <c r="IV9" s="17"/>
     </row>
-    <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
         <v>93</v>
       </c>
@@ -9421,7 +9414,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -9677,9 +9670,9 @@
       <c r="IU10" s="17"/>
       <c r="IV10" s="17"/>
     </row>
-    <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="49" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="17"/>
@@ -9937,7 +9930,7 @@
       <c r="IU11" s="17"/>
       <c r="IV11" s="17"/>
     </row>
-    <row r="12" spans="1:256" s="26" customFormat="1">
+    <row r="12" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="27" t="s">
         <v>74</v>
       </c>
@@ -9951,7 +9944,7 @@
       <c r="I12" s="27"/>
       <c r="J12" s="27"/>
     </row>
-    <row r="13" spans="1:256" s="26" customFormat="1">
+    <row r="13" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="30" t="s">
         <v>94</v>
       </c>
@@ -10001,7 +9994,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:256" s="26" customFormat="1">
+    <row r="14" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44" t="s">
         <v>98</v>
       </c>
@@ -10051,7 +10044,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:256" s="26" customFormat="1">
+    <row r="15" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
         <v>95</v>
       </c>
@@ -10101,7 +10094,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:255" s="6" customFormat="1" ht="22.5">
+    <row r="17" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
@@ -10360,7 +10353,7 @@
       <c r="IT17" s="5"/>
       <c r="IU17" s="5"/>
     </row>
-    <row r="18" spans="1:255" ht="15.75" customHeight="1">
+    <row r="18" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>3</v>
       </c>
@@ -10369,7 +10362,7 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:255" ht="15">
+    <row r="19" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="38" t="s">
         <v>8</v>
       </c>
@@ -10383,7 +10376,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:255" ht="15">
+    <row r="20" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="34">
         <v>1</v>
       </c>
@@ -10397,7 +10390,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:255" s="6" customFormat="1" ht="22.5">
+    <row r="22" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>60</v>
       </c>
@@ -10656,17 +10649,17 @@
       <c r="IT22" s="5"/>
       <c r="IU22" s="5"/>
     </row>
-    <row r="23" spans="1:255">
+    <row r="23" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:255">
+    <row r="24" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:255">
+    <row r="25" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A25" s="33" t="s">
         <v>42</v>
       </c>
@@ -10674,49 +10667,49 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:255">
+    <row r="26" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A26" s="31" t="s">
         <v>49</v>
       </c>
       <c r="B26" s="31"/>
     </row>
-    <row r="27" spans="1:255">
+    <row r="27" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A27" s="31" t="s">
         <v>81</v>
       </c>
       <c r="B27" s="31"/>
     </row>
-    <row r="28" spans="1:255">
+    <row r="28" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A28" s="31" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="31"/>
     </row>
-    <row r="29" spans="1:255">
+    <row r="29" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A29" s="31" t="s">
         <v>45</v>
       </c>
       <c r="B29" s="35"/>
     </row>
-    <row r="30" spans="1:255">
+    <row r="30" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A30" s="31" t="s">
         <v>46</v>
       </c>
       <c r="B30" s="32"/>
     </row>
-    <row r="31" spans="1:255">
+    <row r="31" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A31" s="31" t="s">
         <v>82</v>
       </c>
       <c r="B31" s="32"/>
     </row>
-    <row r="32" spans="1:255">
+    <row r="32" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A32" s="31" t="s">
         <v>83</v>
       </c>
       <c r="B32" s="31"/>
     </row>
-    <row r="33" spans="1:256" s="1" customFormat="1">
+    <row r="33" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="31" t="s">
         <v>84</v>
       </c>
@@ -10974,7 +10967,7 @@
       <c r="IU33" s="19"/>
       <c r="IV33" s="19"/>
     </row>
-    <row r="34" spans="1:256" s="1" customFormat="1">
+    <row r="34" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="31" t="s">
         <v>85</v>
       </c>
@@ -11232,7 +11225,7 @@
       <c r="IU34" s="19"/>
       <c r="IV34" s="19"/>
     </row>
-    <row r="35" spans="1:256" s="1" customFormat="1">
+    <row r="35" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="31" t="s">
         <v>86</v>
       </c>
@@ -11492,7 +11485,7 @@
       <c r="IU35" s="19"/>
       <c r="IV35" s="19"/>
     </row>
-    <row r="36" spans="1:256" s="1" customFormat="1">
+    <row r="36" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="31" t="s">
         <v>87</v>
       </c>
@@ -11750,7 +11743,7 @@
       <c r="IU36" s="19"/>
       <c r="IV36" s="19"/>
     </row>
-    <row r="37" spans="1:256" s="1" customFormat="1">
+    <row r="37" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="31" t="s">
         <v>88</v>
       </c>
@@ -12010,17 +12003,17 @@
       <c r="IU37" s="19"/>
       <c r="IV37" s="19"/>
     </row>
-    <row r="39" spans="1:256">
+    <row r="39" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="1:256">
+    <row r="40" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:256">
+    <row r="41" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A41" s="33" t="s">
         <v>42</v>
       </c>
@@ -12028,7 +12021,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:256">
+    <row r="42" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A42" s="31" t="s">
         <v>96</v>
       </c>
@@ -12036,7 +12029,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:256">
+    <row r="43" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A43" s="31" t="s">
         <v>44</v>
       </c>
@@ -12044,7 +12037,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:256">
+    <row r="44" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A44" s="31" t="s">
         <v>45</v>
       </c>
@@ -12052,7 +12045,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:256">
+    <row r="45" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A45" s="31" t="s">
         <v>47</v>
       </c>
@@ -12060,10 +12053,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:256">
+    <row r="46" spans="1:256" x14ac:dyDescent="0.35">
       <c r="B46" s="45"/>
     </row>
-    <row r="47" spans="1:256" s="1" customFormat="1">
+    <row r="47" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>73</v>
       </c>
@@ -12320,7 +12313,7 @@
       <c r="IU47" s="19"/>
       <c r="IV47" s="19"/>
     </row>
-    <row r="48" spans="1:256" s="1" customFormat="1">
+    <row r="48" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>116</v>
       </c>
@@ -12577,7 +12570,7 @@
       <c r="IU48" s="19"/>
       <c r="IV48" s="19"/>
     </row>
-    <row r="49" spans="1:256" s="1" customFormat="1">
+    <row r="49" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="33" t="s">
         <v>42</v>
       </c>
@@ -12837,7 +12830,7 @@
       <c r="IU49" s="19"/>
       <c r="IV49" s="19"/>
     </row>
-    <row r="50" spans="1:256" s="1" customFormat="1">
+    <row r="50" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="31" t="s">
         <v>44</v>
       </c>
@@ -13097,7 +13090,7 @@
       <c r="IU50" s="19"/>
       <c r="IV50" s="19"/>
     </row>
-    <row r="51" spans="1:256" s="1" customFormat="1">
+    <row r="51" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="31" t="s">
         <v>45</v>
       </c>
@@ -13357,7 +13350,7 @@
       <c r="IU51" s="19"/>
       <c r="IV51" s="19"/>
     </row>
-    <row r="52" spans="1:256" s="1" customFormat="1">
+    <row r="52" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="31" t="s">
         <v>46</v>
       </c>
@@ -13617,7 +13610,7 @@
       <c r="IU52" s="19"/>
       <c r="IV52" s="19"/>
     </row>
-    <row r="53" spans="1:256" s="1" customFormat="1">
+    <row r="53" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="31" t="s">
         <v>49</v>
       </c>
@@ -13877,7 +13870,7 @@
       <c r="IU53" s="19"/>
       <c r="IV53" s="19"/>
     </row>
-    <row r="54" spans="1:256" s="1" customFormat="1">
+    <row r="54" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="31" t="s">
         <v>47</v>
       </c>
@@ -14135,7 +14128,7 @@
       <c r="IU54" s="19"/>
       <c r="IV54" s="19"/>
     </row>
-    <row r="55" spans="1:256" s="1" customFormat="1">
+    <row r="55" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="31" t="s">
         <v>48</v>
       </c>
@@ -14393,7 +14386,7 @@
       <c r="IU55" s="19"/>
       <c r="IV55" s="19"/>
     </row>
-    <row r="56" spans="1:256" s="1" customFormat="1">
+    <row r="56" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="31" t="s">
         <v>50</v>
       </c>
@@ -14651,7 +14644,7 @@
       <c r="IU56" s="19"/>
       <c r="IV56" s="19"/>
     </row>
-    <row r="57" spans="1:256" s="1" customFormat="1">
+    <row r="57" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="31" t="s">
         <v>51</v>
       </c>
@@ -14909,7 +14902,7 @@
       <c r="IU57" s="19"/>
       <c r="IV57" s="19"/>
     </row>
-    <row r="58" spans="1:256" s="1" customFormat="1">
+    <row r="58" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="31" t="s">
         <v>52</v>
       </c>
@@ -15167,7 +15160,7 @@
       <c r="IU58" s="19"/>
       <c r="IV58" s="19"/>
     </row>
-    <row r="59" spans="1:256" s="1" customFormat="1">
+    <row r="59" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="31" t="s">
         <v>53</v>
       </c>
@@ -15425,7 +15418,7 @@
       <c r="IU59" s="19"/>
       <c r="IV59" s="19"/>
     </row>
-    <row r="60" spans="1:256" s="1" customFormat="1">
+    <row r="60" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="31" t="s">
         <v>54</v>
       </c>
@@ -15683,7 +15676,7 @@
       <c r="IU60" s="19"/>
       <c r="IV60" s="19"/>
     </row>
-    <row r="61" spans="1:256" s="1" customFormat="1">
+    <row r="61" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="31" t="s">
         <v>55</v>
       </c>
@@ -15941,7 +15934,7 @@
       <c r="IU61" s="19"/>
       <c r="IV61" s="19"/>
     </row>
-    <row r="62" spans="1:256" s="1" customFormat="1">
+    <row r="62" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="31" t="s">
         <v>56</v>
       </c>
@@ -16199,7 +16192,7 @@
       <c r="IU62" s="19"/>
       <c r="IV62" s="19"/>
     </row>
-    <row r="63" spans="1:256" s="1" customFormat="1">
+    <row r="63" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="31" t="s">
         <v>57</v>
       </c>
@@ -16459,7 +16452,7 @@
       <c r="IU63" s="19"/>
       <c r="IV63" s="19"/>
     </row>
-    <row r="65" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="65" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>126</v>
       </c>
@@ -16716,12 +16709,12 @@
       <c r="IU65" s="19"/>
       <c r="IV65" s="19"/>
     </row>
-    <row r="66" spans="1:256">
+    <row r="66" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="67" spans="1:256" s="1" customFormat="1">
+    <row r="67" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="33" t="s">
         <v>42</v>
       </c>
@@ -16981,7 +16974,7 @@
       <c r="IU67" s="19"/>
       <c r="IV67" s="19"/>
     </row>
-    <row r="68" spans="1:256" s="1" customFormat="1">
+    <row r="68" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="31" t="s">
         <v>44</v>
       </c>
@@ -17241,7 +17234,7 @@
       <c r="IU68" s="19"/>
       <c r="IV68" s="19"/>
     </row>
-    <row r="69" spans="1:256" s="1" customFormat="1">
+    <row r="69" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="31" t="s">
         <v>45</v>
       </c>
@@ -17501,7 +17494,7 @@
       <c r="IU69" s="19"/>
       <c r="IV69" s="19"/>
     </row>
-    <row r="70" spans="1:256" s="1" customFormat="1">
+    <row r="70" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="31" t="s">
         <v>46</v>
       </c>
@@ -17761,7 +17754,7 @@
       <c r="IU70" s="19"/>
       <c r="IV70" s="19"/>
     </row>
-    <row r="71" spans="1:256" s="1" customFormat="1">
+    <row r="71" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="31" t="s">
         <v>49</v>
       </c>
@@ -18021,7 +18014,7 @@
       <c r="IU71" s="19"/>
       <c r="IV71" s="19"/>
     </row>
-    <row r="72" spans="1:256" s="1" customFormat="1">
+    <row r="72" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="31" t="s">
         <v>47</v>
       </c>
@@ -18279,7 +18272,7 @@
       <c r="IU72" s="19"/>
       <c r="IV72" s="19"/>
     </row>
-    <row r="73" spans="1:256" s="1" customFormat="1">
+    <row r="73" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="31" t="s">
         <v>48</v>
       </c>
@@ -18537,7 +18530,7 @@
       <c r="IU73" s="19"/>
       <c r="IV73" s="19"/>
     </row>
-    <row r="74" spans="1:256" s="1" customFormat="1">
+    <row r="74" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="31" t="s">
         <v>50</v>
       </c>
@@ -18795,7 +18788,7 @@
       <c r="IU74" s="19"/>
       <c r="IV74" s="19"/>
     </row>
-    <row r="75" spans="1:256" s="1" customFormat="1">
+    <row r="75" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="31" t="s">
         <v>51</v>
       </c>
@@ -19053,7 +19046,7 @@
       <c r="IU75" s="19"/>
       <c r="IV75" s="19"/>
     </row>
-    <row r="76" spans="1:256" s="1" customFormat="1">
+    <row r="76" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="31" t="s">
         <v>52</v>
       </c>
@@ -19311,7 +19304,7 @@
       <c r="IU76" s="19"/>
       <c r="IV76" s="19"/>
     </row>
-    <row r="77" spans="1:256" s="1" customFormat="1">
+    <row r="77" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="31" t="s">
         <v>53</v>
       </c>
@@ -19569,7 +19562,7 @@
       <c r="IU77" s="19"/>
       <c r="IV77" s="19"/>
     </row>
-    <row r="78" spans="1:256" s="1" customFormat="1">
+    <row r="78" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="31" t="s">
         <v>54</v>
       </c>
@@ -19827,7 +19820,7 @@
       <c r="IU78" s="19"/>
       <c r="IV78" s="19"/>
     </row>
-    <row r="79" spans="1:256" s="1" customFormat="1">
+    <row r="79" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="31" t="s">
         <v>55</v>
       </c>
@@ -20085,7 +20078,7 @@
       <c r="IU79" s="19"/>
       <c r="IV79" s="19"/>
     </row>
-    <row r="80" spans="1:256" s="1" customFormat="1">
+    <row r="80" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="31" t="s">
         <v>56</v>
       </c>
@@ -20343,7 +20336,7 @@
       <c r="IU80" s="19"/>
       <c r="IV80" s="19"/>
     </row>
-    <row r="81" spans="1:256" s="1" customFormat="1">
+    <row r="81" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="31" t="s">
         <v>57</v>
       </c>
@@ -20603,7 +20596,7 @@
       <c r="IU81" s="19"/>
       <c r="IV81" s="19"/>
     </row>
-    <row r="83" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="83" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>128</v>
       </c>
@@ -20860,12 +20853,12 @@
       <c r="IU83" s="19"/>
       <c r="IV83" s="19"/>
     </row>
-    <row r="84" spans="1:256">
+    <row r="84" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="85" spans="1:256">
+    <row r="85" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A85" s="33" t="s">
         <v>42</v>
       </c>
@@ -20873,19 +20866,19 @@
         <v>43</v>
       </c>
     </row>
-    <row r="86" spans="1:256">
+    <row r="86" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A86" s="31" t="s">
         <v>49</v>
       </c>
       <c r="B86" s="31"/>
     </row>
-    <row r="87" spans="1:256">
+    <row r="87" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A87" s="31" t="s">
         <v>81</v>
       </c>
       <c r="B87" s="31"/>
     </row>
-    <row r="88" spans="1:256">
+    <row r="88" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A88" s="31" t="s">
         <v>44</v>
       </c>
@@ -20893,31 +20886,31 @@
         <v>118</v>
       </c>
     </row>
-    <row r="89" spans="1:256">
+    <row r="89" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A89" s="31" t="s">
         <v>45</v>
       </c>
       <c r="B89" s="35"/>
     </row>
-    <row r="90" spans="1:256">
+    <row r="90" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A90" s="31" t="s">
         <v>46</v>
       </c>
       <c r="B90" s="32"/>
     </row>
-    <row r="91" spans="1:256">
+    <row r="91" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A91" s="31" t="s">
         <v>82</v>
       </c>
       <c r="B91" s="32"/>
     </row>
-    <row r="92" spans="1:256">
+    <row r="92" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A92" s="31" t="s">
         <v>83</v>
       </c>
       <c r="B92" s="31"/>
     </row>
-    <row r="93" spans="1:256" s="1" customFormat="1">
+    <row r="93" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="31" t="s">
         <v>84</v>
       </c>
@@ -21175,7 +21168,7 @@
       <c r="IU93" s="19"/>
       <c r="IV93" s="19"/>
     </row>
-    <row r="94" spans="1:256" s="1" customFormat="1">
+    <row r="94" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="31" t="s">
         <v>85</v>
       </c>
@@ -21433,7 +21426,7 @@
       <c r="IU94" s="19"/>
       <c r="IV94" s="19"/>
     </row>
-    <row r="95" spans="1:256" s="1" customFormat="1">
+    <row r="95" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="31" t="s">
         <v>86</v>
       </c>
@@ -21693,7 +21686,7 @@
       <c r="IU95" s="19"/>
       <c r="IV95" s="19"/>
     </row>
-    <row r="96" spans="1:256" s="1" customFormat="1">
+    <row r="96" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="31" t="s">
         <v>87</v>
       </c>
@@ -21951,7 +21944,7 @@
       <c r="IU96" s="19"/>
       <c r="IV96" s="19"/>
     </row>
-    <row r="97" spans="1:256" s="1" customFormat="1">
+    <row r="97" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="31" t="s">
         <v>88</v>
       </c>
@@ -22224,14 +22217,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" style="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" customWidth="1"/>
@@ -22245,7 +22236,7 @@
     <col min="10" max="16384" width="11.28515625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="6" customFormat="1" ht="22.5">
+    <row r="1" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -22504,7 +22495,7 @@
       <c r="IT1" s="5"/>
       <c r="IU1" s="5"/>
     </row>
-    <row r="2" spans="1:256" s="8" customFormat="1">
+    <row r="2" spans="1:256" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -22516,7 +22507,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="3" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A3" s="37" t="s">
         <v>9</v>
       </c>
@@ -22547,12 +22538,12 @@
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:256" s="8" customFormat="1" ht="15">
+    <row r="4" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -22572,7 +22563,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5">
+    <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A7" s="20" t="s">
         <v>20</v>
       </c>
@@ -22832,7 +22823,7 @@
       <c r="IU7" s="17"/>
       <c r="IV7" s="17"/>
     </row>
-    <row r="8" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="8" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A8" s="15" t="s">
         <v>0</v>
       </c>
@@ -23092,7 +23083,7 @@
       <c r="IU8" s="17"/>
       <c r="IV8" s="17"/>
     </row>
-    <row r="9" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="9" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A9" s="37" t="s">
         <v>18</v>
       </c>
@@ -23100,7 +23091,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -23356,7 +23347,7 @@
       <c r="IU9" s="17"/>
       <c r="IV9" s="17"/>
     </row>
-    <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
         <v>93</v>
       </c>
@@ -23364,7 +23355,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -23620,9 +23611,9 @@
       <c r="IU10" s="17"/>
       <c r="IV10" s="17"/>
     </row>
-    <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="49" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="17"/>
@@ -23880,7 +23871,7 @@
       <c r="IU11" s="17"/>
       <c r="IV11" s="17"/>
     </row>
-    <row r="13" spans="1:256" s="6" customFormat="1" ht="22.5">
+    <row r="13" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -24139,7 +24130,7 @@
       <c r="IT13" s="5"/>
       <c r="IU13" s="5"/>
     </row>
-    <row r="14" spans="1:256" ht="15.75" customHeight="1">
+    <row r="14" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>3</v>
       </c>
@@ -24148,7 +24139,7 @@
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:256" ht="15">
+    <row r="15" spans="1:256" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" s="38" t="s">
         <v>8</v>
       </c>
@@ -24162,7 +24153,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:256" ht="15">
+    <row r="16" spans="1:256" ht="15" x14ac:dyDescent="0.35">
       <c r="A16" s="34">
         <v>1</v>
       </c>
@@ -24172,7 +24163,7 @@
       <c r="C16" s="46"/>
       <c r="D16" s="47"/>
     </row>
-    <row r="18" spans="1:255" s="6" customFormat="1" ht="22.5">
+    <row r="18" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>60</v>
       </c>
@@ -24444,14 +24435,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV56"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" style="1" customWidth="1"/>
@@ -24462,7 +24451,7 @@
     <col min="10" max="16384" width="11.28515625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="6" customFormat="1" ht="22.5">
+    <row r="1" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -24721,7 +24710,7 @@
       <c r="IT1" s="5"/>
       <c r="IU1" s="5"/>
     </row>
-    <row r="2" spans="1:256" s="8" customFormat="1">
+    <row r="2" spans="1:256" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -24733,7 +24722,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="3" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A3" s="37" t="s">
         <v>9</v>
       </c>
@@ -24764,12 +24753,12 @@
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:256" s="8" customFormat="1" ht="15">
+    <row r="4" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -24789,7 +24778,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5">
+    <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A7" s="20" t="s">
         <v>20</v>
       </c>
@@ -25049,7 +25038,7 @@
       <c r="IU7" s="17"/>
       <c r="IV7" s="17"/>
     </row>
-    <row r="8" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="8" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A8" s="15" t="s">
         <v>0</v>
       </c>
@@ -25309,7 +25298,7 @@
       <c r="IU8" s="17"/>
       <c r="IV8" s="17"/>
     </row>
-    <row r="9" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="9" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A9" s="37" t="s">
         <v>18</v>
       </c>
@@ -25571,7 +25560,7 @@
       <c r="IU9" s="17"/>
       <c r="IV9" s="17"/>
     </row>
-    <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
         <v>97</v>
       </c>
@@ -25833,7 +25822,7 @@
       <c r="IU10" s="17"/>
       <c r="IV10" s="17"/>
     </row>
-    <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="17"/>
@@ -26091,7 +26080,7 @@
       <c r="IU11" s="17"/>
       <c r="IV11" s="17"/>
     </row>
-    <row r="12" spans="1:256" s="26" customFormat="1">
+    <row r="12" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="27" t="s">
         <v>74</v>
       </c>
@@ -26105,7 +26094,7 @@
       <c r="I12" s="27"/>
       <c r="J12" s="27"/>
     </row>
-    <row r="13" spans="1:256" s="26" customFormat="1">
+    <row r="13" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="30" t="s">
         <v>94</v>
       </c>
@@ -26155,7 +26144,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:256" s="26" customFormat="1">
+    <row r="14" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44" t="s">
         <v>98</v>
       </c>
@@ -26205,7 +26194,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:256" s="26" customFormat="1">
+    <row r="15" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
         <v>95</v>
       </c>
@@ -26255,7 +26244,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:256" s="6" customFormat="1" ht="22.5">
+    <row r="17" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
@@ -26514,7 +26503,7 @@
       <c r="IT17" s="5"/>
       <c r="IU17" s="5"/>
     </row>
-    <row r="18" spans="1:256" ht="15.75" customHeight="1">
+    <row r="18" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>3</v>
       </c>
@@ -26523,7 +26512,7 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:256" ht="15">
+    <row r="19" spans="1:256" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="38" t="s">
         <v>8</v>
       </c>
@@ -26546,7 +26535,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:256" ht="15">
+    <row r="20" spans="1:256" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="34" t="s">
         <v>1</v>
       </c>
@@ -26569,7 +26558,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:256" s="6" customFormat="1" ht="22.5">
+    <row r="22" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>60</v>
       </c>
@@ -26828,7 +26817,7 @@
       <c r="IT22" s="5"/>
       <c r="IU22" s="5"/>
     </row>
-    <row r="23" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="23" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>126</v>
       </c>
@@ -27085,12 +27074,12 @@
       <c r="IU23" s="19"/>
       <c r="IV23" s="19"/>
     </row>
-    <row r="24" spans="1:256">
+    <row r="24" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:256" s="1" customFormat="1">
+    <row r="25" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="33" t="s">
         <v>42</v>
       </c>
@@ -27350,7 +27339,7 @@
       <c r="IU25" s="19"/>
       <c r="IV25" s="19"/>
     </row>
-    <row r="26" spans="1:256" s="1" customFormat="1">
+    <row r="26" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="31" t="s">
         <v>44</v>
       </c>
@@ -27610,7 +27599,7 @@
       <c r="IU26" s="19"/>
       <c r="IV26" s="19"/>
     </row>
-    <row r="27" spans="1:256" s="1" customFormat="1">
+    <row r="27" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="31" t="s">
         <v>45</v>
       </c>
@@ -27870,7 +27859,7 @@
       <c r="IU27" s="19"/>
       <c r="IV27" s="19"/>
     </row>
-    <row r="28" spans="1:256" s="1" customFormat="1">
+    <row r="28" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="31" t="s">
         <v>46</v>
       </c>
@@ -28130,7 +28119,7 @@
       <c r="IU28" s="19"/>
       <c r="IV28" s="19"/>
     </row>
-    <row r="29" spans="1:256" s="1" customFormat="1">
+    <row r="29" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="31" t="s">
         <v>49</v>
       </c>
@@ -28390,7 +28379,7 @@
       <c r="IU29" s="19"/>
       <c r="IV29" s="19"/>
     </row>
-    <row r="30" spans="1:256" s="1" customFormat="1">
+    <row r="30" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="31" t="s">
         <v>47</v>
       </c>
@@ -28648,7 +28637,7 @@
       <c r="IU30" s="19"/>
       <c r="IV30" s="19"/>
     </row>
-    <row r="31" spans="1:256" s="1" customFormat="1">
+    <row r="31" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="31" t="s">
         <v>48</v>
       </c>
@@ -28906,7 +28895,7 @@
       <c r="IU31" s="19"/>
       <c r="IV31" s="19"/>
     </row>
-    <row r="32" spans="1:256" s="1" customFormat="1">
+    <row r="32" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="31" t="s">
         <v>50</v>
       </c>
@@ -29164,7 +29153,7 @@
       <c r="IU32" s="19"/>
       <c r="IV32" s="19"/>
     </row>
-    <row r="33" spans="1:256" s="1" customFormat="1">
+    <row r="33" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="31" t="s">
         <v>51</v>
       </c>
@@ -29422,7 +29411,7 @@
       <c r="IU33" s="19"/>
       <c r="IV33" s="19"/>
     </row>
-    <row r="34" spans="1:256" s="1" customFormat="1">
+    <row r="34" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="31" t="s">
         <v>52</v>
       </c>
@@ -29680,7 +29669,7 @@
       <c r="IU34" s="19"/>
       <c r="IV34" s="19"/>
     </row>
-    <row r="35" spans="1:256" s="1" customFormat="1">
+    <row r="35" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="31" t="s">
         <v>53</v>
       </c>
@@ -29938,7 +29927,7 @@
       <c r="IU35" s="19"/>
       <c r="IV35" s="19"/>
     </row>
-    <row r="36" spans="1:256" s="1" customFormat="1">
+    <row r="36" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="31" t="s">
         <v>54</v>
       </c>
@@ -30196,7 +30185,7 @@
       <c r="IU36" s="19"/>
       <c r="IV36" s="19"/>
     </row>
-    <row r="37" spans="1:256" s="1" customFormat="1">
+    <row r="37" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="31" t="s">
         <v>55</v>
       </c>
@@ -30454,7 +30443,7 @@
       <c r="IU37" s="19"/>
       <c r="IV37" s="19"/>
     </row>
-    <row r="38" spans="1:256" s="1" customFormat="1">
+    <row r="38" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="31" t="s">
         <v>56</v>
       </c>
@@ -30712,7 +30701,7 @@
       <c r="IU38" s="19"/>
       <c r="IV38" s="19"/>
     </row>
-    <row r="39" spans="1:256" s="1" customFormat="1">
+    <row r="39" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="31" t="s">
         <v>57</v>
       </c>
@@ -30972,12 +30961,12 @@
       <c r="IU39" s="19"/>
       <c r="IV39" s="19"/>
     </row>
-    <row r="41" spans="1:256">
+    <row r="41" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="42" spans="1:256" s="1" customFormat="1">
+    <row r="42" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="33" t="s">
         <v>42</v>
       </c>
@@ -31237,7 +31226,7 @@
       <c r="IU42" s="19"/>
       <c r="IV42" s="19"/>
     </row>
-    <row r="43" spans="1:256" s="1" customFormat="1">
+    <row r="43" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="31" t="s">
         <v>44</v>
       </c>
@@ -31497,7 +31486,7 @@
       <c r="IU43" s="19"/>
       <c r="IV43" s="19"/>
     </row>
-    <row r="44" spans="1:256" s="1" customFormat="1">
+    <row r="44" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="31" t="s">
         <v>45</v>
       </c>
@@ -31757,7 +31746,7 @@
       <c r="IU44" s="19"/>
       <c r="IV44" s="19"/>
     </row>
-    <row r="45" spans="1:256" s="1" customFormat="1">
+    <row r="45" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="31" t="s">
         <v>46</v>
       </c>
@@ -32017,7 +32006,7 @@
       <c r="IU45" s="19"/>
       <c r="IV45" s="19"/>
     </row>
-    <row r="46" spans="1:256" s="1" customFormat="1">
+    <row r="46" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="31" t="s">
         <v>49</v>
       </c>
@@ -32277,7 +32266,7 @@
       <c r="IU46" s="19"/>
       <c r="IV46" s="19"/>
     </row>
-    <row r="47" spans="1:256" s="1" customFormat="1">
+    <row r="47" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="31" t="s">
         <v>47</v>
       </c>
@@ -32535,7 +32524,7 @@
       <c r="IU47" s="19"/>
       <c r="IV47" s="19"/>
     </row>
-    <row r="48" spans="1:256" s="1" customFormat="1">
+    <row r="48" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="31" t="s">
         <v>48</v>
       </c>
@@ -32793,7 +32782,7 @@
       <c r="IU48" s="19"/>
       <c r="IV48" s="19"/>
     </row>
-    <row r="49" spans="1:256" s="1" customFormat="1">
+    <row r="49" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="31" t="s">
         <v>50</v>
       </c>
@@ -33051,7 +33040,7 @@
       <c r="IU49" s="19"/>
       <c r="IV49" s="19"/>
     </row>
-    <row r="50" spans="1:256" s="1" customFormat="1">
+    <row r="50" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="31" t="s">
         <v>51</v>
       </c>
@@ -33309,7 +33298,7 @@
       <c r="IU50" s="19"/>
       <c r="IV50" s="19"/>
     </row>
-    <row r="51" spans="1:256" s="1" customFormat="1">
+    <row r="51" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="31" t="s">
         <v>52</v>
       </c>
@@ -33567,7 +33556,7 @@
       <c r="IU51" s="19"/>
       <c r="IV51" s="19"/>
     </row>
-    <row r="52" spans="1:256" s="1" customFormat="1">
+    <row r="52" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="31" t="s">
         <v>53</v>
       </c>
@@ -33825,7 +33814,7 @@
       <c r="IU52" s="19"/>
       <c r="IV52" s="19"/>
     </row>
-    <row r="53" spans="1:256" s="1" customFormat="1">
+    <row r="53" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="31" t="s">
         <v>54</v>
       </c>
@@ -34083,7 +34072,7 @@
       <c r="IU53" s="19"/>
       <c r="IV53" s="19"/>
     </row>
-    <row r="54" spans="1:256" s="1" customFormat="1">
+    <row r="54" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="31" t="s">
         <v>55</v>
       </c>
@@ -34341,7 +34330,7 @@
       <c r="IU54" s="19"/>
       <c r="IV54" s="19"/>
     </row>
-    <row r="55" spans="1:256" s="1" customFormat="1">
+    <row r="55" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="31" t="s">
         <v>56</v>
       </c>
@@ -34599,7 +34588,7 @@
       <c r="IU55" s="19"/>
       <c r="IV55" s="19"/>
     </row>
-    <row r="56" spans="1:256" s="1" customFormat="1">
+    <row r="56" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="31" t="s">
         <v>57</v>
       </c>
@@ -34872,14 +34861,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" style="1" customWidth="1"/>
@@ -34891,7 +34878,7 @@
     <col min="10" max="16384" width="11.28515625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="6" customFormat="1" ht="22.5">
+    <row r="1" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -35150,7 +35137,7 @@
       <c r="IT1" s="5"/>
       <c r="IU1" s="5"/>
     </row>
-    <row r="2" spans="1:256" s="8" customFormat="1">
+    <row r="2" spans="1:256" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -35162,7 +35149,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="3" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A3" s="37" t="s">
         <v>9</v>
       </c>
@@ -35193,12 +35180,12 @@
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:256" s="8" customFormat="1" ht="15">
+    <row r="4" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -35220,7 +35207,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5">
+    <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A7" s="20" t="s">
         <v>20</v>
       </c>
@@ -35480,7 +35467,7 @@
       <c r="IU7" s="17"/>
       <c r="IV7" s="17"/>
     </row>
-    <row r="8" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="8" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A8" s="15" t="s">
         <v>0</v>
       </c>
@@ -35740,7 +35727,7 @@
       <c r="IU8" s="17"/>
       <c r="IV8" s="17"/>
     </row>
-    <row r="9" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="9" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A9" s="37" t="s">
         <v>18</v>
       </c>
@@ -36002,7 +35989,7 @@
       <c r="IU9" s="17"/>
       <c r="IV9" s="17"/>
     </row>
-    <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
         <v>97</v>
       </c>
@@ -36264,7 +36251,7 @@
       <c r="IU10" s="17"/>
       <c r="IV10" s="17"/>
     </row>
-    <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="17"/>
@@ -36522,7 +36509,7 @@
       <c r="IU11" s="17"/>
       <c r="IV11" s="17"/>
     </row>
-    <row r="12" spans="1:256" s="26" customFormat="1">
+    <row r="12" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="27" t="s">
         <v>74</v>
       </c>
@@ -36536,7 +36523,7 @@
       <c r="I12" s="27"/>
       <c r="J12" s="27"/>
     </row>
-    <row r="13" spans="1:256" s="26" customFormat="1">
+    <row r="13" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="30" t="s">
         <v>94</v>
       </c>
@@ -36586,7 +36573,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:256" s="26" customFormat="1">
+    <row r="14" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44" t="s">
         <v>98</v>
       </c>
@@ -36636,7 +36623,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:256" s="26" customFormat="1">
+    <row r="15" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
         <v>95</v>
       </c>
@@ -36686,7 +36673,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:255" s="6" customFormat="1" ht="22.5">
+    <row r="17" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
@@ -36945,7 +36932,7 @@
       <c r="IT17" s="5"/>
       <c r="IU17" s="5"/>
     </row>
-    <row r="18" spans="1:255" ht="15.75" customHeight="1">
+    <row r="18" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>3</v>
       </c>
@@ -36954,7 +36941,7 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:255" ht="15">
+    <row r="19" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="38" t="s">
         <v>8</v>
       </c>
@@ -36977,7 +36964,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:255" ht="15">
+    <row r="20" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="34" t="s">
         <v>1</v>
       </c>
@@ -36998,7 +36985,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:255" s="6" customFormat="1" ht="22.5">
+    <row r="22" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>60</v>
       </c>
@@ -37270,14 +37257,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV54"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" style="1" customWidth="1"/>
@@ -37288,7 +37273,7 @@
     <col min="10" max="16384" width="11.28515625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="6" customFormat="1" ht="22.5">
+    <row r="1" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -37547,7 +37532,7 @@
       <c r="IT1" s="5"/>
       <c r="IU1" s="5"/>
     </row>
-    <row r="2" spans="1:256" s="8" customFormat="1">
+    <row r="2" spans="1:256" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -37559,7 +37544,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="3" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A3" s="37" t="s">
         <v>9</v>
       </c>
@@ -37590,12 +37575,12 @@
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:256" s="8" customFormat="1" ht="15">
+    <row r="4" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -37615,7 +37600,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5">
+    <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A7" s="20" t="s">
         <v>20</v>
       </c>
@@ -37875,7 +37860,7 @@
       <c r="IU7" s="17"/>
       <c r="IV7" s="17"/>
     </row>
-    <row r="8" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="8" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A8" s="15" t="s">
         <v>0</v>
       </c>
@@ -38135,7 +38120,7 @@
       <c r="IU8" s="17"/>
       <c r="IV8" s="17"/>
     </row>
-    <row r="9" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="9" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A9" s="37" t="s">
         <v>18</v>
       </c>
@@ -38397,7 +38382,7 @@
       <c r="IU9" s="17"/>
       <c r="IV9" s="17"/>
     </row>
-    <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
         <v>146</v>
       </c>
@@ -38659,7 +38644,7 @@
       <c r="IU10" s="17"/>
       <c r="IV10" s="17"/>
     </row>
-    <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="17"/>
@@ -38917,7 +38902,7 @@
       <c r="IU11" s="17"/>
       <c r="IV11" s="17"/>
     </row>
-    <row r="12" spans="1:256" s="26" customFormat="1">
+    <row r="12" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="27" t="s">
         <v>74</v>
       </c>
@@ -38931,7 +38916,7 @@
       <c r="I12" s="27"/>
       <c r="J12" s="27"/>
     </row>
-    <row r="13" spans="1:256" s="26" customFormat="1">
+    <row r="13" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="30" t="s">
         <v>94</v>
       </c>
@@ -38981,7 +38966,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:256" s="26" customFormat="1">
+    <row r="14" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44" t="s">
         <v>98</v>
       </c>
@@ -39031,7 +39016,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:256" s="26" customFormat="1">
+    <row r="15" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
         <v>95</v>
       </c>
@@ -39081,7 +39066,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:256" s="6" customFormat="1" ht="22.5">
+    <row r="17" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
@@ -39340,7 +39325,7 @@
       <c r="IT17" s="5"/>
       <c r="IU17" s="5"/>
     </row>
-    <row r="18" spans="1:256" ht="15.75" customHeight="1">
+    <row r="18" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>3</v>
       </c>
@@ -39349,7 +39334,7 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:256" ht="15">
+    <row r="19" spans="1:256" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="38" t="s">
         <v>8</v>
       </c>
@@ -39357,7 +39342,7 @@
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
     </row>
-    <row r="20" spans="1:256" ht="15">
+    <row r="20" spans="1:256" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="34" t="s">
         <v>1</v>
       </c>
@@ -39365,7 +39350,7 @@
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
     </row>
-    <row r="22" spans="1:256" s="6" customFormat="1" ht="22.5">
+    <row r="22" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>60</v>
       </c>
@@ -39624,7 +39609,7 @@
       <c r="IT22" s="5"/>
       <c r="IU22" s="5"/>
     </row>
-    <row r="23" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="23" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>126</v>
       </c>
@@ -39881,12 +39866,12 @@
       <c r="IU23" s="19"/>
       <c r="IV23" s="19"/>
     </row>
-    <row r="24" spans="1:256">
+    <row r="24" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="25" spans="1:256" s="1" customFormat="1">
+    <row r="25" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="33" t="s">
         <v>42</v>
       </c>
@@ -40146,7 +40131,7 @@
       <c r="IU25" s="19"/>
       <c r="IV25" s="19"/>
     </row>
-    <row r="26" spans="1:256" s="1" customFormat="1">
+    <row r="26" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="31" t="s">
         <v>44</v>
       </c>
@@ -40406,7 +40391,7 @@
       <c r="IU26" s="19"/>
       <c r="IV26" s="19"/>
     </row>
-    <row r="27" spans="1:256" s="1" customFormat="1">
+    <row r="27" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="31" t="s">
         <v>45</v>
       </c>
@@ -40666,7 +40651,7 @@
       <c r="IU27" s="19"/>
       <c r="IV27" s="19"/>
     </row>
-    <row r="28" spans="1:256" s="1" customFormat="1">
+    <row r="28" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="31" t="s">
         <v>46</v>
       </c>
@@ -40926,7 +40911,7 @@
       <c r="IU28" s="19"/>
       <c r="IV28" s="19"/>
     </row>
-    <row r="29" spans="1:256" s="1" customFormat="1">
+    <row r="29" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="31" t="s">
         <v>49</v>
       </c>
@@ -41186,7 +41171,7 @@
       <c r="IU29" s="19"/>
       <c r="IV29" s="19"/>
     </row>
-    <row r="30" spans="1:256" s="1" customFormat="1">
+    <row r="30" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="31" t="s">
         <v>47</v>
       </c>
@@ -41444,7 +41429,7 @@
       <c r="IU30" s="19"/>
       <c r="IV30" s="19"/>
     </row>
-    <row r="31" spans="1:256" s="1" customFormat="1">
+    <row r="31" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="31" t="s">
         <v>48</v>
       </c>
@@ -41702,7 +41687,7 @@
       <c r="IU31" s="19"/>
       <c r="IV31" s="19"/>
     </row>
-    <row r="32" spans="1:256" s="1" customFormat="1">
+    <row r="32" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="31" t="s">
         <v>50</v>
       </c>
@@ -41960,7 +41945,7 @@
       <c r="IU32" s="19"/>
       <c r="IV32" s="19"/>
     </row>
-    <row r="33" spans="1:256" s="1" customFormat="1">
+    <row r="33" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="31" t="s">
         <v>51</v>
       </c>
@@ -42218,7 +42203,7 @@
       <c r="IU33" s="19"/>
       <c r="IV33" s="19"/>
     </row>
-    <row r="34" spans="1:256" s="1" customFormat="1">
+    <row r="34" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="31" t="s">
         <v>52</v>
       </c>
@@ -42476,7 +42461,7 @@
       <c r="IU34" s="19"/>
       <c r="IV34" s="19"/>
     </row>
-    <row r="35" spans="1:256" s="1" customFormat="1">
+    <row r="35" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="31" t="s">
         <v>53</v>
       </c>
@@ -42734,7 +42719,7 @@
       <c r="IU35" s="19"/>
       <c r="IV35" s="19"/>
     </row>
-    <row r="36" spans="1:256" s="1" customFormat="1">
+    <row r="36" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="31" t="s">
         <v>54</v>
       </c>
@@ -42992,7 +42977,7 @@
       <c r="IU36" s="19"/>
       <c r="IV36" s="19"/>
     </row>
-    <row r="37" spans="1:256" s="1" customFormat="1">
+    <row r="37" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="31" t="s">
         <v>55</v>
       </c>
@@ -43250,7 +43235,7 @@
       <c r="IU37" s="19"/>
       <c r="IV37" s="19"/>
     </row>
-    <row r="38" spans="1:256" s="1" customFormat="1">
+    <row r="38" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="31" t="s">
         <v>56</v>
       </c>
@@ -43508,7 +43493,7 @@
       <c r="IU38" s="19"/>
       <c r="IV38" s="19"/>
     </row>
-    <row r="39" spans="1:256" s="1" customFormat="1">
+    <row r="39" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="31" t="s">
         <v>57</v>
       </c>
@@ -43768,12 +43753,12 @@
       <c r="IU39" s="19"/>
       <c r="IV39" s="19"/>
     </row>
-    <row r="41" spans="1:256">
+    <row r="41" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:256" s="1" customFormat="1">
+    <row r="42" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="33" t="s">
         <v>42</v>
       </c>
@@ -44033,7 +44018,7 @@
       <c r="IU42" s="19"/>
       <c r="IV42" s="19"/>
     </row>
-    <row r="43" spans="1:256" s="1" customFormat="1">
+    <row r="43" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="31" t="s">
         <v>49</v>
       </c>
@@ -44293,7 +44278,7 @@
       <c r="IU43" s="19"/>
       <c r="IV43" s="19"/>
     </row>
-    <row r="44" spans="1:256" s="1" customFormat="1">
+    <row r="44" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="31" t="s">
         <v>81</v>
       </c>
@@ -44551,7 +44536,7 @@
       <c r="IU44" s="19"/>
       <c r="IV44" s="19"/>
     </row>
-    <row r="45" spans="1:256" s="1" customFormat="1">
+    <row r="45" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="31" t="s">
         <v>44</v>
       </c>
@@ -44811,7 +44796,7 @@
       <c r="IU45" s="19"/>
       <c r="IV45" s="19"/>
     </row>
-    <row r="46" spans="1:256" s="1" customFormat="1">
+    <row r="46" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="31" t="s">
         <v>45</v>
       </c>
@@ -45069,7 +45054,7 @@
       <c r="IU46" s="19"/>
       <c r="IV46" s="19"/>
     </row>
-    <row r="47" spans="1:256" s="1" customFormat="1">
+    <row r="47" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="31" t="s">
         <v>46</v>
       </c>
@@ -45327,7 +45312,7 @@
       <c r="IU47" s="19"/>
       <c r="IV47" s="19"/>
     </row>
-    <row r="48" spans="1:256" s="1" customFormat="1">
+    <row r="48" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="31" t="s">
         <v>82</v>
       </c>
@@ -45585,7 +45570,7 @@
       <c r="IU48" s="19"/>
       <c r="IV48" s="19"/>
     </row>
-    <row r="49" spans="1:256" s="1" customFormat="1">
+    <row r="49" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="31" t="s">
         <v>83</v>
       </c>
@@ -45843,7 +45828,7 @@
       <c r="IU49" s="19"/>
       <c r="IV49" s="19"/>
     </row>
-    <row r="50" spans="1:256" s="1" customFormat="1">
+    <row r="50" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="31" t="s">
         <v>84</v>
       </c>
@@ -46101,7 +46086,7 @@
       <c r="IU50" s="19"/>
       <c r="IV50" s="19"/>
     </row>
-    <row r="51" spans="1:256" s="1" customFormat="1">
+    <row r="51" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="31" t="s">
         <v>85</v>
       </c>
@@ -46359,7 +46344,7 @@
       <c r="IU51" s="19"/>
       <c r="IV51" s="19"/>
     </row>
-    <row r="52" spans="1:256" s="1" customFormat="1">
+    <row r="52" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="31" t="s">
         <v>86</v>
       </c>
@@ -46619,7 +46604,7 @@
       <c r="IU52" s="19"/>
       <c r="IV52" s="19"/>
     </row>
-    <row r="53" spans="1:256" s="1" customFormat="1">
+    <row r="53" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="31" t="s">
         <v>87</v>
       </c>
@@ -46877,7 +46862,7 @@
       <c r="IU53" s="19"/>
       <c r="IV53" s="19"/>
     </row>
-    <row r="54" spans="1:256" s="1" customFormat="1">
+    <row r="54" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="31" t="s">
         <v>88</v>
       </c>
@@ -47150,14 +47135,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" style="1" customWidth="1"/>
@@ -47168,7 +47151,7 @@
     <col min="10" max="16384" width="11.28515625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="6" customFormat="1" ht="22.5">
+    <row r="1" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -47427,7 +47410,7 @@
       <c r="IT1" s="5"/>
       <c r="IU1" s="5"/>
     </row>
-    <row r="2" spans="1:256" s="8" customFormat="1">
+    <row r="2" spans="1:256" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -47439,7 +47422,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="3" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A3" s="37" t="s">
         <v>9</v>
       </c>
@@ -47470,12 +47453,12 @@
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:256" s="8" customFormat="1" ht="15">
+    <row r="4" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -47487,15 +47470,15 @@
         <v>1</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>153</v>
+        <v>203</v>
       </c>
       <c r="G4" s="36"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5">
+    <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A7" s="20" t="s">
         <v>20</v>
       </c>
@@ -47755,7 +47738,7 @@
       <c r="IU7" s="17"/>
       <c r="IV7" s="17"/>
     </row>
-    <row r="8" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="8" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A8" s="15" t="s">
         <v>0</v>
       </c>
@@ -48015,7 +47998,7 @@
       <c r="IU8" s="17"/>
       <c r="IV8" s="17"/>
     </row>
-    <row r="9" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="9" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A9" s="37" t="s">
         <v>18</v>
       </c>
@@ -48277,9 +48260,9 @@
       <c r="IU9" s="17"/>
       <c r="IV9" s="17"/>
     </row>
-    <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>22</v>
@@ -48539,7 +48522,7 @@
       <c r="IU10" s="17"/>
       <c r="IV10" s="17"/>
     </row>
-    <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="17"/>
@@ -48797,7 +48780,7 @@
       <c r="IU11" s="17"/>
       <c r="IV11" s="17"/>
     </row>
-    <row r="12" spans="1:256" s="26" customFormat="1">
+    <row r="12" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="27" t="s">
         <v>74</v>
       </c>
@@ -48811,7 +48794,7 @@
       <c r="I12" s="27"/>
       <c r="J12" s="27"/>
     </row>
-    <row r="13" spans="1:256" s="26" customFormat="1">
+    <row r="13" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="30" t="s">
         <v>94</v>
       </c>
@@ -48861,7 +48844,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:256" s="26" customFormat="1">
+    <row r="14" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44" t="s">
         <v>141</v>
       </c>
@@ -48911,7 +48894,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:256" s="26" customFormat="1">
+    <row r="15" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
         <v>139</v>
       </c>
@@ -48961,7 +48944,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:256" s="6" customFormat="1" ht="22.5">
+    <row r="17" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
@@ -49220,7 +49203,7 @@
       <c r="IT17" s="5"/>
       <c r="IU17" s="5"/>
     </row>
-    <row r="18" spans="1:256" ht="15.75" customHeight="1">
+    <row r="18" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>3</v>
       </c>
@@ -49229,7 +49212,7 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:256" ht="15">
+    <row r="19" spans="1:256" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="38" t="s">
         <v>8</v>
       </c>
@@ -49237,7 +49220,7 @@
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
     </row>
-    <row r="20" spans="1:256" ht="15">
+    <row r="20" spans="1:256" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="34" t="s">
         <v>1</v>
       </c>
@@ -49245,7 +49228,7 @@
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
     </row>
-    <row r="22" spans="1:256" s="6" customFormat="1" ht="22.5">
+    <row r="22" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>60</v>
       </c>
@@ -49504,9 +49487,9 @@
       <c r="IT22" s="5"/>
       <c r="IU22" s="5"/>
     </row>
-    <row r="23" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="23" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
@@ -49761,7 +49744,7 @@
       <c r="IU23" s="19"/>
       <c r="IV23" s="19"/>
     </row>
-    <row r="24" spans="1:256" s="26" customFormat="1">
+    <row r="24" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="27" t="s">
         <v>74</v>
       </c>
@@ -49775,7 +49758,7 @@
       <c r="I24" s="27"/>
       <c r="J24" s="27"/>
     </row>
-    <row r="25" spans="1:256" s="26" customFormat="1">
+    <row r="25" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="30" t="s">
         <v>94</v>
       </c>
@@ -49825,12 +49808,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:256" s="26" customFormat="1">
+    <row r="26" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="44" t="s">
         <v>141</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C26" s="40" t="s">
         <v>40</v>
@@ -49875,7 +49858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:256" s="26" customFormat="1">
+    <row r="27" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="44" t="s">
         <v>139</v>
       </c>
@@ -49938,14 +49921,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" style="1" customWidth="1"/>
@@ -49956,7 +49937,7 @@
     <col min="10" max="16384" width="11.28515625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="6" customFormat="1" ht="22.5">
+    <row r="1" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -50215,7 +50196,7 @@
       <c r="IT1" s="5"/>
       <c r="IU1" s="5"/>
     </row>
-    <row r="2" spans="1:256" s="8" customFormat="1">
+    <row r="2" spans="1:256" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -50227,7 +50208,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="3" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A3" s="37" t="s">
         <v>9</v>
       </c>
@@ -50258,18 +50239,18 @@
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:256" s="8" customFormat="1" ht="15">
+    <row r="4" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>1</v>
@@ -50278,14 +50259,14 @@
         <v>59</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5">
+    <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A7" s="20" t="s">
         <v>20</v>
       </c>
@@ -50545,7 +50526,7 @@
       <c r="IU7" s="17"/>
       <c r="IV7" s="17"/>
     </row>
-    <row r="8" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="8" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A8" s="15" t="s">
         <v>0</v>
       </c>
@@ -50805,7 +50786,7 @@
       <c r="IU8" s="17"/>
       <c r="IV8" s="17"/>
     </row>
-    <row r="9" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="9" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A9" s="37" t="s">
         <v>18</v>
       </c>
@@ -51067,9 +51048,9 @@
       <c r="IU9" s="17"/>
       <c r="IV9" s="17"/>
     </row>
-    <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>22</v>
@@ -51329,7 +51310,7 @@
       <c r="IU10" s="17"/>
       <c r="IV10" s="17"/>
     </row>
-    <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="17"/>
@@ -51587,7 +51568,7 @@
       <c r="IU11" s="17"/>
       <c r="IV11" s="17"/>
     </row>
-    <row r="13" spans="1:256" s="6" customFormat="1" ht="22.5">
+    <row r="13" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -51846,7 +51827,7 @@
       <c r="IT13" s="5"/>
       <c r="IU13" s="5"/>
     </row>
-    <row r="14" spans="1:256" ht="15.75" customHeight="1">
+    <row r="14" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>3</v>
       </c>
@@ -51855,7 +51836,7 @@
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:256" ht="15">
+    <row r="15" spans="1:256" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" s="38" t="s">
         <v>8</v>
       </c>
@@ -51863,7 +51844,7 @@
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
     </row>
-    <row r="16" spans="1:256" ht="15">
+    <row r="16" spans="1:256" ht="15" x14ac:dyDescent="0.35">
       <c r="A16" s="34" t="s">
         <v>1</v>
       </c>
@@ -51871,7 +51852,7 @@
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
     </row>
-    <row r="18" spans="1:255" s="6" customFormat="1" ht="22.5">
+    <row r="18" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>60</v>
       </c>

--- a/src/test/java/com/nablarch/example/app/web/action/ProjectBulkActionRequestTest.xlsx
+++ b/src/test/java/com/nablarch/example/app/web/action/ProjectBulkActionRequestTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="23565" windowHeight="5190" tabRatio="766"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="23565" windowHeight="5190" tabRatio="766" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="setUpDb" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="203">
   <si>
     <t>LIST_MAP=user</t>
     <phoneticPr fontId="2"/>
@@ -632,10 +632,6 @@
   </si>
   <si>
     <t>searchForm.sortKey</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>name</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1754,7 +1750,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1789,7 +1785,7 @@
     </row>
     <row r="3" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1797,64 +1793,64 @@
     </row>
     <row r="4" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="C4" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="D4" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="E4" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="F4" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="G4" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="H4" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="I4" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="J4" s="39" t="s">
         <v>186</v>
-      </c>
-      <c r="J4" s="39" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="C5" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="D5" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="E5" s="50" t="s">
         <v>191</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="F5" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="G5" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="H5" s="42" t="s">
         <v>194</v>
-      </c>
-      <c r="H5" s="42" t="s">
-        <v>195</v>
       </c>
       <c r="I5" s="51"/>
       <c r="J5" s="42" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.35">
@@ -1862,7 +1858,7 @@
     </row>
     <row r="7" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1870,25 +1866,25 @@
     </row>
     <row r="8" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="C8" s="39" t="s">
         <v>198</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>199</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="C9" s="31" t="s">
         <v>201</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>202</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -2352,7 +2348,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -2369,7 +2365,7 @@
       <c r="G4" s="36"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -3156,7 +3152,7 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>22</v>
@@ -3961,7 +3957,7 @@
     </row>
     <row r="18" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
@@ -4233,7 +4229,9 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV88"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleSheetLayoutView="10" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4556,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -5104,7 +5102,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -5368,7 +5366,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -5626,7 +5624,7 @@
     </row>
     <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="49" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="17"/>
@@ -7171,9 +7169,7 @@
       <c r="A35" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="31" t="s">
-        <v>124</v>
-      </c>
+      <c r="B35" s="31"/>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
@@ -8602,7 +8598,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -9150,7 +9146,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -9414,7 +9410,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -9672,7 +9668,7 @@
     </row>
     <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="49" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="17"/>
@@ -10387,7 +10383,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -10656,7 +10652,7 @@
     </row>
     <row r="24" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:255" x14ac:dyDescent="0.35">
@@ -11230,7 +11226,7 @@
         <v>86</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
@@ -16454,7 +16450,7 @@
     </row>
     <row r="65" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E65" s="19"/>
       <c r="F65" s="19"/>
@@ -16711,7 +16707,7 @@
     </row>
     <row r="66" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="67" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -20598,7 +20594,7 @@
     </row>
     <row r="83" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E83" s="19"/>
       <c r="F83" s="19"/>
@@ -20855,7 +20851,7 @@
     </row>
     <row r="84" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="85" spans="1:256" x14ac:dyDescent="0.35">
@@ -22543,7 +22539,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -22556,7 +22552,7 @@
         <v>59</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
@@ -23091,7 +23087,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -23355,7 +23351,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -23613,7 +23609,7 @@
     </row>
     <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="49" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="17"/>
@@ -24758,7 +24754,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -24775,7 +24771,7 @@
       <c r="G4" s="36"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -26517,22 +26513,22 @@
         <v>8</v>
       </c>
       <c r="B19" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="F19" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="C19" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="F19" s="30" t="s">
+      <c r="G19" s="30" t="s">
         <v>143</v>
-      </c>
-      <c r="G19" s="30" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:256" ht="15" x14ac:dyDescent="0.35">
@@ -26540,22 +26536,22 @@
         <v>1</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D20" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="E20" s="42" t="s">
-        <v>139</v>
-      </c>
       <c r="F20" s="43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G20" s="43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -26819,7 +26815,7 @@
     </row>
     <row r="23" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
@@ -27076,7 +27072,7 @@
     </row>
     <row r="24" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -27344,7 +27340,7 @@
         <v>44</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
@@ -30963,7 +30959,7 @@
     </row>
     <row r="41" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -31231,7 +31227,7 @@
         <v>44</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E43" s="19"/>
       <c r="F43" s="19"/>
@@ -35185,7 +35181,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -35200,11 +35196,11 @@
         <v>59</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -36946,22 +36942,22 @@
         <v>8</v>
       </c>
       <c r="B19" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="F19" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="C19" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="F19" s="30" t="s">
+      <c r="G19" s="30" t="s">
         <v>143</v>
-      </c>
-      <c r="G19" s="30" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:255" ht="15" x14ac:dyDescent="0.35">
@@ -36970,19 +36966,19 @@
       </c>
       <c r="B20" s="46"/>
       <c r="C20" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D20" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="E20" s="42" t="s">
-        <v>139</v>
-      </c>
       <c r="F20" s="43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G20" s="43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -37580,7 +37576,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -37597,7 +37593,7 @@
       <c r="G4" s="36"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -38384,7 +38380,7 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>22</v>
@@ -39611,7 +39607,7 @@
     </row>
     <row r="23" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
@@ -39868,7 +39864,7 @@
     </row>
     <row r="24" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -40136,7 +40132,7 @@
         <v>44</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
@@ -43755,7 +43751,7 @@
     </row>
     <row r="41" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -44541,7 +44537,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E45" s="19"/>
       <c r="F45" s="19"/>
@@ -46349,7 +46345,7 @@
         <v>86</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="19"/>
@@ -47458,7 +47454,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -47470,12 +47466,12 @@
         <v>1</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G4" s="36"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -48262,7 +48258,7 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>22</v>
@@ -48846,7 +48842,7 @@
     </row>
     <row r="14" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>39</v>
@@ -48896,7 +48892,7 @@
     </row>
     <row r="15" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B15" s="40" t="s">
         <v>101</v>
@@ -49489,7 +49485,7 @@
     </row>
     <row r="23" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
@@ -49810,10 +49806,10 @@
     </row>
     <row r="26" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C26" s="40" t="s">
         <v>40</v>
@@ -49860,10 +49856,10 @@
     </row>
     <row r="27" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C27" s="40" t="s">
         <v>40</v>
@@ -50244,13 +50240,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>1</v>
@@ -50259,11 +50255,11 @@
         <v>59</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -51050,7 +51046,7 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>22</v>

--- a/src/test/java/com/nablarch/example/app/web/action/ProjectBulkActionRequestTest.xlsx
+++ b/src/test/java/com/nablarch/example/app/web/action/ProjectBulkActionRequestTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="23565" windowHeight="5190" tabRatio="766" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="23565" windowHeight="5190" tabRatio="766" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="setUpDb" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="211">
   <si>
     <t>LIST_MAP=user</t>
     <phoneticPr fontId="2"/>
@@ -1106,6 +1106,38 @@
     <t>303</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -4229,7 +4261,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleSheetLayoutView="10" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleSheetLayoutView="10" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -24434,7 +24466,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV56"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScaleSheetLayoutView="10" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -29669,7 +29703,9 @@
       <c r="A35" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="31"/>
+      <c r="B35" s="14" t="s">
+        <v>204</v>
+      </c>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
@@ -29927,7 +29963,9 @@
       <c r="A36" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="31"/>
+      <c r="B36" s="14" t="s">
+        <v>205</v>
+      </c>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
       <c r="G36" s="19"/>
@@ -30185,7 +30223,9 @@
       <c r="A37" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="31"/>
+      <c r="B37" s="14" t="s">
+        <v>206</v>
+      </c>
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
       <c r="G37" s="19"/>
@@ -30443,7 +30483,9 @@
       <c r="A38" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="31"/>
+      <c r="B38" s="14" t="s">
+        <v>203</v>
+      </c>
       <c r="E38" s="19"/>
       <c r="F38" s="19"/>
       <c r="G38" s="19"/>
@@ -33556,7 +33598,9 @@
       <c r="A52" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="31"/>
+      <c r="B52" s="14" t="s">
+        <v>207</v>
+      </c>
       <c r="E52" s="19"/>
       <c r="F52" s="19"/>
       <c r="G52" s="19"/>
@@ -33814,7 +33858,9 @@
       <c r="A53" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="31"/>
+      <c r="B53" s="14" t="s">
+        <v>208</v>
+      </c>
       <c r="E53" s="19"/>
       <c r="F53" s="19"/>
       <c r="G53" s="19"/>
@@ -34072,7 +34118,9 @@
       <c r="A54" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="31"/>
+      <c r="B54" s="14" t="s">
+        <v>209</v>
+      </c>
       <c r="E54" s="19"/>
       <c r="F54" s="19"/>
       <c r="G54" s="19"/>
@@ -34330,7 +34378,9 @@
       <c r="A55" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="31"/>
+      <c r="B55" s="14" t="s">
+        <v>210</v>
+      </c>
       <c r="E55" s="19"/>
       <c r="F55" s="19"/>
       <c r="G55" s="19"/>

--- a/src/test/java/com/nablarch/example/app/web/action/ProjectBulkActionRequestTest.xlsx
+++ b/src/test/java/com/nablarch/example/app/web/action/ProjectBulkActionRequestTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="23565" windowHeight="5190" tabRatio="766" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="23565" windowHeight="5190" tabRatio="766" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="setUpDb" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="236">
   <si>
     <t>LIST_MAP=user</t>
     <phoneticPr fontId="2"/>
@@ -375,22 +375,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>null</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>clientName</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -420,10 +404,6 @@
   </si>
   <si>
     <t>pageNumber</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>プロジェクト００１</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -796,10 +776,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>プロジェクト９９９８</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>completeOfUpdate</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1136,6 +1112,130 @@
   </si>
   <si>
     <t>40</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>あ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>い</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20180101</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20180102</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20180201</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20180202</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>まねーじゃ１</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>まねーじゃ２</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>りーだー１</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>りーだー２</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>expectedTable</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EXPECTED_TABLE[1]=PROJECT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロジェクト８９９８</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロジェクト８９９９</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018-01-01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018-01-02</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018-02-01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018-02-28</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20180101</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20180103</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>projectid</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1812,12 +1912,12 @@
     </row>
     <row r="2" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1825,64 +1925,64 @@
     </row>
     <row r="4" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="G4" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="H4" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="I4" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="J4" s="39" t="s">
         <v>180</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>184</v>
-      </c>
-      <c r="I4" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="J4" s="39" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="G5" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="H5" s="42" t="s">
         <v>188</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>191</v>
-      </c>
-      <c r="F5" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="G5" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="H5" s="42" t="s">
-        <v>194</v>
       </c>
       <c r="I5" s="51"/>
       <c r="J5" s="42" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.35">
@@ -1890,7 +1990,7 @@
     </row>
     <row r="7" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1898,25 +1998,25 @@
     </row>
     <row r="8" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="39" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="35" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -2380,7 +2480,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -2397,7 +2497,7 @@
       <c r="G4" s="36"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -3184,7 +3284,7 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>22</v>
@@ -3989,7 +4089,7 @@
     </row>
     <row r="18" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
@@ -4259,10 +4359,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:IV88"/>
+  <dimension ref="A1:IV89"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScaleSheetLayoutView="10" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
@@ -4586,13 +4686,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>75</v>
@@ -4603,7 +4703,7 @@
       <c r="G4" s="36"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -5134,7 +5234,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -5392,13 +5492,13 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -5656,7 +5756,7 @@
     </row>
     <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="49" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="17"/>
@@ -5930,7 +6030,7 @@
     </row>
     <row r="13" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="30" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B13" s="29" t="s">
         <v>24</v>
@@ -5980,10 +6080,10 @@
     </row>
     <row r="14" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C14" s="40" t="s">
         <v>40</v>
@@ -5992,48 +6092,48 @@
         <v>41</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="F14" s="40" t="s">
-        <v>78</v>
+        <v>215</v>
       </c>
       <c r="G14" s="40" t="s">
         <v>76</v>
       </c>
       <c r="H14" s="40" t="s">
-        <v>78</v>
+        <v>218</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="J14" s="40" t="s">
         <v>22</v>
       </c>
       <c r="K14" s="40" t="s">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="L14" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="M14" s="41" t="s">
-        <v>71</v>
+        <v>1</v>
+      </c>
+      <c r="M14" s="40" t="s">
+        <v>207</v>
       </c>
       <c r="N14" s="40" t="s">
-        <v>71</v>
+        <v>205</v>
       </c>
       <c r="O14" s="40" t="s">
-        <v>71</v>
+        <v>206</v>
       </c>
       <c r="P14" s="40" t="s">
-        <v>80</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C15" s="40" t="s">
         <v>40</v>
@@ -6042,40 +6142,40 @@
         <v>41</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>71</v>
+        <v>215</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>71</v>
+        <v>232</v>
       </c>
       <c r="G15" s="40" t="s">
         <v>1</v>
       </c>
       <c r="H15" s="40" t="s">
-        <v>71</v>
+        <v>219</v>
       </c>
       <c r="I15" s="40" t="s">
-        <v>71</v>
+        <v>221</v>
       </c>
       <c r="J15" s="40" t="s">
         <v>22</v>
       </c>
       <c r="K15" s="40" t="s">
-        <v>71</v>
+        <v>213</v>
       </c>
       <c r="L15" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="M15" s="41" t="s">
-        <v>71</v>
+        <v>208</v>
+      </c>
+      <c r="M15" s="40" t="s">
+        <v>209</v>
       </c>
       <c r="N15" s="40" t="s">
-        <v>71</v>
+        <v>210</v>
       </c>
       <c r="O15" s="40" t="s">
-        <v>71</v>
+        <v>211</v>
       </c>
       <c r="P15" s="40" t="s">
-        <v>72</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -6623,12 +6723,12 @@
     </row>
     <row r="23" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:255" x14ac:dyDescent="0.35">
@@ -6647,7 +6747,7 @@
     </row>
     <row r="27" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A27" s="31" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B27" s="31"/>
     </row>
@@ -6671,19 +6771,19 @@
     </row>
     <row r="31" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A31" s="31" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B31" s="32"/>
     </row>
     <row r="32" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A32" s="31" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B32" s="31"/>
     </row>
     <row r="33" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="31" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B33" s="31"/>
       <c r="E33" s="19"/>
@@ -6941,7 +7041,7 @@
     </row>
     <row r="34" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="31" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B34" s="31"/>
       <c r="E34" s="19"/>
@@ -7199,7 +7299,7 @@
     </row>
     <row r="35" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="31" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B35" s="31"/>
       <c r="E35" s="19"/>
@@ -7457,7 +7557,7 @@
     </row>
     <row r="36" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="31" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B36" s="31"/>
       <c r="E36" s="19"/>
@@ -7715,7 +7815,7 @@
     </row>
     <row r="37" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="31" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B37" s="35" t="s">
         <v>1</v>
@@ -7975,12 +8075,12 @@
     </row>
     <row r="39" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:256" x14ac:dyDescent="0.35">
@@ -7993,10 +8093,10 @@
     </row>
     <row r="42" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A42" s="31" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B42" s="44" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:256" x14ac:dyDescent="0.35">
@@ -8004,15 +8104,15 @@
         <v>44</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A44" s="31" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:256" x14ac:dyDescent="0.35">
@@ -8020,7 +8120,7 @@
         <v>47</v>
       </c>
       <c r="B45" s="35" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:256" x14ac:dyDescent="0.35">
@@ -8028,7 +8128,7 @@
     </row>
     <row r="47" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:256" x14ac:dyDescent="0.35">
@@ -8041,10 +8141,10 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="31" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B49" s="44" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -8052,15 +8152,15 @@
         <v>44</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="31" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -8068,7 +8168,7 @@
         <v>47</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -8078,7 +8178,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -8091,206 +8191,232 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B57" s="31" t="s">
-        <v>89</v>
+        <v>235</v>
+      </c>
+      <c r="B57" s="40" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B58" s="31" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="B58" s="40" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B59" s="31" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="B59" s="40" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B60" s="35" t="s">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="B60" s="40" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B61" s="32"/>
+        <v>49</v>
+      </c>
+      <c r="B61" s="40" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="B62" s="32"/>
+        <v>47</v>
+      </c>
+      <c r="B62" s="40" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B63" s="31"/>
+        <v>48</v>
+      </c>
+      <c r="B63" s="40" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="B64" s="31"/>
+        <v>50</v>
+      </c>
+      <c r="B64" s="40" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B65" s="31"/>
+        <v>51</v>
+      </c>
+      <c r="B65" s="40" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B66" s="31"/>
+        <v>52</v>
+      </c>
+      <c r="B66" s="40" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="B67" s="31"/>
+        <v>53</v>
+      </c>
+      <c r="B67" s="40" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="B68" s="31"/>
+        <v>54</v>
+      </c>
+      <c r="B68" s="40" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B69" s="31"/>
+        <v>55</v>
+      </c>
+      <c r="B69" s="40" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B70" s="40" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B70" s="35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" s="1" t="s">
-        <v>112</v>
+      <c r="B71" s="40" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B73" s="33" t="s">
-        <v>43</v>
+      <c r="A73" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B74" s="31" t="s">
-        <v>104</v>
+      <c r="A74" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B74" s="33" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B75" s="31" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B76" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B77" s="35" t="s">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="B77" s="31" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B78" s="32"/>
+        <v>49</v>
+      </c>
+      <c r="B78" s="35" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B79" s="32"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B80" s="31"/>
+        <v>48</v>
+      </c>
+      <c r="B80" s="32"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B81" s="31"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B82" s="31"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B83" s="31"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B84" s="31"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B85" s="31"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B86" s="31"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B87" s="31"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B87" s="35" t="s">
-        <v>113</v>
+      <c r="B88" s="35" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="89" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <phoneticPr fontId="2"/>
@@ -8630,7 +8756,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -8647,7 +8773,7 @@
       <c r="G4" s="36"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -9178,7 +9304,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -9436,13 +9562,13 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -9700,7 +9826,7 @@
     </row>
     <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="49" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="17"/>
@@ -9974,7 +10100,7 @@
     </row>
     <row r="13" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="30" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B13" s="29" t="s">
         <v>24</v>
@@ -10024,10 +10150,10 @@
     </row>
     <row r="14" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C14" s="40" t="s">
         <v>40</v>
@@ -10074,10 +10200,10 @@
     </row>
     <row r="15" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C15" s="40" t="s">
         <v>40</v>
@@ -10395,13 +10521,13 @@
         <v>8</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:255" ht="15" x14ac:dyDescent="0.35">
@@ -10409,13 +10535,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C20" s="42" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -10679,12 +10805,12 @@
     </row>
     <row r="23" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:255" x14ac:dyDescent="0.35">
@@ -10703,7 +10829,7 @@
     </row>
     <row r="27" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A27" s="31" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B27" s="31"/>
     </row>
@@ -10727,19 +10853,19 @@
     </row>
     <row r="31" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A31" s="31" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B31" s="32"/>
     </row>
     <row r="32" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A32" s="31" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B32" s="31"/>
     </row>
     <row r="33" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="31" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B33" s="31"/>
       <c r="E33" s="19"/>
@@ -10997,7 +11123,7 @@
     </row>
     <row r="34" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="31" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B34" s="31"/>
       <c r="E34" s="19"/>
@@ -11255,10 +11381,10 @@
     </row>
     <row r="35" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="31" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
@@ -11515,7 +11641,7 @@
     </row>
     <row r="36" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="31" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B36" s="31"/>
       <c r="E36" s="19"/>
@@ -11773,7 +11899,7 @@
     </row>
     <row r="37" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="31" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B37" s="35" t="s">
         <v>1</v>
@@ -12033,12 +12159,12 @@
     </row>
     <row r="39" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:256" x14ac:dyDescent="0.35">
@@ -12051,10 +12177,10 @@
     </row>
     <row r="42" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A42" s="31" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B42" s="44" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:256" x14ac:dyDescent="0.35">
@@ -12343,7 +12469,7 @@
     </row>
     <row r="48" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="19"/>
@@ -16482,7 +16608,7 @@
     </row>
     <row r="65" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E65" s="19"/>
       <c r="F65" s="19"/>
@@ -16739,7 +16865,7 @@
     </row>
     <row r="66" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -20626,7 +20752,7 @@
     </row>
     <row r="83" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E83" s="19"/>
       <c r="F83" s="19"/>
@@ -20883,7 +21009,7 @@
     </row>
     <row r="84" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="85" spans="1:256" x14ac:dyDescent="0.35">
@@ -20902,7 +21028,7 @@
     </row>
     <row r="87" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A87" s="31" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B87" s="31"/>
     </row>
@@ -20911,7 +21037,7 @@
         <v>44</v>
       </c>
       <c r="B88" s="31" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="89" spans="1:256" x14ac:dyDescent="0.35">
@@ -20928,19 +21054,19 @@
     </row>
     <row r="91" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A91" s="31" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B91" s="32"/>
     </row>
     <row r="92" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A92" s="31" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B92" s="31"/>
     </row>
     <row r="93" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="31" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B93" s="31"/>
       <c r="E93" s="19"/>
@@ -21198,7 +21324,7 @@
     </row>
     <row r="94" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="31" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B94" s="31"/>
       <c r="E94" s="19"/>
@@ -21456,7 +21582,7 @@
     </row>
     <row r="95" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="31" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B95" s="31" t="s">
         <v>42</v>
@@ -21716,7 +21842,7 @@
     </row>
     <row r="96" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="31" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B96" s="31"/>
       <c r="E96" s="19"/>
@@ -21974,7 +22100,7 @@
     </row>
     <row r="97" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="31" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B97" s="35" t="s">
         <v>1</v>
@@ -22571,7 +22697,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -22584,11 +22710,11 @@
         <v>59</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -23119,7 +23245,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -23377,13 +23503,13 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -23641,7 +23767,7 @@
     </row>
     <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="49" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="17"/>
@@ -24172,13 +24298,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:256" ht="15" x14ac:dyDescent="0.35">
@@ -24186,7 +24312,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C16" s="46"/>
       <c r="D16" s="47"/>
@@ -24466,8 +24592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView showGridLines="0" topLeftCell="A17" zoomScaleSheetLayoutView="10" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
@@ -24788,7 +24914,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -24805,7 +24931,7 @@
       <c r="G4" s="36"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -25592,7 +25718,7 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>22</v>
@@ -26126,7 +26252,7 @@
     </row>
     <row r="13" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="30" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B13" s="29" t="s">
         <v>24</v>
@@ -26176,10 +26302,10 @@
     </row>
     <row r="14" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C14" s="40" t="s">
         <v>40</v>
@@ -26226,10 +26352,10 @@
     </row>
     <row r="15" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C15" s="40" t="s">
         <v>40</v>
@@ -26547,22 +26673,22 @@
         <v>8</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G19" s="30" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:256" ht="15" x14ac:dyDescent="0.35">
@@ -26570,22 +26696,22 @@
         <v>1</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F20" s="43" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G20" s="43" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -26849,7 +26975,7 @@
     </row>
     <row r="23" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
@@ -27106,7 +27232,7 @@
     </row>
     <row r="24" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -27374,7 +27500,7 @@
         <v>44</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
@@ -29704,7 +29830,7 @@
         <v>53</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
@@ -29964,7 +30090,7 @@
         <v>54</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
@@ -30224,7 +30350,7 @@
         <v>55</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
@@ -30484,7 +30610,7 @@
         <v>56</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E38" s="19"/>
       <c r="F38" s="19"/>
@@ -31001,7 +31127,7 @@
     </row>
     <row r="41" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -31269,7 +31395,7 @@
         <v>44</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E43" s="19"/>
       <c r="F43" s="19"/>
@@ -33599,7 +33725,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="19"/>
@@ -33859,7 +33985,7 @@
         <v>54</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E53" s="19"/>
       <c r="F53" s="19"/>
@@ -34119,7 +34245,7 @@
         <v>55</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E54" s="19"/>
       <c r="F54" s="19"/>
@@ -34379,7 +34505,7 @@
         <v>56</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E55" s="19"/>
       <c r="F55" s="19"/>
@@ -35231,7 +35357,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -35246,11 +35372,11 @@
         <v>59</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -36037,7 +36163,7 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>22</v>
@@ -36571,7 +36697,7 @@
     </row>
     <row r="13" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="30" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B13" s="29" t="s">
         <v>24</v>
@@ -36621,10 +36747,10 @@
     </row>
     <row r="14" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C14" s="40" t="s">
         <v>40</v>
@@ -36671,10 +36797,10 @@
     </row>
     <row r="15" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C15" s="40" t="s">
         <v>40</v>
@@ -36992,22 +37118,22 @@
         <v>8</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G19" s="30" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:255" ht="15" x14ac:dyDescent="0.35">
@@ -37016,19 +37142,19 @@
       </c>
       <c r="B20" s="46"/>
       <c r="C20" s="43" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F20" s="43" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G20" s="43" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -37626,7 +37752,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -37643,7 +37769,7 @@
       <c r="G4" s="36"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -38430,7 +38556,7 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>22</v>
@@ -38964,7 +39090,7 @@
     </row>
     <row r="13" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="30" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B13" s="29" t="s">
         <v>24</v>
@@ -39014,10 +39140,10 @@
     </row>
     <row r="14" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C14" s="40" t="s">
         <v>40</v>
@@ -39064,10 +39190,10 @@
     </row>
     <row r="15" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C15" s="40" t="s">
         <v>40</v>
@@ -39657,7 +39783,7 @@
     </row>
     <row r="23" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
@@ -39914,7 +40040,7 @@
     </row>
     <row r="24" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -40182,7 +40308,7 @@
         <v>44</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
@@ -43801,7 +43927,7 @@
     </row>
     <row r="41" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -44326,7 +44452,7 @@
     </row>
     <row r="44" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="31" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B44" s="31"/>
       <c r="E44" s="19"/>
@@ -44587,7 +44713,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E45" s="19"/>
       <c r="F45" s="19"/>
@@ -45360,7 +45486,7 @@
     </row>
     <row r="48" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="31" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B48" s="32"/>
       <c r="E48" s="19"/>
@@ -45618,7 +45744,7 @@
     </row>
     <row r="49" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="31" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B49" s="31"/>
       <c r="E49" s="19"/>
@@ -45876,7 +46002,7 @@
     </row>
     <row r="50" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="31" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B50" s="31"/>
       <c r="E50" s="19"/>
@@ -46134,7 +46260,7 @@
     </row>
     <row r="51" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="31" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B51" s="31"/>
       <c r="E51" s="19"/>
@@ -46392,10 +46518,10 @@
     </row>
     <row r="52" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="31" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="19"/>
@@ -46652,7 +46778,7 @@
     </row>
     <row r="53" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="31" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B53" s="31"/>
       <c r="E53" s="19"/>
@@ -46910,7 +47036,7 @@
     </row>
     <row r="54" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="31" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B54" s="35" t="s">
         <v>1</v>
@@ -47184,7 +47310,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleSheetLayoutView="10" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14:P15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -47485,26 +47613,29 @@
         <v>13</v>
       </c>
       <c r="F3" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="G3" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="H3" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="I3" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="J3" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="9"/>
       <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
     </row>
     <row r="4" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -47516,12 +47647,15 @@
         <v>1</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14" t="s">
-        <v>155</v>
+        <v>223</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="H4" s="36"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -48308,7 +48442,7 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>22</v>
@@ -48842,7 +48976,7 @@
     </row>
     <row r="13" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="30" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B13" s="29" t="s">
         <v>24</v>
@@ -48892,7 +49026,7 @@
     </row>
     <row r="14" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>39</v>
@@ -48904,37 +49038,37 @@
         <v>41</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>71</v>
+        <v>214</v>
       </c>
       <c r="F14" s="40" t="s">
-        <v>71</v>
+        <v>215</v>
       </c>
       <c r="G14" s="40" t="s">
         <v>1</v>
       </c>
       <c r="H14" s="40" t="s">
-        <v>71</v>
+        <v>218</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>71</v>
+        <v>220</v>
       </c>
       <c r="J14" s="40" t="s">
         <v>22</v>
       </c>
       <c r="K14" s="40" t="s">
-        <v>71</v>
+        <v>212</v>
       </c>
       <c r="L14" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="M14" s="41" t="s">
-        <v>71</v>
+        <v>1</v>
+      </c>
+      <c r="M14" s="40" t="s">
+        <v>207</v>
       </c>
       <c r="N14" s="40" t="s">
-        <v>71</v>
+        <v>205</v>
       </c>
       <c r="O14" s="40" t="s">
-        <v>71</v>
+        <v>206</v>
       </c>
       <c r="P14" s="40" t="s">
         <v>72</v>
@@ -48942,10 +49076,10 @@
     </row>
     <row r="15" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C15" s="40" t="s">
         <v>40</v>
@@ -48954,37 +49088,37 @@
         <v>41</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>71</v>
+        <v>216</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="G15" s="40" t="s">
         <v>1</v>
       </c>
       <c r="H15" s="40" t="s">
-        <v>71</v>
+        <v>219</v>
       </c>
       <c r="I15" s="40" t="s">
-        <v>71</v>
+        <v>221</v>
       </c>
       <c r="J15" s="40" t="s">
         <v>22</v>
       </c>
       <c r="K15" s="40" t="s">
-        <v>71</v>
+        <v>213</v>
       </c>
       <c r="L15" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="M15" s="41" t="s">
-        <v>71</v>
+        <v>208</v>
+      </c>
+      <c r="M15" s="40" t="s">
+        <v>209</v>
       </c>
       <c r="N15" s="40" t="s">
-        <v>71</v>
+        <v>210</v>
       </c>
       <c r="O15" s="40" t="s">
-        <v>71</v>
+        <v>211</v>
       </c>
       <c r="P15" s="40" t="s">
         <v>72</v>
@@ -49535,7 +49669,7 @@
     </row>
     <row r="23" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
@@ -49792,7 +49926,7 @@
     </row>
     <row r="24" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="27" t="s">
-        <v>74</v>
+        <v>224</v>
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
@@ -49806,7 +49940,7 @@
     </row>
     <row r="25" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="30" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B25" s="29" t="s">
         <v>24</v>
@@ -49856,10 +49990,10 @@
     </row>
     <row r="26" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="44" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>154</v>
+        <v>225</v>
       </c>
       <c r="C26" s="40" t="s">
         <v>40</v>
@@ -49868,37 +50002,37 @@
         <v>41</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>71</v>
+        <v>227</v>
       </c>
       <c r="F26" s="40" t="s">
-        <v>71</v>
+        <v>228</v>
       </c>
       <c r="G26" s="40" t="s">
         <v>1</v>
       </c>
       <c r="H26" s="40" t="s">
-        <v>71</v>
+        <v>218</v>
       </c>
       <c r="I26" s="40" t="s">
-        <v>71</v>
+        <v>220</v>
       </c>
       <c r="J26" s="40" t="s">
         <v>22</v>
       </c>
       <c r="K26" s="40" t="s">
-        <v>71</v>
+        <v>212</v>
       </c>
       <c r="L26" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="M26" s="41" t="s">
-        <v>71</v>
+        <v>1</v>
+      </c>
+      <c r="M26" s="40" t="s">
+        <v>207</v>
       </c>
       <c r="N26" s="40" t="s">
-        <v>71</v>
+        <v>205</v>
       </c>
       <c r="O26" s="40" t="s">
-        <v>71</v>
+        <v>206</v>
       </c>
       <c r="P26" s="40" t="s">
         <v>1</v>
@@ -49906,10 +50040,10 @@
     </row>
     <row r="27" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="44" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>133</v>
+        <v>226</v>
       </c>
       <c r="C27" s="40" t="s">
         <v>40</v>
@@ -49918,37 +50052,37 @@
         <v>41</v>
       </c>
       <c r="E27" s="40" t="s">
-        <v>71</v>
+        <v>229</v>
       </c>
       <c r="F27" s="40" t="s">
-        <v>71</v>
+        <v>230</v>
       </c>
       <c r="G27" s="40" t="s">
         <v>1</v>
       </c>
       <c r="H27" s="40" t="s">
-        <v>71</v>
+        <v>219</v>
       </c>
       <c r="I27" s="40" t="s">
-        <v>71</v>
+        <v>221</v>
       </c>
       <c r="J27" s="40" t="s">
         <v>22</v>
       </c>
       <c r="K27" s="40" t="s">
-        <v>71</v>
+        <v>213</v>
       </c>
       <c r="L27" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="M27" s="41" t="s">
-        <v>71</v>
+        <v>208</v>
+      </c>
+      <c r="M27" s="40" t="s">
+        <v>209</v>
       </c>
       <c r="N27" s="40" t="s">
-        <v>71</v>
+        <v>210</v>
       </c>
       <c r="O27" s="40" t="s">
-        <v>71</v>
+        <v>211</v>
       </c>
       <c r="P27" s="40" t="s">
         <v>1</v>
@@ -49970,7 +50104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -50290,13 +50424,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>1</v>
@@ -50305,11 +50439,11 @@
         <v>59</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -51096,7 +51230,7 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>22</v>

--- a/src/test/java/com/nablarch/example/app/web/action/ProjectBulkActionRequestTest.xlsx
+++ b/src/test/java/com/nablarch/example/app/web/action/ProjectBulkActionRequestTest.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="231">
   <si>
     <t>LIST_MAP=user</t>
     <phoneticPr fontId="2"/>
@@ -508,10 +508,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>プロジェクト００2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>projectType</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -525,14 +521,6 @@
   </si>
   <si>
     <t>development</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>s</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -550,10 +538,6 @@
   </si>
   <si>
     <t>LIST_MAP=projectListDto1_2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>0</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1234,10 +1218,6 @@
     <t>50</t>
     <phoneticPr fontId="2"/>
   </si>
-  <si>
-    <t>projectid</t>
-    <phoneticPr fontId="2"/>
-  </si>
 </sst>
 </file>
 
@@ -1424,7 +1404,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1509,6 +1489,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1917,7 +1898,7 @@
     </row>
     <row r="3" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1925,64 +1906,64 @@
     </row>
     <row r="4" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="F4" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="G4" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="H4" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="I4" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="J4" s="39" t="s">
         <v>176</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="I4" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="J4" s="39" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" s="50" t="s">
         <v>181</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="F5" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="G5" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="H5" s="42" t="s">
         <v>184</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>185</v>
-      </c>
-      <c r="F5" s="42" t="s">
-        <v>186</v>
-      </c>
-      <c r="G5" s="42" t="s">
-        <v>187</v>
-      </c>
-      <c r="H5" s="42" t="s">
-        <v>188</v>
       </c>
       <c r="I5" s="51"/>
       <c r="J5" s="42" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.35">
@@ -1990,7 +1971,7 @@
     </row>
     <row r="7" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1998,25 +1979,25 @@
     </row>
     <row r="8" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="39" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="35" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -2480,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -2497,7 +2478,7 @@
       <c r="G4" s="36"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -3284,7 +3265,7 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>22</v>
@@ -4089,7 +4070,7 @@
     </row>
     <row r="18" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
@@ -4359,10 +4340,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:IV89"/>
+  <dimension ref="A1:IV84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScaleSheetLayoutView="10" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
@@ -4686,13 +4667,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>75</v>
@@ -5234,7 +5215,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -5492,13 +5473,13 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -5756,7 +5737,7 @@
     </row>
     <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="49" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="17"/>
@@ -6083,7 +6064,7 @@
         <v>93</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14" s="40" t="s">
         <v>40</v>
@@ -6092,40 +6073,40 @@
         <v>41</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F14" s="40" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G14" s="40" t="s">
         <v>76</v>
       </c>
       <c r="H14" s="40" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="J14" s="40" t="s">
         <v>22</v>
       </c>
       <c r="K14" s="40" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L14" s="40" t="s">
         <v>1</v>
       </c>
       <c r="M14" s="40" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="N14" s="40" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="O14" s="40" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="P14" s="40" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
@@ -6142,40 +6123,40 @@
         <v>41</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G15" s="40" t="s">
         <v>1</v>
       </c>
       <c r="H15" s="40" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="I15" s="40" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="J15" s="40" t="s">
         <v>22</v>
       </c>
       <c r="K15" s="40" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L15" s="40" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M15" s="40" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="N15" s="40" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="O15" s="40" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="P15" s="40" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -7299,7 +7280,7 @@
     </row>
     <row r="35" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="31" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B35" s="31"/>
       <c r="E35" s="19"/>
@@ -7815,7 +7796,7 @@
     </row>
     <row r="37" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="31" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B37" s="35" t="s">
         <v>1</v>
@@ -8075,7 +8056,7 @@
     </row>
     <row r="39" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:256" x14ac:dyDescent="0.35">
@@ -8104,142 +8085,142 @@
         <v>44</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A44" s="31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:256" x14ac:dyDescent="0.35">
-      <c r="A45" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" s="35" t="s">
-        <v>104</v>
-      </c>
+      <c r="B45" s="45"/>
     </row>
     <row r="46" spans="1:256" x14ac:dyDescent="0.35">
-      <c r="B46" s="45"/>
+      <c r="A46" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="47" spans="1:256" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
-        <v>98</v>
+      <c r="A47" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="33" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:256" x14ac:dyDescent="0.35">
-      <c r="A48" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B48" s="33" t="s">
-        <v>43</v>
+      <c r="A48" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="44" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="B49" s="44" t="s">
-        <v>90</v>
+        <v>44</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="31" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="B50" s="31" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="B51" s="31" t="s">
-        <v>103</v>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B52" s="35" t="s">
-        <v>105</v>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
-        <v>73</v>
+      <c r="A54" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="33" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
-        <v>111</v>
+      <c r="A55" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" s="44" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B56" s="33" t="s">
-        <v>43</v>
+      <c r="A56" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B56" s="40" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="31" t="s">
-        <v>235</v>
+        <v>45</v>
       </c>
       <c r="B57" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B58" s="40" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="31" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B59" s="40" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="31" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B60" s="40" t="s">
-        <v>41</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="31" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B61" s="40" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="31" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B62" s="40" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="31" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B63" s="40" t="s">
         <v>1</v>
@@ -8247,176 +8228,156 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B64" s="40" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B65" s="40" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B66" s="40" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B67" s="40" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B70" s="33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B71" s="44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B72" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B73" s="31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B74" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B75" s="35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="B64" s="40" t="s">
-        <v>218</v>
+      <c r="B76" s="40" t="s">
+        <v>215</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="31" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B65" s="40" t="s">
-        <v>220</v>
+      <c r="B77" s="40" t="s">
+        <v>217</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="31" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B66" s="40" t="s">
-        <v>212</v>
+      <c r="B78" s="40" t="s">
+        <v>209</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="31" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B67" s="40" t="s">
-        <v>1</v>
+      <c r="B79" s="40" t="s">
+        <v>204</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="31" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B68" s="40" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="B69" s="40" t="s">
+      <c r="B80" s="40" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B70" s="40" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B71" s="40" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B74" s="33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B75" s="31" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B76" s="31" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B77" s="31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B78" s="35" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B79" s="32"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="B80" s="32"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B81" s="31"/>
+        <v>55</v>
+      </c>
+      <c r="B81" s="40" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="B82" s="31"/>
+        <v>56</v>
+      </c>
+      <c r="B82" s="40" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B83" s="31"/>
+        <v>57</v>
+      </c>
+      <c r="B83" s="40" t="s">
+        <v>230</v>
+      </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B84" s="31"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="B85" s="31"/>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="B86" s="31"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B87" s="31"/>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B88" s="35" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="84" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <phoneticPr fontId="2"/>
@@ -8756,7 +8717,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -9304,7 +9265,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -9568,7 +9529,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -9826,7 +9787,7 @@
     </row>
     <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="49" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="17"/>
@@ -10153,7 +10114,7 @@
         <v>93</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C14" s="40" t="s">
         <v>40</v>
@@ -10524,10 +10485,10 @@
         <v>86</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:255" ht="15" x14ac:dyDescent="0.35">
@@ -10535,13 +10496,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C20" s="42" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -10805,12 +10766,12 @@
     </row>
     <row r="23" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:255" x14ac:dyDescent="0.35">
@@ -11384,7 +11345,7 @@
         <v>82</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
@@ -12159,7 +12120,7 @@
     </row>
     <row r="39" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:256" x14ac:dyDescent="0.35">
@@ -12469,7 +12430,7 @@
     </row>
     <row r="48" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="19"/>
@@ -16608,7 +16569,7 @@
     </row>
     <row r="65" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E65" s="19"/>
       <c r="F65" s="19"/>
@@ -16865,7 +16826,7 @@
     </row>
     <row r="66" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="67" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -20752,7 +20713,7 @@
     </row>
     <row r="83" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E83" s="19"/>
       <c r="F83" s="19"/>
@@ -21009,7 +20970,7 @@
     </row>
     <row r="84" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85" spans="1:256" x14ac:dyDescent="0.35">
@@ -21037,7 +20998,7 @@
         <v>44</v>
       </c>
       <c r="B88" s="31" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="89" spans="1:256" x14ac:dyDescent="0.35">
@@ -22697,7 +22658,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -22710,7 +22671,7 @@
         <v>59</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
@@ -23245,7 +23206,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -23509,7 +23470,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -23767,7 +23728,7 @@
     </row>
     <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="49" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="17"/>
@@ -24301,10 +24262,10 @@
         <v>86</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:256" ht="15" x14ac:dyDescent="0.35">
@@ -24312,7 +24273,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C16" s="46"/>
       <c r="D16" s="47"/>
@@ -24914,7 +24875,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -24931,7 +24892,7 @@
       <c r="G4" s="36"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -26305,7 +26266,7 @@
         <v>93</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C14" s="40" t="s">
         <v>40</v>
@@ -26673,22 +26634,22 @@
         <v>8</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C19" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="D19" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="E19" s="30" t="s">
+      <c r="F19" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="30" t="s">
         <v>134</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="G19" s="30" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:256" ht="15" x14ac:dyDescent="0.35">
@@ -26696,22 +26657,22 @@
         <v>1</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C20" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="E20" s="42" t="s">
-        <v>133</v>
-      </c>
       <c r="F20" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" s="43" t="s">
         <v>128</v>
-      </c>
-      <c r="G20" s="43" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -26975,7 +26936,7 @@
     </row>
     <row r="23" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
@@ -27232,7 +27193,7 @@
     </row>
     <row r="24" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -27500,7 +27461,7 @@
         <v>44</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
@@ -29830,7 +29791,7 @@
         <v>53</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
@@ -30090,7 +30051,7 @@
         <v>54</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
@@ -30350,7 +30311,7 @@
         <v>55</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
@@ -30610,7 +30571,7 @@
         <v>56</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E38" s="19"/>
       <c r="F38" s="19"/>
@@ -31127,7 +31088,7 @@
     </row>
     <row r="41" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -31395,7 +31356,7 @@
         <v>44</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E43" s="19"/>
       <c r="F43" s="19"/>
@@ -33725,7 +33686,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="19"/>
@@ -33985,7 +33946,7 @@
         <v>54</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E53" s="19"/>
       <c r="F53" s="19"/>
@@ -34245,7 +34206,7 @@
         <v>55</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E54" s="19"/>
       <c r="F54" s="19"/>
@@ -34505,7 +34466,7 @@
         <v>56</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E55" s="19"/>
       <c r="F55" s="19"/>
@@ -35357,7 +35318,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -35372,11 +35333,11 @@
         <v>59</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -36750,7 +36711,7 @@
         <v>93</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C14" s="40" t="s">
         <v>40</v>
@@ -37118,22 +37079,22 @@
         <v>8</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C19" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="D19" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="E19" s="30" t="s">
+      <c r="F19" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="30" t="s">
         <v>134</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="G19" s="30" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:255" ht="15" x14ac:dyDescent="0.35">
@@ -37142,19 +37103,19 @@
       </c>
       <c r="B20" s="46"/>
       <c r="C20" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="E20" s="42" t="s">
-        <v>133</v>
-      </c>
       <c r="F20" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" s="43" t="s">
         <v>128</v>
-      </c>
-      <c r="G20" s="43" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -37752,7 +37713,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -37769,7 +37730,7 @@
       <c r="G4" s="36"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -38556,7 +38517,7 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>22</v>
@@ -39143,7 +39104,7 @@
         <v>93</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C14" s="40" t="s">
         <v>40</v>
@@ -39783,7 +39744,7 @@
     </row>
     <row r="23" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
@@ -40040,7 +40001,7 @@
     </row>
     <row r="24" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -40308,7 +40269,7 @@
         <v>44</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
@@ -43927,7 +43888,7 @@
     </row>
     <row r="41" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -44713,7 +44674,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E45" s="19"/>
       <c r="F45" s="19"/>
@@ -46521,7 +46482,7 @@
         <v>82</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="19"/>
@@ -47613,7 +47574,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G3" s="37" t="s">
         <v>17</v>
@@ -47635,7 +47596,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -47647,15 +47608,15 @@
         <v>1</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H4" s="36"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -48442,7 +48403,7 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>22</v>
@@ -49026,7 +48987,7 @@
     </row>
     <row r="14" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>39</v>
@@ -49038,37 +48999,37 @@
         <v>41</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F14" s="40" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G14" s="40" t="s">
         <v>1</v>
       </c>
       <c r="H14" s="40" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="J14" s="40" t="s">
         <v>22</v>
       </c>
       <c r="K14" s="40" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L14" s="40" t="s">
         <v>1</v>
       </c>
       <c r="M14" s="40" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="N14" s="40" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="O14" s="40" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="P14" s="40" t="s">
         <v>72</v>
@@ -49076,7 +49037,7 @@
     </row>
     <row r="15" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B15" s="40" t="s">
         <v>96</v>
@@ -49088,37 +49049,37 @@
         <v>41</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G15" s="40" t="s">
         <v>1</v>
       </c>
       <c r="H15" s="40" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="I15" s="40" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="J15" s="40" t="s">
         <v>22</v>
       </c>
       <c r="K15" s="40" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L15" s="40" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M15" s="40" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="N15" s="40" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="O15" s="40" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="P15" s="40" t="s">
         <v>72</v>
@@ -49669,7 +49630,7 @@
     </row>
     <row r="23" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
@@ -49926,7 +49887,7 @@
     </row>
     <row r="24" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="27" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
@@ -49990,10 +49951,10 @@
     </row>
     <row r="26" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="44" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C26" s="40" t="s">
         <v>40</v>
@@ -50002,37 +49963,37 @@
         <v>41</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F26" s="40" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G26" s="40" t="s">
         <v>1</v>
       </c>
       <c r="H26" s="40" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I26" s="40" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="J26" s="40" t="s">
         <v>22</v>
       </c>
       <c r="K26" s="40" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L26" s="40" t="s">
         <v>1</v>
       </c>
       <c r="M26" s="40" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="N26" s="40" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="O26" s="40" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="P26" s="40" t="s">
         <v>1</v>
@@ -50040,10 +50001,10 @@
     </row>
     <row r="27" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="44" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C27" s="40" t="s">
         <v>40</v>
@@ -50052,37 +50013,37 @@
         <v>41</v>
       </c>
       <c r="E27" s="40" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F27" s="40" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G27" s="40" t="s">
         <v>1</v>
       </c>
       <c r="H27" s="40" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="I27" s="40" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="J27" s="40" t="s">
         <v>22</v>
       </c>
       <c r="K27" s="40" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L27" s="40" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M27" s="40" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="N27" s="40" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="O27" s="40" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="P27" s="40" t="s">
         <v>1</v>
@@ -50424,13 +50385,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>1</v>
@@ -50439,11 +50400,11 @@
         <v>59</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -51230,7 +51191,7 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>22</v>

--- a/src/test/java/com/nablarch/example/app/web/action/ProjectBulkActionRequestTest.xlsx
+++ b/src/test/java/com/nablarch/example/app/web/action/ProjectBulkActionRequestTest.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="231">
   <si>
     <t>LIST_MAP=user</t>
     <phoneticPr fontId="2"/>
@@ -375,22 +375,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>null</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>clientName</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -420,10 +404,6 @@
   </si>
   <si>
     <t>pageNumber</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>プロジェクト００１</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -528,10 +508,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>プロジェクト００2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>projectType</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -545,14 +521,6 @@
   </si>
   <si>
     <t>development</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>s</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -570,10 +538,6 @@
   </si>
   <si>
     <t>LIST_MAP=projectListDto1_2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>0</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -793,10 +757,6 @@
   </si>
   <si>
     <t>update</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>プロジェクト９９９８</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1106,6 +1066,158 @@
     <t>303</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>あ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>い</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20180101</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20180102</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20180201</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20180202</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>まねーじゃ１</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>まねーじゃ２</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>りーだー１</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>りーだー２</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>expectedTable</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EXPECTED_TABLE[1]=PROJECT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロジェクト８９９８</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロジェクト８９９９</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018-01-01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018-01-02</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018-02-01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018-02-28</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20180101</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20180103</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -1292,7 +1404,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1377,6 +1489,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1780,12 +1893,12 @@
     </row>
     <row r="2" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1793,64 +1906,64 @@
     </row>
     <row r="4" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="39" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="H4" s="39" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="I4" s="39" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="J4" s="39" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="35" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="E5" s="50" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="H5" s="42" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="I5" s="51"/>
       <c r="J5" s="42" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.35">
@@ -1858,7 +1971,7 @@
     </row>
     <row r="7" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1866,25 +1979,25 @@
     </row>
     <row r="8" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="39" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="35" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -2348,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -2365,7 +2478,7 @@
       <c r="G4" s="36"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -3152,7 +3265,7 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>22</v>
@@ -3957,7 +4070,7 @@
     </row>
     <row r="18" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
@@ -4227,10 +4340,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:IV88"/>
+  <dimension ref="A1:IV84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScaleSheetLayoutView="10" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
@@ -4554,13 +4667,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>75</v>
@@ -4571,7 +4684,7 @@
       <c r="G4" s="36"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -5102,7 +5215,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -5360,13 +5473,13 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -5624,7 +5737,7 @@
     </row>
     <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="49" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="17"/>
@@ -5898,7 +6011,7 @@
     </row>
     <row r="13" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="30" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B13" s="29" t="s">
         <v>24</v>
@@ -5948,10 +6061,10 @@
     </row>
     <row r="14" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C14" s="40" t="s">
         <v>40</v>
@@ -5960,48 +6073,48 @@
         <v>41</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>77</v>
+        <v>227</v>
       </c>
       <c r="F14" s="40" t="s">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="G14" s="40" t="s">
         <v>76</v>
       </c>
       <c r="H14" s="40" t="s">
-        <v>78</v>
+        <v>214</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>77</v>
+        <v>216</v>
       </c>
       <c r="J14" s="40" t="s">
         <v>22</v>
       </c>
       <c r="K14" s="40" t="s">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="L14" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="M14" s="41" t="s">
-        <v>71</v>
+        <v>1</v>
+      </c>
+      <c r="M14" s="40" t="s">
+        <v>203</v>
       </c>
       <c r="N14" s="40" t="s">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="O14" s="40" t="s">
-        <v>71</v>
+        <v>202</v>
       </c>
       <c r="P14" s="40" t="s">
-        <v>80</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C15" s="40" t="s">
         <v>40</v>
@@ -6010,40 +6123,40 @@
         <v>41</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>71</v>
+        <v>211</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>71</v>
+        <v>228</v>
       </c>
       <c r="G15" s="40" t="s">
         <v>1</v>
       </c>
       <c r="H15" s="40" t="s">
-        <v>71</v>
+        <v>215</v>
       </c>
       <c r="I15" s="40" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="J15" s="40" t="s">
         <v>22</v>
       </c>
       <c r="K15" s="40" t="s">
-        <v>71</v>
+        <v>209</v>
       </c>
       <c r="L15" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="M15" s="41" t="s">
-        <v>71</v>
+        <v>204</v>
+      </c>
+      <c r="M15" s="40" t="s">
+        <v>205</v>
       </c>
       <c r="N15" s="40" t="s">
-        <v>71</v>
+        <v>206</v>
       </c>
       <c r="O15" s="40" t="s">
-        <v>71</v>
+        <v>207</v>
       </c>
       <c r="P15" s="40" t="s">
-        <v>72</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -6591,12 +6704,12 @@
     </row>
     <row r="23" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:255" x14ac:dyDescent="0.35">
@@ -6615,7 +6728,7 @@
     </row>
     <row r="27" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A27" s="31" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B27" s="31"/>
     </row>
@@ -6639,19 +6752,19 @@
     </row>
     <row r="31" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A31" s="31" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B31" s="32"/>
     </row>
     <row r="32" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A32" s="31" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B32" s="31"/>
     </row>
     <row r="33" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="31" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B33" s="31"/>
       <c r="E33" s="19"/>
@@ -6909,7 +7022,7 @@
     </row>
     <row r="34" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="31" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B34" s="31"/>
       <c r="E34" s="19"/>
@@ -7167,7 +7280,7 @@
     </row>
     <row r="35" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="31" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B35" s="31"/>
       <c r="E35" s="19"/>
@@ -7425,7 +7538,7 @@
     </row>
     <row r="36" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="31" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B36" s="31"/>
       <c r="E36" s="19"/>
@@ -7683,7 +7796,7 @@
     </row>
     <row r="37" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="31" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B37" s="35" t="s">
         <v>1</v>
@@ -7943,12 +8056,12 @@
     </row>
     <row r="39" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:256" x14ac:dyDescent="0.35">
@@ -7961,10 +8074,10 @@
     </row>
     <row r="42" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A42" s="31" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B42" s="44" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:256" x14ac:dyDescent="0.35">
@@ -7972,293 +8085,299 @@
         <v>44</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A44" s="31" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:256" x14ac:dyDescent="0.35">
-      <c r="A45" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" s="35" t="s">
-        <v>109</v>
-      </c>
+      <c r="B45" s="45"/>
     </row>
     <row r="46" spans="1:256" x14ac:dyDescent="0.35">
-      <c r="B46" s="45"/>
+      <c r="A46" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="47" spans="1:256" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
-        <v>103</v>
+      <c r="A47" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="33" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:256" x14ac:dyDescent="0.35">
-      <c r="A48" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B48" s="33" t="s">
-        <v>43</v>
+      <c r="A48" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="44" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="B49" s="44" t="s">
-        <v>95</v>
+        <v>44</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="31" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="B51" s="31" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B52" s="35" t="s">
-        <v>110</v>
+      <c r="A52" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
-        <v>73</v>
+      <c r="A54" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="33" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
-        <v>116</v>
+      <c r="A55" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" s="44" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B56" s="33" t="s">
-        <v>43</v>
+      <c r="A56" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B56" s="40" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B57" s="31" t="s">
-        <v>89</v>
+        <v>45</v>
+      </c>
+      <c r="B57" s="40" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B58" s="31" t="s">
-        <v>40</v>
+        <v>46</v>
+      </c>
+      <c r="B58" s="40" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B59" s="31" t="s">
-        <v>41</v>
+        <v>49</v>
+      </c>
+      <c r="B59" s="40" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B60" s="35" t="s">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="B60" s="40" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B61" s="32"/>
+        <v>51</v>
+      </c>
+      <c r="B61" s="40" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="B62" s="32"/>
+        <v>52</v>
+      </c>
+      <c r="B62" s="40" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B63" s="31"/>
+        <v>53</v>
+      </c>
+      <c r="B63" s="40" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B64" s="40" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B65" s="40" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B66" s="40" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B67" s="40" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B70" s="33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B71" s="44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B72" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B73" s="31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B74" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B75" s="35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B76" s="40" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B64" s="31"/>
+      <c r="B77" s="40" t="s">
+        <v>217</v>
+      </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="31" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B65" s="31"/>
+      <c r="B78" s="40" t="s">
+        <v>209</v>
+      </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="31" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B66" s="31"/>
+      <c r="B79" s="40" t="s">
+        <v>204</v>
+      </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="31" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B67" s="31"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="B68" s="31"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B69" s="31"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B70" s="35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B73" s="33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B74" s="31" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B75" s="31" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B76" s="31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B77" s="35" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B78" s="32"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="B79" s="32"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B80" s="31"/>
+      <c r="B80" s="40" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="B81" s="31"/>
+        <v>55</v>
+      </c>
+      <c r="B81" s="40" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B82" s="31"/>
+        <v>56</v>
+      </c>
+      <c r="B82" s="40" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B83" s="31"/>
+        <v>57</v>
+      </c>
+      <c r="B83" s="40" t="s">
+        <v>230</v>
+      </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="B84" s="31"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="B85" s="31"/>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B86" s="31"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B87" s="35" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="84" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <phoneticPr fontId="2"/>
@@ -8598,7 +8717,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -8615,7 +8734,7 @@
       <c r="G4" s="36"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -9146,7 +9265,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -9404,13 +9523,13 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -9668,7 +9787,7 @@
     </row>
     <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="49" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="17"/>
@@ -9942,7 +10061,7 @@
     </row>
     <row r="13" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="30" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B13" s="29" t="s">
         <v>24</v>
@@ -9992,10 +10111,10 @@
     </row>
     <row r="14" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C14" s="40" t="s">
         <v>40</v>
@@ -10042,10 +10161,10 @@
     </row>
     <row r="15" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C15" s="40" t="s">
         <v>40</v>
@@ -10363,13 +10482,13 @@
         <v>8</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:255" ht="15" x14ac:dyDescent="0.35">
@@ -10377,13 +10496,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C20" s="42" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -10647,12 +10766,12 @@
     </row>
     <row r="23" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:255" x14ac:dyDescent="0.35">
@@ -10671,7 +10790,7 @@
     </row>
     <row r="27" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A27" s="31" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B27" s="31"/>
     </row>
@@ -10695,19 +10814,19 @@
     </row>
     <row r="31" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A31" s="31" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B31" s="32"/>
     </row>
     <row r="32" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A32" s="31" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B32" s="31"/>
     </row>
     <row r="33" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="31" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B33" s="31"/>
       <c r="E33" s="19"/>
@@ -10965,7 +11084,7 @@
     </row>
     <row r="34" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="31" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B34" s="31"/>
       <c r="E34" s="19"/>
@@ -11223,10 +11342,10 @@
     </row>
     <row r="35" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="31" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
@@ -11483,7 +11602,7 @@
     </row>
     <row r="36" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="31" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B36" s="31"/>
       <c r="E36" s="19"/>
@@ -11741,7 +11860,7 @@
     </row>
     <row r="37" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="31" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B37" s="35" t="s">
         <v>1</v>
@@ -12001,12 +12120,12 @@
     </row>
     <row r="39" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:256" x14ac:dyDescent="0.35">
@@ -12019,10 +12138,10 @@
     </row>
     <row r="42" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A42" s="31" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B42" s="44" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:256" x14ac:dyDescent="0.35">
@@ -12311,7 +12430,7 @@
     </row>
     <row r="48" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="19"/>
@@ -16450,7 +16569,7 @@
     </row>
     <row r="65" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E65" s="19"/>
       <c r="F65" s="19"/>
@@ -16707,7 +16826,7 @@
     </row>
     <row r="66" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="67" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -20594,7 +20713,7 @@
     </row>
     <row r="83" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E83" s="19"/>
       <c r="F83" s="19"/>
@@ -20851,7 +20970,7 @@
     </row>
     <row r="84" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85" spans="1:256" x14ac:dyDescent="0.35">
@@ -20870,7 +20989,7 @@
     </row>
     <row r="87" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A87" s="31" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B87" s="31"/>
     </row>
@@ -20879,7 +20998,7 @@
         <v>44</v>
       </c>
       <c r="B88" s="31" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="89" spans="1:256" x14ac:dyDescent="0.35">
@@ -20896,19 +21015,19 @@
     </row>
     <row r="91" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A91" s="31" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B91" s="32"/>
     </row>
     <row r="92" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A92" s="31" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B92" s="31"/>
     </row>
     <row r="93" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="31" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B93" s="31"/>
       <c r="E93" s="19"/>
@@ -21166,7 +21285,7 @@
     </row>
     <row r="94" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="31" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B94" s="31"/>
       <c r="E94" s="19"/>
@@ -21424,7 +21543,7 @@
     </row>
     <row r="95" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="31" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B95" s="31" t="s">
         <v>42</v>
@@ -21684,7 +21803,7 @@
     </row>
     <row r="96" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="31" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B96" s="31"/>
       <c r="E96" s="19"/>
@@ -21942,7 +22061,7 @@
     </row>
     <row r="97" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="31" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B97" s="35" t="s">
         <v>1</v>
@@ -22539,7 +22658,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -22552,11 +22671,11 @@
         <v>59</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -23087,7 +23206,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -23345,13 +23464,13 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -23609,7 +23728,7 @@
     </row>
     <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="49" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="17"/>
@@ -24140,13 +24259,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:256" ht="15" x14ac:dyDescent="0.35">
@@ -24154,7 +24273,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C16" s="46"/>
       <c r="D16" s="47"/>
@@ -24434,7 +24553,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV56"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A17" zoomScaleSheetLayoutView="10" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -24754,7 +24875,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -24771,7 +24892,7 @@
       <c r="G4" s="36"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -25558,7 +25679,7 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>22</v>
@@ -26092,7 +26213,7 @@
     </row>
     <row r="13" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="30" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B13" s="29" t="s">
         <v>24</v>
@@ -26142,10 +26263,10 @@
     </row>
     <row r="14" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C14" s="40" t="s">
         <v>40</v>
@@ -26192,10 +26313,10 @@
     </row>
     <row r="15" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C15" s="40" t="s">
         <v>40</v>
@@ -26513,22 +26634,22 @@
         <v>8</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G19" s="30" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:256" ht="15" x14ac:dyDescent="0.35">
@@ -26536,22 +26657,22 @@
         <v>1</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F20" s="43" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="G20" s="43" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -26815,7 +26936,7 @@
     </row>
     <row r="23" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
@@ -27072,7 +27193,7 @@
     </row>
     <row r="24" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -27340,7 +27461,7 @@
         <v>44</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
@@ -29669,7 +29790,9 @@
       <c r="A35" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="31"/>
+      <c r="B35" s="14" t="s">
+        <v>194</v>
+      </c>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
@@ -29927,7 +30050,9 @@
       <c r="A36" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="31"/>
+      <c r="B36" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
       <c r="G36" s="19"/>
@@ -30185,7 +30310,9 @@
       <c r="A37" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="31"/>
+      <c r="B37" s="14" t="s">
+        <v>196</v>
+      </c>
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
       <c r="G37" s="19"/>
@@ -30443,7 +30570,9 @@
       <c r="A38" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="31"/>
+      <c r="B38" s="14" t="s">
+        <v>193</v>
+      </c>
       <c r="E38" s="19"/>
       <c r="F38" s="19"/>
       <c r="G38" s="19"/>
@@ -30959,7 +31088,7 @@
     </row>
     <row r="41" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -31227,7 +31356,7 @@
         <v>44</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E43" s="19"/>
       <c r="F43" s="19"/>
@@ -33556,7 +33685,9 @@
       <c r="A52" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="31"/>
+      <c r="B52" s="14" t="s">
+        <v>197</v>
+      </c>
       <c r="E52" s="19"/>
       <c r="F52" s="19"/>
       <c r="G52" s="19"/>
@@ -33814,7 +33945,9 @@
       <c r="A53" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="31"/>
+      <c r="B53" s="14" t="s">
+        <v>198</v>
+      </c>
       <c r="E53" s="19"/>
       <c r="F53" s="19"/>
       <c r="G53" s="19"/>
@@ -34072,7 +34205,9 @@
       <c r="A54" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="31"/>
+      <c r="B54" s="14" t="s">
+        <v>199</v>
+      </c>
       <c r="E54" s="19"/>
       <c r="F54" s="19"/>
       <c r="G54" s="19"/>
@@ -34330,7 +34465,9 @@
       <c r="A55" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="31"/>
+      <c r="B55" s="14" t="s">
+        <v>200</v>
+      </c>
       <c r="E55" s="19"/>
       <c r="F55" s="19"/>
       <c r="G55" s="19"/>
@@ -35181,7 +35318,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -35196,11 +35333,11 @@
         <v>59</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -35987,7 +36124,7 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>22</v>
@@ -36521,7 +36658,7 @@
     </row>
     <row r="13" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="30" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B13" s="29" t="s">
         <v>24</v>
@@ -36571,10 +36708,10 @@
     </row>
     <row r="14" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C14" s="40" t="s">
         <v>40</v>
@@ -36621,10 +36758,10 @@
     </row>
     <row r="15" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C15" s="40" t="s">
         <v>40</v>
@@ -36942,22 +37079,22 @@
         <v>8</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G19" s="30" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:255" ht="15" x14ac:dyDescent="0.35">
@@ -36966,19 +37103,19 @@
       </c>
       <c r="B20" s="46"/>
       <c r="C20" s="43" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F20" s="43" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="G20" s="43" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -37576,7 +37713,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -37593,7 +37730,7 @@
       <c r="G4" s="36"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -38380,7 +38517,7 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>22</v>
@@ -38914,7 +39051,7 @@
     </row>
     <row r="13" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="30" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B13" s="29" t="s">
         <v>24</v>
@@ -38964,10 +39101,10 @@
     </row>
     <row r="14" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C14" s="40" t="s">
         <v>40</v>
@@ -39014,10 +39151,10 @@
     </row>
     <row r="15" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C15" s="40" t="s">
         <v>40</v>
@@ -39607,7 +39744,7 @@
     </row>
     <row r="23" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
@@ -39864,7 +40001,7 @@
     </row>
     <row r="24" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -40132,7 +40269,7 @@
         <v>44</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
@@ -43751,7 +43888,7 @@
     </row>
     <row r="41" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -44276,7 +44413,7 @@
     </row>
     <row r="44" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="31" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B44" s="31"/>
       <c r="E44" s="19"/>
@@ -44537,7 +44674,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E45" s="19"/>
       <c r="F45" s="19"/>
@@ -45310,7 +45447,7 @@
     </row>
     <row r="48" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="31" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B48" s="32"/>
       <c r="E48" s="19"/>
@@ -45568,7 +45705,7 @@
     </row>
     <row r="49" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="31" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B49" s="31"/>
       <c r="E49" s="19"/>
@@ -45826,7 +45963,7 @@
     </row>
     <row r="50" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="31" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B50" s="31"/>
       <c r="E50" s="19"/>
@@ -46084,7 +46221,7 @@
     </row>
     <row r="51" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="31" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B51" s="31"/>
       <c r="E51" s="19"/>
@@ -46342,10 +46479,10 @@
     </row>
     <row r="52" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="31" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="19"/>
@@ -46602,7 +46739,7 @@
     </row>
     <row r="53" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="31" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B53" s="31"/>
       <c r="E53" s="19"/>
@@ -46860,7 +46997,7 @@
     </row>
     <row r="54" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="31" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B54" s="35" t="s">
         <v>1</v>
@@ -47134,7 +47271,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleSheetLayoutView="10" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14:P15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -47435,26 +47574,29 @@
         <v>13</v>
       </c>
       <c r="F3" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="G3" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="H3" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="I3" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="J3" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="9"/>
       <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
     </row>
     <row r="4" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -47466,12 +47608,15 @@
         <v>1</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14" t="s">
-        <v>155</v>
+        <v>219</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="H4" s="36"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -48258,7 +48403,7 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>22</v>
@@ -48792,7 +48937,7 @@
     </row>
     <row r="13" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="30" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B13" s="29" t="s">
         <v>24</v>
@@ -48842,7 +48987,7 @@
     </row>
     <row r="14" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>39</v>
@@ -48854,37 +48999,37 @@
         <v>41</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>71</v>
+        <v>210</v>
       </c>
       <c r="F14" s="40" t="s">
-        <v>71</v>
+        <v>211</v>
       </c>
       <c r="G14" s="40" t="s">
         <v>1</v>
       </c>
       <c r="H14" s="40" t="s">
-        <v>71</v>
+        <v>214</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>71</v>
+        <v>216</v>
       </c>
       <c r="J14" s="40" t="s">
         <v>22</v>
       </c>
       <c r="K14" s="40" t="s">
-        <v>71</v>
+        <v>208</v>
       </c>
       <c r="L14" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="M14" s="41" t="s">
-        <v>71</v>
+        <v>1</v>
+      </c>
+      <c r="M14" s="40" t="s">
+        <v>203</v>
       </c>
       <c r="N14" s="40" t="s">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="O14" s="40" t="s">
-        <v>71</v>
+        <v>202</v>
       </c>
       <c r="P14" s="40" t="s">
         <v>72</v>
@@ -48892,10 +49037,10 @@
     </row>
     <row r="15" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C15" s="40" t="s">
         <v>40</v>
@@ -48904,37 +49049,37 @@
         <v>41</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>71</v>
+        <v>212</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>71</v>
+        <v>213</v>
       </c>
       <c r="G15" s="40" t="s">
         <v>1</v>
       </c>
       <c r="H15" s="40" t="s">
-        <v>71</v>
+        <v>215</v>
       </c>
       <c r="I15" s="40" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="J15" s="40" t="s">
         <v>22</v>
       </c>
       <c r="K15" s="40" t="s">
-        <v>71</v>
+        <v>209</v>
       </c>
       <c r="L15" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="M15" s="41" t="s">
-        <v>71</v>
+        <v>204</v>
+      </c>
+      <c r="M15" s="40" t="s">
+        <v>205</v>
       </c>
       <c r="N15" s="40" t="s">
-        <v>71</v>
+        <v>206</v>
       </c>
       <c r="O15" s="40" t="s">
-        <v>71</v>
+        <v>207</v>
       </c>
       <c r="P15" s="40" t="s">
         <v>72</v>
@@ -49485,7 +49630,7 @@
     </row>
     <row r="23" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
@@ -49742,7 +49887,7 @@
     </row>
     <row r="24" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="27" t="s">
-        <v>74</v>
+        <v>220</v>
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
@@ -49756,7 +49901,7 @@
     </row>
     <row r="25" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="30" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B25" s="29" t="s">
         <v>24</v>
@@ -49806,10 +49951,10 @@
     </row>
     <row r="26" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="44" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>154</v>
+        <v>221</v>
       </c>
       <c r="C26" s="40" t="s">
         <v>40</v>
@@ -49818,37 +49963,37 @@
         <v>41</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>71</v>
+        <v>223</v>
       </c>
       <c r="F26" s="40" t="s">
-        <v>71</v>
+        <v>224</v>
       </c>
       <c r="G26" s="40" t="s">
         <v>1</v>
       </c>
       <c r="H26" s="40" t="s">
-        <v>71</v>
+        <v>214</v>
       </c>
       <c r="I26" s="40" t="s">
-        <v>71</v>
+        <v>216</v>
       </c>
       <c r="J26" s="40" t="s">
         <v>22</v>
       </c>
       <c r="K26" s="40" t="s">
-        <v>71</v>
+        <v>208</v>
       </c>
       <c r="L26" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="M26" s="41" t="s">
-        <v>71</v>
+        <v>1</v>
+      </c>
+      <c r="M26" s="40" t="s">
+        <v>203</v>
       </c>
       <c r="N26" s="40" t="s">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="O26" s="40" t="s">
-        <v>71</v>
+        <v>202</v>
       </c>
       <c r="P26" s="40" t="s">
         <v>1</v>
@@ -49856,10 +50001,10 @@
     </row>
     <row r="27" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="44" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>133</v>
+        <v>222</v>
       </c>
       <c r="C27" s="40" t="s">
         <v>40</v>
@@ -49868,37 +50013,37 @@
         <v>41</v>
       </c>
       <c r="E27" s="40" t="s">
-        <v>71</v>
+        <v>225</v>
       </c>
       <c r="F27" s="40" t="s">
-        <v>71</v>
+        <v>226</v>
       </c>
       <c r="G27" s="40" t="s">
         <v>1</v>
       </c>
       <c r="H27" s="40" t="s">
-        <v>71</v>
+        <v>215</v>
       </c>
       <c r="I27" s="40" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="J27" s="40" t="s">
         <v>22</v>
       </c>
       <c r="K27" s="40" t="s">
-        <v>71</v>
+        <v>209</v>
       </c>
       <c r="L27" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="M27" s="41" t="s">
-        <v>71</v>
+        <v>204</v>
+      </c>
+      <c r="M27" s="40" t="s">
+        <v>205</v>
       </c>
       <c r="N27" s="40" t="s">
-        <v>71</v>
+        <v>206</v>
       </c>
       <c r="O27" s="40" t="s">
-        <v>71</v>
+        <v>207</v>
       </c>
       <c r="P27" s="40" t="s">
         <v>1</v>
@@ -49920,7 +50065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -50240,13 +50385,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>1</v>
@@ -50255,11 +50400,11 @@
         <v>59</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -51046,7 +51191,7 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>22</v>

--- a/src/test/java/com/nablarch/example/app/web/action/ProjectBulkActionRequestTest.xlsx
+++ b/src/test/java/com/nablarch/example/app/web/action/ProjectBulkActionRequestTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="23565" windowHeight="5190" tabRatio="766" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="23565" windowHeight="5190" tabRatio="766" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="setUpDb" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="244">
   <si>
     <t>LIST_MAP=user</t>
     <phoneticPr fontId="2"/>
@@ -1203,10 +1203,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>20180101</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>20180103</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1216,6 +1212,62 @@
   </si>
   <si>
     <t>50</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018-01-01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018-01-02</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018-01-01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018-01-02</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018-01-03</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>projectStartDate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>projectEndDate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bulkForm.projectList[0].projectStartDate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bulkForm.projectList[0].projectEndDate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bulkForm.projectList[1].projectStartDate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bulkForm.projectList[1].projectEndDate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018/01/01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018/01/03</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018/01/02</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1404,7 +1456,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1490,6 +1542,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2141,7 +2194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4340,11 +4393,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:IV84"/>
+  <dimension ref="A1:IV88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD51"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -6073,7 +6124,7 @@
         <v>41</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="F14" s="40" t="s">
         <v>211</v>
@@ -6106,7 +6157,7 @@
         <v>202</v>
       </c>
       <c r="P14" s="40" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
@@ -6126,7 +6177,7 @@
         <v>211</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G15" s="40" t="s">
         <v>1</v>
@@ -6156,7 +6207,7 @@
         <v>207</v>
       </c>
       <c r="P15" s="40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -8196,188 +8247,220 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B60" s="40" t="s">
-        <v>214</v>
+        <v>47</v>
+      </c>
+      <c r="B60" s="53" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="B61" s="40" t="s">
-        <v>216</v>
+        <v>48</v>
+      </c>
+      <c r="B61" s="53" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B62" s="40" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B63" s="40" t="s">
-        <v>1</v>
+        <v>216</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B64" s="40" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B65" s="40" t="s">
-        <v>201</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B66" s="40" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B67" s="40" t="s">
-        <v>229</v>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B68" s="40" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B70" s="33" t="s">
-        <v>43</v>
+      <c r="A69" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B69" s="40" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="B71" s="44" t="s">
-        <v>90</v>
+      <c r="A71" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B72" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B72" s="33" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B73" s="31" t="s">
-        <v>40</v>
+        <v>91</v>
+      </c>
+      <c r="B73" s="44" t="s">
+        <v>90</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>41</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B75" s="35" t="s">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="B75" s="31" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B76" s="40" t="s">
-        <v>215</v>
+        <v>46</v>
+      </c>
+      <c r="B76" s="31" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="B77" s="40" t="s">
-        <v>217</v>
+        <v>49</v>
+      </c>
+      <c r="B77" s="35" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B78" s="40" t="s">
-        <v>209</v>
+        <v>47</v>
+      </c>
+      <c r="B78" s="53" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B79" s="40" t="s">
-        <v>204</v>
+        <v>48</v>
+      </c>
+      <c r="B79" s="53" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="31" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B80" s="40" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="31" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B81" s="40" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="31" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B82" s="40" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B83" s="40" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B84" s="40" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B85" s="40" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B86" s="40" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B83" s="40" t="s">
-        <v>230</v>
+      <c r="B87" s="40" t="s">
+        <v>229</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="88" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <phoneticPr fontId="2"/>
@@ -10123,10 +10206,10 @@
         <v>41</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>71</v>
+        <v>210</v>
       </c>
       <c r="F14" s="40" t="s">
-        <v>71</v>
+        <v>211</v>
       </c>
       <c r="G14" s="40" t="s">
         <v>1</v>
@@ -10173,10 +10256,10 @@
         <v>41</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>71</v>
+        <v>211</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>71</v>
+        <v>227</v>
       </c>
       <c r="G15" s="40" t="s">
         <v>1</v>
@@ -13989,7 +14072,9 @@
       <c r="A54" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B54" s="32"/>
+      <c r="B54" s="53" t="s">
+        <v>232</v>
+      </c>
       <c r="E54" s="19"/>
       <c r="F54" s="19"/>
       <c r="G54" s="19"/>
@@ -14247,7 +14332,9 @@
       <c r="A55" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B55" s="32"/>
+      <c r="B55" s="53" t="s">
+        <v>233</v>
+      </c>
       <c r="E55" s="19"/>
       <c r="F55" s="19"/>
       <c r="G55" s="19"/>
@@ -18133,7 +18220,9 @@
       <c r="A72" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B72" s="32"/>
+      <c r="B72" s="53" t="s">
+        <v>232</v>
+      </c>
       <c r="E72" s="19"/>
       <c r="F72" s="19"/>
       <c r="G72" s="19"/>
@@ -18391,7 +18480,9 @@
       <c r="A73" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B73" s="32"/>
+      <c r="B73" s="53" t="s">
+        <v>233</v>
+      </c>
       <c r="E73" s="19"/>
       <c r="F73" s="19"/>
       <c r="G73" s="19"/>
@@ -24553,9 +24644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV56"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A17" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -26643,13 +26732,25 @@
         <v>127</v>
       </c>
       <c r="E19" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="G19" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="H19" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="G19" s="30" t="s">
+      <c r="I19" s="30" t="s">
         <v>134</v>
+      </c>
+      <c r="J19" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="K19" s="30" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:256" ht="15" x14ac:dyDescent="0.35">
@@ -26660,19 +26761,31 @@
         <v>131</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D20" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="E20" s="42" t="s">
+      <c r="E20" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="G20" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="43" t="s">
+      <c r="H20" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="G20" s="43" t="s">
+      <c r="I20" s="43" t="s">
         <v>128</v>
+      </c>
+      <c r="J20" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="K20" s="36" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -28498,9 +28611,11 @@
     </row>
     <row r="30" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="32"/>
+        <v>235</v>
+      </c>
+      <c r="B30" s="53" t="s">
+        <v>232</v>
+      </c>
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
@@ -28756,9 +28871,11 @@
     </row>
     <row r="31" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="32"/>
+        <v>236</v>
+      </c>
+      <c r="B31" s="53" t="s">
+        <v>234</v>
+      </c>
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
@@ -32395,7 +32512,9 @@
       <c r="A47" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="32"/>
+      <c r="B47" s="53" t="s">
+        <v>233</v>
+      </c>
       <c r="E47" s="19"/>
       <c r="F47" s="19"/>
       <c r="G47" s="19"/>
@@ -32653,7 +32772,9 @@
       <c r="A48" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="32"/>
+      <c r="B48" s="53" t="s">
+        <v>234</v>
+      </c>
       <c r="E48" s="19"/>
       <c r="F48" s="19"/>
       <c r="G48" s="19"/>
@@ -41308,7 +41429,9 @@
       <c r="A30" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="32"/>
+      <c r="B30" s="53" t="s">
+        <v>230</v>
+      </c>
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
@@ -41566,7 +41689,9 @@
       <c r="A31" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="32"/>
+      <c r="B31" s="53" t="s">
+        <v>231</v>
+      </c>
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
@@ -47271,9 +47396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14:P15"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -50065,7 +50188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>

--- a/src/test/java/com/nablarch/example/app/web/action/ProjectBulkActionRequestTest.xlsx
+++ b/src/test/java/com/nablarch/example/app/web/action/ProjectBulkActionRequestTest.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9040ED72-6964-4112-8B7D-4AA7D9BDE349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="23565" windowHeight="5190" tabRatio="766" activeTab="9"/>
+    <workbookView xWindow="1035" yWindow="-120" windowWidth="27885" windowHeight="16440" tabRatio="766" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="setUpDb" sheetId="1" r:id="rId1"/>
@@ -26,12 +27,23 @@
     <definedName name="Excel_BuiltIn_Sheet_Title_2">"testIndex"</definedName>
     <definedName name="Excel_BuiltIn_Sheet_Title_3">"setUpDb"</definedName>
   </definedNames>
-  <calcPr calcId="92512"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="245">
   <si>
     <t>LIST_MAP=user</t>
     <phoneticPr fontId="2"/>
@@ -1270,11 +1282,15 @@
     <t>2018/01/02</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>ADMIN_FLAG</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
@@ -1546,7 +1562,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準_testMenus00102Normal" xfId="1"/>
+    <cellStyle name="標準_testMenus00102Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1622,12 +1638,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1669,7 +1688,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1702,9 +1721,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1737,6 +1773,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1912,11 +1965,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1968,24 +2021,27 @@
         <v>169</v>
       </c>
       <c r="D4" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="E4" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="F4" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="G4" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="H4" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="I4" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="J4" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="K4" s="39" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2000,22 +2056,25 @@
         <v>179</v>
       </c>
       <c r="D5" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="F5" s="50" t="s">
         <v>181</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="G5" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="H5" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="I5" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="I5" s="51"/>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="51"/>
+      <c r="K5" s="42" t="s">
         <v>182</v>
       </c>
     </row>
@@ -2191,10 +2250,10 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4391,7 +4450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV88"/>
   <sheetViews>
@@ -8474,7 +8533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IV97"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
@@ -22423,7 +22482,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:IV18"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
@@ -24641,7 +24700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:IV56"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
@@ -35115,7 +35174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:IV22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
@@ -37511,7 +37570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:IV54"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
@@ -47393,7 +47452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:IV27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
@@ -50185,7 +50244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:IV18"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>

--- a/src/test/java/com/nablarch/example/app/web/action/ProjectBulkActionRequestTest.xlsx
+++ b/src/test/java/com/nablarch/example/app/web/action/ProjectBulkActionRequestTest.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4DC07D-AFBE-4F06-83D3-0423A02E15F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA07C3A-C541-4DEC-BF10-75E5B25ECBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="766" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="766" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="setUpDb" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="244">
   <si>
     <t>LIST_MAP=user</t>
     <phoneticPr fontId="2"/>
@@ -608,10 +608,6 @@
   </si>
   <si>
     <t>searchForm.sortKey</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>name</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2021,7 +2017,7 @@
     </row>
     <row r="3" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2029,70 +2025,70 @@
     </row>
     <row r="4" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="C4" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="D4" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="E4" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="D4" s="39" t="s">
-        <v>241</v>
-      </c>
-      <c r="E4" s="39" t="s">
+      <c r="F4" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="G4" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="H4" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="I4" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="J4" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="K4" s="39" t="s">
         <v>172</v>
-      </c>
-      <c r="K4" s="39" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="C5" s="31" t="s">
         <v>175</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>176</v>
       </c>
       <c r="D5" s="35" t="s">
         <v>72</v>
       </c>
       <c r="E5" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="F5" s="49" t="s">
         <v>177</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="G5" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="H5" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="I5" s="42" t="s">
         <v>180</v>
-      </c>
-      <c r="I5" s="42" t="s">
-        <v>181</v>
       </c>
       <c r="J5" s="50"/>
       <c r="K5" s="42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.35">
@@ -2100,7 +2096,7 @@
     </row>
     <row r="7" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2108,25 +2104,25 @@
     </row>
     <row r="8" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="C8" s="39" t="s">
         <v>184</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>185</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="C9" s="31" t="s">
         <v>187</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>188</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -2590,7 +2586,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -2607,7 +2603,7 @@
       <c r="G4" s="36"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -3394,7 +3390,7 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>22</v>
@@ -4199,7 +4195,7 @@
     </row>
     <row r="18" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
@@ -4794,7 +4790,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -5342,7 +5338,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -5606,7 +5602,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -6198,40 +6194,40 @@
         <v>41</v>
       </c>
       <c r="E14" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="F14" s="40" t="s">
         <v>207</v>
-      </c>
-      <c r="F14" s="40" t="s">
-        <v>208</v>
       </c>
       <c r="G14" s="40" t="s">
         <v>76</v>
       </c>
       <c r="H14" s="40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J14" s="40" t="s">
         <v>22</v>
       </c>
       <c r="K14" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L14" s="40" t="s">
         <v>1</v>
       </c>
       <c r="M14" s="40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N14" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="O14" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="O14" s="40" t="s">
-        <v>199</v>
-      </c>
       <c r="P14" s="40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
@@ -6248,40 +6244,40 @@
         <v>41</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G15" s="40" t="s">
         <v>1</v>
       </c>
       <c r="H15" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I15" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J15" s="40" t="s">
         <v>22</v>
       </c>
       <c r="K15" s="40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L15" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="M15" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="M15" s="40" t="s">
+      <c r="N15" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="N15" s="40" t="s">
+      <c r="O15" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="O15" s="40" t="s">
-        <v>204</v>
-      </c>
       <c r="P15" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -8324,7 +8320,7 @@
         <v>47</v>
       </c>
       <c r="B60" s="52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -8332,7 +8328,7 @@
         <v>48</v>
       </c>
       <c r="B61" s="52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -8340,7 +8336,7 @@
         <v>50</v>
       </c>
       <c r="B62" s="40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -8348,7 +8344,7 @@
         <v>51</v>
       </c>
       <c r="B63" s="40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -8356,7 +8352,7 @@
         <v>52</v>
       </c>
       <c r="B64" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
@@ -8372,7 +8368,7 @@
         <v>54</v>
       </c>
       <c r="B66" s="40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
@@ -8380,7 +8376,7 @@
         <v>55</v>
       </c>
       <c r="B67" s="40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
@@ -8388,7 +8384,7 @@
         <v>56</v>
       </c>
       <c r="B68" s="40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
@@ -8396,7 +8392,7 @@
         <v>57</v>
       </c>
       <c r="B69" s="40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
@@ -8459,7 +8455,7 @@
         <v>47</v>
       </c>
       <c r="B78" s="52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
@@ -8467,7 +8463,7 @@
         <v>48</v>
       </c>
       <c r="B79" s="52" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
@@ -8475,7 +8471,7 @@
         <v>50</v>
       </c>
       <c r="B80" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -8483,7 +8479,7 @@
         <v>51</v>
       </c>
       <c r="B81" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -8491,7 +8487,7 @@
         <v>52</v>
       </c>
       <c r="B82" s="40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -8499,7 +8495,7 @@
         <v>53</v>
       </c>
       <c r="B83" s="40" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -8507,7 +8503,7 @@
         <v>54</v>
       </c>
       <c r="B84" s="40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -8515,7 +8511,7 @@
         <v>55</v>
       </c>
       <c r="B85" s="40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -8523,7 +8519,7 @@
         <v>56</v>
       </c>
       <c r="B86" s="40" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -8531,7 +8527,7 @@
         <v>57</v>
       </c>
       <c r="B87" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8854,7 +8850,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G3" s="37" t="s">
         <v>17</v>
@@ -8876,7 +8872,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -8888,7 +8884,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>5</v>
@@ -9427,7 +9423,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -9691,7 +9687,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -10207,7 +10203,7 @@
     </row>
     <row r="12" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A12" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="17"/>
@@ -11329,10 +11325,10 @@
         <v>41</v>
       </c>
       <c r="E18" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="F18" s="40" t="s">
         <v>207</v>
-      </c>
-      <c r="F18" s="40" t="s">
-        <v>208</v>
       </c>
       <c r="G18" s="40" t="s">
         <v>1</v>
@@ -11379,10 +11375,10 @@
         <v>41</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G19" s="40" t="s">
         <v>1</v>
@@ -11687,29 +11683,17 @@
       <c r="A23" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>114</v>
-      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
     </row>
     <row r="24" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A24" s="34">
         <v>1</v>
       </c>
-      <c r="B24" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="43" t="s">
-        <v>115</v>
-      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
     </row>
     <row r="26" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
@@ -11977,7 +11961,7 @@
     </row>
     <row r="28" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:255" x14ac:dyDescent="0.35">
@@ -12551,7 +12535,7 @@
         <v>82</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E39" s="19"/>
       <c r="F39" s="19"/>
@@ -15196,7 +15180,7 @@
         <v>47</v>
       </c>
       <c r="B58" s="52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E58" s="19"/>
       <c r="F58" s="19"/>
@@ -15456,7 +15440,7 @@
         <v>48</v>
       </c>
       <c r="B59" s="52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E59" s="19"/>
       <c r="F59" s="19"/>
@@ -17779,7 +17763,7 @@
     </row>
     <row r="69" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E69" s="19"/>
       <c r="F69" s="19"/>
@@ -18036,7 +18020,7 @@
     </row>
     <row r="70" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -19344,7 +19328,7 @@
         <v>47</v>
       </c>
       <c r="B76" s="52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E76" s="19"/>
       <c r="F76" s="19"/>
@@ -19604,7 +19588,7 @@
         <v>48</v>
       </c>
       <c r="B77" s="52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E77" s="19"/>
       <c r="F77" s="19"/>
@@ -21927,7 +21911,7 @@
     </row>
     <row r="87" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E87" s="19"/>
       <c r="F87" s="19"/>
@@ -22184,7 +22168,7 @@
     </row>
     <row r="88" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="89" spans="1:256" x14ac:dyDescent="0.35">
@@ -23853,7 +23837,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G3" s="37" t="s">
         <v>17</v>
@@ -23875,7 +23859,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -23885,13 +23869,13 @@
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>59</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="14" t="s">
@@ -24426,7 +24410,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -24690,7 +24674,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -25206,7 +25190,7 @@
     </row>
     <row r="12" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A12" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="17"/>
@@ -26518,25 +26502,17 @@
       <c r="A19" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>114</v>
-      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
     </row>
     <row r="20" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="34">
         <v>1</v>
       </c>
-      <c r="B20" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20" s="46"/>
-      <c r="D20" s="47"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
     </row>
     <row r="22" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
@@ -27133,7 +27109,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -27150,7 +27126,7 @@
       <c r="G4" s="36"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -28892,34 +28868,34 @@
         <v>8</v>
       </c>
       <c r="B19" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="H19" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C19" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="F19" s="30" t="s">
+      <c r="I19" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="J19" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="G19" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="H19" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="I19" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="J19" s="30" t="s">
+      <c r="K19" s="30" t="s">
         <v>236</v>
-      </c>
-      <c r="K19" s="30" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:256" ht="15" x14ac:dyDescent="0.35">
@@ -28927,34 +28903,34 @@
         <v>1</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C20" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="H20" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20" s="36" t="s">
+      <c r="I20" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="J20" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="K20" s="36" t="s">
         <v>238</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>239</v>
-      </c>
-      <c r="G20" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="H20" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="I20" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="J20" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="K20" s="36" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -29218,7 +29194,7 @@
     </row>
     <row r="23" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
@@ -29475,7 +29451,7 @@
     </row>
     <row r="24" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -29743,7 +29719,7 @@
         <v>44</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
@@ -30780,10 +30756,10 @@
     </row>
     <row r="30" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B30" s="52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
@@ -31040,10 +31016,10 @@
     </row>
     <row r="31" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B31" s="52" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
@@ -32077,7 +32053,7 @@
         <v>53</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
@@ -32337,7 +32313,7 @@
         <v>54</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
@@ -32597,7 +32573,7 @@
         <v>55</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
@@ -32857,7 +32833,7 @@
         <v>56</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E38" s="19"/>
       <c r="F38" s="19"/>
@@ -33374,7 +33350,7 @@
     </row>
     <row r="41" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -33642,7 +33618,7 @@
         <v>44</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E43" s="19"/>
       <c r="F43" s="19"/>
@@ -34682,7 +34658,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E47" s="19"/>
       <c r="F47" s="19"/>
@@ -34942,7 +34918,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="52" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="19"/>
@@ -35976,7 +35952,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="19"/>
@@ -36236,7 +36212,7 @@
         <v>54</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E53" s="19"/>
       <c r="F53" s="19"/>
@@ -36496,7 +36472,7 @@
         <v>55</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E54" s="19"/>
       <c r="F54" s="19"/>
@@ -36756,7 +36732,7 @@
         <v>56</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E55" s="19"/>
       <c r="F55" s="19"/>
@@ -37608,7 +37584,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -37623,11 +37599,11 @@
         <v>59</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -39369,22 +39345,22 @@
         <v>8</v>
       </c>
       <c r="B19" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="F19" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C19" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="F19" s="30" t="s">
+      <c r="G19" s="30" t="s">
         <v>133</v>
-      </c>
-      <c r="G19" s="30" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:255" ht="15" x14ac:dyDescent="0.35">
@@ -39393,19 +39369,19 @@
       </c>
       <c r="B20" s="46"/>
       <c r="C20" s="43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D20" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="E20" s="42" t="s">
-        <v>129</v>
-      </c>
       <c r="F20" s="43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G20" s="43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -40003,7 +39979,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -40020,7 +39996,7 @@
       <c r="G4" s="36"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -40807,7 +40783,7 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>22</v>
@@ -42034,7 +42010,7 @@
     </row>
     <row r="23" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
@@ -42291,7 +42267,7 @@
     </row>
     <row r="24" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -42559,7 +42535,7 @@
         <v>44</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
@@ -43599,7 +43575,7 @@
         <v>47</v>
       </c>
       <c r="B30" s="52" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
@@ -43859,7 +43835,7 @@
         <v>48</v>
       </c>
       <c r="B31" s="52" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
@@ -46182,7 +46158,7 @@
     </row>
     <row r="41" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -46968,7 +46944,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E45" s="19"/>
       <c r="F45" s="19"/>
@@ -48776,7 +48752,7 @@
         <v>82</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="19"/>
@@ -49866,7 +49842,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G3" s="37" t="s">
         <v>17</v>
@@ -49888,7 +49864,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -49900,15 +49876,15 @@
         <v>1</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H4" s="36"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -50695,7 +50671,7 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>22</v>
@@ -51279,7 +51255,7 @@
     </row>
     <row r="14" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>39</v>
@@ -51291,37 +51267,37 @@
         <v>41</v>
       </c>
       <c r="E14" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="F14" s="40" t="s">
         <v>207</v>
-      </c>
-      <c r="F14" s="40" t="s">
-        <v>208</v>
       </c>
       <c r="G14" s="40" t="s">
         <v>1</v>
       </c>
       <c r="H14" s="40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J14" s="40" t="s">
         <v>22</v>
       </c>
       <c r="K14" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L14" s="40" t="s">
         <v>1</v>
       </c>
       <c r="M14" s="40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N14" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="O14" s="40" t="s">
         <v>198</v>
-      </c>
-      <c r="O14" s="40" t="s">
-        <v>199</v>
       </c>
       <c r="P14" s="40" t="s">
         <v>72</v>
@@ -51329,7 +51305,7 @@
     </row>
     <row r="15" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B15" s="40" t="s">
         <v>96</v>
@@ -51341,37 +51317,37 @@
         <v>41</v>
       </c>
       <c r="E15" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="F15" s="40" t="s">
         <v>209</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>210</v>
       </c>
       <c r="G15" s="40" t="s">
         <v>1</v>
       </c>
       <c r="H15" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I15" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J15" s="40" t="s">
         <v>22</v>
       </c>
       <c r="K15" s="40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L15" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="M15" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="M15" s="40" t="s">
+      <c r="N15" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="N15" s="40" t="s">
+      <c r="O15" s="40" t="s">
         <v>203</v>
-      </c>
-      <c r="O15" s="40" t="s">
-        <v>204</v>
       </c>
       <c r="P15" s="40" t="s">
         <v>72</v>
@@ -51922,7 +51898,7 @@
     </row>
     <row r="23" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
@@ -52179,7 +52155,7 @@
     </row>
     <row r="24" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
@@ -52243,10 +52219,10 @@
     </row>
     <row r="26" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C26" s="40" t="s">
         <v>40</v>
@@ -52255,37 +52231,37 @@
         <v>41</v>
       </c>
       <c r="E26" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="F26" s="40" t="s">
         <v>220</v>
-      </c>
-      <c r="F26" s="40" t="s">
-        <v>221</v>
       </c>
       <c r="G26" s="40" t="s">
         <v>1</v>
       </c>
       <c r="H26" s="40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I26" s="40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J26" s="40" t="s">
         <v>22</v>
       </c>
       <c r="K26" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L26" s="40" t="s">
         <v>1</v>
       </c>
       <c r="M26" s="40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N26" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="O26" s="40" t="s">
         <v>198</v>
-      </c>
-      <c r="O26" s="40" t="s">
-        <v>199</v>
       </c>
       <c r="P26" s="40" t="s">
         <v>1</v>
@@ -52293,10 +52269,10 @@
     </row>
     <row r="27" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C27" s="40" t="s">
         <v>40</v>
@@ -52305,37 +52281,37 @@
         <v>41</v>
       </c>
       <c r="E27" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="F27" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F27" s="40" t="s">
-        <v>223</v>
       </c>
       <c r="G27" s="40" t="s">
         <v>1</v>
       </c>
       <c r="H27" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I27" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J27" s="40" t="s">
         <v>22</v>
       </c>
       <c r="K27" s="40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L27" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="M27" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="M27" s="40" t="s">
+      <c r="N27" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="N27" s="40" t="s">
+      <c r="O27" s="40" t="s">
         <v>203</v>
-      </c>
-      <c r="O27" s="40" t="s">
-        <v>204</v>
       </c>
       <c r="P27" s="40" t="s">
         <v>1</v>
@@ -52677,13 +52653,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>1</v>
@@ -52692,11 +52668,11 @@
         <v>59</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -53483,7 +53459,7 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>22</v>

--- a/src/test/java/com/nablarch/example/app/web/action/ProjectBulkActionRequestTest.xlsx
+++ b/src/test/java/com/nablarch/example/app/web/action/ProjectBulkActionRequestTest.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA07C3A-C541-4DEC-BF10-75E5B25ECBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BC9A2D-D420-43D0-B8BE-34DAB17F94A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="766" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10201,1476 +10201,1476 @@
       <c r="IU11" s="17"/>
       <c r="IV11" s="17"/>
     </row>
-    <row r="12" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+    </row>
+    <row r="13" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="P13" s="29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="M14" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="N14" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="O14" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P14" s="40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="G15" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="L15" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="M15" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="N15" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="O15" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P15" s="40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="5"/>
+      <c r="AN17" s="5"/>
+      <c r="AO17" s="5"/>
+      <c r="AP17" s="5"/>
+      <c r="AQ17" s="5"/>
+      <c r="AR17" s="5"/>
+      <c r="AS17" s="5"/>
+      <c r="AT17" s="5"/>
+      <c r="AU17" s="5"/>
+      <c r="AV17" s="5"/>
+      <c r="AW17" s="5"/>
+      <c r="AX17" s="5"/>
+      <c r="AY17" s="5"/>
+      <c r="AZ17" s="5"/>
+      <c r="BA17" s="5"/>
+      <c r="BB17" s="5"/>
+      <c r="BC17" s="5"/>
+      <c r="BD17" s="5"/>
+      <c r="BE17" s="5"/>
+      <c r="BF17" s="5"/>
+      <c r="BG17" s="5"/>
+      <c r="BH17" s="5"/>
+      <c r="BI17" s="5"/>
+      <c r="BJ17" s="5"/>
+      <c r="BK17" s="5"/>
+      <c r="BL17" s="5"/>
+      <c r="BM17" s="5"/>
+      <c r="BN17" s="5"/>
+      <c r="BO17" s="5"/>
+      <c r="BP17" s="5"/>
+      <c r="BQ17" s="5"/>
+      <c r="BR17" s="5"/>
+      <c r="BS17" s="5"/>
+      <c r="BT17" s="5"/>
+      <c r="BU17" s="5"/>
+      <c r="BV17" s="5"/>
+      <c r="BW17" s="5"/>
+      <c r="BX17" s="5"/>
+      <c r="BY17" s="5"/>
+      <c r="BZ17" s="5"/>
+      <c r="CA17" s="5"/>
+      <c r="CB17" s="5"/>
+      <c r="CC17" s="5"/>
+      <c r="CD17" s="5"/>
+      <c r="CE17" s="5"/>
+      <c r="CF17" s="5"/>
+      <c r="CG17" s="5"/>
+      <c r="CH17" s="5"/>
+      <c r="CI17" s="5"/>
+      <c r="CJ17" s="5"/>
+      <c r="CK17" s="5"/>
+      <c r="CL17" s="5"/>
+      <c r="CM17" s="5"/>
+      <c r="CN17" s="5"/>
+      <c r="CO17" s="5"/>
+      <c r="CP17" s="5"/>
+      <c r="CQ17" s="5"/>
+      <c r="CR17" s="5"/>
+      <c r="CS17" s="5"/>
+      <c r="CT17" s="5"/>
+      <c r="CU17" s="5"/>
+      <c r="CV17" s="5"/>
+      <c r="CW17" s="5"/>
+      <c r="CX17" s="5"/>
+      <c r="CY17" s="5"/>
+      <c r="CZ17" s="5"/>
+      <c r="DA17" s="5"/>
+      <c r="DB17" s="5"/>
+      <c r="DC17" s="5"/>
+      <c r="DD17" s="5"/>
+      <c r="DE17" s="5"/>
+      <c r="DF17" s="5"/>
+      <c r="DG17" s="5"/>
+      <c r="DH17" s="5"/>
+      <c r="DI17" s="5"/>
+      <c r="DJ17" s="5"/>
+      <c r="DK17" s="5"/>
+      <c r="DL17" s="5"/>
+      <c r="DM17" s="5"/>
+      <c r="DN17" s="5"/>
+      <c r="DO17" s="5"/>
+      <c r="DP17" s="5"/>
+      <c r="DQ17" s="5"/>
+      <c r="DR17" s="5"/>
+      <c r="DS17" s="5"/>
+      <c r="DT17" s="5"/>
+      <c r="DU17" s="5"/>
+      <c r="DV17" s="5"/>
+      <c r="DW17" s="5"/>
+      <c r="DX17" s="5"/>
+      <c r="DY17" s="5"/>
+      <c r="DZ17" s="5"/>
+      <c r="EA17" s="5"/>
+      <c r="EB17" s="5"/>
+      <c r="EC17" s="5"/>
+      <c r="ED17" s="5"/>
+      <c r="EE17" s="5"/>
+      <c r="EF17" s="5"/>
+      <c r="EG17" s="5"/>
+      <c r="EH17" s="5"/>
+      <c r="EI17" s="5"/>
+      <c r="EJ17" s="5"/>
+      <c r="EK17" s="5"/>
+      <c r="EL17" s="5"/>
+      <c r="EM17" s="5"/>
+      <c r="EN17" s="5"/>
+      <c r="EO17" s="5"/>
+      <c r="EP17" s="5"/>
+      <c r="EQ17" s="5"/>
+      <c r="ER17" s="5"/>
+      <c r="ES17" s="5"/>
+      <c r="ET17" s="5"/>
+      <c r="EU17" s="5"/>
+      <c r="EV17" s="5"/>
+      <c r="EW17" s="5"/>
+      <c r="EX17" s="5"/>
+      <c r="EY17" s="5"/>
+      <c r="EZ17" s="5"/>
+      <c r="FA17" s="5"/>
+      <c r="FB17" s="5"/>
+      <c r="FC17" s="5"/>
+      <c r="FD17" s="5"/>
+      <c r="FE17" s="5"/>
+      <c r="FF17" s="5"/>
+      <c r="FG17" s="5"/>
+      <c r="FH17" s="5"/>
+      <c r="FI17" s="5"/>
+      <c r="FJ17" s="5"/>
+      <c r="FK17" s="5"/>
+      <c r="FL17" s="5"/>
+      <c r="FM17" s="5"/>
+      <c r="FN17" s="5"/>
+      <c r="FO17" s="5"/>
+      <c r="FP17" s="5"/>
+      <c r="FQ17" s="5"/>
+      <c r="FR17" s="5"/>
+      <c r="FS17" s="5"/>
+      <c r="FT17" s="5"/>
+      <c r="FU17" s="5"/>
+      <c r="FV17" s="5"/>
+      <c r="FW17" s="5"/>
+      <c r="FX17" s="5"/>
+      <c r="FY17" s="5"/>
+      <c r="FZ17" s="5"/>
+      <c r="GA17" s="5"/>
+      <c r="GB17" s="5"/>
+      <c r="GC17" s="5"/>
+      <c r="GD17" s="5"/>
+      <c r="GE17" s="5"/>
+      <c r="GF17" s="5"/>
+      <c r="GG17" s="5"/>
+      <c r="GH17" s="5"/>
+      <c r="GI17" s="5"/>
+      <c r="GJ17" s="5"/>
+      <c r="GK17" s="5"/>
+      <c r="GL17" s="5"/>
+      <c r="GM17" s="5"/>
+      <c r="GN17" s="5"/>
+      <c r="GO17" s="5"/>
+      <c r="GP17" s="5"/>
+      <c r="GQ17" s="5"/>
+      <c r="GR17" s="5"/>
+      <c r="GS17" s="5"/>
+      <c r="GT17" s="5"/>
+      <c r="GU17" s="5"/>
+      <c r="GV17" s="5"/>
+      <c r="GW17" s="5"/>
+      <c r="GX17" s="5"/>
+      <c r="GY17" s="5"/>
+      <c r="GZ17" s="5"/>
+      <c r="HA17" s="5"/>
+      <c r="HB17" s="5"/>
+      <c r="HC17" s="5"/>
+      <c r="HD17" s="5"/>
+      <c r="HE17" s="5"/>
+      <c r="HF17" s="5"/>
+      <c r="HG17" s="5"/>
+      <c r="HH17" s="5"/>
+      <c r="HI17" s="5"/>
+      <c r="HJ17" s="5"/>
+      <c r="HK17" s="5"/>
+      <c r="HL17" s="5"/>
+      <c r="HM17" s="5"/>
+      <c r="HN17" s="5"/>
+      <c r="HO17" s="5"/>
+      <c r="HP17" s="5"/>
+      <c r="HQ17" s="5"/>
+      <c r="HR17" s="5"/>
+      <c r="HS17" s="5"/>
+      <c r="HT17" s="5"/>
+      <c r="HU17" s="5"/>
+      <c r="HV17" s="5"/>
+      <c r="HW17" s="5"/>
+      <c r="HX17" s="5"/>
+      <c r="HY17" s="5"/>
+      <c r="HZ17" s="5"/>
+      <c r="IA17" s="5"/>
+      <c r="IB17" s="5"/>
+      <c r="IC17" s="5"/>
+      <c r="ID17" s="5"/>
+      <c r="IE17" s="5"/>
+      <c r="IF17" s="5"/>
+      <c r="IG17" s="5"/>
+      <c r="IH17" s="5"/>
+      <c r="II17" s="5"/>
+      <c r="IJ17" s="5"/>
+      <c r="IK17" s="5"/>
+      <c r="IL17" s="5"/>
+      <c r="IM17" s="5"/>
+      <c r="IN17" s="5"/>
+      <c r="IO17" s="5"/>
+      <c r="IP17" s="5"/>
+      <c r="IQ17" s="5"/>
+      <c r="IR17" s="5"/>
+      <c r="IS17" s="5"/>
+      <c r="IT17" s="5"/>
+      <c r="IU17" s="5"/>
+    </row>
+    <row r="18" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A18" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="17"/>
-      <c r="AC12" s="17"/>
-      <c r="AD12" s="17"/>
-      <c r="AE12" s="17"/>
-      <c r="AF12" s="17"/>
-      <c r="AG12" s="17"/>
-      <c r="AH12" s="17"/>
-      <c r="AI12" s="17"/>
-      <c r="AJ12" s="17"/>
-      <c r="AK12" s="17"/>
-      <c r="AL12" s="17"/>
-      <c r="AM12" s="17"/>
-      <c r="AN12" s="17"/>
-      <c r="AO12" s="17"/>
-      <c r="AP12" s="17"/>
-      <c r="AQ12" s="17"/>
-      <c r="AR12" s="17"/>
-      <c r="AS12" s="17"/>
-      <c r="AT12" s="17"/>
-      <c r="AU12" s="17"/>
-      <c r="AV12" s="17"/>
-      <c r="AW12" s="17"/>
-      <c r="AX12" s="17"/>
-      <c r="AY12" s="17"/>
-      <c r="AZ12" s="17"/>
-      <c r="BA12" s="17"/>
-      <c r="BB12" s="17"/>
-      <c r="BC12" s="17"/>
-      <c r="BD12" s="17"/>
-      <c r="BE12" s="17"/>
-      <c r="BF12" s="17"/>
-      <c r="BG12" s="17"/>
-      <c r="BH12" s="17"/>
-      <c r="BI12" s="17"/>
-      <c r="BJ12" s="17"/>
-      <c r="BK12" s="17"/>
-      <c r="BL12" s="17"/>
-      <c r="BM12" s="17"/>
-      <c r="BN12" s="17"/>
-      <c r="BO12" s="17"/>
-      <c r="BP12" s="17"/>
-      <c r="BQ12" s="17"/>
-      <c r="BR12" s="17"/>
-      <c r="BS12" s="17"/>
-      <c r="BT12" s="17"/>
-      <c r="BU12" s="17"/>
-      <c r="BV12" s="17"/>
-      <c r="BW12" s="17"/>
-      <c r="BX12" s="17"/>
-      <c r="BY12" s="17"/>
-      <c r="BZ12" s="17"/>
-      <c r="CA12" s="17"/>
-      <c r="CB12" s="17"/>
-      <c r="CC12" s="17"/>
-      <c r="CD12" s="17"/>
-      <c r="CE12" s="17"/>
-      <c r="CF12" s="17"/>
-      <c r="CG12" s="17"/>
-      <c r="CH12" s="17"/>
-      <c r="CI12" s="17"/>
-      <c r="CJ12" s="17"/>
-      <c r="CK12" s="17"/>
-      <c r="CL12" s="17"/>
-      <c r="CM12" s="17"/>
-      <c r="CN12" s="17"/>
-      <c r="CO12" s="17"/>
-      <c r="CP12" s="17"/>
-      <c r="CQ12" s="17"/>
-      <c r="CR12" s="17"/>
-      <c r="CS12" s="17"/>
-      <c r="CT12" s="17"/>
-      <c r="CU12" s="17"/>
-      <c r="CV12" s="17"/>
-      <c r="CW12" s="17"/>
-      <c r="CX12" s="17"/>
-      <c r="CY12" s="17"/>
-      <c r="CZ12" s="17"/>
-      <c r="DA12" s="17"/>
-      <c r="DB12" s="17"/>
-      <c r="DC12" s="17"/>
-      <c r="DD12" s="17"/>
-      <c r="DE12" s="17"/>
-      <c r="DF12" s="17"/>
-      <c r="DG12" s="17"/>
-      <c r="DH12" s="17"/>
-      <c r="DI12" s="17"/>
-      <c r="DJ12" s="17"/>
-      <c r="DK12" s="17"/>
-      <c r="DL12" s="17"/>
-      <c r="DM12" s="17"/>
-      <c r="DN12" s="17"/>
-      <c r="DO12" s="17"/>
-      <c r="DP12" s="17"/>
-      <c r="DQ12" s="17"/>
-      <c r="DR12" s="17"/>
-      <c r="DS12" s="17"/>
-      <c r="DT12" s="17"/>
-      <c r="DU12" s="17"/>
-      <c r="DV12" s="17"/>
-      <c r="DW12" s="17"/>
-      <c r="DX12" s="17"/>
-      <c r="DY12" s="17"/>
-      <c r="DZ12" s="17"/>
-      <c r="EA12" s="17"/>
-      <c r="EB12" s="17"/>
-      <c r="EC12" s="17"/>
-      <c r="ED12" s="17"/>
-      <c r="EE12" s="17"/>
-      <c r="EF12" s="17"/>
-      <c r="EG12" s="17"/>
-      <c r="EH12" s="17"/>
-      <c r="EI12" s="17"/>
-      <c r="EJ12" s="17"/>
-      <c r="EK12" s="17"/>
-      <c r="EL12" s="17"/>
-      <c r="EM12" s="17"/>
-      <c r="EN12" s="17"/>
-      <c r="EO12" s="17"/>
-      <c r="EP12" s="17"/>
-      <c r="EQ12" s="17"/>
-      <c r="ER12" s="17"/>
-      <c r="ES12" s="17"/>
-      <c r="ET12" s="17"/>
-      <c r="EU12" s="17"/>
-      <c r="EV12" s="17"/>
-      <c r="EW12" s="17"/>
-      <c r="EX12" s="17"/>
-      <c r="EY12" s="17"/>
-      <c r="EZ12" s="17"/>
-      <c r="FA12" s="17"/>
-      <c r="FB12" s="17"/>
-      <c r="FC12" s="17"/>
-      <c r="FD12" s="17"/>
-      <c r="FE12" s="17"/>
-      <c r="FF12" s="17"/>
-      <c r="FG12" s="17"/>
-      <c r="FH12" s="17"/>
-      <c r="FI12" s="17"/>
-      <c r="FJ12" s="17"/>
-      <c r="FK12" s="17"/>
-      <c r="FL12" s="17"/>
-      <c r="FM12" s="17"/>
-      <c r="FN12" s="17"/>
-      <c r="FO12" s="17"/>
-      <c r="FP12" s="17"/>
-      <c r="FQ12" s="17"/>
-      <c r="FR12" s="17"/>
-      <c r="FS12" s="17"/>
-      <c r="FT12" s="17"/>
-      <c r="FU12" s="17"/>
-      <c r="FV12" s="17"/>
-      <c r="FW12" s="17"/>
-      <c r="FX12" s="17"/>
-      <c r="FY12" s="17"/>
-      <c r="FZ12" s="17"/>
-      <c r="GA12" s="17"/>
-      <c r="GB12" s="17"/>
-      <c r="GC12" s="17"/>
-      <c r="GD12" s="17"/>
-      <c r="GE12" s="17"/>
-      <c r="GF12" s="17"/>
-      <c r="GG12" s="17"/>
-      <c r="GH12" s="17"/>
-      <c r="GI12" s="17"/>
-      <c r="GJ12" s="17"/>
-      <c r="GK12" s="17"/>
-      <c r="GL12" s="17"/>
-      <c r="GM12" s="17"/>
-      <c r="GN12" s="17"/>
-      <c r="GO12" s="17"/>
-      <c r="GP12" s="17"/>
-      <c r="GQ12" s="17"/>
-      <c r="GR12" s="17"/>
-      <c r="GS12" s="17"/>
-      <c r="GT12" s="17"/>
-      <c r="GU12" s="17"/>
-      <c r="GV12" s="17"/>
-      <c r="GW12" s="17"/>
-      <c r="GX12" s="17"/>
-      <c r="GY12" s="17"/>
-      <c r="GZ12" s="17"/>
-      <c r="HA12" s="17"/>
-      <c r="HB12" s="17"/>
-      <c r="HC12" s="17"/>
-      <c r="HD12" s="17"/>
-      <c r="HE12" s="17"/>
-      <c r="HF12" s="17"/>
-      <c r="HG12" s="17"/>
-      <c r="HH12" s="17"/>
-      <c r="HI12" s="17"/>
-      <c r="HJ12" s="17"/>
-      <c r="HK12" s="17"/>
-      <c r="HL12" s="17"/>
-      <c r="HM12" s="17"/>
-      <c r="HN12" s="17"/>
-      <c r="HO12" s="17"/>
-      <c r="HP12" s="17"/>
-      <c r="HQ12" s="17"/>
-      <c r="HR12" s="17"/>
-      <c r="HS12" s="17"/>
-      <c r="HT12" s="17"/>
-      <c r="HU12" s="17"/>
-      <c r="HV12" s="17"/>
-      <c r="HW12" s="17"/>
-      <c r="HX12" s="17"/>
-      <c r="HY12" s="17"/>
-      <c r="HZ12" s="17"/>
-      <c r="IA12" s="17"/>
-      <c r="IB12" s="17"/>
-      <c r="IC12" s="17"/>
-      <c r="ID12" s="17"/>
-      <c r="IE12" s="17"/>
-      <c r="IF12" s="17"/>
-      <c r="IG12" s="17"/>
-      <c r="IH12" s="17"/>
-      <c r="II12" s="17"/>
-      <c r="IJ12" s="17"/>
-      <c r="IK12" s="17"/>
-      <c r="IL12" s="17"/>
-      <c r="IM12" s="17"/>
-      <c r="IN12" s="17"/>
-      <c r="IO12" s="17"/>
-      <c r="IP12" s="17"/>
-      <c r="IQ12" s="17"/>
-      <c r="IR12" s="17"/>
-      <c r="IS12" s="17"/>
-      <c r="IT12" s="17"/>
-      <c r="IU12" s="17"/>
-      <c r="IV12" s="17"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="17"/>
+      <c r="AG18" s="17"/>
+      <c r="AH18" s="17"/>
+      <c r="AI18" s="17"/>
+      <c r="AJ18" s="17"/>
+      <c r="AK18" s="17"/>
+      <c r="AL18" s="17"/>
+      <c r="AM18" s="17"/>
+      <c r="AN18" s="17"/>
+      <c r="AO18" s="17"/>
+      <c r="AP18" s="17"/>
+      <c r="AQ18" s="17"/>
+      <c r="AR18" s="17"/>
+      <c r="AS18" s="17"/>
+      <c r="AT18" s="17"/>
+      <c r="AU18" s="17"/>
+      <c r="AV18" s="17"/>
+      <c r="AW18" s="17"/>
+      <c r="AX18" s="17"/>
+      <c r="AY18" s="17"/>
+      <c r="AZ18" s="17"/>
+      <c r="BA18" s="17"/>
+      <c r="BB18" s="17"/>
+      <c r="BC18" s="17"/>
+      <c r="BD18" s="17"/>
+      <c r="BE18" s="17"/>
+      <c r="BF18" s="17"/>
+      <c r="BG18" s="17"/>
+      <c r="BH18" s="17"/>
+      <c r="BI18" s="17"/>
+      <c r="BJ18" s="17"/>
+      <c r="BK18" s="17"/>
+      <c r="BL18" s="17"/>
+      <c r="BM18" s="17"/>
+      <c r="BN18" s="17"/>
+      <c r="BO18" s="17"/>
+      <c r="BP18" s="17"/>
+      <c r="BQ18" s="17"/>
+      <c r="BR18" s="17"/>
+      <c r="BS18" s="17"/>
+      <c r="BT18" s="17"/>
+      <c r="BU18" s="17"/>
+      <c r="BV18" s="17"/>
+      <c r="BW18" s="17"/>
+      <c r="BX18" s="17"/>
+      <c r="BY18" s="17"/>
+      <c r="BZ18" s="17"/>
+      <c r="CA18" s="17"/>
+      <c r="CB18" s="17"/>
+      <c r="CC18" s="17"/>
+      <c r="CD18" s="17"/>
+      <c r="CE18" s="17"/>
+      <c r="CF18" s="17"/>
+      <c r="CG18" s="17"/>
+      <c r="CH18" s="17"/>
+      <c r="CI18" s="17"/>
+      <c r="CJ18" s="17"/>
+      <c r="CK18" s="17"/>
+      <c r="CL18" s="17"/>
+      <c r="CM18" s="17"/>
+      <c r="CN18" s="17"/>
+      <c r="CO18" s="17"/>
+      <c r="CP18" s="17"/>
+      <c r="CQ18" s="17"/>
+      <c r="CR18" s="17"/>
+      <c r="CS18" s="17"/>
+      <c r="CT18" s="17"/>
+      <c r="CU18" s="17"/>
+      <c r="CV18" s="17"/>
+      <c r="CW18" s="17"/>
+      <c r="CX18" s="17"/>
+      <c r="CY18" s="17"/>
+      <c r="CZ18" s="17"/>
+      <c r="DA18" s="17"/>
+      <c r="DB18" s="17"/>
+      <c r="DC18" s="17"/>
+      <c r="DD18" s="17"/>
+      <c r="DE18" s="17"/>
+      <c r="DF18" s="17"/>
+      <c r="DG18" s="17"/>
+      <c r="DH18" s="17"/>
+      <c r="DI18" s="17"/>
+      <c r="DJ18" s="17"/>
+      <c r="DK18" s="17"/>
+      <c r="DL18" s="17"/>
+      <c r="DM18" s="17"/>
+      <c r="DN18" s="17"/>
+      <c r="DO18" s="17"/>
+      <c r="DP18" s="17"/>
+      <c r="DQ18" s="17"/>
+      <c r="DR18" s="17"/>
+      <c r="DS18" s="17"/>
+      <c r="DT18" s="17"/>
+      <c r="DU18" s="17"/>
+      <c r="DV18" s="17"/>
+      <c r="DW18" s="17"/>
+      <c r="DX18" s="17"/>
+      <c r="DY18" s="17"/>
+      <c r="DZ18" s="17"/>
+      <c r="EA18" s="17"/>
+      <c r="EB18" s="17"/>
+      <c r="EC18" s="17"/>
+      <c r="ED18" s="17"/>
+      <c r="EE18" s="17"/>
+      <c r="EF18" s="17"/>
+      <c r="EG18" s="17"/>
+      <c r="EH18" s="17"/>
+      <c r="EI18" s="17"/>
+      <c r="EJ18" s="17"/>
+      <c r="EK18" s="17"/>
+      <c r="EL18" s="17"/>
+      <c r="EM18" s="17"/>
+      <c r="EN18" s="17"/>
+      <c r="EO18" s="17"/>
+      <c r="EP18" s="17"/>
+      <c r="EQ18" s="17"/>
+      <c r="ER18" s="17"/>
+      <c r="ES18" s="17"/>
+      <c r="ET18" s="17"/>
+      <c r="EU18" s="17"/>
+      <c r="EV18" s="17"/>
+      <c r="EW18" s="17"/>
+      <c r="EX18" s="17"/>
+      <c r="EY18" s="17"/>
+      <c r="EZ18" s="17"/>
+      <c r="FA18" s="17"/>
+      <c r="FB18" s="17"/>
+      <c r="FC18" s="17"/>
+      <c r="FD18" s="17"/>
+      <c r="FE18" s="17"/>
+      <c r="FF18" s="17"/>
+      <c r="FG18" s="17"/>
+      <c r="FH18" s="17"/>
+      <c r="FI18" s="17"/>
+      <c r="FJ18" s="17"/>
+      <c r="FK18" s="17"/>
+      <c r="FL18" s="17"/>
+      <c r="FM18" s="17"/>
+      <c r="FN18" s="17"/>
+      <c r="FO18" s="17"/>
+      <c r="FP18" s="17"/>
+      <c r="FQ18" s="17"/>
+      <c r="FR18" s="17"/>
+      <c r="FS18" s="17"/>
+      <c r="FT18" s="17"/>
+      <c r="FU18" s="17"/>
+      <c r="FV18" s="17"/>
+      <c r="FW18" s="17"/>
+      <c r="FX18" s="17"/>
+      <c r="FY18" s="17"/>
+      <c r="FZ18" s="17"/>
+      <c r="GA18" s="17"/>
+      <c r="GB18" s="17"/>
+      <c r="GC18" s="17"/>
+      <c r="GD18" s="17"/>
+      <c r="GE18" s="17"/>
+      <c r="GF18" s="17"/>
+      <c r="GG18" s="17"/>
+      <c r="GH18" s="17"/>
+      <c r="GI18" s="17"/>
+      <c r="GJ18" s="17"/>
+      <c r="GK18" s="17"/>
+      <c r="GL18" s="17"/>
+      <c r="GM18" s="17"/>
+      <c r="GN18" s="17"/>
+      <c r="GO18" s="17"/>
+      <c r="GP18" s="17"/>
+      <c r="GQ18" s="17"/>
+      <c r="GR18" s="17"/>
+      <c r="GS18" s="17"/>
+      <c r="GT18" s="17"/>
+      <c r="GU18" s="17"/>
+      <c r="GV18" s="17"/>
+      <c r="GW18" s="17"/>
+      <c r="GX18" s="17"/>
+      <c r="GY18" s="17"/>
+      <c r="GZ18" s="17"/>
+      <c r="HA18" s="17"/>
+      <c r="HB18" s="17"/>
+      <c r="HC18" s="17"/>
+      <c r="HD18" s="17"/>
+      <c r="HE18" s="17"/>
+      <c r="HF18" s="17"/>
+      <c r="HG18" s="17"/>
+      <c r="HH18" s="17"/>
+      <c r="HI18" s="17"/>
+      <c r="HJ18" s="17"/>
+      <c r="HK18" s="17"/>
+      <c r="HL18" s="17"/>
+      <c r="HM18" s="17"/>
+      <c r="HN18" s="17"/>
+      <c r="HO18" s="17"/>
+      <c r="HP18" s="17"/>
+      <c r="HQ18" s="17"/>
+      <c r="HR18" s="17"/>
+      <c r="HS18" s="17"/>
+      <c r="HT18" s="17"/>
+      <c r="HU18" s="17"/>
+      <c r="HV18" s="17"/>
+      <c r="HW18" s="17"/>
+      <c r="HX18" s="17"/>
+      <c r="HY18" s="17"/>
+      <c r="HZ18" s="17"/>
+      <c r="IA18" s="17"/>
+      <c r="IB18" s="17"/>
+      <c r="IC18" s="17"/>
+      <c r="ID18" s="17"/>
+      <c r="IE18" s="17"/>
+      <c r="IF18" s="17"/>
+      <c r="IG18" s="17"/>
+      <c r="IH18" s="17"/>
+      <c r="II18" s="17"/>
+      <c r="IJ18" s="17"/>
+      <c r="IK18" s="17"/>
+      <c r="IL18" s="17"/>
+      <c r="IM18" s="17"/>
+      <c r="IN18" s="17"/>
+      <c r="IO18" s="17"/>
+      <c r="IP18" s="17"/>
+      <c r="IQ18" s="17"/>
+      <c r="IR18" s="17"/>
+      <c r="IS18" s="17"/>
+      <c r="IT18" s="17"/>
+      <c r="IU18" s="17"/>
+      <c r="IV18" s="17"/>
     </row>
-    <row r="13" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A13" s="30" t="s">
+    <row r="19" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A19" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B19" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C19" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="17"/>
-      <c r="AI13" s="17"/>
-      <c r="AJ13" s="17"/>
-      <c r="AK13" s="17"/>
-      <c r="AL13" s="17"/>
-      <c r="AM13" s="17"/>
-      <c r="AN13" s="17"/>
-      <c r="AO13" s="17"/>
-      <c r="AP13" s="17"/>
-      <c r="AQ13" s="17"/>
-      <c r="AR13" s="17"/>
-      <c r="AS13" s="17"/>
-      <c r="AT13" s="17"/>
-      <c r="AU13" s="17"/>
-      <c r="AV13" s="17"/>
-      <c r="AW13" s="17"/>
-      <c r="AX13" s="17"/>
-      <c r="AY13" s="17"/>
-      <c r="AZ13" s="17"/>
-      <c r="BA13" s="17"/>
-      <c r="BB13" s="17"/>
-      <c r="BC13" s="17"/>
-      <c r="BD13" s="17"/>
-      <c r="BE13" s="17"/>
-      <c r="BF13" s="17"/>
-      <c r="BG13" s="17"/>
-      <c r="BH13" s="17"/>
-      <c r="BI13" s="17"/>
-      <c r="BJ13" s="17"/>
-      <c r="BK13" s="17"/>
-      <c r="BL13" s="17"/>
-      <c r="BM13" s="17"/>
-      <c r="BN13" s="17"/>
-      <c r="BO13" s="17"/>
-      <c r="BP13" s="17"/>
-      <c r="BQ13" s="17"/>
-      <c r="BR13" s="17"/>
-      <c r="BS13" s="17"/>
-      <c r="BT13" s="17"/>
-      <c r="BU13" s="17"/>
-      <c r="BV13" s="17"/>
-      <c r="BW13" s="17"/>
-      <c r="BX13" s="17"/>
-      <c r="BY13" s="17"/>
-      <c r="BZ13" s="17"/>
-      <c r="CA13" s="17"/>
-      <c r="CB13" s="17"/>
-      <c r="CC13" s="17"/>
-      <c r="CD13" s="17"/>
-      <c r="CE13" s="17"/>
-      <c r="CF13" s="17"/>
-      <c r="CG13" s="17"/>
-      <c r="CH13" s="17"/>
-      <c r="CI13" s="17"/>
-      <c r="CJ13" s="17"/>
-      <c r="CK13" s="17"/>
-      <c r="CL13" s="17"/>
-      <c r="CM13" s="17"/>
-      <c r="CN13" s="17"/>
-      <c r="CO13" s="17"/>
-      <c r="CP13" s="17"/>
-      <c r="CQ13" s="17"/>
-      <c r="CR13" s="17"/>
-      <c r="CS13" s="17"/>
-      <c r="CT13" s="17"/>
-      <c r="CU13" s="17"/>
-      <c r="CV13" s="17"/>
-      <c r="CW13" s="17"/>
-      <c r="CX13" s="17"/>
-      <c r="CY13" s="17"/>
-      <c r="CZ13" s="17"/>
-      <c r="DA13" s="17"/>
-      <c r="DB13" s="17"/>
-      <c r="DC13" s="17"/>
-      <c r="DD13" s="17"/>
-      <c r="DE13" s="17"/>
-      <c r="DF13" s="17"/>
-      <c r="DG13" s="17"/>
-      <c r="DH13" s="17"/>
-      <c r="DI13" s="17"/>
-      <c r="DJ13" s="17"/>
-      <c r="DK13" s="17"/>
-      <c r="DL13" s="17"/>
-      <c r="DM13" s="17"/>
-      <c r="DN13" s="17"/>
-      <c r="DO13" s="17"/>
-      <c r="DP13" s="17"/>
-      <c r="DQ13" s="17"/>
-      <c r="DR13" s="17"/>
-      <c r="DS13" s="17"/>
-      <c r="DT13" s="17"/>
-      <c r="DU13" s="17"/>
-      <c r="DV13" s="17"/>
-      <c r="DW13" s="17"/>
-      <c r="DX13" s="17"/>
-      <c r="DY13" s="17"/>
-      <c r="DZ13" s="17"/>
-      <c r="EA13" s="17"/>
-      <c r="EB13" s="17"/>
-      <c r="EC13" s="17"/>
-      <c r="ED13" s="17"/>
-      <c r="EE13" s="17"/>
-      <c r="EF13" s="17"/>
-      <c r="EG13" s="17"/>
-      <c r="EH13" s="17"/>
-      <c r="EI13" s="17"/>
-      <c r="EJ13" s="17"/>
-      <c r="EK13" s="17"/>
-      <c r="EL13" s="17"/>
-      <c r="EM13" s="17"/>
-      <c r="EN13" s="17"/>
-      <c r="EO13" s="17"/>
-      <c r="EP13" s="17"/>
-      <c r="EQ13" s="17"/>
-      <c r="ER13" s="17"/>
-      <c r="ES13" s="17"/>
-      <c r="ET13" s="17"/>
-      <c r="EU13" s="17"/>
-      <c r="EV13" s="17"/>
-      <c r="EW13" s="17"/>
-      <c r="EX13" s="17"/>
-      <c r="EY13" s="17"/>
-      <c r="EZ13" s="17"/>
-      <c r="FA13" s="17"/>
-      <c r="FB13" s="17"/>
-      <c r="FC13" s="17"/>
-      <c r="FD13" s="17"/>
-      <c r="FE13" s="17"/>
-      <c r="FF13" s="17"/>
-      <c r="FG13" s="17"/>
-      <c r="FH13" s="17"/>
-      <c r="FI13" s="17"/>
-      <c r="FJ13" s="17"/>
-      <c r="FK13" s="17"/>
-      <c r="FL13" s="17"/>
-      <c r="FM13" s="17"/>
-      <c r="FN13" s="17"/>
-      <c r="FO13" s="17"/>
-      <c r="FP13" s="17"/>
-      <c r="FQ13" s="17"/>
-      <c r="FR13" s="17"/>
-      <c r="FS13" s="17"/>
-      <c r="FT13" s="17"/>
-      <c r="FU13" s="17"/>
-      <c r="FV13" s="17"/>
-      <c r="FW13" s="17"/>
-      <c r="FX13" s="17"/>
-      <c r="FY13" s="17"/>
-      <c r="FZ13" s="17"/>
-      <c r="GA13" s="17"/>
-      <c r="GB13" s="17"/>
-      <c r="GC13" s="17"/>
-      <c r="GD13" s="17"/>
-      <c r="GE13" s="17"/>
-      <c r="GF13" s="17"/>
-      <c r="GG13" s="17"/>
-      <c r="GH13" s="17"/>
-      <c r="GI13" s="17"/>
-      <c r="GJ13" s="17"/>
-      <c r="GK13" s="17"/>
-      <c r="GL13" s="17"/>
-      <c r="GM13" s="17"/>
-      <c r="GN13" s="17"/>
-      <c r="GO13" s="17"/>
-      <c r="GP13" s="17"/>
-      <c r="GQ13" s="17"/>
-      <c r="GR13" s="17"/>
-      <c r="GS13" s="17"/>
-      <c r="GT13" s="17"/>
-      <c r="GU13" s="17"/>
-      <c r="GV13" s="17"/>
-      <c r="GW13" s="17"/>
-      <c r="GX13" s="17"/>
-      <c r="GY13" s="17"/>
-      <c r="GZ13" s="17"/>
-      <c r="HA13" s="17"/>
-      <c r="HB13" s="17"/>
-      <c r="HC13" s="17"/>
-      <c r="HD13" s="17"/>
-      <c r="HE13" s="17"/>
-      <c r="HF13" s="17"/>
-      <c r="HG13" s="17"/>
-      <c r="HH13" s="17"/>
-      <c r="HI13" s="17"/>
-      <c r="HJ13" s="17"/>
-      <c r="HK13" s="17"/>
-      <c r="HL13" s="17"/>
-      <c r="HM13" s="17"/>
-      <c r="HN13" s="17"/>
-      <c r="HO13" s="17"/>
-      <c r="HP13" s="17"/>
-      <c r="HQ13" s="17"/>
-      <c r="HR13" s="17"/>
-      <c r="HS13" s="17"/>
-      <c r="HT13" s="17"/>
-      <c r="HU13" s="17"/>
-      <c r="HV13" s="17"/>
-      <c r="HW13" s="17"/>
-      <c r="HX13" s="17"/>
-      <c r="HY13" s="17"/>
-      <c r="HZ13" s="17"/>
-      <c r="IA13" s="17"/>
-      <c r="IB13" s="17"/>
-      <c r="IC13" s="17"/>
-      <c r="ID13" s="17"/>
-      <c r="IE13" s="17"/>
-      <c r="IF13" s="17"/>
-      <c r="IG13" s="17"/>
-      <c r="IH13" s="17"/>
-      <c r="II13" s="17"/>
-      <c r="IJ13" s="17"/>
-      <c r="IK13" s="17"/>
-      <c r="IL13" s="17"/>
-      <c r="IM13" s="17"/>
-      <c r="IN13" s="17"/>
-      <c r="IO13" s="17"/>
-      <c r="IP13" s="17"/>
-      <c r="IQ13" s="17"/>
-      <c r="IR13" s="17"/>
-      <c r="IS13" s="17"/>
-      <c r="IT13" s="17"/>
-      <c r="IU13" s="17"/>
-      <c r="IV13" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="17"/>
+      <c r="AF19" s="17"/>
+      <c r="AG19" s="17"/>
+      <c r="AH19" s="17"/>
+      <c r="AI19" s="17"/>
+      <c r="AJ19" s="17"/>
+      <c r="AK19" s="17"/>
+      <c r="AL19" s="17"/>
+      <c r="AM19" s="17"/>
+      <c r="AN19" s="17"/>
+      <c r="AO19" s="17"/>
+      <c r="AP19" s="17"/>
+      <c r="AQ19" s="17"/>
+      <c r="AR19" s="17"/>
+      <c r="AS19" s="17"/>
+      <c r="AT19" s="17"/>
+      <c r="AU19" s="17"/>
+      <c r="AV19" s="17"/>
+      <c r="AW19" s="17"/>
+      <c r="AX19" s="17"/>
+      <c r="AY19" s="17"/>
+      <c r="AZ19" s="17"/>
+      <c r="BA19" s="17"/>
+      <c r="BB19" s="17"/>
+      <c r="BC19" s="17"/>
+      <c r="BD19" s="17"/>
+      <c r="BE19" s="17"/>
+      <c r="BF19" s="17"/>
+      <c r="BG19" s="17"/>
+      <c r="BH19" s="17"/>
+      <c r="BI19" s="17"/>
+      <c r="BJ19" s="17"/>
+      <c r="BK19" s="17"/>
+      <c r="BL19" s="17"/>
+      <c r="BM19" s="17"/>
+      <c r="BN19" s="17"/>
+      <c r="BO19" s="17"/>
+      <c r="BP19" s="17"/>
+      <c r="BQ19" s="17"/>
+      <c r="BR19" s="17"/>
+      <c r="BS19" s="17"/>
+      <c r="BT19" s="17"/>
+      <c r="BU19" s="17"/>
+      <c r="BV19" s="17"/>
+      <c r="BW19" s="17"/>
+      <c r="BX19" s="17"/>
+      <c r="BY19" s="17"/>
+      <c r="BZ19" s="17"/>
+      <c r="CA19" s="17"/>
+      <c r="CB19" s="17"/>
+      <c r="CC19" s="17"/>
+      <c r="CD19" s="17"/>
+      <c r="CE19" s="17"/>
+      <c r="CF19" s="17"/>
+      <c r="CG19" s="17"/>
+      <c r="CH19" s="17"/>
+      <c r="CI19" s="17"/>
+      <c r="CJ19" s="17"/>
+      <c r="CK19" s="17"/>
+      <c r="CL19" s="17"/>
+      <c r="CM19" s="17"/>
+      <c r="CN19" s="17"/>
+      <c r="CO19" s="17"/>
+      <c r="CP19" s="17"/>
+      <c r="CQ19" s="17"/>
+      <c r="CR19" s="17"/>
+      <c r="CS19" s="17"/>
+      <c r="CT19" s="17"/>
+      <c r="CU19" s="17"/>
+      <c r="CV19" s="17"/>
+      <c r="CW19" s="17"/>
+      <c r="CX19" s="17"/>
+      <c r="CY19" s="17"/>
+      <c r="CZ19" s="17"/>
+      <c r="DA19" s="17"/>
+      <c r="DB19" s="17"/>
+      <c r="DC19" s="17"/>
+      <c r="DD19" s="17"/>
+      <c r="DE19" s="17"/>
+      <c r="DF19" s="17"/>
+      <c r="DG19" s="17"/>
+      <c r="DH19" s="17"/>
+      <c r="DI19" s="17"/>
+      <c r="DJ19" s="17"/>
+      <c r="DK19" s="17"/>
+      <c r="DL19" s="17"/>
+      <c r="DM19" s="17"/>
+      <c r="DN19" s="17"/>
+      <c r="DO19" s="17"/>
+      <c r="DP19" s="17"/>
+      <c r="DQ19" s="17"/>
+      <c r="DR19" s="17"/>
+      <c r="DS19" s="17"/>
+      <c r="DT19" s="17"/>
+      <c r="DU19" s="17"/>
+      <c r="DV19" s="17"/>
+      <c r="DW19" s="17"/>
+      <c r="DX19" s="17"/>
+      <c r="DY19" s="17"/>
+      <c r="DZ19" s="17"/>
+      <c r="EA19" s="17"/>
+      <c r="EB19" s="17"/>
+      <c r="EC19" s="17"/>
+      <c r="ED19" s="17"/>
+      <c r="EE19" s="17"/>
+      <c r="EF19" s="17"/>
+      <c r="EG19" s="17"/>
+      <c r="EH19" s="17"/>
+      <c r="EI19" s="17"/>
+      <c r="EJ19" s="17"/>
+      <c r="EK19" s="17"/>
+      <c r="EL19" s="17"/>
+      <c r="EM19" s="17"/>
+      <c r="EN19" s="17"/>
+      <c r="EO19" s="17"/>
+      <c r="EP19" s="17"/>
+      <c r="EQ19" s="17"/>
+      <c r="ER19" s="17"/>
+      <c r="ES19" s="17"/>
+      <c r="ET19" s="17"/>
+      <c r="EU19" s="17"/>
+      <c r="EV19" s="17"/>
+      <c r="EW19" s="17"/>
+      <c r="EX19" s="17"/>
+      <c r="EY19" s="17"/>
+      <c r="EZ19" s="17"/>
+      <c r="FA19" s="17"/>
+      <c r="FB19" s="17"/>
+      <c r="FC19" s="17"/>
+      <c r="FD19" s="17"/>
+      <c r="FE19" s="17"/>
+      <c r="FF19" s="17"/>
+      <c r="FG19" s="17"/>
+      <c r="FH19" s="17"/>
+      <c r="FI19" s="17"/>
+      <c r="FJ19" s="17"/>
+      <c r="FK19" s="17"/>
+      <c r="FL19" s="17"/>
+      <c r="FM19" s="17"/>
+      <c r="FN19" s="17"/>
+      <c r="FO19" s="17"/>
+      <c r="FP19" s="17"/>
+      <c r="FQ19" s="17"/>
+      <c r="FR19" s="17"/>
+      <c r="FS19" s="17"/>
+      <c r="FT19" s="17"/>
+      <c r="FU19" s="17"/>
+      <c r="FV19" s="17"/>
+      <c r="FW19" s="17"/>
+      <c r="FX19" s="17"/>
+      <c r="FY19" s="17"/>
+      <c r="FZ19" s="17"/>
+      <c r="GA19" s="17"/>
+      <c r="GB19" s="17"/>
+      <c r="GC19" s="17"/>
+      <c r="GD19" s="17"/>
+      <c r="GE19" s="17"/>
+      <c r="GF19" s="17"/>
+      <c r="GG19" s="17"/>
+      <c r="GH19" s="17"/>
+      <c r="GI19" s="17"/>
+      <c r="GJ19" s="17"/>
+      <c r="GK19" s="17"/>
+      <c r="GL19" s="17"/>
+      <c r="GM19" s="17"/>
+      <c r="GN19" s="17"/>
+      <c r="GO19" s="17"/>
+      <c r="GP19" s="17"/>
+      <c r="GQ19" s="17"/>
+      <c r="GR19" s="17"/>
+      <c r="GS19" s="17"/>
+      <c r="GT19" s="17"/>
+      <c r="GU19" s="17"/>
+      <c r="GV19" s="17"/>
+      <c r="GW19" s="17"/>
+      <c r="GX19" s="17"/>
+      <c r="GY19" s="17"/>
+      <c r="GZ19" s="17"/>
+      <c r="HA19" s="17"/>
+      <c r="HB19" s="17"/>
+      <c r="HC19" s="17"/>
+      <c r="HD19" s="17"/>
+      <c r="HE19" s="17"/>
+      <c r="HF19" s="17"/>
+      <c r="HG19" s="17"/>
+      <c r="HH19" s="17"/>
+      <c r="HI19" s="17"/>
+      <c r="HJ19" s="17"/>
+      <c r="HK19" s="17"/>
+      <c r="HL19" s="17"/>
+      <c r="HM19" s="17"/>
+      <c r="HN19" s="17"/>
+      <c r="HO19" s="17"/>
+      <c r="HP19" s="17"/>
+      <c r="HQ19" s="17"/>
+      <c r="HR19" s="17"/>
+      <c r="HS19" s="17"/>
+      <c r="HT19" s="17"/>
+      <c r="HU19" s="17"/>
+      <c r="HV19" s="17"/>
+      <c r="HW19" s="17"/>
+      <c r="HX19" s="17"/>
+      <c r="HY19" s="17"/>
+      <c r="HZ19" s="17"/>
+      <c r="IA19" s="17"/>
+      <c r="IB19" s="17"/>
+      <c r="IC19" s="17"/>
+      <c r="ID19" s="17"/>
+      <c r="IE19" s="17"/>
+      <c r="IF19" s="17"/>
+      <c r="IG19" s="17"/>
+      <c r="IH19" s="17"/>
+      <c r="II19" s="17"/>
+      <c r="IJ19" s="17"/>
+      <c r="IK19" s="17"/>
+      <c r="IL19" s="17"/>
+      <c r="IM19" s="17"/>
+      <c r="IN19" s="17"/>
+      <c r="IO19" s="17"/>
+      <c r="IP19" s="17"/>
+      <c r="IQ19" s="17"/>
+      <c r="IR19" s="17"/>
+      <c r="IS19" s="17"/>
+      <c r="IT19" s="17"/>
+      <c r="IU19" s="17"/>
+      <c r="IV19" s="17"/>
     </row>
-    <row r="14" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A14" s="43" t="s">
+    <row r="20" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A20" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B20" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C20" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="17"/>
-      <c r="AC14" s="17"/>
-      <c r="AD14" s="17"/>
-      <c r="AE14" s="17"/>
-      <c r="AF14" s="17"/>
-      <c r="AG14" s="17"/>
-      <c r="AH14" s="17"/>
-      <c r="AI14" s="17"/>
-      <c r="AJ14" s="17"/>
-      <c r="AK14" s="17"/>
-      <c r="AL14" s="17"/>
-      <c r="AM14" s="17"/>
-      <c r="AN14" s="17"/>
-      <c r="AO14" s="17"/>
-      <c r="AP14" s="17"/>
-      <c r="AQ14" s="17"/>
-      <c r="AR14" s="17"/>
-      <c r="AS14" s="17"/>
-      <c r="AT14" s="17"/>
-      <c r="AU14" s="17"/>
-      <c r="AV14" s="17"/>
-      <c r="AW14" s="17"/>
-      <c r="AX14" s="17"/>
-      <c r="AY14" s="17"/>
-      <c r="AZ14" s="17"/>
-      <c r="BA14" s="17"/>
-      <c r="BB14" s="17"/>
-      <c r="BC14" s="17"/>
-      <c r="BD14" s="17"/>
-      <c r="BE14" s="17"/>
-      <c r="BF14" s="17"/>
-      <c r="BG14" s="17"/>
-      <c r="BH14" s="17"/>
-      <c r="BI14" s="17"/>
-      <c r="BJ14" s="17"/>
-      <c r="BK14" s="17"/>
-      <c r="BL14" s="17"/>
-      <c r="BM14" s="17"/>
-      <c r="BN14" s="17"/>
-      <c r="BO14" s="17"/>
-      <c r="BP14" s="17"/>
-      <c r="BQ14" s="17"/>
-      <c r="BR14" s="17"/>
-      <c r="BS14" s="17"/>
-      <c r="BT14" s="17"/>
-      <c r="BU14" s="17"/>
-      <c r="BV14" s="17"/>
-      <c r="BW14" s="17"/>
-      <c r="BX14" s="17"/>
-      <c r="BY14" s="17"/>
-      <c r="BZ14" s="17"/>
-      <c r="CA14" s="17"/>
-      <c r="CB14" s="17"/>
-      <c r="CC14" s="17"/>
-      <c r="CD14" s="17"/>
-      <c r="CE14" s="17"/>
-      <c r="CF14" s="17"/>
-      <c r="CG14" s="17"/>
-      <c r="CH14" s="17"/>
-      <c r="CI14" s="17"/>
-      <c r="CJ14" s="17"/>
-      <c r="CK14" s="17"/>
-      <c r="CL14" s="17"/>
-      <c r="CM14" s="17"/>
-      <c r="CN14" s="17"/>
-      <c r="CO14" s="17"/>
-      <c r="CP14" s="17"/>
-      <c r="CQ14" s="17"/>
-      <c r="CR14" s="17"/>
-      <c r="CS14" s="17"/>
-      <c r="CT14" s="17"/>
-      <c r="CU14" s="17"/>
-      <c r="CV14" s="17"/>
-      <c r="CW14" s="17"/>
-      <c r="CX14" s="17"/>
-      <c r="CY14" s="17"/>
-      <c r="CZ14" s="17"/>
-      <c r="DA14" s="17"/>
-      <c r="DB14" s="17"/>
-      <c r="DC14" s="17"/>
-      <c r="DD14" s="17"/>
-      <c r="DE14" s="17"/>
-      <c r="DF14" s="17"/>
-      <c r="DG14" s="17"/>
-      <c r="DH14" s="17"/>
-      <c r="DI14" s="17"/>
-      <c r="DJ14" s="17"/>
-      <c r="DK14" s="17"/>
-      <c r="DL14" s="17"/>
-      <c r="DM14" s="17"/>
-      <c r="DN14" s="17"/>
-      <c r="DO14" s="17"/>
-      <c r="DP14" s="17"/>
-      <c r="DQ14" s="17"/>
-      <c r="DR14" s="17"/>
-      <c r="DS14" s="17"/>
-      <c r="DT14" s="17"/>
-      <c r="DU14" s="17"/>
-      <c r="DV14" s="17"/>
-      <c r="DW14" s="17"/>
-      <c r="DX14" s="17"/>
-      <c r="DY14" s="17"/>
-      <c r="DZ14" s="17"/>
-      <c r="EA14" s="17"/>
-      <c r="EB14" s="17"/>
-      <c r="EC14" s="17"/>
-      <c r="ED14" s="17"/>
-      <c r="EE14" s="17"/>
-      <c r="EF14" s="17"/>
-      <c r="EG14" s="17"/>
-      <c r="EH14" s="17"/>
-      <c r="EI14" s="17"/>
-      <c r="EJ14" s="17"/>
-      <c r="EK14" s="17"/>
-      <c r="EL14" s="17"/>
-      <c r="EM14" s="17"/>
-      <c r="EN14" s="17"/>
-      <c r="EO14" s="17"/>
-      <c r="EP14" s="17"/>
-      <c r="EQ14" s="17"/>
-      <c r="ER14" s="17"/>
-      <c r="ES14" s="17"/>
-      <c r="ET14" s="17"/>
-      <c r="EU14" s="17"/>
-      <c r="EV14" s="17"/>
-      <c r="EW14" s="17"/>
-      <c r="EX14" s="17"/>
-      <c r="EY14" s="17"/>
-      <c r="EZ14" s="17"/>
-      <c r="FA14" s="17"/>
-      <c r="FB14" s="17"/>
-      <c r="FC14" s="17"/>
-      <c r="FD14" s="17"/>
-      <c r="FE14" s="17"/>
-      <c r="FF14" s="17"/>
-      <c r="FG14" s="17"/>
-      <c r="FH14" s="17"/>
-      <c r="FI14" s="17"/>
-      <c r="FJ14" s="17"/>
-      <c r="FK14" s="17"/>
-      <c r="FL14" s="17"/>
-      <c r="FM14" s="17"/>
-      <c r="FN14" s="17"/>
-      <c r="FO14" s="17"/>
-      <c r="FP14" s="17"/>
-      <c r="FQ14" s="17"/>
-      <c r="FR14" s="17"/>
-      <c r="FS14" s="17"/>
-      <c r="FT14" s="17"/>
-      <c r="FU14" s="17"/>
-      <c r="FV14" s="17"/>
-      <c r="FW14" s="17"/>
-      <c r="FX14" s="17"/>
-      <c r="FY14" s="17"/>
-      <c r="FZ14" s="17"/>
-      <c r="GA14" s="17"/>
-      <c r="GB14" s="17"/>
-      <c r="GC14" s="17"/>
-      <c r="GD14" s="17"/>
-      <c r="GE14" s="17"/>
-      <c r="GF14" s="17"/>
-      <c r="GG14" s="17"/>
-      <c r="GH14" s="17"/>
-      <c r="GI14" s="17"/>
-      <c r="GJ14" s="17"/>
-      <c r="GK14" s="17"/>
-      <c r="GL14" s="17"/>
-      <c r="GM14" s="17"/>
-      <c r="GN14" s="17"/>
-      <c r="GO14" s="17"/>
-      <c r="GP14" s="17"/>
-      <c r="GQ14" s="17"/>
-      <c r="GR14" s="17"/>
-      <c r="GS14" s="17"/>
-      <c r="GT14" s="17"/>
-      <c r="GU14" s="17"/>
-      <c r="GV14" s="17"/>
-      <c r="GW14" s="17"/>
-      <c r="GX14" s="17"/>
-      <c r="GY14" s="17"/>
-      <c r="GZ14" s="17"/>
-      <c r="HA14" s="17"/>
-      <c r="HB14" s="17"/>
-      <c r="HC14" s="17"/>
-      <c r="HD14" s="17"/>
-      <c r="HE14" s="17"/>
-      <c r="HF14" s="17"/>
-      <c r="HG14" s="17"/>
-      <c r="HH14" s="17"/>
-      <c r="HI14" s="17"/>
-      <c r="HJ14" s="17"/>
-      <c r="HK14" s="17"/>
-      <c r="HL14" s="17"/>
-      <c r="HM14" s="17"/>
-      <c r="HN14" s="17"/>
-      <c r="HO14" s="17"/>
-      <c r="HP14" s="17"/>
-      <c r="HQ14" s="17"/>
-      <c r="HR14" s="17"/>
-      <c r="HS14" s="17"/>
-      <c r="HT14" s="17"/>
-      <c r="HU14" s="17"/>
-      <c r="HV14" s="17"/>
-      <c r="HW14" s="17"/>
-      <c r="HX14" s="17"/>
-      <c r="HY14" s="17"/>
-      <c r="HZ14" s="17"/>
-      <c r="IA14" s="17"/>
-      <c r="IB14" s="17"/>
-      <c r="IC14" s="17"/>
-      <c r="ID14" s="17"/>
-      <c r="IE14" s="17"/>
-      <c r="IF14" s="17"/>
-      <c r="IG14" s="17"/>
-      <c r="IH14" s="17"/>
-      <c r="II14" s="17"/>
-      <c r="IJ14" s="17"/>
-      <c r="IK14" s="17"/>
-      <c r="IL14" s="17"/>
-      <c r="IM14" s="17"/>
-      <c r="IN14" s="17"/>
-      <c r="IO14" s="17"/>
-      <c r="IP14" s="17"/>
-      <c r="IQ14" s="17"/>
-      <c r="IR14" s="17"/>
-      <c r="IS14" s="17"/>
-      <c r="IT14" s="17"/>
-      <c r="IU14" s="17"/>
-      <c r="IV14" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="17"/>
+      <c r="AF20" s="17"/>
+      <c r="AG20" s="17"/>
+      <c r="AH20" s="17"/>
+      <c r="AI20" s="17"/>
+      <c r="AJ20" s="17"/>
+      <c r="AK20" s="17"/>
+      <c r="AL20" s="17"/>
+      <c r="AM20" s="17"/>
+      <c r="AN20" s="17"/>
+      <c r="AO20" s="17"/>
+      <c r="AP20" s="17"/>
+      <c r="AQ20" s="17"/>
+      <c r="AR20" s="17"/>
+      <c r="AS20" s="17"/>
+      <c r="AT20" s="17"/>
+      <c r="AU20" s="17"/>
+      <c r="AV20" s="17"/>
+      <c r="AW20" s="17"/>
+      <c r="AX20" s="17"/>
+      <c r="AY20" s="17"/>
+      <c r="AZ20" s="17"/>
+      <c r="BA20" s="17"/>
+      <c r="BB20" s="17"/>
+      <c r="BC20" s="17"/>
+      <c r="BD20" s="17"/>
+      <c r="BE20" s="17"/>
+      <c r="BF20" s="17"/>
+      <c r="BG20" s="17"/>
+      <c r="BH20" s="17"/>
+      <c r="BI20" s="17"/>
+      <c r="BJ20" s="17"/>
+      <c r="BK20" s="17"/>
+      <c r="BL20" s="17"/>
+      <c r="BM20" s="17"/>
+      <c r="BN20" s="17"/>
+      <c r="BO20" s="17"/>
+      <c r="BP20" s="17"/>
+      <c r="BQ20" s="17"/>
+      <c r="BR20" s="17"/>
+      <c r="BS20" s="17"/>
+      <c r="BT20" s="17"/>
+      <c r="BU20" s="17"/>
+      <c r="BV20" s="17"/>
+      <c r="BW20" s="17"/>
+      <c r="BX20" s="17"/>
+      <c r="BY20" s="17"/>
+      <c r="BZ20" s="17"/>
+      <c r="CA20" s="17"/>
+      <c r="CB20" s="17"/>
+      <c r="CC20" s="17"/>
+      <c r="CD20" s="17"/>
+      <c r="CE20" s="17"/>
+      <c r="CF20" s="17"/>
+      <c r="CG20" s="17"/>
+      <c r="CH20" s="17"/>
+      <c r="CI20" s="17"/>
+      <c r="CJ20" s="17"/>
+      <c r="CK20" s="17"/>
+      <c r="CL20" s="17"/>
+      <c r="CM20" s="17"/>
+      <c r="CN20" s="17"/>
+      <c r="CO20" s="17"/>
+      <c r="CP20" s="17"/>
+      <c r="CQ20" s="17"/>
+      <c r="CR20" s="17"/>
+      <c r="CS20" s="17"/>
+      <c r="CT20" s="17"/>
+      <c r="CU20" s="17"/>
+      <c r="CV20" s="17"/>
+      <c r="CW20" s="17"/>
+      <c r="CX20" s="17"/>
+      <c r="CY20" s="17"/>
+      <c r="CZ20" s="17"/>
+      <c r="DA20" s="17"/>
+      <c r="DB20" s="17"/>
+      <c r="DC20" s="17"/>
+      <c r="DD20" s="17"/>
+      <c r="DE20" s="17"/>
+      <c r="DF20" s="17"/>
+      <c r="DG20" s="17"/>
+      <c r="DH20" s="17"/>
+      <c r="DI20" s="17"/>
+      <c r="DJ20" s="17"/>
+      <c r="DK20" s="17"/>
+      <c r="DL20" s="17"/>
+      <c r="DM20" s="17"/>
+      <c r="DN20" s="17"/>
+      <c r="DO20" s="17"/>
+      <c r="DP20" s="17"/>
+      <c r="DQ20" s="17"/>
+      <c r="DR20" s="17"/>
+      <c r="DS20" s="17"/>
+      <c r="DT20" s="17"/>
+      <c r="DU20" s="17"/>
+      <c r="DV20" s="17"/>
+      <c r="DW20" s="17"/>
+      <c r="DX20" s="17"/>
+      <c r="DY20" s="17"/>
+      <c r="DZ20" s="17"/>
+      <c r="EA20" s="17"/>
+      <c r="EB20" s="17"/>
+      <c r="EC20" s="17"/>
+      <c r="ED20" s="17"/>
+      <c r="EE20" s="17"/>
+      <c r="EF20" s="17"/>
+      <c r="EG20" s="17"/>
+      <c r="EH20" s="17"/>
+      <c r="EI20" s="17"/>
+      <c r="EJ20" s="17"/>
+      <c r="EK20" s="17"/>
+      <c r="EL20" s="17"/>
+      <c r="EM20" s="17"/>
+      <c r="EN20" s="17"/>
+      <c r="EO20" s="17"/>
+      <c r="EP20" s="17"/>
+      <c r="EQ20" s="17"/>
+      <c r="ER20" s="17"/>
+      <c r="ES20" s="17"/>
+      <c r="ET20" s="17"/>
+      <c r="EU20" s="17"/>
+      <c r="EV20" s="17"/>
+      <c r="EW20" s="17"/>
+      <c r="EX20" s="17"/>
+      <c r="EY20" s="17"/>
+      <c r="EZ20" s="17"/>
+      <c r="FA20" s="17"/>
+      <c r="FB20" s="17"/>
+      <c r="FC20" s="17"/>
+      <c r="FD20" s="17"/>
+      <c r="FE20" s="17"/>
+      <c r="FF20" s="17"/>
+      <c r="FG20" s="17"/>
+      <c r="FH20" s="17"/>
+      <c r="FI20" s="17"/>
+      <c r="FJ20" s="17"/>
+      <c r="FK20" s="17"/>
+      <c r="FL20" s="17"/>
+      <c r="FM20" s="17"/>
+      <c r="FN20" s="17"/>
+      <c r="FO20" s="17"/>
+      <c r="FP20" s="17"/>
+      <c r="FQ20" s="17"/>
+      <c r="FR20" s="17"/>
+      <c r="FS20" s="17"/>
+      <c r="FT20" s="17"/>
+      <c r="FU20" s="17"/>
+      <c r="FV20" s="17"/>
+      <c r="FW20" s="17"/>
+      <c r="FX20" s="17"/>
+      <c r="FY20" s="17"/>
+      <c r="FZ20" s="17"/>
+      <c r="GA20" s="17"/>
+      <c r="GB20" s="17"/>
+      <c r="GC20" s="17"/>
+      <c r="GD20" s="17"/>
+      <c r="GE20" s="17"/>
+      <c r="GF20" s="17"/>
+      <c r="GG20" s="17"/>
+      <c r="GH20" s="17"/>
+      <c r="GI20" s="17"/>
+      <c r="GJ20" s="17"/>
+      <c r="GK20" s="17"/>
+      <c r="GL20" s="17"/>
+      <c r="GM20" s="17"/>
+      <c r="GN20" s="17"/>
+      <c r="GO20" s="17"/>
+      <c r="GP20" s="17"/>
+      <c r="GQ20" s="17"/>
+      <c r="GR20" s="17"/>
+      <c r="GS20" s="17"/>
+      <c r="GT20" s="17"/>
+      <c r="GU20" s="17"/>
+      <c r="GV20" s="17"/>
+      <c r="GW20" s="17"/>
+      <c r="GX20" s="17"/>
+      <c r="GY20" s="17"/>
+      <c r="GZ20" s="17"/>
+      <c r="HA20" s="17"/>
+      <c r="HB20" s="17"/>
+      <c r="HC20" s="17"/>
+      <c r="HD20" s="17"/>
+      <c r="HE20" s="17"/>
+      <c r="HF20" s="17"/>
+      <c r="HG20" s="17"/>
+      <c r="HH20" s="17"/>
+      <c r="HI20" s="17"/>
+      <c r="HJ20" s="17"/>
+      <c r="HK20" s="17"/>
+      <c r="HL20" s="17"/>
+      <c r="HM20" s="17"/>
+      <c r="HN20" s="17"/>
+      <c r="HO20" s="17"/>
+      <c r="HP20" s="17"/>
+      <c r="HQ20" s="17"/>
+      <c r="HR20" s="17"/>
+      <c r="HS20" s="17"/>
+      <c r="HT20" s="17"/>
+      <c r="HU20" s="17"/>
+      <c r="HV20" s="17"/>
+      <c r="HW20" s="17"/>
+      <c r="HX20" s="17"/>
+      <c r="HY20" s="17"/>
+      <c r="HZ20" s="17"/>
+      <c r="IA20" s="17"/>
+      <c r="IB20" s="17"/>
+      <c r="IC20" s="17"/>
+      <c r="ID20" s="17"/>
+      <c r="IE20" s="17"/>
+      <c r="IF20" s="17"/>
+      <c r="IG20" s="17"/>
+      <c r="IH20" s="17"/>
+      <c r="II20" s="17"/>
+      <c r="IJ20" s="17"/>
+      <c r="IK20" s="17"/>
+      <c r="IL20" s="17"/>
+      <c r="IM20" s="17"/>
+      <c r="IN20" s="17"/>
+      <c r="IO20" s="17"/>
+      <c r="IP20" s="17"/>
+      <c r="IQ20" s="17"/>
+      <c r="IR20" s="17"/>
+      <c r="IS20" s="17"/>
+      <c r="IT20" s="17"/>
+      <c r="IU20" s="17"/>
+      <c r="IV20" s="17"/>
     </row>
-    <row r="15" spans="1:256" s="56" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A15" s="53"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="55"/>
-      <c r="S15" s="55"/>
-      <c r="T15" s="55"/>
-      <c r="U15" s="55"/>
-      <c r="V15" s="55"/>
-      <c r="W15" s="55"/>
-      <c r="X15" s="55"/>
-      <c r="Y15" s="55"/>
-      <c r="Z15" s="55"/>
-      <c r="AA15" s="55"/>
-      <c r="AB15" s="55"/>
-      <c r="AC15" s="55"/>
-      <c r="AD15" s="55"/>
-      <c r="AE15" s="55"/>
-      <c r="AF15" s="55"/>
-      <c r="AG15" s="55"/>
-      <c r="AH15" s="55"/>
-      <c r="AI15" s="55"/>
-      <c r="AJ15" s="55"/>
-      <c r="AK15" s="55"/>
-      <c r="AL15" s="55"/>
-      <c r="AM15" s="55"/>
-      <c r="AN15" s="55"/>
-      <c r="AO15" s="55"/>
-      <c r="AP15" s="55"/>
-      <c r="AQ15" s="55"/>
-      <c r="AR15" s="55"/>
-      <c r="AS15" s="55"/>
-      <c r="AT15" s="55"/>
-      <c r="AU15" s="55"/>
-      <c r="AV15" s="55"/>
-      <c r="AW15" s="55"/>
-      <c r="AX15" s="55"/>
-      <c r="AY15" s="55"/>
-      <c r="AZ15" s="55"/>
-      <c r="BA15" s="55"/>
-      <c r="BB15" s="55"/>
-      <c r="BC15" s="55"/>
-      <c r="BD15" s="55"/>
-      <c r="BE15" s="55"/>
-      <c r="BF15" s="55"/>
-      <c r="BG15" s="55"/>
-      <c r="BH15" s="55"/>
-      <c r="BI15" s="55"/>
-      <c r="BJ15" s="55"/>
-      <c r="BK15" s="55"/>
-      <c r="BL15" s="55"/>
-      <c r="BM15" s="55"/>
-      <c r="BN15" s="55"/>
-      <c r="BO15" s="55"/>
-      <c r="BP15" s="55"/>
-      <c r="BQ15" s="55"/>
-      <c r="BR15" s="55"/>
-      <c r="BS15" s="55"/>
-      <c r="BT15" s="55"/>
-      <c r="BU15" s="55"/>
-      <c r="BV15" s="55"/>
-      <c r="BW15" s="55"/>
-      <c r="BX15" s="55"/>
-      <c r="BY15" s="55"/>
-      <c r="BZ15" s="55"/>
-      <c r="CA15" s="55"/>
-      <c r="CB15" s="55"/>
-      <c r="CC15" s="55"/>
-      <c r="CD15" s="55"/>
-      <c r="CE15" s="55"/>
-      <c r="CF15" s="55"/>
-      <c r="CG15" s="55"/>
-      <c r="CH15" s="55"/>
-      <c r="CI15" s="55"/>
-      <c r="CJ15" s="55"/>
-      <c r="CK15" s="55"/>
-      <c r="CL15" s="55"/>
-      <c r="CM15" s="55"/>
-      <c r="CN15" s="55"/>
-      <c r="CO15" s="55"/>
-      <c r="CP15" s="55"/>
-      <c r="CQ15" s="55"/>
-      <c r="CR15" s="55"/>
-      <c r="CS15" s="55"/>
-      <c r="CT15" s="55"/>
-      <c r="CU15" s="55"/>
-      <c r="CV15" s="55"/>
-      <c r="CW15" s="55"/>
-      <c r="CX15" s="55"/>
-      <c r="CY15" s="55"/>
-      <c r="CZ15" s="55"/>
-      <c r="DA15" s="55"/>
-      <c r="DB15" s="55"/>
-      <c r="DC15" s="55"/>
-      <c r="DD15" s="55"/>
-      <c r="DE15" s="55"/>
-      <c r="DF15" s="55"/>
-      <c r="DG15" s="55"/>
-      <c r="DH15" s="55"/>
-      <c r="DI15" s="55"/>
-      <c r="DJ15" s="55"/>
-      <c r="DK15" s="55"/>
-      <c r="DL15" s="55"/>
-      <c r="DM15" s="55"/>
-      <c r="DN15" s="55"/>
-      <c r="DO15" s="55"/>
-      <c r="DP15" s="55"/>
-      <c r="DQ15" s="55"/>
-      <c r="DR15" s="55"/>
-      <c r="DS15" s="55"/>
-      <c r="DT15" s="55"/>
-      <c r="DU15" s="55"/>
-      <c r="DV15" s="55"/>
-      <c r="DW15" s="55"/>
-      <c r="DX15" s="55"/>
-      <c r="DY15" s="55"/>
-      <c r="DZ15" s="55"/>
-      <c r="EA15" s="55"/>
-      <c r="EB15" s="55"/>
-      <c r="EC15" s="55"/>
-      <c r="ED15" s="55"/>
-      <c r="EE15" s="55"/>
-      <c r="EF15" s="55"/>
-      <c r="EG15" s="55"/>
-      <c r="EH15" s="55"/>
-      <c r="EI15" s="55"/>
-      <c r="EJ15" s="55"/>
-      <c r="EK15" s="55"/>
-      <c r="EL15" s="55"/>
-      <c r="EM15" s="55"/>
-      <c r="EN15" s="55"/>
-      <c r="EO15" s="55"/>
-      <c r="EP15" s="55"/>
-      <c r="EQ15" s="55"/>
-      <c r="ER15" s="55"/>
-      <c r="ES15" s="55"/>
-      <c r="ET15" s="55"/>
-      <c r="EU15" s="55"/>
-      <c r="EV15" s="55"/>
-      <c r="EW15" s="55"/>
-      <c r="EX15" s="55"/>
-      <c r="EY15" s="55"/>
-      <c r="EZ15" s="55"/>
-      <c r="FA15" s="55"/>
-      <c r="FB15" s="55"/>
-      <c r="FC15" s="55"/>
-      <c r="FD15" s="55"/>
-      <c r="FE15" s="55"/>
-      <c r="FF15" s="55"/>
-      <c r="FG15" s="55"/>
-      <c r="FH15" s="55"/>
-      <c r="FI15" s="55"/>
-      <c r="FJ15" s="55"/>
-      <c r="FK15" s="55"/>
-      <c r="FL15" s="55"/>
-      <c r="FM15" s="55"/>
-      <c r="FN15" s="55"/>
-      <c r="FO15" s="55"/>
-      <c r="FP15" s="55"/>
-      <c r="FQ15" s="55"/>
-      <c r="FR15" s="55"/>
-      <c r="FS15" s="55"/>
-      <c r="FT15" s="55"/>
-      <c r="FU15" s="55"/>
-      <c r="FV15" s="55"/>
-      <c r="FW15" s="55"/>
-      <c r="FX15" s="55"/>
-      <c r="FY15" s="55"/>
-      <c r="FZ15" s="55"/>
-      <c r="GA15" s="55"/>
-      <c r="GB15" s="55"/>
-      <c r="GC15" s="55"/>
-      <c r="GD15" s="55"/>
-      <c r="GE15" s="55"/>
-      <c r="GF15" s="55"/>
-      <c r="GG15" s="55"/>
-      <c r="GH15" s="55"/>
-      <c r="GI15" s="55"/>
-      <c r="GJ15" s="55"/>
-      <c r="GK15" s="55"/>
-      <c r="GL15" s="55"/>
-      <c r="GM15" s="55"/>
-      <c r="GN15" s="55"/>
-      <c r="GO15" s="55"/>
-      <c r="GP15" s="55"/>
-      <c r="GQ15" s="55"/>
-      <c r="GR15" s="55"/>
-      <c r="GS15" s="55"/>
-      <c r="GT15" s="55"/>
-      <c r="GU15" s="55"/>
-      <c r="GV15" s="55"/>
-      <c r="GW15" s="55"/>
-      <c r="GX15" s="55"/>
-      <c r="GY15" s="55"/>
-      <c r="GZ15" s="55"/>
-      <c r="HA15" s="55"/>
-      <c r="HB15" s="55"/>
-      <c r="HC15" s="55"/>
-      <c r="HD15" s="55"/>
-      <c r="HE15" s="55"/>
-      <c r="HF15" s="55"/>
-      <c r="HG15" s="55"/>
-      <c r="HH15" s="55"/>
-      <c r="HI15" s="55"/>
-      <c r="HJ15" s="55"/>
-      <c r="HK15" s="55"/>
-      <c r="HL15" s="55"/>
-      <c r="HM15" s="55"/>
-      <c r="HN15" s="55"/>
-      <c r="HO15" s="55"/>
-      <c r="HP15" s="55"/>
-      <c r="HQ15" s="55"/>
-      <c r="HR15" s="55"/>
-      <c r="HS15" s="55"/>
-      <c r="HT15" s="55"/>
-      <c r="HU15" s="55"/>
-      <c r="HV15" s="55"/>
-      <c r="HW15" s="55"/>
-      <c r="HX15" s="55"/>
-      <c r="HY15" s="55"/>
-      <c r="HZ15" s="55"/>
-      <c r="IA15" s="55"/>
-      <c r="IB15" s="55"/>
-      <c r="IC15" s="55"/>
-      <c r="ID15" s="55"/>
-      <c r="IE15" s="55"/>
-      <c r="IF15" s="55"/>
-      <c r="IG15" s="55"/>
-      <c r="IH15" s="55"/>
-      <c r="II15" s="55"/>
-      <c r="IJ15" s="55"/>
-      <c r="IK15" s="55"/>
-      <c r="IL15" s="55"/>
-      <c r="IM15" s="55"/>
-      <c r="IN15" s="55"/>
-      <c r="IO15" s="55"/>
-      <c r="IP15" s="55"/>
-      <c r="IQ15" s="55"/>
-      <c r="IR15" s="55"/>
-      <c r="IS15" s="55"/>
-      <c r="IT15" s="55"/>
-      <c r="IU15" s="55"/>
-      <c r="IV15" s="55"/>
+    <row r="21" spans="1:256" s="56" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A21" s="53"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="55"/>
+      <c r="S21" s="55"/>
+      <c r="T21" s="55"/>
+      <c r="U21" s="55"/>
+      <c r="V21" s="55"/>
+      <c r="W21" s="55"/>
+      <c r="X21" s="55"/>
+      <c r="Y21" s="55"/>
+      <c r="Z21" s="55"/>
+      <c r="AA21" s="55"/>
+      <c r="AB21" s="55"/>
+      <c r="AC21" s="55"/>
+      <c r="AD21" s="55"/>
+      <c r="AE21" s="55"/>
+      <c r="AF21" s="55"/>
+      <c r="AG21" s="55"/>
+      <c r="AH21" s="55"/>
+      <c r="AI21" s="55"/>
+      <c r="AJ21" s="55"/>
+      <c r="AK21" s="55"/>
+      <c r="AL21" s="55"/>
+      <c r="AM21" s="55"/>
+      <c r="AN21" s="55"/>
+      <c r="AO21" s="55"/>
+      <c r="AP21" s="55"/>
+      <c r="AQ21" s="55"/>
+      <c r="AR21" s="55"/>
+      <c r="AS21" s="55"/>
+      <c r="AT21" s="55"/>
+      <c r="AU21" s="55"/>
+      <c r="AV21" s="55"/>
+      <c r="AW21" s="55"/>
+      <c r="AX21" s="55"/>
+      <c r="AY21" s="55"/>
+      <c r="AZ21" s="55"/>
+      <c r="BA21" s="55"/>
+      <c r="BB21" s="55"/>
+      <c r="BC21" s="55"/>
+      <c r="BD21" s="55"/>
+      <c r="BE21" s="55"/>
+      <c r="BF21" s="55"/>
+      <c r="BG21" s="55"/>
+      <c r="BH21" s="55"/>
+      <c r="BI21" s="55"/>
+      <c r="BJ21" s="55"/>
+      <c r="BK21" s="55"/>
+      <c r="BL21" s="55"/>
+      <c r="BM21" s="55"/>
+      <c r="BN21" s="55"/>
+      <c r="BO21" s="55"/>
+      <c r="BP21" s="55"/>
+      <c r="BQ21" s="55"/>
+      <c r="BR21" s="55"/>
+      <c r="BS21" s="55"/>
+      <c r="BT21" s="55"/>
+      <c r="BU21" s="55"/>
+      <c r="BV21" s="55"/>
+      <c r="BW21" s="55"/>
+      <c r="BX21" s="55"/>
+      <c r="BY21" s="55"/>
+      <c r="BZ21" s="55"/>
+      <c r="CA21" s="55"/>
+      <c r="CB21" s="55"/>
+      <c r="CC21" s="55"/>
+      <c r="CD21" s="55"/>
+      <c r="CE21" s="55"/>
+      <c r="CF21" s="55"/>
+      <c r="CG21" s="55"/>
+      <c r="CH21" s="55"/>
+      <c r="CI21" s="55"/>
+      <c r="CJ21" s="55"/>
+      <c r="CK21" s="55"/>
+      <c r="CL21" s="55"/>
+      <c r="CM21" s="55"/>
+      <c r="CN21" s="55"/>
+      <c r="CO21" s="55"/>
+      <c r="CP21" s="55"/>
+      <c r="CQ21" s="55"/>
+      <c r="CR21" s="55"/>
+      <c r="CS21" s="55"/>
+      <c r="CT21" s="55"/>
+      <c r="CU21" s="55"/>
+      <c r="CV21" s="55"/>
+      <c r="CW21" s="55"/>
+      <c r="CX21" s="55"/>
+      <c r="CY21" s="55"/>
+      <c r="CZ21" s="55"/>
+      <c r="DA21" s="55"/>
+      <c r="DB21" s="55"/>
+      <c r="DC21" s="55"/>
+      <c r="DD21" s="55"/>
+      <c r="DE21" s="55"/>
+      <c r="DF21" s="55"/>
+      <c r="DG21" s="55"/>
+      <c r="DH21" s="55"/>
+      <c r="DI21" s="55"/>
+      <c r="DJ21" s="55"/>
+      <c r="DK21" s="55"/>
+      <c r="DL21" s="55"/>
+      <c r="DM21" s="55"/>
+      <c r="DN21" s="55"/>
+      <c r="DO21" s="55"/>
+      <c r="DP21" s="55"/>
+      <c r="DQ21" s="55"/>
+      <c r="DR21" s="55"/>
+      <c r="DS21" s="55"/>
+      <c r="DT21" s="55"/>
+      <c r="DU21" s="55"/>
+      <c r="DV21" s="55"/>
+      <c r="DW21" s="55"/>
+      <c r="DX21" s="55"/>
+      <c r="DY21" s="55"/>
+      <c r="DZ21" s="55"/>
+      <c r="EA21" s="55"/>
+      <c r="EB21" s="55"/>
+      <c r="EC21" s="55"/>
+      <c r="ED21" s="55"/>
+      <c r="EE21" s="55"/>
+      <c r="EF21" s="55"/>
+      <c r="EG21" s="55"/>
+      <c r="EH21" s="55"/>
+      <c r="EI21" s="55"/>
+      <c r="EJ21" s="55"/>
+      <c r="EK21" s="55"/>
+      <c r="EL21" s="55"/>
+      <c r="EM21" s="55"/>
+      <c r="EN21" s="55"/>
+      <c r="EO21" s="55"/>
+      <c r="EP21" s="55"/>
+      <c r="EQ21" s="55"/>
+      <c r="ER21" s="55"/>
+      <c r="ES21" s="55"/>
+      <c r="ET21" s="55"/>
+      <c r="EU21" s="55"/>
+      <c r="EV21" s="55"/>
+      <c r="EW21" s="55"/>
+      <c r="EX21" s="55"/>
+      <c r="EY21" s="55"/>
+      <c r="EZ21" s="55"/>
+      <c r="FA21" s="55"/>
+      <c r="FB21" s="55"/>
+      <c r="FC21" s="55"/>
+      <c r="FD21" s="55"/>
+      <c r="FE21" s="55"/>
+      <c r="FF21" s="55"/>
+      <c r="FG21" s="55"/>
+      <c r="FH21" s="55"/>
+      <c r="FI21" s="55"/>
+      <c r="FJ21" s="55"/>
+      <c r="FK21" s="55"/>
+      <c r="FL21" s="55"/>
+      <c r="FM21" s="55"/>
+      <c r="FN21" s="55"/>
+      <c r="FO21" s="55"/>
+      <c r="FP21" s="55"/>
+      <c r="FQ21" s="55"/>
+      <c r="FR21" s="55"/>
+      <c r="FS21" s="55"/>
+      <c r="FT21" s="55"/>
+      <c r="FU21" s="55"/>
+      <c r="FV21" s="55"/>
+      <c r="FW21" s="55"/>
+      <c r="FX21" s="55"/>
+      <c r="FY21" s="55"/>
+      <c r="FZ21" s="55"/>
+      <c r="GA21" s="55"/>
+      <c r="GB21" s="55"/>
+      <c r="GC21" s="55"/>
+      <c r="GD21" s="55"/>
+      <c r="GE21" s="55"/>
+      <c r="GF21" s="55"/>
+      <c r="GG21" s="55"/>
+      <c r="GH21" s="55"/>
+      <c r="GI21" s="55"/>
+      <c r="GJ21" s="55"/>
+      <c r="GK21" s="55"/>
+      <c r="GL21" s="55"/>
+      <c r="GM21" s="55"/>
+      <c r="GN21" s="55"/>
+      <c r="GO21" s="55"/>
+      <c r="GP21" s="55"/>
+      <c r="GQ21" s="55"/>
+      <c r="GR21" s="55"/>
+      <c r="GS21" s="55"/>
+      <c r="GT21" s="55"/>
+      <c r="GU21" s="55"/>
+      <c r="GV21" s="55"/>
+      <c r="GW21" s="55"/>
+      <c r="GX21" s="55"/>
+      <c r="GY21" s="55"/>
+      <c r="GZ21" s="55"/>
+      <c r="HA21" s="55"/>
+      <c r="HB21" s="55"/>
+      <c r="HC21" s="55"/>
+      <c r="HD21" s="55"/>
+      <c r="HE21" s="55"/>
+      <c r="HF21" s="55"/>
+      <c r="HG21" s="55"/>
+      <c r="HH21" s="55"/>
+      <c r="HI21" s="55"/>
+      <c r="HJ21" s="55"/>
+      <c r="HK21" s="55"/>
+      <c r="HL21" s="55"/>
+      <c r="HM21" s="55"/>
+      <c r="HN21" s="55"/>
+      <c r="HO21" s="55"/>
+      <c r="HP21" s="55"/>
+      <c r="HQ21" s="55"/>
+      <c r="HR21" s="55"/>
+      <c r="HS21" s="55"/>
+      <c r="HT21" s="55"/>
+      <c r="HU21" s="55"/>
+      <c r="HV21" s="55"/>
+      <c r="HW21" s="55"/>
+      <c r="HX21" s="55"/>
+      <c r="HY21" s="55"/>
+      <c r="HZ21" s="55"/>
+      <c r="IA21" s="55"/>
+      <c r="IB21" s="55"/>
+      <c r="IC21" s="55"/>
+      <c r="ID21" s="55"/>
+      <c r="IE21" s="55"/>
+      <c r="IF21" s="55"/>
+      <c r="IG21" s="55"/>
+      <c r="IH21" s="55"/>
+      <c r="II21" s="55"/>
+      <c r="IJ21" s="55"/>
+      <c r="IK21" s="55"/>
+      <c r="IL21" s="55"/>
+      <c r="IM21" s="55"/>
+      <c r="IN21" s="55"/>
+      <c r="IO21" s="55"/>
+      <c r="IP21" s="55"/>
+      <c r="IQ21" s="55"/>
+      <c r="IR21" s="55"/>
+      <c r="IS21" s="55"/>
+      <c r="IT21" s="55"/>
+      <c r="IU21" s="55"/>
+      <c r="IV21" s="55"/>
     </row>
-    <row r="16" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-    </row>
-    <row r="17" spans="1:255" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="L17" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="M17" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="N17" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="O17" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="P17" s="29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:255" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="40" t="s">
-        <v>206</v>
-      </c>
-      <c r="F18" s="40" t="s">
-        <v>207</v>
-      </c>
-      <c r="G18" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="I18" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="J18" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="L18" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="M18" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="N18" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="O18" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="P18" s="40" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:255" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>207</v>
-      </c>
-      <c r="F19" s="40" t="s">
-        <v>223</v>
-      </c>
-      <c r="G19" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="I19" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="J19" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="K19" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="L19" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="M19" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="N19" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="O19" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="P19" s="40" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="5"/>
-      <c r="AD21" s="5"/>
-      <c r="AE21" s="5"/>
-      <c r="AF21" s="5"/>
-      <c r="AG21" s="5"/>
-      <c r="AH21" s="5"/>
-      <c r="AI21" s="5"/>
-      <c r="AJ21" s="5"/>
-      <c r="AK21" s="5"/>
-      <c r="AL21" s="5"/>
-      <c r="AM21" s="5"/>
-      <c r="AN21" s="5"/>
-      <c r="AO21" s="5"/>
-      <c r="AP21" s="5"/>
-      <c r="AQ21" s="5"/>
-      <c r="AR21" s="5"/>
-      <c r="AS21" s="5"/>
-      <c r="AT21" s="5"/>
-      <c r="AU21" s="5"/>
-      <c r="AV21" s="5"/>
-      <c r="AW21" s="5"/>
-      <c r="AX21" s="5"/>
-      <c r="AY21" s="5"/>
-      <c r="AZ21" s="5"/>
-      <c r="BA21" s="5"/>
-      <c r="BB21" s="5"/>
-      <c r="BC21" s="5"/>
-      <c r="BD21" s="5"/>
-      <c r="BE21" s="5"/>
-      <c r="BF21" s="5"/>
-      <c r="BG21" s="5"/>
-      <c r="BH21" s="5"/>
-      <c r="BI21" s="5"/>
-      <c r="BJ21" s="5"/>
-      <c r="BK21" s="5"/>
-      <c r="BL21" s="5"/>
-      <c r="BM21" s="5"/>
-      <c r="BN21" s="5"/>
-      <c r="BO21" s="5"/>
-      <c r="BP21" s="5"/>
-      <c r="BQ21" s="5"/>
-      <c r="BR21" s="5"/>
-      <c r="BS21" s="5"/>
-      <c r="BT21" s="5"/>
-      <c r="BU21" s="5"/>
-      <c r="BV21" s="5"/>
-      <c r="BW21" s="5"/>
-      <c r="BX21" s="5"/>
-      <c r="BY21" s="5"/>
-      <c r="BZ21" s="5"/>
-      <c r="CA21" s="5"/>
-      <c r="CB21" s="5"/>
-      <c r="CC21" s="5"/>
-      <c r="CD21" s="5"/>
-      <c r="CE21" s="5"/>
-      <c r="CF21" s="5"/>
-      <c r="CG21" s="5"/>
-      <c r="CH21" s="5"/>
-      <c r="CI21" s="5"/>
-      <c r="CJ21" s="5"/>
-      <c r="CK21" s="5"/>
-      <c r="CL21" s="5"/>
-      <c r="CM21" s="5"/>
-      <c r="CN21" s="5"/>
-      <c r="CO21" s="5"/>
-      <c r="CP21" s="5"/>
-      <c r="CQ21" s="5"/>
-      <c r="CR21" s="5"/>
-      <c r="CS21" s="5"/>
-      <c r="CT21" s="5"/>
-      <c r="CU21" s="5"/>
-      <c r="CV21" s="5"/>
-      <c r="CW21" s="5"/>
-      <c r="CX21" s="5"/>
-      <c r="CY21" s="5"/>
-      <c r="CZ21" s="5"/>
-      <c r="DA21" s="5"/>
-      <c r="DB21" s="5"/>
-      <c r="DC21" s="5"/>
-      <c r="DD21" s="5"/>
-      <c r="DE21" s="5"/>
-      <c r="DF21" s="5"/>
-      <c r="DG21" s="5"/>
-      <c r="DH21" s="5"/>
-      <c r="DI21" s="5"/>
-      <c r="DJ21" s="5"/>
-      <c r="DK21" s="5"/>
-      <c r="DL21" s="5"/>
-      <c r="DM21" s="5"/>
-      <c r="DN21" s="5"/>
-      <c r="DO21" s="5"/>
-      <c r="DP21" s="5"/>
-      <c r="DQ21" s="5"/>
-      <c r="DR21" s="5"/>
-      <c r="DS21" s="5"/>
-      <c r="DT21" s="5"/>
-      <c r="DU21" s="5"/>
-      <c r="DV21" s="5"/>
-      <c r="DW21" s="5"/>
-      <c r="DX21" s="5"/>
-      <c r="DY21" s="5"/>
-      <c r="DZ21" s="5"/>
-      <c r="EA21" s="5"/>
-      <c r="EB21" s="5"/>
-      <c r="EC21" s="5"/>
-      <c r="ED21" s="5"/>
-      <c r="EE21" s="5"/>
-      <c r="EF21" s="5"/>
-      <c r="EG21" s="5"/>
-      <c r="EH21" s="5"/>
-      <c r="EI21" s="5"/>
-      <c r="EJ21" s="5"/>
-      <c r="EK21" s="5"/>
-      <c r="EL21" s="5"/>
-      <c r="EM21" s="5"/>
-      <c r="EN21" s="5"/>
-      <c r="EO21" s="5"/>
-      <c r="EP21" s="5"/>
-      <c r="EQ21" s="5"/>
-      <c r="ER21" s="5"/>
-      <c r="ES21" s="5"/>
-      <c r="ET21" s="5"/>
-      <c r="EU21" s="5"/>
-      <c r="EV21" s="5"/>
-      <c r="EW21" s="5"/>
-      <c r="EX21" s="5"/>
-      <c r="EY21" s="5"/>
-      <c r="EZ21" s="5"/>
-      <c r="FA21" s="5"/>
-      <c r="FB21" s="5"/>
-      <c r="FC21" s="5"/>
-      <c r="FD21" s="5"/>
-      <c r="FE21" s="5"/>
-      <c r="FF21" s="5"/>
-      <c r="FG21" s="5"/>
-      <c r="FH21" s="5"/>
-      <c r="FI21" s="5"/>
-      <c r="FJ21" s="5"/>
-      <c r="FK21" s="5"/>
-      <c r="FL21" s="5"/>
-      <c r="FM21" s="5"/>
-      <c r="FN21" s="5"/>
-      <c r="FO21" s="5"/>
-      <c r="FP21" s="5"/>
-      <c r="FQ21" s="5"/>
-      <c r="FR21" s="5"/>
-      <c r="FS21" s="5"/>
-      <c r="FT21" s="5"/>
-      <c r="FU21" s="5"/>
-      <c r="FV21" s="5"/>
-      <c r="FW21" s="5"/>
-      <c r="FX21" s="5"/>
-      <c r="FY21" s="5"/>
-      <c r="FZ21" s="5"/>
-      <c r="GA21" s="5"/>
-      <c r="GB21" s="5"/>
-      <c r="GC21" s="5"/>
-      <c r="GD21" s="5"/>
-      <c r="GE21" s="5"/>
-      <c r="GF21" s="5"/>
-      <c r="GG21" s="5"/>
-      <c r="GH21" s="5"/>
-      <c r="GI21" s="5"/>
-      <c r="GJ21" s="5"/>
-      <c r="GK21" s="5"/>
-      <c r="GL21" s="5"/>
-      <c r="GM21" s="5"/>
-      <c r="GN21" s="5"/>
-      <c r="GO21" s="5"/>
-      <c r="GP21" s="5"/>
-      <c r="GQ21" s="5"/>
-      <c r="GR21" s="5"/>
-      <c r="GS21" s="5"/>
-      <c r="GT21" s="5"/>
-      <c r="GU21" s="5"/>
-      <c r="GV21" s="5"/>
-      <c r="GW21" s="5"/>
-      <c r="GX21" s="5"/>
-      <c r="GY21" s="5"/>
-      <c r="GZ21" s="5"/>
-      <c r="HA21" s="5"/>
-      <c r="HB21" s="5"/>
-      <c r="HC21" s="5"/>
-      <c r="HD21" s="5"/>
-      <c r="HE21" s="5"/>
-      <c r="HF21" s="5"/>
-      <c r="HG21" s="5"/>
-      <c r="HH21" s="5"/>
-      <c r="HI21" s="5"/>
-      <c r="HJ21" s="5"/>
-      <c r="HK21" s="5"/>
-      <c r="HL21" s="5"/>
-      <c r="HM21" s="5"/>
-      <c r="HN21" s="5"/>
-      <c r="HO21" s="5"/>
-      <c r="HP21" s="5"/>
-      <c r="HQ21" s="5"/>
-      <c r="HR21" s="5"/>
-      <c r="HS21" s="5"/>
-      <c r="HT21" s="5"/>
-      <c r="HU21" s="5"/>
-      <c r="HV21" s="5"/>
-      <c r="HW21" s="5"/>
-      <c r="HX21" s="5"/>
-      <c r="HY21" s="5"/>
-      <c r="HZ21" s="5"/>
-      <c r="IA21" s="5"/>
-      <c r="IB21" s="5"/>
-      <c r="IC21" s="5"/>
-      <c r="ID21" s="5"/>
-      <c r="IE21" s="5"/>
-      <c r="IF21" s="5"/>
-      <c r="IG21" s="5"/>
-      <c r="IH21" s="5"/>
-      <c r="II21" s="5"/>
-      <c r="IJ21" s="5"/>
-      <c r="IK21" s="5"/>
-      <c r="IL21" s="5"/>
-      <c r="IM21" s="5"/>
-      <c r="IN21" s="5"/>
-      <c r="IO21" s="5"/>
-      <c r="IP21" s="5"/>
-      <c r="IQ21" s="5"/>
-      <c r="IR21" s="5"/>
-      <c r="IS21" s="5"/>
-      <c r="IT21" s="5"/>
-      <c r="IU21" s="5"/>
-    </row>
-    <row r="22" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>3</v>
       </c>
@@ -11679,7 +11679,7 @@
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:255" ht="15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:256" ht="15" x14ac:dyDescent="0.35">
       <c r="A23" s="38" t="s">
         <v>8</v>
       </c>
@@ -11687,7 +11687,7 @@
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
     </row>
-    <row r="24" spans="1:255" ht="15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:256" ht="15" x14ac:dyDescent="0.35">
       <c r="A24" s="34">
         <v>1</v>
       </c>
@@ -11695,7 +11695,7 @@
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
     </row>
-    <row r="26" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>60</v>
       </c>
@@ -11954,17 +11954,17 @@
       <c r="IT26" s="5"/>
       <c r="IU26" s="5"/>
     </row>
-    <row r="27" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A29" s="33" t="s">
         <v>42</v>
       </c>
@@ -11972,19 +11972,19 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A30" s="31" t="s">
         <v>49</v>
       </c>
       <c r="B30" s="31"/>
     </row>
-    <row r="31" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A31" s="31" t="s">
         <v>77</v>
       </c>
       <c r="B31" s="31"/>
     </row>
-    <row r="32" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A32" s="31" t="s">
         <v>44</v>
       </c>
@@ -25188,536 +25188,271 @@
       <c r="IU11" s="17"/>
       <c r="IV11" s="17"/>
     </row>
-    <row r="12" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A12" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="17"/>
-      <c r="AC12" s="17"/>
-      <c r="AD12" s="17"/>
-      <c r="AE12" s="17"/>
-      <c r="AF12" s="17"/>
-      <c r="AG12" s="17"/>
-      <c r="AH12" s="17"/>
-      <c r="AI12" s="17"/>
-      <c r="AJ12" s="17"/>
-      <c r="AK12" s="17"/>
-      <c r="AL12" s="17"/>
-      <c r="AM12" s="17"/>
-      <c r="AN12" s="17"/>
-      <c r="AO12" s="17"/>
-      <c r="AP12" s="17"/>
-      <c r="AQ12" s="17"/>
-      <c r="AR12" s="17"/>
-      <c r="AS12" s="17"/>
-      <c r="AT12" s="17"/>
-      <c r="AU12" s="17"/>
-      <c r="AV12" s="17"/>
-      <c r="AW12" s="17"/>
-      <c r="AX12" s="17"/>
-      <c r="AY12" s="17"/>
-      <c r="AZ12" s="17"/>
-      <c r="BA12" s="17"/>
-      <c r="BB12" s="17"/>
-      <c r="BC12" s="17"/>
-      <c r="BD12" s="17"/>
-      <c r="BE12" s="17"/>
-      <c r="BF12" s="17"/>
-      <c r="BG12" s="17"/>
-      <c r="BH12" s="17"/>
-      <c r="BI12" s="17"/>
-      <c r="BJ12" s="17"/>
-      <c r="BK12" s="17"/>
-      <c r="BL12" s="17"/>
-      <c r="BM12" s="17"/>
-      <c r="BN12" s="17"/>
-      <c r="BO12" s="17"/>
-      <c r="BP12" s="17"/>
-      <c r="BQ12" s="17"/>
-      <c r="BR12" s="17"/>
-      <c r="BS12" s="17"/>
-      <c r="BT12" s="17"/>
-      <c r="BU12" s="17"/>
-      <c r="BV12" s="17"/>
-      <c r="BW12" s="17"/>
-      <c r="BX12" s="17"/>
-      <c r="BY12" s="17"/>
-      <c r="BZ12" s="17"/>
-      <c r="CA12" s="17"/>
-      <c r="CB12" s="17"/>
-      <c r="CC12" s="17"/>
-      <c r="CD12" s="17"/>
-      <c r="CE12" s="17"/>
-      <c r="CF12" s="17"/>
-      <c r="CG12" s="17"/>
-      <c r="CH12" s="17"/>
-      <c r="CI12" s="17"/>
-      <c r="CJ12" s="17"/>
-      <c r="CK12" s="17"/>
-      <c r="CL12" s="17"/>
-      <c r="CM12" s="17"/>
-      <c r="CN12" s="17"/>
-      <c r="CO12" s="17"/>
-      <c r="CP12" s="17"/>
-      <c r="CQ12" s="17"/>
-      <c r="CR12" s="17"/>
-      <c r="CS12" s="17"/>
-      <c r="CT12" s="17"/>
-      <c r="CU12" s="17"/>
-      <c r="CV12" s="17"/>
-      <c r="CW12" s="17"/>
-      <c r="CX12" s="17"/>
-      <c r="CY12" s="17"/>
-      <c r="CZ12" s="17"/>
-      <c r="DA12" s="17"/>
-      <c r="DB12" s="17"/>
-      <c r="DC12" s="17"/>
-      <c r="DD12" s="17"/>
-      <c r="DE12" s="17"/>
-      <c r="DF12" s="17"/>
-      <c r="DG12" s="17"/>
-      <c r="DH12" s="17"/>
-      <c r="DI12" s="17"/>
-      <c r="DJ12" s="17"/>
-      <c r="DK12" s="17"/>
-      <c r="DL12" s="17"/>
-      <c r="DM12" s="17"/>
-      <c r="DN12" s="17"/>
-      <c r="DO12" s="17"/>
-      <c r="DP12" s="17"/>
-      <c r="DQ12" s="17"/>
-      <c r="DR12" s="17"/>
-      <c r="DS12" s="17"/>
-      <c r="DT12" s="17"/>
-      <c r="DU12" s="17"/>
-      <c r="DV12" s="17"/>
-      <c r="DW12" s="17"/>
-      <c r="DX12" s="17"/>
-      <c r="DY12" s="17"/>
-      <c r="DZ12" s="17"/>
-      <c r="EA12" s="17"/>
-      <c r="EB12" s="17"/>
-      <c r="EC12" s="17"/>
-      <c r="ED12" s="17"/>
-      <c r="EE12" s="17"/>
-      <c r="EF12" s="17"/>
-      <c r="EG12" s="17"/>
-      <c r="EH12" s="17"/>
-      <c r="EI12" s="17"/>
-      <c r="EJ12" s="17"/>
-      <c r="EK12" s="17"/>
-      <c r="EL12" s="17"/>
-      <c r="EM12" s="17"/>
-      <c r="EN12" s="17"/>
-      <c r="EO12" s="17"/>
-      <c r="EP12" s="17"/>
-      <c r="EQ12" s="17"/>
-      <c r="ER12" s="17"/>
-      <c r="ES12" s="17"/>
-      <c r="ET12" s="17"/>
-      <c r="EU12" s="17"/>
-      <c r="EV12" s="17"/>
-      <c r="EW12" s="17"/>
-      <c r="EX12" s="17"/>
-      <c r="EY12" s="17"/>
-      <c r="EZ12" s="17"/>
-      <c r="FA12" s="17"/>
-      <c r="FB12" s="17"/>
-      <c r="FC12" s="17"/>
-      <c r="FD12" s="17"/>
-      <c r="FE12" s="17"/>
-      <c r="FF12" s="17"/>
-      <c r="FG12" s="17"/>
-      <c r="FH12" s="17"/>
-      <c r="FI12" s="17"/>
-      <c r="FJ12" s="17"/>
-      <c r="FK12" s="17"/>
-      <c r="FL12" s="17"/>
-      <c r="FM12" s="17"/>
-      <c r="FN12" s="17"/>
-      <c r="FO12" s="17"/>
-      <c r="FP12" s="17"/>
-      <c r="FQ12" s="17"/>
-      <c r="FR12" s="17"/>
-      <c r="FS12" s="17"/>
-      <c r="FT12" s="17"/>
-      <c r="FU12" s="17"/>
-      <c r="FV12" s="17"/>
-      <c r="FW12" s="17"/>
-      <c r="FX12" s="17"/>
-      <c r="FY12" s="17"/>
-      <c r="FZ12" s="17"/>
-      <c r="GA12" s="17"/>
-      <c r="GB12" s="17"/>
-      <c r="GC12" s="17"/>
-      <c r="GD12" s="17"/>
-      <c r="GE12" s="17"/>
-      <c r="GF12" s="17"/>
-      <c r="GG12" s="17"/>
-      <c r="GH12" s="17"/>
-      <c r="GI12" s="17"/>
-      <c r="GJ12" s="17"/>
-      <c r="GK12" s="17"/>
-      <c r="GL12" s="17"/>
-      <c r="GM12" s="17"/>
-      <c r="GN12" s="17"/>
-      <c r="GO12" s="17"/>
-      <c r="GP12" s="17"/>
-      <c r="GQ12" s="17"/>
-      <c r="GR12" s="17"/>
-      <c r="GS12" s="17"/>
-      <c r="GT12" s="17"/>
-      <c r="GU12" s="17"/>
-      <c r="GV12" s="17"/>
-      <c r="GW12" s="17"/>
-      <c r="GX12" s="17"/>
-      <c r="GY12" s="17"/>
-      <c r="GZ12" s="17"/>
-      <c r="HA12" s="17"/>
-      <c r="HB12" s="17"/>
-      <c r="HC12" s="17"/>
-      <c r="HD12" s="17"/>
-      <c r="HE12" s="17"/>
-      <c r="HF12" s="17"/>
-      <c r="HG12" s="17"/>
-      <c r="HH12" s="17"/>
-      <c r="HI12" s="17"/>
-      <c r="HJ12" s="17"/>
-      <c r="HK12" s="17"/>
-      <c r="HL12" s="17"/>
-      <c r="HM12" s="17"/>
-      <c r="HN12" s="17"/>
-      <c r="HO12" s="17"/>
-      <c r="HP12" s="17"/>
-      <c r="HQ12" s="17"/>
-      <c r="HR12" s="17"/>
-      <c r="HS12" s="17"/>
-      <c r="HT12" s="17"/>
-      <c r="HU12" s="17"/>
-      <c r="HV12" s="17"/>
-      <c r="HW12" s="17"/>
-      <c r="HX12" s="17"/>
-      <c r="HY12" s="17"/>
-      <c r="HZ12" s="17"/>
-      <c r="IA12" s="17"/>
-      <c r="IB12" s="17"/>
-      <c r="IC12" s="17"/>
-      <c r="ID12" s="17"/>
-      <c r="IE12" s="17"/>
-      <c r="IF12" s="17"/>
-      <c r="IG12" s="17"/>
-      <c r="IH12" s="17"/>
-      <c r="II12" s="17"/>
-      <c r="IJ12" s="17"/>
-      <c r="IK12" s="17"/>
-      <c r="IL12" s="17"/>
-      <c r="IM12" s="17"/>
-      <c r="IN12" s="17"/>
-      <c r="IO12" s="17"/>
-      <c r="IP12" s="17"/>
-      <c r="IQ12" s="17"/>
-      <c r="IR12" s="17"/>
-      <c r="IS12" s="17"/>
-      <c r="IT12" s="17"/>
-      <c r="IU12" s="17"/>
-      <c r="IV12" s="17"/>
-    </row>
-    <row r="13" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A13" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="17"/>
-      <c r="AI13" s="17"/>
-      <c r="AJ13" s="17"/>
-      <c r="AK13" s="17"/>
-      <c r="AL13" s="17"/>
-      <c r="AM13" s="17"/>
-      <c r="AN13" s="17"/>
-      <c r="AO13" s="17"/>
-      <c r="AP13" s="17"/>
-      <c r="AQ13" s="17"/>
-      <c r="AR13" s="17"/>
-      <c r="AS13" s="17"/>
-      <c r="AT13" s="17"/>
-      <c r="AU13" s="17"/>
-      <c r="AV13" s="17"/>
-      <c r="AW13" s="17"/>
-      <c r="AX13" s="17"/>
-      <c r="AY13" s="17"/>
-      <c r="AZ13" s="17"/>
-      <c r="BA13" s="17"/>
-      <c r="BB13" s="17"/>
-      <c r="BC13" s="17"/>
-      <c r="BD13" s="17"/>
-      <c r="BE13" s="17"/>
-      <c r="BF13" s="17"/>
-      <c r="BG13" s="17"/>
-      <c r="BH13" s="17"/>
-      <c r="BI13" s="17"/>
-      <c r="BJ13" s="17"/>
-      <c r="BK13" s="17"/>
-      <c r="BL13" s="17"/>
-      <c r="BM13" s="17"/>
-      <c r="BN13" s="17"/>
-      <c r="BO13" s="17"/>
-      <c r="BP13" s="17"/>
-      <c r="BQ13" s="17"/>
-      <c r="BR13" s="17"/>
-      <c r="BS13" s="17"/>
-      <c r="BT13" s="17"/>
-      <c r="BU13" s="17"/>
-      <c r="BV13" s="17"/>
-      <c r="BW13" s="17"/>
-      <c r="BX13" s="17"/>
-      <c r="BY13" s="17"/>
-      <c r="BZ13" s="17"/>
-      <c r="CA13" s="17"/>
-      <c r="CB13" s="17"/>
-      <c r="CC13" s="17"/>
-      <c r="CD13" s="17"/>
-      <c r="CE13" s="17"/>
-      <c r="CF13" s="17"/>
-      <c r="CG13" s="17"/>
-      <c r="CH13" s="17"/>
-      <c r="CI13" s="17"/>
-      <c r="CJ13" s="17"/>
-      <c r="CK13" s="17"/>
-      <c r="CL13" s="17"/>
-      <c r="CM13" s="17"/>
-      <c r="CN13" s="17"/>
-      <c r="CO13" s="17"/>
-      <c r="CP13" s="17"/>
-      <c r="CQ13" s="17"/>
-      <c r="CR13" s="17"/>
-      <c r="CS13" s="17"/>
-      <c r="CT13" s="17"/>
-      <c r="CU13" s="17"/>
-      <c r="CV13" s="17"/>
-      <c r="CW13" s="17"/>
-      <c r="CX13" s="17"/>
-      <c r="CY13" s="17"/>
-      <c r="CZ13" s="17"/>
-      <c r="DA13" s="17"/>
-      <c r="DB13" s="17"/>
-      <c r="DC13" s="17"/>
-      <c r="DD13" s="17"/>
-      <c r="DE13" s="17"/>
-      <c r="DF13" s="17"/>
-      <c r="DG13" s="17"/>
-      <c r="DH13" s="17"/>
-      <c r="DI13" s="17"/>
-      <c r="DJ13" s="17"/>
-      <c r="DK13" s="17"/>
-      <c r="DL13" s="17"/>
-      <c r="DM13" s="17"/>
-      <c r="DN13" s="17"/>
-      <c r="DO13" s="17"/>
-      <c r="DP13" s="17"/>
-      <c r="DQ13" s="17"/>
-      <c r="DR13" s="17"/>
-      <c r="DS13" s="17"/>
-      <c r="DT13" s="17"/>
-      <c r="DU13" s="17"/>
-      <c r="DV13" s="17"/>
-      <c r="DW13" s="17"/>
-      <c r="DX13" s="17"/>
-      <c r="DY13" s="17"/>
-      <c r="DZ13" s="17"/>
-      <c r="EA13" s="17"/>
-      <c r="EB13" s="17"/>
-      <c r="EC13" s="17"/>
-      <c r="ED13" s="17"/>
-      <c r="EE13" s="17"/>
-      <c r="EF13" s="17"/>
-      <c r="EG13" s="17"/>
-      <c r="EH13" s="17"/>
-      <c r="EI13" s="17"/>
-      <c r="EJ13" s="17"/>
-      <c r="EK13" s="17"/>
-      <c r="EL13" s="17"/>
-      <c r="EM13" s="17"/>
-      <c r="EN13" s="17"/>
-      <c r="EO13" s="17"/>
-      <c r="EP13" s="17"/>
-      <c r="EQ13" s="17"/>
-      <c r="ER13" s="17"/>
-      <c r="ES13" s="17"/>
-      <c r="ET13" s="17"/>
-      <c r="EU13" s="17"/>
-      <c r="EV13" s="17"/>
-      <c r="EW13" s="17"/>
-      <c r="EX13" s="17"/>
-      <c r="EY13" s="17"/>
-      <c r="EZ13" s="17"/>
-      <c r="FA13" s="17"/>
-      <c r="FB13" s="17"/>
-      <c r="FC13" s="17"/>
-      <c r="FD13" s="17"/>
-      <c r="FE13" s="17"/>
-      <c r="FF13" s="17"/>
-      <c r="FG13" s="17"/>
-      <c r="FH13" s="17"/>
-      <c r="FI13" s="17"/>
-      <c r="FJ13" s="17"/>
-      <c r="FK13" s="17"/>
-      <c r="FL13" s="17"/>
-      <c r="FM13" s="17"/>
-      <c r="FN13" s="17"/>
-      <c r="FO13" s="17"/>
-      <c r="FP13" s="17"/>
-      <c r="FQ13" s="17"/>
-      <c r="FR13" s="17"/>
-      <c r="FS13" s="17"/>
-      <c r="FT13" s="17"/>
-      <c r="FU13" s="17"/>
-      <c r="FV13" s="17"/>
-      <c r="FW13" s="17"/>
-      <c r="FX13" s="17"/>
-      <c r="FY13" s="17"/>
-      <c r="FZ13" s="17"/>
-      <c r="GA13" s="17"/>
-      <c r="GB13" s="17"/>
-      <c r="GC13" s="17"/>
-      <c r="GD13" s="17"/>
-      <c r="GE13" s="17"/>
-      <c r="GF13" s="17"/>
-      <c r="GG13" s="17"/>
-      <c r="GH13" s="17"/>
-      <c r="GI13" s="17"/>
-      <c r="GJ13" s="17"/>
-      <c r="GK13" s="17"/>
-      <c r="GL13" s="17"/>
-      <c r="GM13" s="17"/>
-      <c r="GN13" s="17"/>
-      <c r="GO13" s="17"/>
-      <c r="GP13" s="17"/>
-      <c r="GQ13" s="17"/>
-      <c r="GR13" s="17"/>
-      <c r="GS13" s="17"/>
-      <c r="GT13" s="17"/>
-      <c r="GU13" s="17"/>
-      <c r="GV13" s="17"/>
-      <c r="GW13" s="17"/>
-      <c r="GX13" s="17"/>
-      <c r="GY13" s="17"/>
-      <c r="GZ13" s="17"/>
-      <c r="HA13" s="17"/>
-      <c r="HB13" s="17"/>
-      <c r="HC13" s="17"/>
-      <c r="HD13" s="17"/>
-      <c r="HE13" s="17"/>
-      <c r="HF13" s="17"/>
-      <c r="HG13" s="17"/>
-      <c r="HH13" s="17"/>
-      <c r="HI13" s="17"/>
-      <c r="HJ13" s="17"/>
-      <c r="HK13" s="17"/>
-      <c r="HL13" s="17"/>
-      <c r="HM13" s="17"/>
-      <c r="HN13" s="17"/>
-      <c r="HO13" s="17"/>
-      <c r="HP13" s="17"/>
-      <c r="HQ13" s="17"/>
-      <c r="HR13" s="17"/>
-      <c r="HS13" s="17"/>
-      <c r="HT13" s="17"/>
-      <c r="HU13" s="17"/>
-      <c r="HV13" s="17"/>
-      <c r="HW13" s="17"/>
-      <c r="HX13" s="17"/>
-      <c r="HY13" s="17"/>
-      <c r="HZ13" s="17"/>
-      <c r="IA13" s="17"/>
-      <c r="IB13" s="17"/>
-      <c r="IC13" s="17"/>
-      <c r="ID13" s="17"/>
-      <c r="IE13" s="17"/>
-      <c r="IF13" s="17"/>
-      <c r="IG13" s="17"/>
-      <c r="IH13" s="17"/>
-      <c r="II13" s="17"/>
-      <c r="IJ13" s="17"/>
-      <c r="IK13" s="17"/>
-      <c r="IL13" s="17"/>
-      <c r="IM13" s="17"/>
-      <c r="IN13" s="17"/>
-      <c r="IO13" s="17"/>
-      <c r="IP13" s="17"/>
-      <c r="IQ13" s="17"/>
-      <c r="IR13" s="17"/>
-      <c r="IS13" s="17"/>
-      <c r="IT13" s="17"/>
-      <c r="IU13" s="17"/>
-      <c r="IV13" s="17"/>
+    <row r="13" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="5"/>
+      <c r="AN13" s="5"/>
+      <c r="AO13" s="5"/>
+      <c r="AP13" s="5"/>
+      <c r="AQ13" s="5"/>
+      <c r="AR13" s="5"/>
+      <c r="AS13" s="5"/>
+      <c r="AT13" s="5"/>
+      <c r="AU13" s="5"/>
+      <c r="AV13" s="5"/>
+      <c r="AW13" s="5"/>
+      <c r="AX13" s="5"/>
+      <c r="AY13" s="5"/>
+      <c r="AZ13" s="5"/>
+      <c r="BA13" s="5"/>
+      <c r="BB13" s="5"/>
+      <c r="BC13" s="5"/>
+      <c r="BD13" s="5"/>
+      <c r="BE13" s="5"/>
+      <c r="BF13" s="5"/>
+      <c r="BG13" s="5"/>
+      <c r="BH13" s="5"/>
+      <c r="BI13" s="5"/>
+      <c r="BJ13" s="5"/>
+      <c r="BK13" s="5"/>
+      <c r="BL13" s="5"/>
+      <c r="BM13" s="5"/>
+      <c r="BN13" s="5"/>
+      <c r="BO13" s="5"/>
+      <c r="BP13" s="5"/>
+      <c r="BQ13" s="5"/>
+      <c r="BR13" s="5"/>
+      <c r="BS13" s="5"/>
+      <c r="BT13" s="5"/>
+      <c r="BU13" s="5"/>
+      <c r="BV13" s="5"/>
+      <c r="BW13" s="5"/>
+      <c r="BX13" s="5"/>
+      <c r="BY13" s="5"/>
+      <c r="BZ13" s="5"/>
+      <c r="CA13" s="5"/>
+      <c r="CB13" s="5"/>
+      <c r="CC13" s="5"/>
+      <c r="CD13" s="5"/>
+      <c r="CE13" s="5"/>
+      <c r="CF13" s="5"/>
+      <c r="CG13" s="5"/>
+      <c r="CH13" s="5"/>
+      <c r="CI13" s="5"/>
+      <c r="CJ13" s="5"/>
+      <c r="CK13" s="5"/>
+      <c r="CL13" s="5"/>
+      <c r="CM13" s="5"/>
+      <c r="CN13" s="5"/>
+      <c r="CO13" s="5"/>
+      <c r="CP13" s="5"/>
+      <c r="CQ13" s="5"/>
+      <c r="CR13" s="5"/>
+      <c r="CS13" s="5"/>
+      <c r="CT13" s="5"/>
+      <c r="CU13" s="5"/>
+      <c r="CV13" s="5"/>
+      <c r="CW13" s="5"/>
+      <c r="CX13" s="5"/>
+      <c r="CY13" s="5"/>
+      <c r="CZ13" s="5"/>
+      <c r="DA13" s="5"/>
+      <c r="DB13" s="5"/>
+      <c r="DC13" s="5"/>
+      <c r="DD13" s="5"/>
+      <c r="DE13" s="5"/>
+      <c r="DF13" s="5"/>
+      <c r="DG13" s="5"/>
+      <c r="DH13" s="5"/>
+      <c r="DI13" s="5"/>
+      <c r="DJ13" s="5"/>
+      <c r="DK13" s="5"/>
+      <c r="DL13" s="5"/>
+      <c r="DM13" s="5"/>
+      <c r="DN13" s="5"/>
+      <c r="DO13" s="5"/>
+      <c r="DP13" s="5"/>
+      <c r="DQ13" s="5"/>
+      <c r="DR13" s="5"/>
+      <c r="DS13" s="5"/>
+      <c r="DT13" s="5"/>
+      <c r="DU13" s="5"/>
+      <c r="DV13" s="5"/>
+      <c r="DW13" s="5"/>
+      <c r="DX13" s="5"/>
+      <c r="DY13" s="5"/>
+      <c r="DZ13" s="5"/>
+      <c r="EA13" s="5"/>
+      <c r="EB13" s="5"/>
+      <c r="EC13" s="5"/>
+      <c r="ED13" s="5"/>
+      <c r="EE13" s="5"/>
+      <c r="EF13" s="5"/>
+      <c r="EG13" s="5"/>
+      <c r="EH13" s="5"/>
+      <c r="EI13" s="5"/>
+      <c r="EJ13" s="5"/>
+      <c r="EK13" s="5"/>
+      <c r="EL13" s="5"/>
+      <c r="EM13" s="5"/>
+      <c r="EN13" s="5"/>
+      <c r="EO13" s="5"/>
+      <c r="EP13" s="5"/>
+      <c r="EQ13" s="5"/>
+      <c r="ER13" s="5"/>
+      <c r="ES13" s="5"/>
+      <c r="ET13" s="5"/>
+      <c r="EU13" s="5"/>
+      <c r="EV13" s="5"/>
+      <c r="EW13" s="5"/>
+      <c r="EX13" s="5"/>
+      <c r="EY13" s="5"/>
+      <c r="EZ13" s="5"/>
+      <c r="FA13" s="5"/>
+      <c r="FB13" s="5"/>
+      <c r="FC13" s="5"/>
+      <c r="FD13" s="5"/>
+      <c r="FE13" s="5"/>
+      <c r="FF13" s="5"/>
+      <c r="FG13" s="5"/>
+      <c r="FH13" s="5"/>
+      <c r="FI13" s="5"/>
+      <c r="FJ13" s="5"/>
+      <c r="FK13" s="5"/>
+      <c r="FL13" s="5"/>
+      <c r="FM13" s="5"/>
+      <c r="FN13" s="5"/>
+      <c r="FO13" s="5"/>
+      <c r="FP13" s="5"/>
+      <c r="FQ13" s="5"/>
+      <c r="FR13" s="5"/>
+      <c r="FS13" s="5"/>
+      <c r="FT13" s="5"/>
+      <c r="FU13" s="5"/>
+      <c r="FV13" s="5"/>
+      <c r="FW13" s="5"/>
+      <c r="FX13" s="5"/>
+      <c r="FY13" s="5"/>
+      <c r="FZ13" s="5"/>
+      <c r="GA13" s="5"/>
+      <c r="GB13" s="5"/>
+      <c r="GC13" s="5"/>
+      <c r="GD13" s="5"/>
+      <c r="GE13" s="5"/>
+      <c r="GF13" s="5"/>
+      <c r="GG13" s="5"/>
+      <c r="GH13" s="5"/>
+      <c r="GI13" s="5"/>
+      <c r="GJ13" s="5"/>
+      <c r="GK13" s="5"/>
+      <c r="GL13" s="5"/>
+      <c r="GM13" s="5"/>
+      <c r="GN13" s="5"/>
+      <c r="GO13" s="5"/>
+      <c r="GP13" s="5"/>
+      <c r="GQ13" s="5"/>
+      <c r="GR13" s="5"/>
+      <c r="GS13" s="5"/>
+      <c r="GT13" s="5"/>
+      <c r="GU13" s="5"/>
+      <c r="GV13" s="5"/>
+      <c r="GW13" s="5"/>
+      <c r="GX13" s="5"/>
+      <c r="GY13" s="5"/>
+      <c r="GZ13" s="5"/>
+      <c r="HA13" s="5"/>
+      <c r="HB13" s="5"/>
+      <c r="HC13" s="5"/>
+      <c r="HD13" s="5"/>
+      <c r="HE13" s="5"/>
+      <c r="HF13" s="5"/>
+      <c r="HG13" s="5"/>
+      <c r="HH13" s="5"/>
+      <c r="HI13" s="5"/>
+      <c r="HJ13" s="5"/>
+      <c r="HK13" s="5"/>
+      <c r="HL13" s="5"/>
+      <c r="HM13" s="5"/>
+      <c r="HN13" s="5"/>
+      <c r="HO13" s="5"/>
+      <c r="HP13" s="5"/>
+      <c r="HQ13" s="5"/>
+      <c r="HR13" s="5"/>
+      <c r="HS13" s="5"/>
+      <c r="HT13" s="5"/>
+      <c r="HU13" s="5"/>
+      <c r="HV13" s="5"/>
+      <c r="HW13" s="5"/>
+      <c r="HX13" s="5"/>
+      <c r="HY13" s="5"/>
+      <c r="HZ13" s="5"/>
+      <c r="IA13" s="5"/>
+      <c r="IB13" s="5"/>
+      <c r="IC13" s="5"/>
+      <c r="ID13" s="5"/>
+      <c r="IE13" s="5"/>
+      <c r="IF13" s="5"/>
+      <c r="IG13" s="5"/>
+      <c r="IH13" s="5"/>
+      <c r="II13" s="5"/>
+      <c r="IJ13" s="5"/>
+      <c r="IK13" s="5"/>
+      <c r="IL13" s="5"/>
+      <c r="IM13" s="5"/>
+      <c r="IN13" s="5"/>
+      <c r="IO13" s="5"/>
+      <c r="IP13" s="5"/>
+      <c r="IQ13" s="5"/>
+      <c r="IR13" s="5"/>
+      <c r="IS13" s="5"/>
+      <c r="IT13" s="5"/>
+      <c r="IU13" s="5"/>
     </row>
     <row r="14" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A14" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
+      <c r="A14" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
@@ -25973,9 +25708,15 @@
       <c r="IV14" s="17"/>
     </row>
     <row r="15" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A15" s="53"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="17"/>
+      <c r="A15" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>114</v>
+      </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
@@ -26230,266 +25971,525 @@
       <c r="IU15" s="17"/>
       <c r="IV15" s="17"/>
     </row>
-    <row r="17" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="5"/>
-      <c r="AF17" s="5"/>
-      <c r="AG17" s="5"/>
-      <c r="AH17" s="5"/>
-      <c r="AI17" s="5"/>
-      <c r="AJ17" s="5"/>
-      <c r="AK17" s="5"/>
-      <c r="AL17" s="5"/>
-      <c r="AM17" s="5"/>
-      <c r="AN17" s="5"/>
-      <c r="AO17" s="5"/>
-      <c r="AP17" s="5"/>
-      <c r="AQ17" s="5"/>
-      <c r="AR17" s="5"/>
-      <c r="AS17" s="5"/>
-      <c r="AT17" s="5"/>
-      <c r="AU17" s="5"/>
-      <c r="AV17" s="5"/>
-      <c r="AW17" s="5"/>
-      <c r="AX17" s="5"/>
-      <c r="AY17" s="5"/>
-      <c r="AZ17" s="5"/>
-      <c r="BA17" s="5"/>
-      <c r="BB17" s="5"/>
-      <c r="BC17" s="5"/>
-      <c r="BD17" s="5"/>
-      <c r="BE17" s="5"/>
-      <c r="BF17" s="5"/>
-      <c r="BG17" s="5"/>
-      <c r="BH17" s="5"/>
-      <c r="BI17" s="5"/>
-      <c r="BJ17" s="5"/>
-      <c r="BK17" s="5"/>
-      <c r="BL17" s="5"/>
-      <c r="BM17" s="5"/>
-      <c r="BN17" s="5"/>
-      <c r="BO17" s="5"/>
-      <c r="BP17" s="5"/>
-      <c r="BQ17" s="5"/>
-      <c r="BR17" s="5"/>
-      <c r="BS17" s="5"/>
-      <c r="BT17" s="5"/>
-      <c r="BU17" s="5"/>
-      <c r="BV17" s="5"/>
-      <c r="BW17" s="5"/>
-      <c r="BX17" s="5"/>
-      <c r="BY17" s="5"/>
-      <c r="BZ17" s="5"/>
-      <c r="CA17" s="5"/>
-      <c r="CB17" s="5"/>
-      <c r="CC17" s="5"/>
-      <c r="CD17" s="5"/>
-      <c r="CE17" s="5"/>
-      <c r="CF17" s="5"/>
-      <c r="CG17" s="5"/>
-      <c r="CH17" s="5"/>
-      <c r="CI17" s="5"/>
-      <c r="CJ17" s="5"/>
-      <c r="CK17" s="5"/>
-      <c r="CL17" s="5"/>
-      <c r="CM17" s="5"/>
-      <c r="CN17" s="5"/>
-      <c r="CO17" s="5"/>
-      <c r="CP17" s="5"/>
-      <c r="CQ17" s="5"/>
-      <c r="CR17" s="5"/>
-      <c r="CS17" s="5"/>
-      <c r="CT17" s="5"/>
-      <c r="CU17" s="5"/>
-      <c r="CV17" s="5"/>
-      <c r="CW17" s="5"/>
-      <c r="CX17" s="5"/>
-      <c r="CY17" s="5"/>
-      <c r="CZ17" s="5"/>
-      <c r="DA17" s="5"/>
-      <c r="DB17" s="5"/>
-      <c r="DC17" s="5"/>
-      <c r="DD17" s="5"/>
-      <c r="DE17" s="5"/>
-      <c r="DF17" s="5"/>
-      <c r="DG17" s="5"/>
-      <c r="DH17" s="5"/>
-      <c r="DI17" s="5"/>
-      <c r="DJ17" s="5"/>
-      <c r="DK17" s="5"/>
-      <c r="DL17" s="5"/>
-      <c r="DM17" s="5"/>
-      <c r="DN17" s="5"/>
-      <c r="DO17" s="5"/>
-      <c r="DP17" s="5"/>
-      <c r="DQ17" s="5"/>
-      <c r="DR17" s="5"/>
-      <c r="DS17" s="5"/>
-      <c r="DT17" s="5"/>
-      <c r="DU17" s="5"/>
-      <c r="DV17" s="5"/>
-      <c r="DW17" s="5"/>
-      <c r="DX17" s="5"/>
-      <c r="DY17" s="5"/>
-      <c r="DZ17" s="5"/>
-      <c r="EA17" s="5"/>
-      <c r="EB17" s="5"/>
-      <c r="EC17" s="5"/>
-      <c r="ED17" s="5"/>
-      <c r="EE17" s="5"/>
-      <c r="EF17" s="5"/>
-      <c r="EG17" s="5"/>
-      <c r="EH17" s="5"/>
-      <c r="EI17" s="5"/>
-      <c r="EJ17" s="5"/>
-      <c r="EK17" s="5"/>
-      <c r="EL17" s="5"/>
-      <c r="EM17" s="5"/>
-      <c r="EN17" s="5"/>
-      <c r="EO17" s="5"/>
-      <c r="EP17" s="5"/>
-      <c r="EQ17" s="5"/>
-      <c r="ER17" s="5"/>
-      <c r="ES17" s="5"/>
-      <c r="ET17" s="5"/>
-      <c r="EU17" s="5"/>
-      <c r="EV17" s="5"/>
-      <c r="EW17" s="5"/>
-      <c r="EX17" s="5"/>
-      <c r="EY17" s="5"/>
-      <c r="EZ17" s="5"/>
-      <c r="FA17" s="5"/>
-      <c r="FB17" s="5"/>
-      <c r="FC17" s="5"/>
-      <c r="FD17" s="5"/>
-      <c r="FE17" s="5"/>
-      <c r="FF17" s="5"/>
-      <c r="FG17" s="5"/>
-      <c r="FH17" s="5"/>
-      <c r="FI17" s="5"/>
-      <c r="FJ17" s="5"/>
-      <c r="FK17" s="5"/>
-      <c r="FL17" s="5"/>
-      <c r="FM17" s="5"/>
-      <c r="FN17" s="5"/>
-      <c r="FO17" s="5"/>
-      <c r="FP17" s="5"/>
-      <c r="FQ17" s="5"/>
-      <c r="FR17" s="5"/>
-      <c r="FS17" s="5"/>
-      <c r="FT17" s="5"/>
-      <c r="FU17" s="5"/>
-      <c r="FV17" s="5"/>
-      <c r="FW17" s="5"/>
-      <c r="FX17" s="5"/>
-      <c r="FY17" s="5"/>
-      <c r="FZ17" s="5"/>
-      <c r="GA17" s="5"/>
-      <c r="GB17" s="5"/>
-      <c r="GC17" s="5"/>
-      <c r="GD17" s="5"/>
-      <c r="GE17" s="5"/>
-      <c r="GF17" s="5"/>
-      <c r="GG17" s="5"/>
-      <c r="GH17" s="5"/>
-      <c r="GI17" s="5"/>
-      <c r="GJ17" s="5"/>
-      <c r="GK17" s="5"/>
-      <c r="GL17" s="5"/>
-      <c r="GM17" s="5"/>
-      <c r="GN17" s="5"/>
-      <c r="GO17" s="5"/>
-      <c r="GP17" s="5"/>
-      <c r="GQ17" s="5"/>
-      <c r="GR17" s="5"/>
-      <c r="GS17" s="5"/>
-      <c r="GT17" s="5"/>
-      <c r="GU17" s="5"/>
-      <c r="GV17" s="5"/>
-      <c r="GW17" s="5"/>
-      <c r="GX17" s="5"/>
-      <c r="GY17" s="5"/>
-      <c r="GZ17" s="5"/>
-      <c r="HA17" s="5"/>
-      <c r="HB17" s="5"/>
-      <c r="HC17" s="5"/>
-      <c r="HD17" s="5"/>
-      <c r="HE17" s="5"/>
-      <c r="HF17" s="5"/>
-      <c r="HG17" s="5"/>
-      <c r="HH17" s="5"/>
-      <c r="HI17" s="5"/>
-      <c r="HJ17" s="5"/>
-      <c r="HK17" s="5"/>
-      <c r="HL17" s="5"/>
-      <c r="HM17" s="5"/>
-      <c r="HN17" s="5"/>
-      <c r="HO17" s="5"/>
-      <c r="HP17" s="5"/>
-      <c r="HQ17" s="5"/>
-      <c r="HR17" s="5"/>
-      <c r="HS17" s="5"/>
-      <c r="HT17" s="5"/>
-      <c r="HU17" s="5"/>
-      <c r="HV17" s="5"/>
-      <c r="HW17" s="5"/>
-      <c r="HX17" s="5"/>
-      <c r="HY17" s="5"/>
-      <c r="HZ17" s="5"/>
-      <c r="IA17" s="5"/>
-      <c r="IB17" s="5"/>
-      <c r="IC17" s="5"/>
-      <c r="ID17" s="5"/>
-      <c r="IE17" s="5"/>
-      <c r="IF17" s="5"/>
-      <c r="IG17" s="5"/>
-      <c r="IH17" s="5"/>
-      <c r="II17" s="5"/>
-      <c r="IJ17" s="5"/>
-      <c r="IK17" s="5"/>
-      <c r="IL17" s="5"/>
-      <c r="IM17" s="5"/>
-      <c r="IN17" s="5"/>
-      <c r="IO17" s="5"/>
-      <c r="IP17" s="5"/>
-      <c r="IQ17" s="5"/>
-      <c r="IR17" s="5"/>
-      <c r="IS17" s="5"/>
-      <c r="IT17" s="5"/>
-      <c r="IU17" s="5"/>
+    <row r="16" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A16" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="46"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
+      <c r="AG16" s="17"/>
+      <c r="AH16" s="17"/>
+      <c r="AI16" s="17"/>
+      <c r="AJ16" s="17"/>
+      <c r="AK16" s="17"/>
+      <c r="AL16" s="17"/>
+      <c r="AM16" s="17"/>
+      <c r="AN16" s="17"/>
+      <c r="AO16" s="17"/>
+      <c r="AP16" s="17"/>
+      <c r="AQ16" s="17"/>
+      <c r="AR16" s="17"/>
+      <c r="AS16" s="17"/>
+      <c r="AT16" s="17"/>
+      <c r="AU16" s="17"/>
+      <c r="AV16" s="17"/>
+      <c r="AW16" s="17"/>
+      <c r="AX16" s="17"/>
+      <c r="AY16" s="17"/>
+      <c r="AZ16" s="17"/>
+      <c r="BA16" s="17"/>
+      <c r="BB16" s="17"/>
+      <c r="BC16" s="17"/>
+      <c r="BD16" s="17"/>
+      <c r="BE16" s="17"/>
+      <c r="BF16" s="17"/>
+      <c r="BG16" s="17"/>
+      <c r="BH16" s="17"/>
+      <c r="BI16" s="17"/>
+      <c r="BJ16" s="17"/>
+      <c r="BK16" s="17"/>
+      <c r="BL16" s="17"/>
+      <c r="BM16" s="17"/>
+      <c r="BN16" s="17"/>
+      <c r="BO16" s="17"/>
+      <c r="BP16" s="17"/>
+      <c r="BQ16" s="17"/>
+      <c r="BR16" s="17"/>
+      <c r="BS16" s="17"/>
+      <c r="BT16" s="17"/>
+      <c r="BU16" s="17"/>
+      <c r="BV16" s="17"/>
+      <c r="BW16" s="17"/>
+      <c r="BX16" s="17"/>
+      <c r="BY16" s="17"/>
+      <c r="BZ16" s="17"/>
+      <c r="CA16" s="17"/>
+      <c r="CB16" s="17"/>
+      <c r="CC16" s="17"/>
+      <c r="CD16" s="17"/>
+      <c r="CE16" s="17"/>
+      <c r="CF16" s="17"/>
+      <c r="CG16" s="17"/>
+      <c r="CH16" s="17"/>
+      <c r="CI16" s="17"/>
+      <c r="CJ16" s="17"/>
+      <c r="CK16" s="17"/>
+      <c r="CL16" s="17"/>
+      <c r="CM16" s="17"/>
+      <c r="CN16" s="17"/>
+      <c r="CO16" s="17"/>
+      <c r="CP16" s="17"/>
+      <c r="CQ16" s="17"/>
+      <c r="CR16" s="17"/>
+      <c r="CS16" s="17"/>
+      <c r="CT16" s="17"/>
+      <c r="CU16" s="17"/>
+      <c r="CV16" s="17"/>
+      <c r="CW16" s="17"/>
+      <c r="CX16" s="17"/>
+      <c r="CY16" s="17"/>
+      <c r="CZ16" s="17"/>
+      <c r="DA16" s="17"/>
+      <c r="DB16" s="17"/>
+      <c r="DC16" s="17"/>
+      <c r="DD16" s="17"/>
+      <c r="DE16" s="17"/>
+      <c r="DF16" s="17"/>
+      <c r="DG16" s="17"/>
+      <c r="DH16" s="17"/>
+      <c r="DI16" s="17"/>
+      <c r="DJ16" s="17"/>
+      <c r="DK16" s="17"/>
+      <c r="DL16" s="17"/>
+      <c r="DM16" s="17"/>
+      <c r="DN16" s="17"/>
+      <c r="DO16" s="17"/>
+      <c r="DP16" s="17"/>
+      <c r="DQ16" s="17"/>
+      <c r="DR16" s="17"/>
+      <c r="DS16" s="17"/>
+      <c r="DT16" s="17"/>
+      <c r="DU16" s="17"/>
+      <c r="DV16" s="17"/>
+      <c r="DW16" s="17"/>
+      <c r="DX16" s="17"/>
+      <c r="DY16" s="17"/>
+      <c r="DZ16" s="17"/>
+      <c r="EA16" s="17"/>
+      <c r="EB16" s="17"/>
+      <c r="EC16" s="17"/>
+      <c r="ED16" s="17"/>
+      <c r="EE16" s="17"/>
+      <c r="EF16" s="17"/>
+      <c r="EG16" s="17"/>
+      <c r="EH16" s="17"/>
+      <c r="EI16" s="17"/>
+      <c r="EJ16" s="17"/>
+      <c r="EK16" s="17"/>
+      <c r="EL16" s="17"/>
+      <c r="EM16" s="17"/>
+      <c r="EN16" s="17"/>
+      <c r="EO16" s="17"/>
+      <c r="EP16" s="17"/>
+      <c r="EQ16" s="17"/>
+      <c r="ER16" s="17"/>
+      <c r="ES16" s="17"/>
+      <c r="ET16" s="17"/>
+      <c r="EU16" s="17"/>
+      <c r="EV16" s="17"/>
+      <c r="EW16" s="17"/>
+      <c r="EX16" s="17"/>
+      <c r="EY16" s="17"/>
+      <c r="EZ16" s="17"/>
+      <c r="FA16" s="17"/>
+      <c r="FB16" s="17"/>
+      <c r="FC16" s="17"/>
+      <c r="FD16" s="17"/>
+      <c r="FE16" s="17"/>
+      <c r="FF16" s="17"/>
+      <c r="FG16" s="17"/>
+      <c r="FH16" s="17"/>
+      <c r="FI16" s="17"/>
+      <c r="FJ16" s="17"/>
+      <c r="FK16" s="17"/>
+      <c r="FL16" s="17"/>
+      <c r="FM16" s="17"/>
+      <c r="FN16" s="17"/>
+      <c r="FO16" s="17"/>
+      <c r="FP16" s="17"/>
+      <c r="FQ16" s="17"/>
+      <c r="FR16" s="17"/>
+      <c r="FS16" s="17"/>
+      <c r="FT16" s="17"/>
+      <c r="FU16" s="17"/>
+      <c r="FV16" s="17"/>
+      <c r="FW16" s="17"/>
+      <c r="FX16" s="17"/>
+      <c r="FY16" s="17"/>
+      <c r="FZ16" s="17"/>
+      <c r="GA16" s="17"/>
+      <c r="GB16" s="17"/>
+      <c r="GC16" s="17"/>
+      <c r="GD16" s="17"/>
+      <c r="GE16" s="17"/>
+      <c r="GF16" s="17"/>
+      <c r="GG16" s="17"/>
+      <c r="GH16" s="17"/>
+      <c r="GI16" s="17"/>
+      <c r="GJ16" s="17"/>
+      <c r="GK16" s="17"/>
+      <c r="GL16" s="17"/>
+      <c r="GM16" s="17"/>
+      <c r="GN16" s="17"/>
+      <c r="GO16" s="17"/>
+      <c r="GP16" s="17"/>
+      <c r="GQ16" s="17"/>
+      <c r="GR16" s="17"/>
+      <c r="GS16" s="17"/>
+      <c r="GT16" s="17"/>
+      <c r="GU16" s="17"/>
+      <c r="GV16" s="17"/>
+      <c r="GW16" s="17"/>
+      <c r="GX16" s="17"/>
+      <c r="GY16" s="17"/>
+      <c r="GZ16" s="17"/>
+      <c r="HA16" s="17"/>
+      <c r="HB16" s="17"/>
+      <c r="HC16" s="17"/>
+      <c r="HD16" s="17"/>
+      <c r="HE16" s="17"/>
+      <c r="HF16" s="17"/>
+      <c r="HG16" s="17"/>
+      <c r="HH16" s="17"/>
+      <c r="HI16" s="17"/>
+      <c r="HJ16" s="17"/>
+      <c r="HK16" s="17"/>
+      <c r="HL16" s="17"/>
+      <c r="HM16" s="17"/>
+      <c r="HN16" s="17"/>
+      <c r="HO16" s="17"/>
+      <c r="HP16" s="17"/>
+      <c r="HQ16" s="17"/>
+      <c r="HR16" s="17"/>
+      <c r="HS16" s="17"/>
+      <c r="HT16" s="17"/>
+      <c r="HU16" s="17"/>
+      <c r="HV16" s="17"/>
+      <c r="HW16" s="17"/>
+      <c r="HX16" s="17"/>
+      <c r="HY16" s="17"/>
+      <c r="HZ16" s="17"/>
+      <c r="IA16" s="17"/>
+      <c r="IB16" s="17"/>
+      <c r="IC16" s="17"/>
+      <c r="ID16" s="17"/>
+      <c r="IE16" s="17"/>
+      <c r="IF16" s="17"/>
+      <c r="IG16" s="17"/>
+      <c r="IH16" s="17"/>
+      <c r="II16" s="17"/>
+      <c r="IJ16" s="17"/>
+      <c r="IK16" s="17"/>
+      <c r="IL16" s="17"/>
+      <c r="IM16" s="17"/>
+      <c r="IN16" s="17"/>
+      <c r="IO16" s="17"/>
+      <c r="IP16" s="17"/>
+      <c r="IQ16" s="17"/>
+      <c r="IR16" s="17"/>
+      <c r="IS16" s="17"/>
+      <c r="IT16" s="17"/>
+      <c r="IU16" s="17"/>
+      <c r="IV16" s="17"/>
     </row>
-    <row r="18" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A17" s="53"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="17"/>
+      <c r="AG17" s="17"/>
+      <c r="AH17" s="17"/>
+      <c r="AI17" s="17"/>
+      <c r="AJ17" s="17"/>
+      <c r="AK17" s="17"/>
+      <c r="AL17" s="17"/>
+      <c r="AM17" s="17"/>
+      <c r="AN17" s="17"/>
+      <c r="AO17" s="17"/>
+      <c r="AP17" s="17"/>
+      <c r="AQ17" s="17"/>
+      <c r="AR17" s="17"/>
+      <c r="AS17" s="17"/>
+      <c r="AT17" s="17"/>
+      <c r="AU17" s="17"/>
+      <c r="AV17" s="17"/>
+      <c r="AW17" s="17"/>
+      <c r="AX17" s="17"/>
+      <c r="AY17" s="17"/>
+      <c r="AZ17" s="17"/>
+      <c r="BA17" s="17"/>
+      <c r="BB17" s="17"/>
+      <c r="BC17" s="17"/>
+      <c r="BD17" s="17"/>
+      <c r="BE17" s="17"/>
+      <c r="BF17" s="17"/>
+      <c r="BG17" s="17"/>
+      <c r="BH17" s="17"/>
+      <c r="BI17" s="17"/>
+      <c r="BJ17" s="17"/>
+      <c r="BK17" s="17"/>
+      <c r="BL17" s="17"/>
+      <c r="BM17" s="17"/>
+      <c r="BN17" s="17"/>
+      <c r="BO17" s="17"/>
+      <c r="BP17" s="17"/>
+      <c r="BQ17" s="17"/>
+      <c r="BR17" s="17"/>
+      <c r="BS17" s="17"/>
+      <c r="BT17" s="17"/>
+      <c r="BU17" s="17"/>
+      <c r="BV17" s="17"/>
+      <c r="BW17" s="17"/>
+      <c r="BX17" s="17"/>
+      <c r="BY17" s="17"/>
+      <c r="BZ17" s="17"/>
+      <c r="CA17" s="17"/>
+      <c r="CB17" s="17"/>
+      <c r="CC17" s="17"/>
+      <c r="CD17" s="17"/>
+      <c r="CE17" s="17"/>
+      <c r="CF17" s="17"/>
+      <c r="CG17" s="17"/>
+      <c r="CH17" s="17"/>
+      <c r="CI17" s="17"/>
+      <c r="CJ17" s="17"/>
+      <c r="CK17" s="17"/>
+      <c r="CL17" s="17"/>
+      <c r="CM17" s="17"/>
+      <c r="CN17" s="17"/>
+      <c r="CO17" s="17"/>
+      <c r="CP17" s="17"/>
+      <c r="CQ17" s="17"/>
+      <c r="CR17" s="17"/>
+      <c r="CS17" s="17"/>
+      <c r="CT17" s="17"/>
+      <c r="CU17" s="17"/>
+      <c r="CV17" s="17"/>
+      <c r="CW17" s="17"/>
+      <c r="CX17" s="17"/>
+      <c r="CY17" s="17"/>
+      <c r="CZ17" s="17"/>
+      <c r="DA17" s="17"/>
+      <c r="DB17" s="17"/>
+      <c r="DC17" s="17"/>
+      <c r="DD17" s="17"/>
+      <c r="DE17" s="17"/>
+      <c r="DF17" s="17"/>
+      <c r="DG17" s="17"/>
+      <c r="DH17" s="17"/>
+      <c r="DI17" s="17"/>
+      <c r="DJ17" s="17"/>
+      <c r="DK17" s="17"/>
+      <c r="DL17" s="17"/>
+      <c r="DM17" s="17"/>
+      <c r="DN17" s="17"/>
+      <c r="DO17" s="17"/>
+      <c r="DP17" s="17"/>
+      <c r="DQ17" s="17"/>
+      <c r="DR17" s="17"/>
+      <c r="DS17" s="17"/>
+      <c r="DT17" s="17"/>
+      <c r="DU17" s="17"/>
+      <c r="DV17" s="17"/>
+      <c r="DW17" s="17"/>
+      <c r="DX17" s="17"/>
+      <c r="DY17" s="17"/>
+      <c r="DZ17" s="17"/>
+      <c r="EA17" s="17"/>
+      <c r="EB17" s="17"/>
+      <c r="EC17" s="17"/>
+      <c r="ED17" s="17"/>
+      <c r="EE17" s="17"/>
+      <c r="EF17" s="17"/>
+      <c r="EG17" s="17"/>
+      <c r="EH17" s="17"/>
+      <c r="EI17" s="17"/>
+      <c r="EJ17" s="17"/>
+      <c r="EK17" s="17"/>
+      <c r="EL17" s="17"/>
+      <c r="EM17" s="17"/>
+      <c r="EN17" s="17"/>
+      <c r="EO17" s="17"/>
+      <c r="EP17" s="17"/>
+      <c r="EQ17" s="17"/>
+      <c r="ER17" s="17"/>
+      <c r="ES17" s="17"/>
+      <c r="ET17" s="17"/>
+      <c r="EU17" s="17"/>
+      <c r="EV17" s="17"/>
+      <c r="EW17" s="17"/>
+      <c r="EX17" s="17"/>
+      <c r="EY17" s="17"/>
+      <c r="EZ17" s="17"/>
+      <c r="FA17" s="17"/>
+      <c r="FB17" s="17"/>
+      <c r="FC17" s="17"/>
+      <c r="FD17" s="17"/>
+      <c r="FE17" s="17"/>
+      <c r="FF17" s="17"/>
+      <c r="FG17" s="17"/>
+      <c r="FH17" s="17"/>
+      <c r="FI17" s="17"/>
+      <c r="FJ17" s="17"/>
+      <c r="FK17" s="17"/>
+      <c r="FL17" s="17"/>
+      <c r="FM17" s="17"/>
+      <c r="FN17" s="17"/>
+      <c r="FO17" s="17"/>
+      <c r="FP17" s="17"/>
+      <c r="FQ17" s="17"/>
+      <c r="FR17" s="17"/>
+      <c r="FS17" s="17"/>
+      <c r="FT17" s="17"/>
+      <c r="FU17" s="17"/>
+      <c r="FV17" s="17"/>
+      <c r="FW17" s="17"/>
+      <c r="FX17" s="17"/>
+      <c r="FY17" s="17"/>
+      <c r="FZ17" s="17"/>
+      <c r="GA17" s="17"/>
+      <c r="GB17" s="17"/>
+      <c r="GC17" s="17"/>
+      <c r="GD17" s="17"/>
+      <c r="GE17" s="17"/>
+      <c r="GF17" s="17"/>
+      <c r="GG17" s="17"/>
+      <c r="GH17" s="17"/>
+      <c r="GI17" s="17"/>
+      <c r="GJ17" s="17"/>
+      <c r="GK17" s="17"/>
+      <c r="GL17" s="17"/>
+      <c r="GM17" s="17"/>
+      <c r="GN17" s="17"/>
+      <c r="GO17" s="17"/>
+      <c r="GP17" s="17"/>
+      <c r="GQ17" s="17"/>
+      <c r="GR17" s="17"/>
+      <c r="GS17" s="17"/>
+      <c r="GT17" s="17"/>
+      <c r="GU17" s="17"/>
+      <c r="GV17" s="17"/>
+      <c r="GW17" s="17"/>
+      <c r="GX17" s="17"/>
+      <c r="GY17" s="17"/>
+      <c r="GZ17" s="17"/>
+      <c r="HA17" s="17"/>
+      <c r="HB17" s="17"/>
+      <c r="HC17" s="17"/>
+      <c r="HD17" s="17"/>
+      <c r="HE17" s="17"/>
+      <c r="HF17" s="17"/>
+      <c r="HG17" s="17"/>
+      <c r="HH17" s="17"/>
+      <c r="HI17" s="17"/>
+      <c r="HJ17" s="17"/>
+      <c r="HK17" s="17"/>
+      <c r="HL17" s="17"/>
+      <c r="HM17" s="17"/>
+      <c r="HN17" s="17"/>
+      <c r="HO17" s="17"/>
+      <c r="HP17" s="17"/>
+      <c r="HQ17" s="17"/>
+      <c r="HR17" s="17"/>
+      <c r="HS17" s="17"/>
+      <c r="HT17" s="17"/>
+      <c r="HU17" s="17"/>
+      <c r="HV17" s="17"/>
+      <c r="HW17" s="17"/>
+      <c r="HX17" s="17"/>
+      <c r="HY17" s="17"/>
+      <c r="HZ17" s="17"/>
+      <c r="IA17" s="17"/>
+      <c r="IB17" s="17"/>
+      <c r="IC17" s="17"/>
+      <c r="ID17" s="17"/>
+      <c r="IE17" s="17"/>
+      <c r="IF17" s="17"/>
+      <c r="IG17" s="17"/>
+      <c r="IH17" s="17"/>
+      <c r="II17" s="17"/>
+      <c r="IJ17" s="17"/>
+      <c r="IK17" s="17"/>
+      <c r="IL17" s="17"/>
+      <c r="IM17" s="17"/>
+      <c r="IN17" s="17"/>
+      <c r="IO17" s="17"/>
+      <c r="IP17" s="17"/>
+      <c r="IQ17" s="17"/>
+      <c r="IR17" s="17"/>
+      <c r="IS17" s="17"/>
+      <c r="IT17" s="17"/>
+      <c r="IU17" s="17"/>
+      <c r="IV17" s="17"/>
+    </row>
+    <row r="18" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>3</v>
       </c>
@@ -26498,7 +26498,7 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:255" ht="15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:256" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="38" t="s">
         <v>8</v>
       </c>
@@ -26506,7 +26506,7 @@
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
     </row>
-    <row r="20" spans="1:255" ht="15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:256" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="34">
         <v>1</v>
       </c>
@@ -26514,7 +26514,7 @@
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
     </row>
-    <row r="22" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>60</v>
       </c>

--- a/src/test/java/com/nablarch/example/app/web/action/ProjectBulkActionRequestTest.xlsx
+++ b/src/test/java/com/nablarch/example/app/web/action/ProjectBulkActionRequestTest.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BC9A2D-D420-43D0-B8BE-34DAB17F94A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A637D7-A12B-4315-AC72-4E28274FF0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="766" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="245">
   <si>
     <t>LIST_MAP=user</t>
     <phoneticPr fontId="2"/>
@@ -1282,6 +1282,10 @@
     <t>searchCondition</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -3133,7 +3137,9 @@
       <c r="B9" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="37" t="s">
+        <v>160</v>
+      </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -3395,7 +3401,9 @@
       <c r="B10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="18" t="s">
+        <v>244</v>
+      </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -27656,7 +27664,9 @@
       <c r="B9" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="37" t="s">
+        <v>160</v>
+      </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -27918,7 +27928,9 @@
       <c r="B10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="18" t="s">
+        <v>244</v>
+      </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -38133,7 +38145,9 @@
       <c r="B9" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="37" t="s">
+        <v>160</v>
+      </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -38395,7 +38409,9 @@
       <c r="B10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="18" t="s">
+        <v>244</v>
+      </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -40526,7 +40542,9 @@
       <c r="B9" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="37" t="s">
+        <v>160</v>
+      </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -40788,7 +40806,9 @@
       <c r="B10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="18" t="s">
+        <v>244</v>
+      </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -50414,7 +50434,9 @@
       <c r="B9" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="37" t="s">
+        <v>160</v>
+      </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -50676,7 +50698,9 @@
       <c r="B10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="18" t="s">
+        <v>244</v>
+      </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -53202,7 +53226,9 @@
       <c r="B9" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="37" t="s">
+        <v>160</v>
+      </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -53464,7 +53490,9 @@
       <c r="B10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="18" t="s">
+        <v>244</v>
+      </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>

--- a/src/test/java/com/nablarch/example/app/web/action/ProjectBulkActionRequestTest.xlsx
+++ b/src/test/java/com/nablarch/example/app/web/action/ProjectBulkActionRequestTest.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A637D7-A12B-4315-AC72-4E28274FF0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC21D07-36F6-4E4C-807D-204EB4D567CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="766" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10632,1076 +10632,1076 @@
       <c r="IT17" s="5"/>
       <c r="IU17" s="5"/>
     </row>
-    <row r="18" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:256" ht="15" x14ac:dyDescent="0.35">
+      <c r="A19" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+    </row>
+    <row r="20" spans="1:256" ht="15" x14ac:dyDescent="0.35">
+      <c r="A20" s="34">
+        <v>1</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+    </row>
+    <row r="22" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A22" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="17"/>
-      <c r="Z18" s="17"/>
-      <c r="AA18" s="17"/>
-      <c r="AB18" s="17"/>
-      <c r="AC18" s="17"/>
-      <c r="AD18" s="17"/>
-      <c r="AE18" s="17"/>
-      <c r="AF18" s="17"/>
-      <c r="AG18" s="17"/>
-      <c r="AH18" s="17"/>
-      <c r="AI18" s="17"/>
-      <c r="AJ18" s="17"/>
-      <c r="AK18" s="17"/>
-      <c r="AL18" s="17"/>
-      <c r="AM18" s="17"/>
-      <c r="AN18" s="17"/>
-      <c r="AO18" s="17"/>
-      <c r="AP18" s="17"/>
-      <c r="AQ18" s="17"/>
-      <c r="AR18" s="17"/>
-      <c r="AS18" s="17"/>
-      <c r="AT18" s="17"/>
-      <c r="AU18" s="17"/>
-      <c r="AV18" s="17"/>
-      <c r="AW18" s="17"/>
-      <c r="AX18" s="17"/>
-      <c r="AY18" s="17"/>
-      <c r="AZ18" s="17"/>
-      <c r="BA18" s="17"/>
-      <c r="BB18" s="17"/>
-      <c r="BC18" s="17"/>
-      <c r="BD18" s="17"/>
-      <c r="BE18" s="17"/>
-      <c r="BF18" s="17"/>
-      <c r="BG18" s="17"/>
-      <c r="BH18" s="17"/>
-      <c r="BI18" s="17"/>
-      <c r="BJ18" s="17"/>
-      <c r="BK18" s="17"/>
-      <c r="BL18" s="17"/>
-      <c r="BM18" s="17"/>
-      <c r="BN18" s="17"/>
-      <c r="BO18" s="17"/>
-      <c r="BP18" s="17"/>
-      <c r="BQ18" s="17"/>
-      <c r="BR18" s="17"/>
-      <c r="BS18" s="17"/>
-      <c r="BT18" s="17"/>
-      <c r="BU18" s="17"/>
-      <c r="BV18" s="17"/>
-      <c r="BW18" s="17"/>
-      <c r="BX18" s="17"/>
-      <c r="BY18" s="17"/>
-      <c r="BZ18" s="17"/>
-      <c r="CA18" s="17"/>
-      <c r="CB18" s="17"/>
-      <c r="CC18" s="17"/>
-      <c r="CD18" s="17"/>
-      <c r="CE18" s="17"/>
-      <c r="CF18" s="17"/>
-      <c r="CG18" s="17"/>
-      <c r="CH18" s="17"/>
-      <c r="CI18" s="17"/>
-      <c r="CJ18" s="17"/>
-      <c r="CK18" s="17"/>
-      <c r="CL18" s="17"/>
-      <c r="CM18" s="17"/>
-      <c r="CN18" s="17"/>
-      <c r="CO18" s="17"/>
-      <c r="CP18" s="17"/>
-      <c r="CQ18" s="17"/>
-      <c r="CR18" s="17"/>
-      <c r="CS18" s="17"/>
-      <c r="CT18" s="17"/>
-      <c r="CU18" s="17"/>
-      <c r="CV18" s="17"/>
-      <c r="CW18" s="17"/>
-      <c r="CX18" s="17"/>
-      <c r="CY18" s="17"/>
-      <c r="CZ18" s="17"/>
-      <c r="DA18" s="17"/>
-      <c r="DB18" s="17"/>
-      <c r="DC18" s="17"/>
-      <c r="DD18" s="17"/>
-      <c r="DE18" s="17"/>
-      <c r="DF18" s="17"/>
-      <c r="DG18" s="17"/>
-      <c r="DH18" s="17"/>
-      <c r="DI18" s="17"/>
-      <c r="DJ18" s="17"/>
-      <c r="DK18" s="17"/>
-      <c r="DL18" s="17"/>
-      <c r="DM18" s="17"/>
-      <c r="DN18" s="17"/>
-      <c r="DO18" s="17"/>
-      <c r="DP18" s="17"/>
-      <c r="DQ18" s="17"/>
-      <c r="DR18" s="17"/>
-      <c r="DS18" s="17"/>
-      <c r="DT18" s="17"/>
-      <c r="DU18" s="17"/>
-      <c r="DV18" s="17"/>
-      <c r="DW18" s="17"/>
-      <c r="DX18" s="17"/>
-      <c r="DY18" s="17"/>
-      <c r="DZ18" s="17"/>
-      <c r="EA18" s="17"/>
-      <c r="EB18" s="17"/>
-      <c r="EC18" s="17"/>
-      <c r="ED18" s="17"/>
-      <c r="EE18" s="17"/>
-      <c r="EF18" s="17"/>
-      <c r="EG18" s="17"/>
-      <c r="EH18" s="17"/>
-      <c r="EI18" s="17"/>
-      <c r="EJ18" s="17"/>
-      <c r="EK18" s="17"/>
-      <c r="EL18" s="17"/>
-      <c r="EM18" s="17"/>
-      <c r="EN18" s="17"/>
-      <c r="EO18" s="17"/>
-      <c r="EP18" s="17"/>
-      <c r="EQ18" s="17"/>
-      <c r="ER18" s="17"/>
-      <c r="ES18" s="17"/>
-      <c r="ET18" s="17"/>
-      <c r="EU18" s="17"/>
-      <c r="EV18" s="17"/>
-      <c r="EW18" s="17"/>
-      <c r="EX18" s="17"/>
-      <c r="EY18" s="17"/>
-      <c r="EZ18" s="17"/>
-      <c r="FA18" s="17"/>
-      <c r="FB18" s="17"/>
-      <c r="FC18" s="17"/>
-      <c r="FD18" s="17"/>
-      <c r="FE18" s="17"/>
-      <c r="FF18" s="17"/>
-      <c r="FG18" s="17"/>
-      <c r="FH18" s="17"/>
-      <c r="FI18" s="17"/>
-      <c r="FJ18" s="17"/>
-      <c r="FK18" s="17"/>
-      <c r="FL18" s="17"/>
-      <c r="FM18" s="17"/>
-      <c r="FN18" s="17"/>
-      <c r="FO18" s="17"/>
-      <c r="FP18" s="17"/>
-      <c r="FQ18" s="17"/>
-      <c r="FR18" s="17"/>
-      <c r="FS18" s="17"/>
-      <c r="FT18" s="17"/>
-      <c r="FU18" s="17"/>
-      <c r="FV18" s="17"/>
-      <c r="FW18" s="17"/>
-      <c r="FX18" s="17"/>
-      <c r="FY18" s="17"/>
-      <c r="FZ18" s="17"/>
-      <c r="GA18" s="17"/>
-      <c r="GB18" s="17"/>
-      <c r="GC18" s="17"/>
-      <c r="GD18" s="17"/>
-      <c r="GE18" s="17"/>
-      <c r="GF18" s="17"/>
-      <c r="GG18" s="17"/>
-      <c r="GH18" s="17"/>
-      <c r="GI18" s="17"/>
-      <c r="GJ18" s="17"/>
-      <c r="GK18" s="17"/>
-      <c r="GL18" s="17"/>
-      <c r="GM18" s="17"/>
-      <c r="GN18" s="17"/>
-      <c r="GO18" s="17"/>
-      <c r="GP18" s="17"/>
-      <c r="GQ18" s="17"/>
-      <c r="GR18" s="17"/>
-      <c r="GS18" s="17"/>
-      <c r="GT18" s="17"/>
-      <c r="GU18" s="17"/>
-      <c r="GV18" s="17"/>
-      <c r="GW18" s="17"/>
-      <c r="GX18" s="17"/>
-      <c r="GY18" s="17"/>
-      <c r="GZ18" s="17"/>
-      <c r="HA18" s="17"/>
-      <c r="HB18" s="17"/>
-      <c r="HC18" s="17"/>
-      <c r="HD18" s="17"/>
-      <c r="HE18" s="17"/>
-      <c r="HF18" s="17"/>
-      <c r="HG18" s="17"/>
-      <c r="HH18" s="17"/>
-      <c r="HI18" s="17"/>
-      <c r="HJ18" s="17"/>
-      <c r="HK18" s="17"/>
-      <c r="HL18" s="17"/>
-      <c r="HM18" s="17"/>
-      <c r="HN18" s="17"/>
-      <c r="HO18" s="17"/>
-      <c r="HP18" s="17"/>
-      <c r="HQ18" s="17"/>
-      <c r="HR18" s="17"/>
-      <c r="HS18" s="17"/>
-      <c r="HT18" s="17"/>
-      <c r="HU18" s="17"/>
-      <c r="HV18" s="17"/>
-      <c r="HW18" s="17"/>
-      <c r="HX18" s="17"/>
-      <c r="HY18" s="17"/>
-      <c r="HZ18" s="17"/>
-      <c r="IA18" s="17"/>
-      <c r="IB18" s="17"/>
-      <c r="IC18" s="17"/>
-      <c r="ID18" s="17"/>
-      <c r="IE18" s="17"/>
-      <c r="IF18" s="17"/>
-      <c r="IG18" s="17"/>
-      <c r="IH18" s="17"/>
-      <c r="II18" s="17"/>
-      <c r="IJ18" s="17"/>
-      <c r="IK18" s="17"/>
-      <c r="IL18" s="17"/>
-      <c r="IM18" s="17"/>
-      <c r="IN18" s="17"/>
-      <c r="IO18" s="17"/>
-      <c r="IP18" s="17"/>
-      <c r="IQ18" s="17"/>
-      <c r="IR18" s="17"/>
-      <c r="IS18" s="17"/>
-      <c r="IT18" s="17"/>
-      <c r="IU18" s="17"/>
-      <c r="IV18" s="17"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="17"/>
+      <c r="AF22" s="17"/>
+      <c r="AG22" s="17"/>
+      <c r="AH22" s="17"/>
+      <c r="AI22" s="17"/>
+      <c r="AJ22" s="17"/>
+      <c r="AK22" s="17"/>
+      <c r="AL22" s="17"/>
+      <c r="AM22" s="17"/>
+      <c r="AN22" s="17"/>
+      <c r="AO22" s="17"/>
+      <c r="AP22" s="17"/>
+      <c r="AQ22" s="17"/>
+      <c r="AR22" s="17"/>
+      <c r="AS22" s="17"/>
+      <c r="AT22" s="17"/>
+      <c r="AU22" s="17"/>
+      <c r="AV22" s="17"/>
+      <c r="AW22" s="17"/>
+      <c r="AX22" s="17"/>
+      <c r="AY22" s="17"/>
+      <c r="AZ22" s="17"/>
+      <c r="BA22" s="17"/>
+      <c r="BB22" s="17"/>
+      <c r="BC22" s="17"/>
+      <c r="BD22" s="17"/>
+      <c r="BE22" s="17"/>
+      <c r="BF22" s="17"/>
+      <c r="BG22" s="17"/>
+      <c r="BH22" s="17"/>
+      <c r="BI22" s="17"/>
+      <c r="BJ22" s="17"/>
+      <c r="BK22" s="17"/>
+      <c r="BL22" s="17"/>
+      <c r="BM22" s="17"/>
+      <c r="BN22" s="17"/>
+      <c r="BO22" s="17"/>
+      <c r="BP22" s="17"/>
+      <c r="BQ22" s="17"/>
+      <c r="BR22" s="17"/>
+      <c r="BS22" s="17"/>
+      <c r="BT22" s="17"/>
+      <c r="BU22" s="17"/>
+      <c r="BV22" s="17"/>
+      <c r="BW22" s="17"/>
+      <c r="BX22" s="17"/>
+      <c r="BY22" s="17"/>
+      <c r="BZ22" s="17"/>
+      <c r="CA22" s="17"/>
+      <c r="CB22" s="17"/>
+      <c r="CC22" s="17"/>
+      <c r="CD22" s="17"/>
+      <c r="CE22" s="17"/>
+      <c r="CF22" s="17"/>
+      <c r="CG22" s="17"/>
+      <c r="CH22" s="17"/>
+      <c r="CI22" s="17"/>
+      <c r="CJ22" s="17"/>
+      <c r="CK22" s="17"/>
+      <c r="CL22" s="17"/>
+      <c r="CM22" s="17"/>
+      <c r="CN22" s="17"/>
+      <c r="CO22" s="17"/>
+      <c r="CP22" s="17"/>
+      <c r="CQ22" s="17"/>
+      <c r="CR22" s="17"/>
+      <c r="CS22" s="17"/>
+      <c r="CT22" s="17"/>
+      <c r="CU22" s="17"/>
+      <c r="CV22" s="17"/>
+      <c r="CW22" s="17"/>
+      <c r="CX22" s="17"/>
+      <c r="CY22" s="17"/>
+      <c r="CZ22" s="17"/>
+      <c r="DA22" s="17"/>
+      <c r="DB22" s="17"/>
+      <c r="DC22" s="17"/>
+      <c r="DD22" s="17"/>
+      <c r="DE22" s="17"/>
+      <c r="DF22" s="17"/>
+      <c r="DG22" s="17"/>
+      <c r="DH22" s="17"/>
+      <c r="DI22" s="17"/>
+      <c r="DJ22" s="17"/>
+      <c r="DK22" s="17"/>
+      <c r="DL22" s="17"/>
+      <c r="DM22" s="17"/>
+      <c r="DN22" s="17"/>
+      <c r="DO22" s="17"/>
+      <c r="DP22" s="17"/>
+      <c r="DQ22" s="17"/>
+      <c r="DR22" s="17"/>
+      <c r="DS22" s="17"/>
+      <c r="DT22" s="17"/>
+      <c r="DU22" s="17"/>
+      <c r="DV22" s="17"/>
+      <c r="DW22" s="17"/>
+      <c r="DX22" s="17"/>
+      <c r="DY22" s="17"/>
+      <c r="DZ22" s="17"/>
+      <c r="EA22" s="17"/>
+      <c r="EB22" s="17"/>
+      <c r="EC22" s="17"/>
+      <c r="ED22" s="17"/>
+      <c r="EE22" s="17"/>
+      <c r="EF22" s="17"/>
+      <c r="EG22" s="17"/>
+      <c r="EH22" s="17"/>
+      <c r="EI22" s="17"/>
+      <c r="EJ22" s="17"/>
+      <c r="EK22" s="17"/>
+      <c r="EL22" s="17"/>
+      <c r="EM22" s="17"/>
+      <c r="EN22" s="17"/>
+      <c r="EO22" s="17"/>
+      <c r="EP22" s="17"/>
+      <c r="EQ22" s="17"/>
+      <c r="ER22" s="17"/>
+      <c r="ES22" s="17"/>
+      <c r="ET22" s="17"/>
+      <c r="EU22" s="17"/>
+      <c r="EV22" s="17"/>
+      <c r="EW22" s="17"/>
+      <c r="EX22" s="17"/>
+      <c r="EY22" s="17"/>
+      <c r="EZ22" s="17"/>
+      <c r="FA22" s="17"/>
+      <c r="FB22" s="17"/>
+      <c r="FC22" s="17"/>
+      <c r="FD22" s="17"/>
+      <c r="FE22" s="17"/>
+      <c r="FF22" s="17"/>
+      <c r="FG22" s="17"/>
+      <c r="FH22" s="17"/>
+      <c r="FI22" s="17"/>
+      <c r="FJ22" s="17"/>
+      <c r="FK22" s="17"/>
+      <c r="FL22" s="17"/>
+      <c r="FM22" s="17"/>
+      <c r="FN22" s="17"/>
+      <c r="FO22" s="17"/>
+      <c r="FP22" s="17"/>
+      <c r="FQ22" s="17"/>
+      <c r="FR22" s="17"/>
+      <c r="FS22" s="17"/>
+      <c r="FT22" s="17"/>
+      <c r="FU22" s="17"/>
+      <c r="FV22" s="17"/>
+      <c r="FW22" s="17"/>
+      <c r="FX22" s="17"/>
+      <c r="FY22" s="17"/>
+      <c r="FZ22" s="17"/>
+      <c r="GA22" s="17"/>
+      <c r="GB22" s="17"/>
+      <c r="GC22" s="17"/>
+      <c r="GD22" s="17"/>
+      <c r="GE22" s="17"/>
+      <c r="GF22" s="17"/>
+      <c r="GG22" s="17"/>
+      <c r="GH22" s="17"/>
+      <c r="GI22" s="17"/>
+      <c r="GJ22" s="17"/>
+      <c r="GK22" s="17"/>
+      <c r="GL22" s="17"/>
+      <c r="GM22" s="17"/>
+      <c r="GN22" s="17"/>
+      <c r="GO22" s="17"/>
+      <c r="GP22" s="17"/>
+      <c r="GQ22" s="17"/>
+      <c r="GR22" s="17"/>
+      <c r="GS22" s="17"/>
+      <c r="GT22" s="17"/>
+      <c r="GU22" s="17"/>
+      <c r="GV22" s="17"/>
+      <c r="GW22" s="17"/>
+      <c r="GX22" s="17"/>
+      <c r="GY22" s="17"/>
+      <c r="GZ22" s="17"/>
+      <c r="HA22" s="17"/>
+      <c r="HB22" s="17"/>
+      <c r="HC22" s="17"/>
+      <c r="HD22" s="17"/>
+      <c r="HE22" s="17"/>
+      <c r="HF22" s="17"/>
+      <c r="HG22" s="17"/>
+      <c r="HH22" s="17"/>
+      <c r="HI22" s="17"/>
+      <c r="HJ22" s="17"/>
+      <c r="HK22" s="17"/>
+      <c r="HL22" s="17"/>
+      <c r="HM22" s="17"/>
+      <c r="HN22" s="17"/>
+      <c r="HO22" s="17"/>
+      <c r="HP22" s="17"/>
+      <c r="HQ22" s="17"/>
+      <c r="HR22" s="17"/>
+      <c r="HS22" s="17"/>
+      <c r="HT22" s="17"/>
+      <c r="HU22" s="17"/>
+      <c r="HV22" s="17"/>
+      <c r="HW22" s="17"/>
+      <c r="HX22" s="17"/>
+      <c r="HY22" s="17"/>
+      <c r="HZ22" s="17"/>
+      <c r="IA22" s="17"/>
+      <c r="IB22" s="17"/>
+      <c r="IC22" s="17"/>
+      <c r="ID22" s="17"/>
+      <c r="IE22" s="17"/>
+      <c r="IF22" s="17"/>
+      <c r="IG22" s="17"/>
+      <c r="IH22" s="17"/>
+      <c r="II22" s="17"/>
+      <c r="IJ22" s="17"/>
+      <c r="IK22" s="17"/>
+      <c r="IL22" s="17"/>
+      <c r="IM22" s="17"/>
+      <c r="IN22" s="17"/>
+      <c r="IO22" s="17"/>
+      <c r="IP22" s="17"/>
+      <c r="IQ22" s="17"/>
+      <c r="IR22" s="17"/>
+      <c r="IS22" s="17"/>
+      <c r="IT22" s="17"/>
+      <c r="IU22" s="17"/>
+      <c r="IV22" s="17"/>
     </row>
-    <row r="19" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A19" s="30" t="s">
+    <row r="23" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A23" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B23" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C23" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="17"/>
-      <c r="Z19" s="17"/>
-      <c r="AA19" s="17"/>
-      <c r="AB19" s="17"/>
-      <c r="AC19" s="17"/>
-      <c r="AD19" s="17"/>
-      <c r="AE19" s="17"/>
-      <c r="AF19" s="17"/>
-      <c r="AG19" s="17"/>
-      <c r="AH19" s="17"/>
-      <c r="AI19" s="17"/>
-      <c r="AJ19" s="17"/>
-      <c r="AK19" s="17"/>
-      <c r="AL19" s="17"/>
-      <c r="AM19" s="17"/>
-      <c r="AN19" s="17"/>
-      <c r="AO19" s="17"/>
-      <c r="AP19" s="17"/>
-      <c r="AQ19" s="17"/>
-      <c r="AR19" s="17"/>
-      <c r="AS19" s="17"/>
-      <c r="AT19" s="17"/>
-      <c r="AU19" s="17"/>
-      <c r="AV19" s="17"/>
-      <c r="AW19" s="17"/>
-      <c r="AX19" s="17"/>
-      <c r="AY19" s="17"/>
-      <c r="AZ19" s="17"/>
-      <c r="BA19" s="17"/>
-      <c r="BB19" s="17"/>
-      <c r="BC19" s="17"/>
-      <c r="BD19" s="17"/>
-      <c r="BE19" s="17"/>
-      <c r="BF19" s="17"/>
-      <c r="BG19" s="17"/>
-      <c r="BH19" s="17"/>
-      <c r="BI19" s="17"/>
-      <c r="BJ19" s="17"/>
-      <c r="BK19" s="17"/>
-      <c r="BL19" s="17"/>
-      <c r="BM19" s="17"/>
-      <c r="BN19" s="17"/>
-      <c r="BO19" s="17"/>
-      <c r="BP19" s="17"/>
-      <c r="BQ19" s="17"/>
-      <c r="BR19" s="17"/>
-      <c r="BS19" s="17"/>
-      <c r="BT19" s="17"/>
-      <c r="BU19" s="17"/>
-      <c r="BV19" s="17"/>
-      <c r="BW19" s="17"/>
-      <c r="BX19" s="17"/>
-      <c r="BY19" s="17"/>
-      <c r="BZ19" s="17"/>
-      <c r="CA19" s="17"/>
-      <c r="CB19" s="17"/>
-      <c r="CC19" s="17"/>
-      <c r="CD19" s="17"/>
-      <c r="CE19" s="17"/>
-      <c r="CF19" s="17"/>
-      <c r="CG19" s="17"/>
-      <c r="CH19" s="17"/>
-      <c r="CI19" s="17"/>
-      <c r="CJ19" s="17"/>
-      <c r="CK19" s="17"/>
-      <c r="CL19" s="17"/>
-      <c r="CM19" s="17"/>
-      <c r="CN19" s="17"/>
-      <c r="CO19" s="17"/>
-      <c r="CP19" s="17"/>
-      <c r="CQ19" s="17"/>
-      <c r="CR19" s="17"/>
-      <c r="CS19" s="17"/>
-      <c r="CT19" s="17"/>
-      <c r="CU19" s="17"/>
-      <c r="CV19" s="17"/>
-      <c r="CW19" s="17"/>
-      <c r="CX19" s="17"/>
-      <c r="CY19" s="17"/>
-      <c r="CZ19" s="17"/>
-      <c r="DA19" s="17"/>
-      <c r="DB19" s="17"/>
-      <c r="DC19" s="17"/>
-      <c r="DD19" s="17"/>
-      <c r="DE19" s="17"/>
-      <c r="DF19" s="17"/>
-      <c r="DG19" s="17"/>
-      <c r="DH19" s="17"/>
-      <c r="DI19" s="17"/>
-      <c r="DJ19" s="17"/>
-      <c r="DK19" s="17"/>
-      <c r="DL19" s="17"/>
-      <c r="DM19" s="17"/>
-      <c r="DN19" s="17"/>
-      <c r="DO19" s="17"/>
-      <c r="DP19" s="17"/>
-      <c r="DQ19" s="17"/>
-      <c r="DR19" s="17"/>
-      <c r="DS19" s="17"/>
-      <c r="DT19" s="17"/>
-      <c r="DU19" s="17"/>
-      <c r="DV19" s="17"/>
-      <c r="DW19" s="17"/>
-      <c r="DX19" s="17"/>
-      <c r="DY19" s="17"/>
-      <c r="DZ19" s="17"/>
-      <c r="EA19" s="17"/>
-      <c r="EB19" s="17"/>
-      <c r="EC19" s="17"/>
-      <c r="ED19" s="17"/>
-      <c r="EE19" s="17"/>
-      <c r="EF19" s="17"/>
-      <c r="EG19" s="17"/>
-      <c r="EH19" s="17"/>
-      <c r="EI19" s="17"/>
-      <c r="EJ19" s="17"/>
-      <c r="EK19" s="17"/>
-      <c r="EL19" s="17"/>
-      <c r="EM19" s="17"/>
-      <c r="EN19" s="17"/>
-      <c r="EO19" s="17"/>
-      <c r="EP19" s="17"/>
-      <c r="EQ19" s="17"/>
-      <c r="ER19" s="17"/>
-      <c r="ES19" s="17"/>
-      <c r="ET19" s="17"/>
-      <c r="EU19" s="17"/>
-      <c r="EV19" s="17"/>
-      <c r="EW19" s="17"/>
-      <c r="EX19" s="17"/>
-      <c r="EY19" s="17"/>
-      <c r="EZ19" s="17"/>
-      <c r="FA19" s="17"/>
-      <c r="FB19" s="17"/>
-      <c r="FC19" s="17"/>
-      <c r="FD19" s="17"/>
-      <c r="FE19" s="17"/>
-      <c r="FF19" s="17"/>
-      <c r="FG19" s="17"/>
-      <c r="FH19" s="17"/>
-      <c r="FI19" s="17"/>
-      <c r="FJ19" s="17"/>
-      <c r="FK19" s="17"/>
-      <c r="FL19" s="17"/>
-      <c r="FM19" s="17"/>
-      <c r="FN19" s="17"/>
-      <c r="FO19" s="17"/>
-      <c r="FP19" s="17"/>
-      <c r="FQ19" s="17"/>
-      <c r="FR19" s="17"/>
-      <c r="FS19" s="17"/>
-      <c r="FT19" s="17"/>
-      <c r="FU19" s="17"/>
-      <c r="FV19" s="17"/>
-      <c r="FW19" s="17"/>
-      <c r="FX19" s="17"/>
-      <c r="FY19" s="17"/>
-      <c r="FZ19" s="17"/>
-      <c r="GA19" s="17"/>
-      <c r="GB19" s="17"/>
-      <c r="GC19" s="17"/>
-      <c r="GD19" s="17"/>
-      <c r="GE19" s="17"/>
-      <c r="GF19" s="17"/>
-      <c r="GG19" s="17"/>
-      <c r="GH19" s="17"/>
-      <c r="GI19" s="17"/>
-      <c r="GJ19" s="17"/>
-      <c r="GK19" s="17"/>
-      <c r="GL19" s="17"/>
-      <c r="GM19" s="17"/>
-      <c r="GN19" s="17"/>
-      <c r="GO19" s="17"/>
-      <c r="GP19" s="17"/>
-      <c r="GQ19" s="17"/>
-      <c r="GR19" s="17"/>
-      <c r="GS19" s="17"/>
-      <c r="GT19" s="17"/>
-      <c r="GU19" s="17"/>
-      <c r="GV19" s="17"/>
-      <c r="GW19" s="17"/>
-      <c r="GX19" s="17"/>
-      <c r="GY19" s="17"/>
-      <c r="GZ19" s="17"/>
-      <c r="HA19" s="17"/>
-      <c r="HB19" s="17"/>
-      <c r="HC19" s="17"/>
-      <c r="HD19" s="17"/>
-      <c r="HE19" s="17"/>
-      <c r="HF19" s="17"/>
-      <c r="HG19" s="17"/>
-      <c r="HH19" s="17"/>
-      <c r="HI19" s="17"/>
-      <c r="HJ19" s="17"/>
-      <c r="HK19" s="17"/>
-      <c r="HL19" s="17"/>
-      <c r="HM19" s="17"/>
-      <c r="HN19" s="17"/>
-      <c r="HO19" s="17"/>
-      <c r="HP19" s="17"/>
-      <c r="HQ19" s="17"/>
-      <c r="HR19" s="17"/>
-      <c r="HS19" s="17"/>
-      <c r="HT19" s="17"/>
-      <c r="HU19" s="17"/>
-      <c r="HV19" s="17"/>
-      <c r="HW19" s="17"/>
-      <c r="HX19" s="17"/>
-      <c r="HY19" s="17"/>
-      <c r="HZ19" s="17"/>
-      <c r="IA19" s="17"/>
-      <c r="IB19" s="17"/>
-      <c r="IC19" s="17"/>
-      <c r="ID19" s="17"/>
-      <c r="IE19" s="17"/>
-      <c r="IF19" s="17"/>
-      <c r="IG19" s="17"/>
-      <c r="IH19" s="17"/>
-      <c r="II19" s="17"/>
-      <c r="IJ19" s="17"/>
-      <c r="IK19" s="17"/>
-      <c r="IL19" s="17"/>
-      <c r="IM19" s="17"/>
-      <c r="IN19" s="17"/>
-      <c r="IO19" s="17"/>
-      <c r="IP19" s="17"/>
-      <c r="IQ19" s="17"/>
-      <c r="IR19" s="17"/>
-      <c r="IS19" s="17"/>
-      <c r="IT19" s="17"/>
-      <c r="IU19" s="17"/>
-      <c r="IV19" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="17"/>
+      <c r="AC23" s="17"/>
+      <c r="AD23" s="17"/>
+      <c r="AE23" s="17"/>
+      <c r="AF23" s="17"/>
+      <c r="AG23" s="17"/>
+      <c r="AH23" s="17"/>
+      <c r="AI23" s="17"/>
+      <c r="AJ23" s="17"/>
+      <c r="AK23" s="17"/>
+      <c r="AL23" s="17"/>
+      <c r="AM23" s="17"/>
+      <c r="AN23" s="17"/>
+      <c r="AO23" s="17"/>
+      <c r="AP23" s="17"/>
+      <c r="AQ23" s="17"/>
+      <c r="AR23" s="17"/>
+      <c r="AS23" s="17"/>
+      <c r="AT23" s="17"/>
+      <c r="AU23" s="17"/>
+      <c r="AV23" s="17"/>
+      <c r="AW23" s="17"/>
+      <c r="AX23" s="17"/>
+      <c r="AY23" s="17"/>
+      <c r="AZ23" s="17"/>
+      <c r="BA23" s="17"/>
+      <c r="BB23" s="17"/>
+      <c r="BC23" s="17"/>
+      <c r="BD23" s="17"/>
+      <c r="BE23" s="17"/>
+      <c r="BF23" s="17"/>
+      <c r="BG23" s="17"/>
+      <c r="BH23" s="17"/>
+      <c r="BI23" s="17"/>
+      <c r="BJ23" s="17"/>
+      <c r="BK23" s="17"/>
+      <c r="BL23" s="17"/>
+      <c r="BM23" s="17"/>
+      <c r="BN23" s="17"/>
+      <c r="BO23" s="17"/>
+      <c r="BP23" s="17"/>
+      <c r="BQ23" s="17"/>
+      <c r="BR23" s="17"/>
+      <c r="BS23" s="17"/>
+      <c r="BT23" s="17"/>
+      <c r="BU23" s="17"/>
+      <c r="BV23" s="17"/>
+      <c r="BW23" s="17"/>
+      <c r="BX23" s="17"/>
+      <c r="BY23" s="17"/>
+      <c r="BZ23" s="17"/>
+      <c r="CA23" s="17"/>
+      <c r="CB23" s="17"/>
+      <c r="CC23" s="17"/>
+      <c r="CD23" s="17"/>
+      <c r="CE23" s="17"/>
+      <c r="CF23" s="17"/>
+      <c r="CG23" s="17"/>
+      <c r="CH23" s="17"/>
+      <c r="CI23" s="17"/>
+      <c r="CJ23" s="17"/>
+      <c r="CK23" s="17"/>
+      <c r="CL23" s="17"/>
+      <c r="CM23" s="17"/>
+      <c r="CN23" s="17"/>
+      <c r="CO23" s="17"/>
+      <c r="CP23" s="17"/>
+      <c r="CQ23" s="17"/>
+      <c r="CR23" s="17"/>
+      <c r="CS23" s="17"/>
+      <c r="CT23" s="17"/>
+      <c r="CU23" s="17"/>
+      <c r="CV23" s="17"/>
+      <c r="CW23" s="17"/>
+      <c r="CX23" s="17"/>
+      <c r="CY23" s="17"/>
+      <c r="CZ23" s="17"/>
+      <c r="DA23" s="17"/>
+      <c r="DB23" s="17"/>
+      <c r="DC23" s="17"/>
+      <c r="DD23" s="17"/>
+      <c r="DE23" s="17"/>
+      <c r="DF23" s="17"/>
+      <c r="DG23" s="17"/>
+      <c r="DH23" s="17"/>
+      <c r="DI23" s="17"/>
+      <c r="DJ23" s="17"/>
+      <c r="DK23" s="17"/>
+      <c r="DL23" s="17"/>
+      <c r="DM23" s="17"/>
+      <c r="DN23" s="17"/>
+      <c r="DO23" s="17"/>
+      <c r="DP23" s="17"/>
+      <c r="DQ23" s="17"/>
+      <c r="DR23" s="17"/>
+      <c r="DS23" s="17"/>
+      <c r="DT23" s="17"/>
+      <c r="DU23" s="17"/>
+      <c r="DV23" s="17"/>
+      <c r="DW23" s="17"/>
+      <c r="DX23" s="17"/>
+      <c r="DY23" s="17"/>
+      <c r="DZ23" s="17"/>
+      <c r="EA23" s="17"/>
+      <c r="EB23" s="17"/>
+      <c r="EC23" s="17"/>
+      <c r="ED23" s="17"/>
+      <c r="EE23" s="17"/>
+      <c r="EF23" s="17"/>
+      <c r="EG23" s="17"/>
+      <c r="EH23" s="17"/>
+      <c r="EI23" s="17"/>
+      <c r="EJ23" s="17"/>
+      <c r="EK23" s="17"/>
+      <c r="EL23" s="17"/>
+      <c r="EM23" s="17"/>
+      <c r="EN23" s="17"/>
+      <c r="EO23" s="17"/>
+      <c r="EP23" s="17"/>
+      <c r="EQ23" s="17"/>
+      <c r="ER23" s="17"/>
+      <c r="ES23" s="17"/>
+      <c r="ET23" s="17"/>
+      <c r="EU23" s="17"/>
+      <c r="EV23" s="17"/>
+      <c r="EW23" s="17"/>
+      <c r="EX23" s="17"/>
+      <c r="EY23" s="17"/>
+      <c r="EZ23" s="17"/>
+      <c r="FA23" s="17"/>
+      <c r="FB23" s="17"/>
+      <c r="FC23" s="17"/>
+      <c r="FD23" s="17"/>
+      <c r="FE23" s="17"/>
+      <c r="FF23" s="17"/>
+      <c r="FG23" s="17"/>
+      <c r="FH23" s="17"/>
+      <c r="FI23" s="17"/>
+      <c r="FJ23" s="17"/>
+      <c r="FK23" s="17"/>
+      <c r="FL23" s="17"/>
+      <c r="FM23" s="17"/>
+      <c r="FN23" s="17"/>
+      <c r="FO23" s="17"/>
+      <c r="FP23" s="17"/>
+      <c r="FQ23" s="17"/>
+      <c r="FR23" s="17"/>
+      <c r="FS23" s="17"/>
+      <c r="FT23" s="17"/>
+      <c r="FU23" s="17"/>
+      <c r="FV23" s="17"/>
+      <c r="FW23" s="17"/>
+      <c r="FX23" s="17"/>
+      <c r="FY23" s="17"/>
+      <c r="FZ23" s="17"/>
+      <c r="GA23" s="17"/>
+      <c r="GB23" s="17"/>
+      <c r="GC23" s="17"/>
+      <c r="GD23" s="17"/>
+      <c r="GE23" s="17"/>
+      <c r="GF23" s="17"/>
+      <c r="GG23" s="17"/>
+      <c r="GH23" s="17"/>
+      <c r="GI23" s="17"/>
+      <c r="GJ23" s="17"/>
+      <c r="GK23" s="17"/>
+      <c r="GL23" s="17"/>
+      <c r="GM23" s="17"/>
+      <c r="GN23" s="17"/>
+      <c r="GO23" s="17"/>
+      <c r="GP23" s="17"/>
+      <c r="GQ23" s="17"/>
+      <c r="GR23" s="17"/>
+      <c r="GS23" s="17"/>
+      <c r="GT23" s="17"/>
+      <c r="GU23" s="17"/>
+      <c r="GV23" s="17"/>
+      <c r="GW23" s="17"/>
+      <c r="GX23" s="17"/>
+      <c r="GY23" s="17"/>
+      <c r="GZ23" s="17"/>
+      <c r="HA23" s="17"/>
+      <c r="HB23" s="17"/>
+      <c r="HC23" s="17"/>
+      <c r="HD23" s="17"/>
+      <c r="HE23" s="17"/>
+      <c r="HF23" s="17"/>
+      <c r="HG23" s="17"/>
+      <c r="HH23" s="17"/>
+      <c r="HI23" s="17"/>
+      <c r="HJ23" s="17"/>
+      <c r="HK23" s="17"/>
+      <c r="HL23" s="17"/>
+      <c r="HM23" s="17"/>
+      <c r="HN23" s="17"/>
+      <c r="HO23" s="17"/>
+      <c r="HP23" s="17"/>
+      <c r="HQ23" s="17"/>
+      <c r="HR23" s="17"/>
+      <c r="HS23" s="17"/>
+      <c r="HT23" s="17"/>
+      <c r="HU23" s="17"/>
+      <c r="HV23" s="17"/>
+      <c r="HW23" s="17"/>
+      <c r="HX23" s="17"/>
+      <c r="HY23" s="17"/>
+      <c r="HZ23" s="17"/>
+      <c r="IA23" s="17"/>
+      <c r="IB23" s="17"/>
+      <c r="IC23" s="17"/>
+      <c r="ID23" s="17"/>
+      <c r="IE23" s="17"/>
+      <c r="IF23" s="17"/>
+      <c r="IG23" s="17"/>
+      <c r="IH23" s="17"/>
+      <c r="II23" s="17"/>
+      <c r="IJ23" s="17"/>
+      <c r="IK23" s="17"/>
+      <c r="IL23" s="17"/>
+      <c r="IM23" s="17"/>
+      <c r="IN23" s="17"/>
+      <c r="IO23" s="17"/>
+      <c r="IP23" s="17"/>
+      <c r="IQ23" s="17"/>
+      <c r="IR23" s="17"/>
+      <c r="IS23" s="17"/>
+      <c r="IT23" s="17"/>
+      <c r="IU23" s="17"/>
+      <c r="IV23" s="17"/>
     </row>
-    <row r="20" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A20" s="43" t="s">
+    <row r="24" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A24" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B24" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C24" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="17"/>
-      <c r="AC20" s="17"/>
-      <c r="AD20" s="17"/>
-      <c r="AE20" s="17"/>
-      <c r="AF20" s="17"/>
-      <c r="AG20" s="17"/>
-      <c r="AH20" s="17"/>
-      <c r="AI20" s="17"/>
-      <c r="AJ20" s="17"/>
-      <c r="AK20" s="17"/>
-      <c r="AL20" s="17"/>
-      <c r="AM20" s="17"/>
-      <c r="AN20" s="17"/>
-      <c r="AO20" s="17"/>
-      <c r="AP20" s="17"/>
-      <c r="AQ20" s="17"/>
-      <c r="AR20" s="17"/>
-      <c r="AS20" s="17"/>
-      <c r="AT20" s="17"/>
-      <c r="AU20" s="17"/>
-      <c r="AV20" s="17"/>
-      <c r="AW20" s="17"/>
-      <c r="AX20" s="17"/>
-      <c r="AY20" s="17"/>
-      <c r="AZ20" s="17"/>
-      <c r="BA20" s="17"/>
-      <c r="BB20" s="17"/>
-      <c r="BC20" s="17"/>
-      <c r="BD20" s="17"/>
-      <c r="BE20" s="17"/>
-      <c r="BF20" s="17"/>
-      <c r="BG20" s="17"/>
-      <c r="BH20" s="17"/>
-      <c r="BI20" s="17"/>
-      <c r="BJ20" s="17"/>
-      <c r="BK20" s="17"/>
-      <c r="BL20" s="17"/>
-      <c r="BM20" s="17"/>
-      <c r="BN20" s="17"/>
-      <c r="BO20" s="17"/>
-      <c r="BP20" s="17"/>
-      <c r="BQ20" s="17"/>
-      <c r="BR20" s="17"/>
-      <c r="BS20" s="17"/>
-      <c r="BT20" s="17"/>
-      <c r="BU20" s="17"/>
-      <c r="BV20" s="17"/>
-      <c r="BW20" s="17"/>
-      <c r="BX20" s="17"/>
-      <c r="BY20" s="17"/>
-      <c r="BZ20" s="17"/>
-      <c r="CA20" s="17"/>
-      <c r="CB20" s="17"/>
-      <c r="CC20" s="17"/>
-      <c r="CD20" s="17"/>
-      <c r="CE20" s="17"/>
-      <c r="CF20" s="17"/>
-      <c r="CG20" s="17"/>
-      <c r="CH20" s="17"/>
-      <c r="CI20" s="17"/>
-      <c r="CJ20" s="17"/>
-      <c r="CK20" s="17"/>
-      <c r="CL20" s="17"/>
-      <c r="CM20" s="17"/>
-      <c r="CN20" s="17"/>
-      <c r="CO20" s="17"/>
-      <c r="CP20" s="17"/>
-      <c r="CQ20" s="17"/>
-      <c r="CR20" s="17"/>
-      <c r="CS20" s="17"/>
-      <c r="CT20" s="17"/>
-      <c r="CU20" s="17"/>
-      <c r="CV20" s="17"/>
-      <c r="CW20" s="17"/>
-      <c r="CX20" s="17"/>
-      <c r="CY20" s="17"/>
-      <c r="CZ20" s="17"/>
-      <c r="DA20" s="17"/>
-      <c r="DB20" s="17"/>
-      <c r="DC20" s="17"/>
-      <c r="DD20" s="17"/>
-      <c r="DE20" s="17"/>
-      <c r="DF20" s="17"/>
-      <c r="DG20" s="17"/>
-      <c r="DH20" s="17"/>
-      <c r="DI20" s="17"/>
-      <c r="DJ20" s="17"/>
-      <c r="DK20" s="17"/>
-      <c r="DL20" s="17"/>
-      <c r="DM20" s="17"/>
-      <c r="DN20" s="17"/>
-      <c r="DO20" s="17"/>
-      <c r="DP20" s="17"/>
-      <c r="DQ20" s="17"/>
-      <c r="DR20" s="17"/>
-      <c r="DS20" s="17"/>
-      <c r="DT20" s="17"/>
-      <c r="DU20" s="17"/>
-      <c r="DV20" s="17"/>
-      <c r="DW20" s="17"/>
-      <c r="DX20" s="17"/>
-      <c r="DY20" s="17"/>
-      <c r="DZ20" s="17"/>
-      <c r="EA20" s="17"/>
-      <c r="EB20" s="17"/>
-      <c r="EC20" s="17"/>
-      <c r="ED20" s="17"/>
-      <c r="EE20" s="17"/>
-      <c r="EF20" s="17"/>
-      <c r="EG20" s="17"/>
-      <c r="EH20" s="17"/>
-      <c r="EI20" s="17"/>
-      <c r="EJ20" s="17"/>
-      <c r="EK20" s="17"/>
-      <c r="EL20" s="17"/>
-      <c r="EM20" s="17"/>
-      <c r="EN20" s="17"/>
-      <c r="EO20" s="17"/>
-      <c r="EP20" s="17"/>
-      <c r="EQ20" s="17"/>
-      <c r="ER20" s="17"/>
-      <c r="ES20" s="17"/>
-      <c r="ET20" s="17"/>
-      <c r="EU20" s="17"/>
-      <c r="EV20" s="17"/>
-      <c r="EW20" s="17"/>
-      <c r="EX20" s="17"/>
-      <c r="EY20" s="17"/>
-      <c r="EZ20" s="17"/>
-      <c r="FA20" s="17"/>
-      <c r="FB20" s="17"/>
-      <c r="FC20" s="17"/>
-      <c r="FD20" s="17"/>
-      <c r="FE20" s="17"/>
-      <c r="FF20" s="17"/>
-      <c r="FG20" s="17"/>
-      <c r="FH20" s="17"/>
-      <c r="FI20" s="17"/>
-      <c r="FJ20" s="17"/>
-      <c r="FK20" s="17"/>
-      <c r="FL20" s="17"/>
-      <c r="FM20" s="17"/>
-      <c r="FN20" s="17"/>
-      <c r="FO20" s="17"/>
-      <c r="FP20" s="17"/>
-      <c r="FQ20" s="17"/>
-      <c r="FR20" s="17"/>
-      <c r="FS20" s="17"/>
-      <c r="FT20" s="17"/>
-      <c r="FU20" s="17"/>
-      <c r="FV20" s="17"/>
-      <c r="FW20" s="17"/>
-      <c r="FX20" s="17"/>
-      <c r="FY20" s="17"/>
-      <c r="FZ20" s="17"/>
-      <c r="GA20" s="17"/>
-      <c r="GB20" s="17"/>
-      <c r="GC20" s="17"/>
-      <c r="GD20" s="17"/>
-      <c r="GE20" s="17"/>
-      <c r="GF20" s="17"/>
-      <c r="GG20" s="17"/>
-      <c r="GH20" s="17"/>
-      <c r="GI20" s="17"/>
-      <c r="GJ20" s="17"/>
-      <c r="GK20" s="17"/>
-      <c r="GL20" s="17"/>
-      <c r="GM20" s="17"/>
-      <c r="GN20" s="17"/>
-      <c r="GO20" s="17"/>
-      <c r="GP20" s="17"/>
-      <c r="GQ20" s="17"/>
-      <c r="GR20" s="17"/>
-      <c r="GS20" s="17"/>
-      <c r="GT20" s="17"/>
-      <c r="GU20" s="17"/>
-      <c r="GV20" s="17"/>
-      <c r="GW20" s="17"/>
-      <c r="GX20" s="17"/>
-      <c r="GY20" s="17"/>
-      <c r="GZ20" s="17"/>
-      <c r="HA20" s="17"/>
-      <c r="HB20" s="17"/>
-      <c r="HC20" s="17"/>
-      <c r="HD20" s="17"/>
-      <c r="HE20" s="17"/>
-      <c r="HF20" s="17"/>
-      <c r="HG20" s="17"/>
-      <c r="HH20" s="17"/>
-      <c r="HI20" s="17"/>
-      <c r="HJ20" s="17"/>
-      <c r="HK20" s="17"/>
-      <c r="HL20" s="17"/>
-      <c r="HM20" s="17"/>
-      <c r="HN20" s="17"/>
-      <c r="HO20" s="17"/>
-      <c r="HP20" s="17"/>
-      <c r="HQ20" s="17"/>
-      <c r="HR20" s="17"/>
-      <c r="HS20" s="17"/>
-      <c r="HT20" s="17"/>
-      <c r="HU20" s="17"/>
-      <c r="HV20" s="17"/>
-      <c r="HW20" s="17"/>
-      <c r="HX20" s="17"/>
-      <c r="HY20" s="17"/>
-      <c r="HZ20" s="17"/>
-      <c r="IA20" s="17"/>
-      <c r="IB20" s="17"/>
-      <c r="IC20" s="17"/>
-      <c r="ID20" s="17"/>
-      <c r="IE20" s="17"/>
-      <c r="IF20" s="17"/>
-      <c r="IG20" s="17"/>
-      <c r="IH20" s="17"/>
-      <c r="II20" s="17"/>
-      <c r="IJ20" s="17"/>
-      <c r="IK20" s="17"/>
-      <c r="IL20" s="17"/>
-      <c r="IM20" s="17"/>
-      <c r="IN20" s="17"/>
-      <c r="IO20" s="17"/>
-      <c r="IP20" s="17"/>
-      <c r="IQ20" s="17"/>
-      <c r="IR20" s="17"/>
-      <c r="IS20" s="17"/>
-      <c r="IT20" s="17"/>
-      <c r="IU20" s="17"/>
-      <c r="IV20" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="17"/>
+      <c r="AC24" s="17"/>
+      <c r="AD24" s="17"/>
+      <c r="AE24" s="17"/>
+      <c r="AF24" s="17"/>
+      <c r="AG24" s="17"/>
+      <c r="AH24" s="17"/>
+      <c r="AI24" s="17"/>
+      <c r="AJ24" s="17"/>
+      <c r="AK24" s="17"/>
+      <c r="AL24" s="17"/>
+      <c r="AM24" s="17"/>
+      <c r="AN24" s="17"/>
+      <c r="AO24" s="17"/>
+      <c r="AP24" s="17"/>
+      <c r="AQ24" s="17"/>
+      <c r="AR24" s="17"/>
+      <c r="AS24" s="17"/>
+      <c r="AT24" s="17"/>
+      <c r="AU24" s="17"/>
+      <c r="AV24" s="17"/>
+      <c r="AW24" s="17"/>
+      <c r="AX24" s="17"/>
+      <c r="AY24" s="17"/>
+      <c r="AZ24" s="17"/>
+      <c r="BA24" s="17"/>
+      <c r="BB24" s="17"/>
+      <c r="BC24" s="17"/>
+      <c r="BD24" s="17"/>
+      <c r="BE24" s="17"/>
+      <c r="BF24" s="17"/>
+      <c r="BG24" s="17"/>
+      <c r="BH24" s="17"/>
+      <c r="BI24" s="17"/>
+      <c r="BJ24" s="17"/>
+      <c r="BK24" s="17"/>
+      <c r="BL24" s="17"/>
+      <c r="BM24" s="17"/>
+      <c r="BN24" s="17"/>
+      <c r="BO24" s="17"/>
+      <c r="BP24" s="17"/>
+      <c r="BQ24" s="17"/>
+      <c r="BR24" s="17"/>
+      <c r="BS24" s="17"/>
+      <c r="BT24" s="17"/>
+      <c r="BU24" s="17"/>
+      <c r="BV24" s="17"/>
+      <c r="BW24" s="17"/>
+      <c r="BX24" s="17"/>
+      <c r="BY24" s="17"/>
+      <c r="BZ24" s="17"/>
+      <c r="CA24" s="17"/>
+      <c r="CB24" s="17"/>
+      <c r="CC24" s="17"/>
+      <c r="CD24" s="17"/>
+      <c r="CE24" s="17"/>
+      <c r="CF24" s="17"/>
+      <c r="CG24" s="17"/>
+      <c r="CH24" s="17"/>
+      <c r="CI24" s="17"/>
+      <c r="CJ24" s="17"/>
+      <c r="CK24" s="17"/>
+      <c r="CL24" s="17"/>
+      <c r="CM24" s="17"/>
+      <c r="CN24" s="17"/>
+      <c r="CO24" s="17"/>
+      <c r="CP24" s="17"/>
+      <c r="CQ24" s="17"/>
+      <c r="CR24" s="17"/>
+      <c r="CS24" s="17"/>
+      <c r="CT24" s="17"/>
+      <c r="CU24" s="17"/>
+      <c r="CV24" s="17"/>
+      <c r="CW24" s="17"/>
+      <c r="CX24" s="17"/>
+      <c r="CY24" s="17"/>
+      <c r="CZ24" s="17"/>
+      <c r="DA24" s="17"/>
+      <c r="DB24" s="17"/>
+      <c r="DC24" s="17"/>
+      <c r="DD24" s="17"/>
+      <c r="DE24" s="17"/>
+      <c r="DF24" s="17"/>
+      <c r="DG24" s="17"/>
+      <c r="DH24" s="17"/>
+      <c r="DI24" s="17"/>
+      <c r="DJ24" s="17"/>
+      <c r="DK24" s="17"/>
+      <c r="DL24" s="17"/>
+      <c r="DM24" s="17"/>
+      <c r="DN24" s="17"/>
+      <c r="DO24" s="17"/>
+      <c r="DP24" s="17"/>
+      <c r="DQ24" s="17"/>
+      <c r="DR24" s="17"/>
+      <c r="DS24" s="17"/>
+      <c r="DT24" s="17"/>
+      <c r="DU24" s="17"/>
+      <c r="DV24" s="17"/>
+      <c r="DW24" s="17"/>
+      <c r="DX24" s="17"/>
+      <c r="DY24" s="17"/>
+      <c r="DZ24" s="17"/>
+      <c r="EA24" s="17"/>
+      <c r="EB24" s="17"/>
+      <c r="EC24" s="17"/>
+      <c r="ED24" s="17"/>
+      <c r="EE24" s="17"/>
+      <c r="EF24" s="17"/>
+      <c r="EG24" s="17"/>
+      <c r="EH24" s="17"/>
+      <c r="EI24" s="17"/>
+      <c r="EJ24" s="17"/>
+      <c r="EK24" s="17"/>
+      <c r="EL24" s="17"/>
+      <c r="EM24" s="17"/>
+      <c r="EN24" s="17"/>
+      <c r="EO24" s="17"/>
+      <c r="EP24" s="17"/>
+      <c r="EQ24" s="17"/>
+      <c r="ER24" s="17"/>
+      <c r="ES24" s="17"/>
+      <c r="ET24" s="17"/>
+      <c r="EU24" s="17"/>
+      <c r="EV24" s="17"/>
+      <c r="EW24" s="17"/>
+      <c r="EX24" s="17"/>
+      <c r="EY24" s="17"/>
+      <c r="EZ24" s="17"/>
+      <c r="FA24" s="17"/>
+      <c r="FB24" s="17"/>
+      <c r="FC24" s="17"/>
+      <c r="FD24" s="17"/>
+      <c r="FE24" s="17"/>
+      <c r="FF24" s="17"/>
+      <c r="FG24" s="17"/>
+      <c r="FH24" s="17"/>
+      <c r="FI24" s="17"/>
+      <c r="FJ24" s="17"/>
+      <c r="FK24" s="17"/>
+      <c r="FL24" s="17"/>
+      <c r="FM24" s="17"/>
+      <c r="FN24" s="17"/>
+      <c r="FO24" s="17"/>
+      <c r="FP24" s="17"/>
+      <c r="FQ24" s="17"/>
+      <c r="FR24" s="17"/>
+      <c r="FS24" s="17"/>
+      <c r="FT24" s="17"/>
+      <c r="FU24" s="17"/>
+      <c r="FV24" s="17"/>
+      <c r="FW24" s="17"/>
+      <c r="FX24" s="17"/>
+      <c r="FY24" s="17"/>
+      <c r="FZ24" s="17"/>
+      <c r="GA24" s="17"/>
+      <c r="GB24" s="17"/>
+      <c r="GC24" s="17"/>
+      <c r="GD24" s="17"/>
+      <c r="GE24" s="17"/>
+      <c r="GF24" s="17"/>
+      <c r="GG24" s="17"/>
+      <c r="GH24" s="17"/>
+      <c r="GI24" s="17"/>
+      <c r="GJ24" s="17"/>
+      <c r="GK24" s="17"/>
+      <c r="GL24" s="17"/>
+      <c r="GM24" s="17"/>
+      <c r="GN24" s="17"/>
+      <c r="GO24" s="17"/>
+      <c r="GP24" s="17"/>
+      <c r="GQ24" s="17"/>
+      <c r="GR24" s="17"/>
+      <c r="GS24" s="17"/>
+      <c r="GT24" s="17"/>
+      <c r="GU24" s="17"/>
+      <c r="GV24" s="17"/>
+      <c r="GW24" s="17"/>
+      <c r="GX24" s="17"/>
+      <c r="GY24" s="17"/>
+      <c r="GZ24" s="17"/>
+      <c r="HA24" s="17"/>
+      <c r="HB24" s="17"/>
+      <c r="HC24" s="17"/>
+      <c r="HD24" s="17"/>
+      <c r="HE24" s="17"/>
+      <c r="HF24" s="17"/>
+      <c r="HG24" s="17"/>
+      <c r="HH24" s="17"/>
+      <c r="HI24" s="17"/>
+      <c r="HJ24" s="17"/>
+      <c r="HK24" s="17"/>
+      <c r="HL24" s="17"/>
+      <c r="HM24" s="17"/>
+      <c r="HN24" s="17"/>
+      <c r="HO24" s="17"/>
+      <c r="HP24" s="17"/>
+      <c r="HQ24" s="17"/>
+      <c r="HR24" s="17"/>
+      <c r="HS24" s="17"/>
+      <c r="HT24" s="17"/>
+      <c r="HU24" s="17"/>
+      <c r="HV24" s="17"/>
+      <c r="HW24" s="17"/>
+      <c r="HX24" s="17"/>
+      <c r="HY24" s="17"/>
+      <c r="HZ24" s="17"/>
+      <c r="IA24" s="17"/>
+      <c r="IB24" s="17"/>
+      <c r="IC24" s="17"/>
+      <c r="ID24" s="17"/>
+      <c r="IE24" s="17"/>
+      <c r="IF24" s="17"/>
+      <c r="IG24" s="17"/>
+      <c r="IH24" s="17"/>
+      <c r="II24" s="17"/>
+      <c r="IJ24" s="17"/>
+      <c r="IK24" s="17"/>
+      <c r="IL24" s="17"/>
+      <c r="IM24" s="17"/>
+      <c r="IN24" s="17"/>
+      <c r="IO24" s="17"/>
+      <c r="IP24" s="17"/>
+      <c r="IQ24" s="17"/>
+      <c r="IR24" s="17"/>
+      <c r="IS24" s="17"/>
+      <c r="IT24" s="17"/>
+      <c r="IU24" s="17"/>
+      <c r="IV24" s="17"/>
     </row>
-    <row r="21" spans="1:256" s="56" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A21" s="53"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="55"/>
-      <c r="S21" s="55"/>
-      <c r="T21" s="55"/>
-      <c r="U21" s="55"/>
-      <c r="V21" s="55"/>
-      <c r="W21" s="55"/>
-      <c r="X21" s="55"/>
-      <c r="Y21" s="55"/>
-      <c r="Z21" s="55"/>
-      <c r="AA21" s="55"/>
-      <c r="AB21" s="55"/>
-      <c r="AC21" s="55"/>
-      <c r="AD21" s="55"/>
-      <c r="AE21" s="55"/>
-      <c r="AF21" s="55"/>
-      <c r="AG21" s="55"/>
-      <c r="AH21" s="55"/>
-      <c r="AI21" s="55"/>
-      <c r="AJ21" s="55"/>
-      <c r="AK21" s="55"/>
-      <c r="AL21" s="55"/>
-      <c r="AM21" s="55"/>
-      <c r="AN21" s="55"/>
-      <c r="AO21" s="55"/>
-      <c r="AP21" s="55"/>
-      <c r="AQ21" s="55"/>
-      <c r="AR21" s="55"/>
-      <c r="AS21" s="55"/>
-      <c r="AT21" s="55"/>
-      <c r="AU21" s="55"/>
-      <c r="AV21" s="55"/>
-      <c r="AW21" s="55"/>
-      <c r="AX21" s="55"/>
-      <c r="AY21" s="55"/>
-      <c r="AZ21" s="55"/>
-      <c r="BA21" s="55"/>
-      <c r="BB21" s="55"/>
-      <c r="BC21" s="55"/>
-      <c r="BD21" s="55"/>
-      <c r="BE21" s="55"/>
-      <c r="BF21" s="55"/>
-      <c r="BG21" s="55"/>
-      <c r="BH21" s="55"/>
-      <c r="BI21" s="55"/>
-      <c r="BJ21" s="55"/>
-      <c r="BK21" s="55"/>
-      <c r="BL21" s="55"/>
-      <c r="BM21" s="55"/>
-      <c r="BN21" s="55"/>
-      <c r="BO21" s="55"/>
-      <c r="BP21" s="55"/>
-      <c r="BQ21" s="55"/>
-      <c r="BR21" s="55"/>
-      <c r="BS21" s="55"/>
-      <c r="BT21" s="55"/>
-      <c r="BU21" s="55"/>
-      <c r="BV21" s="55"/>
-      <c r="BW21" s="55"/>
-      <c r="BX21" s="55"/>
-      <c r="BY21" s="55"/>
-      <c r="BZ21" s="55"/>
-      <c r="CA21" s="55"/>
-      <c r="CB21" s="55"/>
-      <c r="CC21" s="55"/>
-      <c r="CD21" s="55"/>
-      <c r="CE21" s="55"/>
-      <c r="CF21" s="55"/>
-      <c r="CG21" s="55"/>
-      <c r="CH21" s="55"/>
-      <c r="CI21" s="55"/>
-      <c r="CJ21" s="55"/>
-      <c r="CK21" s="55"/>
-      <c r="CL21" s="55"/>
-      <c r="CM21" s="55"/>
-      <c r="CN21" s="55"/>
-      <c r="CO21" s="55"/>
-      <c r="CP21" s="55"/>
-      <c r="CQ21" s="55"/>
-      <c r="CR21" s="55"/>
-      <c r="CS21" s="55"/>
-      <c r="CT21" s="55"/>
-      <c r="CU21" s="55"/>
-      <c r="CV21" s="55"/>
-      <c r="CW21" s="55"/>
-      <c r="CX21" s="55"/>
-      <c r="CY21" s="55"/>
-      <c r="CZ21" s="55"/>
-      <c r="DA21" s="55"/>
-      <c r="DB21" s="55"/>
-      <c r="DC21" s="55"/>
-      <c r="DD21" s="55"/>
-      <c r="DE21" s="55"/>
-      <c r="DF21" s="55"/>
-      <c r="DG21" s="55"/>
-      <c r="DH21" s="55"/>
-      <c r="DI21" s="55"/>
-      <c r="DJ21" s="55"/>
-      <c r="DK21" s="55"/>
-      <c r="DL21" s="55"/>
-      <c r="DM21" s="55"/>
-      <c r="DN21" s="55"/>
-      <c r="DO21" s="55"/>
-      <c r="DP21" s="55"/>
-      <c r="DQ21" s="55"/>
-      <c r="DR21" s="55"/>
-      <c r="DS21" s="55"/>
-      <c r="DT21" s="55"/>
-      <c r="DU21" s="55"/>
-      <c r="DV21" s="55"/>
-      <c r="DW21" s="55"/>
-      <c r="DX21" s="55"/>
-      <c r="DY21" s="55"/>
-      <c r="DZ21" s="55"/>
-      <c r="EA21" s="55"/>
-      <c r="EB21" s="55"/>
-      <c r="EC21" s="55"/>
-      <c r="ED21" s="55"/>
-      <c r="EE21" s="55"/>
-      <c r="EF21" s="55"/>
-      <c r="EG21" s="55"/>
-      <c r="EH21" s="55"/>
-      <c r="EI21" s="55"/>
-      <c r="EJ21" s="55"/>
-      <c r="EK21" s="55"/>
-      <c r="EL21" s="55"/>
-      <c r="EM21" s="55"/>
-      <c r="EN21" s="55"/>
-      <c r="EO21" s="55"/>
-      <c r="EP21" s="55"/>
-      <c r="EQ21" s="55"/>
-      <c r="ER21" s="55"/>
-      <c r="ES21" s="55"/>
-      <c r="ET21" s="55"/>
-      <c r="EU21" s="55"/>
-      <c r="EV21" s="55"/>
-      <c r="EW21" s="55"/>
-      <c r="EX21" s="55"/>
-      <c r="EY21" s="55"/>
-      <c r="EZ21" s="55"/>
-      <c r="FA21" s="55"/>
-      <c r="FB21" s="55"/>
-      <c r="FC21" s="55"/>
-      <c r="FD21" s="55"/>
-      <c r="FE21" s="55"/>
-      <c r="FF21" s="55"/>
-      <c r="FG21" s="55"/>
-      <c r="FH21" s="55"/>
-      <c r="FI21" s="55"/>
-      <c r="FJ21" s="55"/>
-      <c r="FK21" s="55"/>
-      <c r="FL21" s="55"/>
-      <c r="FM21" s="55"/>
-      <c r="FN21" s="55"/>
-      <c r="FO21" s="55"/>
-      <c r="FP21" s="55"/>
-      <c r="FQ21" s="55"/>
-      <c r="FR21" s="55"/>
-      <c r="FS21" s="55"/>
-      <c r="FT21" s="55"/>
-      <c r="FU21" s="55"/>
-      <c r="FV21" s="55"/>
-      <c r="FW21" s="55"/>
-      <c r="FX21" s="55"/>
-      <c r="FY21" s="55"/>
-      <c r="FZ21" s="55"/>
-      <c r="GA21" s="55"/>
-      <c r="GB21" s="55"/>
-      <c r="GC21" s="55"/>
-      <c r="GD21" s="55"/>
-      <c r="GE21" s="55"/>
-      <c r="GF21" s="55"/>
-      <c r="GG21" s="55"/>
-      <c r="GH21" s="55"/>
-      <c r="GI21" s="55"/>
-      <c r="GJ21" s="55"/>
-      <c r="GK21" s="55"/>
-      <c r="GL21" s="55"/>
-      <c r="GM21" s="55"/>
-      <c r="GN21" s="55"/>
-      <c r="GO21" s="55"/>
-      <c r="GP21" s="55"/>
-      <c r="GQ21" s="55"/>
-      <c r="GR21" s="55"/>
-      <c r="GS21" s="55"/>
-      <c r="GT21" s="55"/>
-      <c r="GU21" s="55"/>
-      <c r="GV21" s="55"/>
-      <c r="GW21" s="55"/>
-      <c r="GX21" s="55"/>
-      <c r="GY21" s="55"/>
-      <c r="GZ21" s="55"/>
-      <c r="HA21" s="55"/>
-      <c r="HB21" s="55"/>
-      <c r="HC21" s="55"/>
-      <c r="HD21" s="55"/>
-      <c r="HE21" s="55"/>
-      <c r="HF21" s="55"/>
-      <c r="HG21" s="55"/>
-      <c r="HH21" s="55"/>
-      <c r="HI21" s="55"/>
-      <c r="HJ21" s="55"/>
-      <c r="HK21" s="55"/>
-      <c r="HL21" s="55"/>
-      <c r="HM21" s="55"/>
-      <c r="HN21" s="55"/>
-      <c r="HO21" s="55"/>
-      <c r="HP21" s="55"/>
-      <c r="HQ21" s="55"/>
-      <c r="HR21" s="55"/>
-      <c r="HS21" s="55"/>
-      <c r="HT21" s="55"/>
-      <c r="HU21" s="55"/>
-      <c r="HV21" s="55"/>
-      <c r="HW21" s="55"/>
-      <c r="HX21" s="55"/>
-      <c r="HY21" s="55"/>
-      <c r="HZ21" s="55"/>
-      <c r="IA21" s="55"/>
-      <c r="IB21" s="55"/>
-      <c r="IC21" s="55"/>
-      <c r="ID21" s="55"/>
-      <c r="IE21" s="55"/>
-      <c r="IF21" s="55"/>
-      <c r="IG21" s="55"/>
-      <c r="IH21" s="55"/>
-      <c r="II21" s="55"/>
-      <c r="IJ21" s="55"/>
-      <c r="IK21" s="55"/>
-      <c r="IL21" s="55"/>
-      <c r="IM21" s="55"/>
-      <c r="IN21" s="55"/>
-      <c r="IO21" s="55"/>
-      <c r="IP21" s="55"/>
-      <c r="IQ21" s="55"/>
-      <c r="IR21" s="55"/>
-      <c r="IS21" s="55"/>
-      <c r="IT21" s="55"/>
-      <c r="IU21" s="55"/>
-      <c r="IV21" s="55"/>
-    </row>
-    <row r="22" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:256" ht="15" x14ac:dyDescent="0.35">
-      <c r="A23" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-    </row>
-    <row r="24" spans="1:256" ht="15" x14ac:dyDescent="0.35">
-      <c r="A24" s="34">
-        <v>1</v>
-      </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
+    <row r="25" spans="1:256" s="56" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A25" s="53"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="55"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="55"/>
+      <c r="W25" s="55"/>
+      <c r="X25" s="55"/>
+      <c r="Y25" s="55"/>
+      <c r="Z25" s="55"/>
+      <c r="AA25" s="55"/>
+      <c r="AB25" s="55"/>
+      <c r="AC25" s="55"/>
+      <c r="AD25" s="55"/>
+      <c r="AE25" s="55"/>
+      <c r="AF25" s="55"/>
+      <c r="AG25" s="55"/>
+      <c r="AH25" s="55"/>
+      <c r="AI25" s="55"/>
+      <c r="AJ25" s="55"/>
+      <c r="AK25" s="55"/>
+      <c r="AL25" s="55"/>
+      <c r="AM25" s="55"/>
+      <c r="AN25" s="55"/>
+      <c r="AO25" s="55"/>
+      <c r="AP25" s="55"/>
+      <c r="AQ25" s="55"/>
+      <c r="AR25" s="55"/>
+      <c r="AS25" s="55"/>
+      <c r="AT25" s="55"/>
+      <c r="AU25" s="55"/>
+      <c r="AV25" s="55"/>
+      <c r="AW25" s="55"/>
+      <c r="AX25" s="55"/>
+      <c r="AY25" s="55"/>
+      <c r="AZ25" s="55"/>
+      <c r="BA25" s="55"/>
+      <c r="BB25" s="55"/>
+      <c r="BC25" s="55"/>
+      <c r="BD25" s="55"/>
+      <c r="BE25" s="55"/>
+      <c r="BF25" s="55"/>
+      <c r="BG25" s="55"/>
+      <c r="BH25" s="55"/>
+      <c r="BI25" s="55"/>
+      <c r="BJ25" s="55"/>
+      <c r="BK25" s="55"/>
+      <c r="BL25" s="55"/>
+      <c r="BM25" s="55"/>
+      <c r="BN25" s="55"/>
+      <c r="BO25" s="55"/>
+      <c r="BP25" s="55"/>
+      <c r="BQ25" s="55"/>
+      <c r="BR25" s="55"/>
+      <c r="BS25" s="55"/>
+      <c r="BT25" s="55"/>
+      <c r="BU25" s="55"/>
+      <c r="BV25" s="55"/>
+      <c r="BW25" s="55"/>
+      <c r="BX25" s="55"/>
+      <c r="BY25" s="55"/>
+      <c r="BZ25" s="55"/>
+      <c r="CA25" s="55"/>
+      <c r="CB25" s="55"/>
+      <c r="CC25" s="55"/>
+      <c r="CD25" s="55"/>
+      <c r="CE25" s="55"/>
+      <c r="CF25" s="55"/>
+      <c r="CG25" s="55"/>
+      <c r="CH25" s="55"/>
+      <c r="CI25" s="55"/>
+      <c r="CJ25" s="55"/>
+      <c r="CK25" s="55"/>
+      <c r="CL25" s="55"/>
+      <c r="CM25" s="55"/>
+      <c r="CN25" s="55"/>
+      <c r="CO25" s="55"/>
+      <c r="CP25" s="55"/>
+      <c r="CQ25" s="55"/>
+      <c r="CR25" s="55"/>
+      <c r="CS25" s="55"/>
+      <c r="CT25" s="55"/>
+      <c r="CU25" s="55"/>
+      <c r="CV25" s="55"/>
+      <c r="CW25" s="55"/>
+      <c r="CX25" s="55"/>
+      <c r="CY25" s="55"/>
+      <c r="CZ25" s="55"/>
+      <c r="DA25" s="55"/>
+      <c r="DB25" s="55"/>
+      <c r="DC25" s="55"/>
+      <c r="DD25" s="55"/>
+      <c r="DE25" s="55"/>
+      <c r="DF25" s="55"/>
+      <c r="DG25" s="55"/>
+      <c r="DH25" s="55"/>
+      <c r="DI25" s="55"/>
+      <c r="DJ25" s="55"/>
+      <c r="DK25" s="55"/>
+      <c r="DL25" s="55"/>
+      <c r="DM25" s="55"/>
+      <c r="DN25" s="55"/>
+      <c r="DO25" s="55"/>
+      <c r="DP25" s="55"/>
+      <c r="DQ25" s="55"/>
+      <c r="DR25" s="55"/>
+      <c r="DS25" s="55"/>
+      <c r="DT25" s="55"/>
+      <c r="DU25" s="55"/>
+      <c r="DV25" s="55"/>
+      <c r="DW25" s="55"/>
+      <c r="DX25" s="55"/>
+      <c r="DY25" s="55"/>
+      <c r="DZ25" s="55"/>
+      <c r="EA25" s="55"/>
+      <c r="EB25" s="55"/>
+      <c r="EC25" s="55"/>
+      <c r="ED25" s="55"/>
+      <c r="EE25" s="55"/>
+      <c r="EF25" s="55"/>
+      <c r="EG25" s="55"/>
+      <c r="EH25" s="55"/>
+      <c r="EI25" s="55"/>
+      <c r="EJ25" s="55"/>
+      <c r="EK25" s="55"/>
+      <c r="EL25" s="55"/>
+      <c r="EM25" s="55"/>
+      <c r="EN25" s="55"/>
+      <c r="EO25" s="55"/>
+      <c r="EP25" s="55"/>
+      <c r="EQ25" s="55"/>
+      <c r="ER25" s="55"/>
+      <c r="ES25" s="55"/>
+      <c r="ET25" s="55"/>
+      <c r="EU25" s="55"/>
+      <c r="EV25" s="55"/>
+      <c r="EW25" s="55"/>
+      <c r="EX25" s="55"/>
+      <c r="EY25" s="55"/>
+      <c r="EZ25" s="55"/>
+      <c r="FA25" s="55"/>
+      <c r="FB25" s="55"/>
+      <c r="FC25" s="55"/>
+      <c r="FD25" s="55"/>
+      <c r="FE25" s="55"/>
+      <c r="FF25" s="55"/>
+      <c r="FG25" s="55"/>
+      <c r="FH25" s="55"/>
+      <c r="FI25" s="55"/>
+      <c r="FJ25" s="55"/>
+      <c r="FK25" s="55"/>
+      <c r="FL25" s="55"/>
+      <c r="FM25" s="55"/>
+      <c r="FN25" s="55"/>
+      <c r="FO25" s="55"/>
+      <c r="FP25" s="55"/>
+      <c r="FQ25" s="55"/>
+      <c r="FR25" s="55"/>
+      <c r="FS25" s="55"/>
+      <c r="FT25" s="55"/>
+      <c r="FU25" s="55"/>
+      <c r="FV25" s="55"/>
+      <c r="FW25" s="55"/>
+      <c r="FX25" s="55"/>
+      <c r="FY25" s="55"/>
+      <c r="FZ25" s="55"/>
+      <c r="GA25" s="55"/>
+      <c r="GB25" s="55"/>
+      <c r="GC25" s="55"/>
+      <c r="GD25" s="55"/>
+      <c r="GE25" s="55"/>
+      <c r="GF25" s="55"/>
+      <c r="GG25" s="55"/>
+      <c r="GH25" s="55"/>
+      <c r="GI25" s="55"/>
+      <c r="GJ25" s="55"/>
+      <c r="GK25" s="55"/>
+      <c r="GL25" s="55"/>
+      <c r="GM25" s="55"/>
+      <c r="GN25" s="55"/>
+      <c r="GO25" s="55"/>
+      <c r="GP25" s="55"/>
+      <c r="GQ25" s="55"/>
+      <c r="GR25" s="55"/>
+      <c r="GS25" s="55"/>
+      <c r="GT25" s="55"/>
+      <c r="GU25" s="55"/>
+      <c r="GV25" s="55"/>
+      <c r="GW25" s="55"/>
+      <c r="GX25" s="55"/>
+      <c r="GY25" s="55"/>
+      <c r="GZ25" s="55"/>
+      <c r="HA25" s="55"/>
+      <c r="HB25" s="55"/>
+      <c r="HC25" s="55"/>
+      <c r="HD25" s="55"/>
+      <c r="HE25" s="55"/>
+      <c r="HF25" s="55"/>
+      <c r="HG25" s="55"/>
+      <c r="HH25" s="55"/>
+      <c r="HI25" s="55"/>
+      <c r="HJ25" s="55"/>
+      <c r="HK25" s="55"/>
+      <c r="HL25" s="55"/>
+      <c r="HM25" s="55"/>
+      <c r="HN25" s="55"/>
+      <c r="HO25" s="55"/>
+      <c r="HP25" s="55"/>
+      <c r="HQ25" s="55"/>
+      <c r="HR25" s="55"/>
+      <c r="HS25" s="55"/>
+      <c r="HT25" s="55"/>
+      <c r="HU25" s="55"/>
+      <c r="HV25" s="55"/>
+      <c r="HW25" s="55"/>
+      <c r="HX25" s="55"/>
+      <c r="HY25" s="55"/>
+      <c r="HZ25" s="55"/>
+      <c r="IA25" s="55"/>
+      <c r="IB25" s="55"/>
+      <c r="IC25" s="55"/>
+      <c r="ID25" s="55"/>
+      <c r="IE25" s="55"/>
+      <c r="IF25" s="55"/>
+      <c r="IG25" s="55"/>
+      <c r="IH25" s="55"/>
+      <c r="II25" s="55"/>
+      <c r="IJ25" s="55"/>
+      <c r="IK25" s="55"/>
+      <c r="IL25" s="55"/>
+      <c r="IM25" s="55"/>
+      <c r="IN25" s="55"/>
+      <c r="IO25" s="55"/>
+      <c r="IP25" s="55"/>
+      <c r="IQ25" s="55"/>
+      <c r="IR25" s="55"/>
+      <c r="IS25" s="55"/>
+      <c r="IT25" s="55"/>
+      <c r="IU25" s="55"/>
+      <c r="IV25" s="55"/>
     </row>
     <row r="26" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
@@ -25455,1072 +25455,1072 @@
       <c r="IT13" s="5"/>
       <c r="IU13" s="5"/>
     </row>
-    <row r="14" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A14" s="15" t="s">
+    <row r="14" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:256" ht="15" x14ac:dyDescent="0.35">
+      <c r="A15" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+    </row>
+    <row r="16" spans="1:256" ht="15" x14ac:dyDescent="0.35">
+      <c r="A16" s="34">
+        <v>1</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+    </row>
+    <row r="18" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A18" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="17"/>
-      <c r="AC14" s="17"/>
-      <c r="AD14" s="17"/>
-      <c r="AE14" s="17"/>
-      <c r="AF14" s="17"/>
-      <c r="AG14" s="17"/>
-      <c r="AH14" s="17"/>
-      <c r="AI14" s="17"/>
-      <c r="AJ14" s="17"/>
-      <c r="AK14" s="17"/>
-      <c r="AL14" s="17"/>
-      <c r="AM14" s="17"/>
-      <c r="AN14" s="17"/>
-      <c r="AO14" s="17"/>
-      <c r="AP14" s="17"/>
-      <c r="AQ14" s="17"/>
-      <c r="AR14" s="17"/>
-      <c r="AS14" s="17"/>
-      <c r="AT14" s="17"/>
-      <c r="AU14" s="17"/>
-      <c r="AV14" s="17"/>
-      <c r="AW14" s="17"/>
-      <c r="AX14" s="17"/>
-      <c r="AY14" s="17"/>
-      <c r="AZ14" s="17"/>
-      <c r="BA14" s="17"/>
-      <c r="BB14" s="17"/>
-      <c r="BC14" s="17"/>
-      <c r="BD14" s="17"/>
-      <c r="BE14" s="17"/>
-      <c r="BF14" s="17"/>
-      <c r="BG14" s="17"/>
-      <c r="BH14" s="17"/>
-      <c r="BI14" s="17"/>
-      <c r="BJ14" s="17"/>
-      <c r="BK14" s="17"/>
-      <c r="BL14" s="17"/>
-      <c r="BM14" s="17"/>
-      <c r="BN14" s="17"/>
-      <c r="BO14" s="17"/>
-      <c r="BP14" s="17"/>
-      <c r="BQ14" s="17"/>
-      <c r="BR14" s="17"/>
-      <c r="BS14" s="17"/>
-      <c r="BT14" s="17"/>
-      <c r="BU14" s="17"/>
-      <c r="BV14" s="17"/>
-      <c r="BW14" s="17"/>
-      <c r="BX14" s="17"/>
-      <c r="BY14" s="17"/>
-      <c r="BZ14" s="17"/>
-      <c r="CA14" s="17"/>
-      <c r="CB14" s="17"/>
-      <c r="CC14" s="17"/>
-      <c r="CD14" s="17"/>
-      <c r="CE14" s="17"/>
-      <c r="CF14" s="17"/>
-      <c r="CG14" s="17"/>
-      <c r="CH14" s="17"/>
-      <c r="CI14" s="17"/>
-      <c r="CJ14" s="17"/>
-      <c r="CK14" s="17"/>
-      <c r="CL14" s="17"/>
-      <c r="CM14" s="17"/>
-      <c r="CN14" s="17"/>
-      <c r="CO14" s="17"/>
-      <c r="CP14" s="17"/>
-      <c r="CQ14" s="17"/>
-      <c r="CR14" s="17"/>
-      <c r="CS14" s="17"/>
-      <c r="CT14" s="17"/>
-      <c r="CU14" s="17"/>
-      <c r="CV14" s="17"/>
-      <c r="CW14" s="17"/>
-      <c r="CX14" s="17"/>
-      <c r="CY14" s="17"/>
-      <c r="CZ14" s="17"/>
-      <c r="DA14" s="17"/>
-      <c r="DB14" s="17"/>
-      <c r="DC14" s="17"/>
-      <c r="DD14" s="17"/>
-      <c r="DE14" s="17"/>
-      <c r="DF14" s="17"/>
-      <c r="DG14" s="17"/>
-      <c r="DH14" s="17"/>
-      <c r="DI14" s="17"/>
-      <c r="DJ14" s="17"/>
-      <c r="DK14" s="17"/>
-      <c r="DL14" s="17"/>
-      <c r="DM14" s="17"/>
-      <c r="DN14" s="17"/>
-      <c r="DO14" s="17"/>
-      <c r="DP14" s="17"/>
-      <c r="DQ14" s="17"/>
-      <c r="DR14" s="17"/>
-      <c r="DS14" s="17"/>
-      <c r="DT14" s="17"/>
-      <c r="DU14" s="17"/>
-      <c r="DV14" s="17"/>
-      <c r="DW14" s="17"/>
-      <c r="DX14" s="17"/>
-      <c r="DY14" s="17"/>
-      <c r="DZ14" s="17"/>
-      <c r="EA14" s="17"/>
-      <c r="EB14" s="17"/>
-      <c r="EC14" s="17"/>
-      <c r="ED14" s="17"/>
-      <c r="EE14" s="17"/>
-      <c r="EF14" s="17"/>
-      <c r="EG14" s="17"/>
-      <c r="EH14" s="17"/>
-      <c r="EI14" s="17"/>
-      <c r="EJ14" s="17"/>
-      <c r="EK14" s="17"/>
-      <c r="EL14" s="17"/>
-      <c r="EM14" s="17"/>
-      <c r="EN14" s="17"/>
-      <c r="EO14" s="17"/>
-      <c r="EP14" s="17"/>
-      <c r="EQ14" s="17"/>
-      <c r="ER14" s="17"/>
-      <c r="ES14" s="17"/>
-      <c r="ET14" s="17"/>
-      <c r="EU14" s="17"/>
-      <c r="EV14" s="17"/>
-      <c r="EW14" s="17"/>
-      <c r="EX14" s="17"/>
-      <c r="EY14" s="17"/>
-      <c r="EZ14" s="17"/>
-      <c r="FA14" s="17"/>
-      <c r="FB14" s="17"/>
-      <c r="FC14" s="17"/>
-      <c r="FD14" s="17"/>
-      <c r="FE14" s="17"/>
-      <c r="FF14" s="17"/>
-      <c r="FG14" s="17"/>
-      <c r="FH14" s="17"/>
-      <c r="FI14" s="17"/>
-      <c r="FJ14" s="17"/>
-      <c r="FK14" s="17"/>
-      <c r="FL14" s="17"/>
-      <c r="FM14" s="17"/>
-      <c r="FN14" s="17"/>
-      <c r="FO14" s="17"/>
-      <c r="FP14" s="17"/>
-      <c r="FQ14" s="17"/>
-      <c r="FR14" s="17"/>
-      <c r="FS14" s="17"/>
-      <c r="FT14" s="17"/>
-      <c r="FU14" s="17"/>
-      <c r="FV14" s="17"/>
-      <c r="FW14" s="17"/>
-      <c r="FX14" s="17"/>
-      <c r="FY14" s="17"/>
-      <c r="FZ14" s="17"/>
-      <c r="GA14" s="17"/>
-      <c r="GB14" s="17"/>
-      <c r="GC14" s="17"/>
-      <c r="GD14" s="17"/>
-      <c r="GE14" s="17"/>
-      <c r="GF14" s="17"/>
-      <c r="GG14" s="17"/>
-      <c r="GH14" s="17"/>
-      <c r="GI14" s="17"/>
-      <c r="GJ14" s="17"/>
-      <c r="GK14" s="17"/>
-      <c r="GL14" s="17"/>
-      <c r="GM14" s="17"/>
-      <c r="GN14" s="17"/>
-      <c r="GO14" s="17"/>
-      <c r="GP14" s="17"/>
-      <c r="GQ14" s="17"/>
-      <c r="GR14" s="17"/>
-      <c r="GS14" s="17"/>
-      <c r="GT14" s="17"/>
-      <c r="GU14" s="17"/>
-      <c r="GV14" s="17"/>
-      <c r="GW14" s="17"/>
-      <c r="GX14" s="17"/>
-      <c r="GY14" s="17"/>
-      <c r="GZ14" s="17"/>
-      <c r="HA14" s="17"/>
-      <c r="HB14" s="17"/>
-      <c r="HC14" s="17"/>
-      <c r="HD14" s="17"/>
-      <c r="HE14" s="17"/>
-      <c r="HF14" s="17"/>
-      <c r="HG14" s="17"/>
-      <c r="HH14" s="17"/>
-      <c r="HI14" s="17"/>
-      <c r="HJ14" s="17"/>
-      <c r="HK14" s="17"/>
-      <c r="HL14" s="17"/>
-      <c r="HM14" s="17"/>
-      <c r="HN14" s="17"/>
-      <c r="HO14" s="17"/>
-      <c r="HP14" s="17"/>
-      <c r="HQ14" s="17"/>
-      <c r="HR14" s="17"/>
-      <c r="HS14" s="17"/>
-      <c r="HT14" s="17"/>
-      <c r="HU14" s="17"/>
-      <c r="HV14" s="17"/>
-      <c r="HW14" s="17"/>
-      <c r="HX14" s="17"/>
-      <c r="HY14" s="17"/>
-      <c r="HZ14" s="17"/>
-      <c r="IA14" s="17"/>
-      <c r="IB14" s="17"/>
-      <c r="IC14" s="17"/>
-      <c r="ID14" s="17"/>
-      <c r="IE14" s="17"/>
-      <c r="IF14" s="17"/>
-      <c r="IG14" s="17"/>
-      <c r="IH14" s="17"/>
-      <c r="II14" s="17"/>
-      <c r="IJ14" s="17"/>
-      <c r="IK14" s="17"/>
-      <c r="IL14" s="17"/>
-      <c r="IM14" s="17"/>
-      <c r="IN14" s="17"/>
-      <c r="IO14" s="17"/>
-      <c r="IP14" s="17"/>
-      <c r="IQ14" s="17"/>
-      <c r="IR14" s="17"/>
-      <c r="IS14" s="17"/>
-      <c r="IT14" s="17"/>
-      <c r="IU14" s="17"/>
-      <c r="IV14" s="17"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="17"/>
+      <c r="AG18" s="17"/>
+      <c r="AH18" s="17"/>
+      <c r="AI18" s="17"/>
+      <c r="AJ18" s="17"/>
+      <c r="AK18" s="17"/>
+      <c r="AL18" s="17"/>
+      <c r="AM18" s="17"/>
+      <c r="AN18" s="17"/>
+      <c r="AO18" s="17"/>
+      <c r="AP18" s="17"/>
+      <c r="AQ18" s="17"/>
+      <c r="AR18" s="17"/>
+      <c r="AS18" s="17"/>
+      <c r="AT18" s="17"/>
+      <c r="AU18" s="17"/>
+      <c r="AV18" s="17"/>
+      <c r="AW18" s="17"/>
+      <c r="AX18" s="17"/>
+      <c r="AY18" s="17"/>
+      <c r="AZ18" s="17"/>
+      <c r="BA18" s="17"/>
+      <c r="BB18" s="17"/>
+      <c r="BC18" s="17"/>
+      <c r="BD18" s="17"/>
+      <c r="BE18" s="17"/>
+      <c r="BF18" s="17"/>
+      <c r="BG18" s="17"/>
+      <c r="BH18" s="17"/>
+      <c r="BI18" s="17"/>
+      <c r="BJ18" s="17"/>
+      <c r="BK18" s="17"/>
+      <c r="BL18" s="17"/>
+      <c r="BM18" s="17"/>
+      <c r="BN18" s="17"/>
+      <c r="BO18" s="17"/>
+      <c r="BP18" s="17"/>
+      <c r="BQ18" s="17"/>
+      <c r="BR18" s="17"/>
+      <c r="BS18" s="17"/>
+      <c r="BT18" s="17"/>
+      <c r="BU18" s="17"/>
+      <c r="BV18" s="17"/>
+      <c r="BW18" s="17"/>
+      <c r="BX18" s="17"/>
+      <c r="BY18" s="17"/>
+      <c r="BZ18" s="17"/>
+      <c r="CA18" s="17"/>
+      <c r="CB18" s="17"/>
+      <c r="CC18" s="17"/>
+      <c r="CD18" s="17"/>
+      <c r="CE18" s="17"/>
+      <c r="CF18" s="17"/>
+      <c r="CG18" s="17"/>
+      <c r="CH18" s="17"/>
+      <c r="CI18" s="17"/>
+      <c r="CJ18" s="17"/>
+      <c r="CK18" s="17"/>
+      <c r="CL18" s="17"/>
+      <c r="CM18" s="17"/>
+      <c r="CN18" s="17"/>
+      <c r="CO18" s="17"/>
+      <c r="CP18" s="17"/>
+      <c r="CQ18" s="17"/>
+      <c r="CR18" s="17"/>
+      <c r="CS18" s="17"/>
+      <c r="CT18" s="17"/>
+      <c r="CU18" s="17"/>
+      <c r="CV18" s="17"/>
+      <c r="CW18" s="17"/>
+      <c r="CX18" s="17"/>
+      <c r="CY18" s="17"/>
+      <c r="CZ18" s="17"/>
+      <c r="DA18" s="17"/>
+      <c r="DB18" s="17"/>
+      <c r="DC18" s="17"/>
+      <c r="DD18" s="17"/>
+      <c r="DE18" s="17"/>
+      <c r="DF18" s="17"/>
+      <c r="DG18" s="17"/>
+      <c r="DH18" s="17"/>
+      <c r="DI18" s="17"/>
+      <c r="DJ18" s="17"/>
+      <c r="DK18" s="17"/>
+      <c r="DL18" s="17"/>
+      <c r="DM18" s="17"/>
+      <c r="DN18" s="17"/>
+      <c r="DO18" s="17"/>
+      <c r="DP18" s="17"/>
+      <c r="DQ18" s="17"/>
+      <c r="DR18" s="17"/>
+      <c r="DS18" s="17"/>
+      <c r="DT18" s="17"/>
+      <c r="DU18" s="17"/>
+      <c r="DV18" s="17"/>
+      <c r="DW18" s="17"/>
+      <c r="DX18" s="17"/>
+      <c r="DY18" s="17"/>
+      <c r="DZ18" s="17"/>
+      <c r="EA18" s="17"/>
+      <c r="EB18" s="17"/>
+      <c r="EC18" s="17"/>
+      <c r="ED18" s="17"/>
+      <c r="EE18" s="17"/>
+      <c r="EF18" s="17"/>
+      <c r="EG18" s="17"/>
+      <c r="EH18" s="17"/>
+      <c r="EI18" s="17"/>
+      <c r="EJ18" s="17"/>
+      <c r="EK18" s="17"/>
+      <c r="EL18" s="17"/>
+      <c r="EM18" s="17"/>
+      <c r="EN18" s="17"/>
+      <c r="EO18" s="17"/>
+      <c r="EP18" s="17"/>
+      <c r="EQ18" s="17"/>
+      <c r="ER18" s="17"/>
+      <c r="ES18" s="17"/>
+      <c r="ET18" s="17"/>
+      <c r="EU18" s="17"/>
+      <c r="EV18" s="17"/>
+      <c r="EW18" s="17"/>
+      <c r="EX18" s="17"/>
+      <c r="EY18" s="17"/>
+      <c r="EZ18" s="17"/>
+      <c r="FA18" s="17"/>
+      <c r="FB18" s="17"/>
+      <c r="FC18" s="17"/>
+      <c r="FD18" s="17"/>
+      <c r="FE18" s="17"/>
+      <c r="FF18" s="17"/>
+      <c r="FG18" s="17"/>
+      <c r="FH18" s="17"/>
+      <c r="FI18" s="17"/>
+      <c r="FJ18" s="17"/>
+      <c r="FK18" s="17"/>
+      <c r="FL18" s="17"/>
+      <c r="FM18" s="17"/>
+      <c r="FN18" s="17"/>
+      <c r="FO18" s="17"/>
+      <c r="FP18" s="17"/>
+      <c r="FQ18" s="17"/>
+      <c r="FR18" s="17"/>
+      <c r="FS18" s="17"/>
+      <c r="FT18" s="17"/>
+      <c r="FU18" s="17"/>
+      <c r="FV18" s="17"/>
+      <c r="FW18" s="17"/>
+      <c r="FX18" s="17"/>
+      <c r="FY18" s="17"/>
+      <c r="FZ18" s="17"/>
+      <c r="GA18" s="17"/>
+      <c r="GB18" s="17"/>
+      <c r="GC18" s="17"/>
+      <c r="GD18" s="17"/>
+      <c r="GE18" s="17"/>
+      <c r="GF18" s="17"/>
+      <c r="GG18" s="17"/>
+      <c r="GH18" s="17"/>
+      <c r="GI18" s="17"/>
+      <c r="GJ18" s="17"/>
+      <c r="GK18" s="17"/>
+      <c r="GL18" s="17"/>
+      <c r="GM18" s="17"/>
+      <c r="GN18" s="17"/>
+      <c r="GO18" s="17"/>
+      <c r="GP18" s="17"/>
+      <c r="GQ18" s="17"/>
+      <c r="GR18" s="17"/>
+      <c r="GS18" s="17"/>
+      <c r="GT18" s="17"/>
+      <c r="GU18" s="17"/>
+      <c r="GV18" s="17"/>
+      <c r="GW18" s="17"/>
+      <c r="GX18" s="17"/>
+      <c r="GY18" s="17"/>
+      <c r="GZ18" s="17"/>
+      <c r="HA18" s="17"/>
+      <c r="HB18" s="17"/>
+      <c r="HC18" s="17"/>
+      <c r="HD18" s="17"/>
+      <c r="HE18" s="17"/>
+      <c r="HF18" s="17"/>
+      <c r="HG18" s="17"/>
+      <c r="HH18" s="17"/>
+      <c r="HI18" s="17"/>
+      <c r="HJ18" s="17"/>
+      <c r="HK18" s="17"/>
+      <c r="HL18" s="17"/>
+      <c r="HM18" s="17"/>
+      <c r="HN18" s="17"/>
+      <c r="HO18" s="17"/>
+      <c r="HP18" s="17"/>
+      <c r="HQ18" s="17"/>
+      <c r="HR18" s="17"/>
+      <c r="HS18" s="17"/>
+      <c r="HT18" s="17"/>
+      <c r="HU18" s="17"/>
+      <c r="HV18" s="17"/>
+      <c r="HW18" s="17"/>
+      <c r="HX18" s="17"/>
+      <c r="HY18" s="17"/>
+      <c r="HZ18" s="17"/>
+      <c r="IA18" s="17"/>
+      <c r="IB18" s="17"/>
+      <c r="IC18" s="17"/>
+      <c r="ID18" s="17"/>
+      <c r="IE18" s="17"/>
+      <c r="IF18" s="17"/>
+      <c r="IG18" s="17"/>
+      <c r="IH18" s="17"/>
+      <c r="II18" s="17"/>
+      <c r="IJ18" s="17"/>
+      <c r="IK18" s="17"/>
+      <c r="IL18" s="17"/>
+      <c r="IM18" s="17"/>
+      <c r="IN18" s="17"/>
+      <c r="IO18" s="17"/>
+      <c r="IP18" s="17"/>
+      <c r="IQ18" s="17"/>
+      <c r="IR18" s="17"/>
+      <c r="IS18" s="17"/>
+      <c r="IT18" s="17"/>
+      <c r="IU18" s="17"/>
+      <c r="IV18" s="17"/>
     </row>
-    <row r="15" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A15" s="30" t="s">
+    <row r="19" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A19" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B19" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C19" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="17"/>
-      <c r="AB15" s="17"/>
-      <c r="AC15" s="17"/>
-      <c r="AD15" s="17"/>
-      <c r="AE15" s="17"/>
-      <c r="AF15" s="17"/>
-      <c r="AG15" s="17"/>
-      <c r="AH15" s="17"/>
-      <c r="AI15" s="17"/>
-      <c r="AJ15" s="17"/>
-      <c r="AK15" s="17"/>
-      <c r="AL15" s="17"/>
-      <c r="AM15" s="17"/>
-      <c r="AN15" s="17"/>
-      <c r="AO15" s="17"/>
-      <c r="AP15" s="17"/>
-      <c r="AQ15" s="17"/>
-      <c r="AR15" s="17"/>
-      <c r="AS15" s="17"/>
-      <c r="AT15" s="17"/>
-      <c r="AU15" s="17"/>
-      <c r="AV15" s="17"/>
-      <c r="AW15" s="17"/>
-      <c r="AX15" s="17"/>
-      <c r="AY15" s="17"/>
-      <c r="AZ15" s="17"/>
-      <c r="BA15" s="17"/>
-      <c r="BB15" s="17"/>
-      <c r="BC15" s="17"/>
-      <c r="BD15" s="17"/>
-      <c r="BE15" s="17"/>
-      <c r="BF15" s="17"/>
-      <c r="BG15" s="17"/>
-      <c r="BH15" s="17"/>
-      <c r="BI15" s="17"/>
-      <c r="BJ15" s="17"/>
-      <c r="BK15" s="17"/>
-      <c r="BL15" s="17"/>
-      <c r="BM15" s="17"/>
-      <c r="BN15" s="17"/>
-      <c r="BO15" s="17"/>
-      <c r="BP15" s="17"/>
-      <c r="BQ15" s="17"/>
-      <c r="BR15" s="17"/>
-      <c r="BS15" s="17"/>
-      <c r="BT15" s="17"/>
-      <c r="BU15" s="17"/>
-      <c r="BV15" s="17"/>
-      <c r="BW15" s="17"/>
-      <c r="BX15" s="17"/>
-      <c r="BY15" s="17"/>
-      <c r="BZ15" s="17"/>
-      <c r="CA15" s="17"/>
-      <c r="CB15" s="17"/>
-      <c r="CC15" s="17"/>
-      <c r="CD15" s="17"/>
-      <c r="CE15" s="17"/>
-      <c r="CF15" s="17"/>
-      <c r="CG15" s="17"/>
-      <c r="CH15" s="17"/>
-      <c r="CI15" s="17"/>
-      <c r="CJ15" s="17"/>
-      <c r="CK15" s="17"/>
-      <c r="CL15" s="17"/>
-      <c r="CM15" s="17"/>
-      <c r="CN15" s="17"/>
-      <c r="CO15" s="17"/>
-      <c r="CP15" s="17"/>
-      <c r="CQ15" s="17"/>
-      <c r="CR15" s="17"/>
-      <c r="CS15" s="17"/>
-      <c r="CT15" s="17"/>
-      <c r="CU15" s="17"/>
-      <c r="CV15" s="17"/>
-      <c r="CW15" s="17"/>
-      <c r="CX15" s="17"/>
-      <c r="CY15" s="17"/>
-      <c r="CZ15" s="17"/>
-      <c r="DA15" s="17"/>
-      <c r="DB15" s="17"/>
-      <c r="DC15" s="17"/>
-      <c r="DD15" s="17"/>
-      <c r="DE15" s="17"/>
-      <c r="DF15" s="17"/>
-      <c r="DG15" s="17"/>
-      <c r="DH15" s="17"/>
-      <c r="DI15" s="17"/>
-      <c r="DJ15" s="17"/>
-      <c r="DK15" s="17"/>
-      <c r="DL15" s="17"/>
-      <c r="DM15" s="17"/>
-      <c r="DN15" s="17"/>
-      <c r="DO15" s="17"/>
-      <c r="DP15" s="17"/>
-      <c r="DQ15" s="17"/>
-      <c r="DR15" s="17"/>
-      <c r="DS15" s="17"/>
-      <c r="DT15" s="17"/>
-      <c r="DU15" s="17"/>
-      <c r="DV15" s="17"/>
-      <c r="DW15" s="17"/>
-      <c r="DX15" s="17"/>
-      <c r="DY15" s="17"/>
-      <c r="DZ15" s="17"/>
-      <c r="EA15" s="17"/>
-      <c r="EB15" s="17"/>
-      <c r="EC15" s="17"/>
-      <c r="ED15" s="17"/>
-      <c r="EE15" s="17"/>
-      <c r="EF15" s="17"/>
-      <c r="EG15" s="17"/>
-      <c r="EH15" s="17"/>
-      <c r="EI15" s="17"/>
-      <c r="EJ15" s="17"/>
-      <c r="EK15" s="17"/>
-      <c r="EL15" s="17"/>
-      <c r="EM15" s="17"/>
-      <c r="EN15" s="17"/>
-      <c r="EO15" s="17"/>
-      <c r="EP15" s="17"/>
-      <c r="EQ15" s="17"/>
-      <c r="ER15" s="17"/>
-      <c r="ES15" s="17"/>
-      <c r="ET15" s="17"/>
-      <c r="EU15" s="17"/>
-      <c r="EV15" s="17"/>
-      <c r="EW15" s="17"/>
-      <c r="EX15" s="17"/>
-      <c r="EY15" s="17"/>
-      <c r="EZ15" s="17"/>
-      <c r="FA15" s="17"/>
-      <c r="FB15" s="17"/>
-      <c r="FC15" s="17"/>
-      <c r="FD15" s="17"/>
-      <c r="FE15" s="17"/>
-      <c r="FF15" s="17"/>
-      <c r="FG15" s="17"/>
-      <c r="FH15" s="17"/>
-      <c r="FI15" s="17"/>
-      <c r="FJ15" s="17"/>
-      <c r="FK15" s="17"/>
-      <c r="FL15" s="17"/>
-      <c r="FM15" s="17"/>
-      <c r="FN15" s="17"/>
-      <c r="FO15" s="17"/>
-      <c r="FP15" s="17"/>
-      <c r="FQ15" s="17"/>
-      <c r="FR15" s="17"/>
-      <c r="FS15" s="17"/>
-      <c r="FT15" s="17"/>
-      <c r="FU15" s="17"/>
-      <c r="FV15" s="17"/>
-      <c r="FW15" s="17"/>
-      <c r="FX15" s="17"/>
-      <c r="FY15" s="17"/>
-      <c r="FZ15" s="17"/>
-      <c r="GA15" s="17"/>
-      <c r="GB15" s="17"/>
-      <c r="GC15" s="17"/>
-      <c r="GD15" s="17"/>
-      <c r="GE15" s="17"/>
-      <c r="GF15" s="17"/>
-      <c r="GG15" s="17"/>
-      <c r="GH15" s="17"/>
-      <c r="GI15" s="17"/>
-      <c r="GJ15" s="17"/>
-      <c r="GK15" s="17"/>
-      <c r="GL15" s="17"/>
-      <c r="GM15" s="17"/>
-      <c r="GN15" s="17"/>
-      <c r="GO15" s="17"/>
-      <c r="GP15" s="17"/>
-      <c r="GQ15" s="17"/>
-      <c r="GR15" s="17"/>
-      <c r="GS15" s="17"/>
-      <c r="GT15" s="17"/>
-      <c r="GU15" s="17"/>
-      <c r="GV15" s="17"/>
-      <c r="GW15" s="17"/>
-      <c r="GX15" s="17"/>
-      <c r="GY15" s="17"/>
-      <c r="GZ15" s="17"/>
-      <c r="HA15" s="17"/>
-      <c r="HB15" s="17"/>
-      <c r="HC15" s="17"/>
-      <c r="HD15" s="17"/>
-      <c r="HE15" s="17"/>
-      <c r="HF15" s="17"/>
-      <c r="HG15" s="17"/>
-      <c r="HH15" s="17"/>
-      <c r="HI15" s="17"/>
-      <c r="HJ15" s="17"/>
-      <c r="HK15" s="17"/>
-      <c r="HL15" s="17"/>
-      <c r="HM15" s="17"/>
-      <c r="HN15" s="17"/>
-      <c r="HO15" s="17"/>
-      <c r="HP15" s="17"/>
-      <c r="HQ15" s="17"/>
-      <c r="HR15" s="17"/>
-      <c r="HS15" s="17"/>
-      <c r="HT15" s="17"/>
-      <c r="HU15" s="17"/>
-      <c r="HV15" s="17"/>
-      <c r="HW15" s="17"/>
-      <c r="HX15" s="17"/>
-      <c r="HY15" s="17"/>
-      <c r="HZ15" s="17"/>
-      <c r="IA15" s="17"/>
-      <c r="IB15" s="17"/>
-      <c r="IC15" s="17"/>
-      <c r="ID15" s="17"/>
-      <c r="IE15" s="17"/>
-      <c r="IF15" s="17"/>
-      <c r="IG15" s="17"/>
-      <c r="IH15" s="17"/>
-      <c r="II15" s="17"/>
-      <c r="IJ15" s="17"/>
-      <c r="IK15" s="17"/>
-      <c r="IL15" s="17"/>
-      <c r="IM15" s="17"/>
-      <c r="IN15" s="17"/>
-      <c r="IO15" s="17"/>
-      <c r="IP15" s="17"/>
-      <c r="IQ15" s="17"/>
-      <c r="IR15" s="17"/>
-      <c r="IS15" s="17"/>
-      <c r="IT15" s="17"/>
-      <c r="IU15" s="17"/>
-      <c r="IV15" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="17"/>
+      <c r="AF19" s="17"/>
+      <c r="AG19" s="17"/>
+      <c r="AH19" s="17"/>
+      <c r="AI19" s="17"/>
+      <c r="AJ19" s="17"/>
+      <c r="AK19" s="17"/>
+      <c r="AL19" s="17"/>
+      <c r="AM19" s="17"/>
+      <c r="AN19" s="17"/>
+      <c r="AO19" s="17"/>
+      <c r="AP19" s="17"/>
+      <c r="AQ19" s="17"/>
+      <c r="AR19" s="17"/>
+      <c r="AS19" s="17"/>
+      <c r="AT19" s="17"/>
+      <c r="AU19" s="17"/>
+      <c r="AV19" s="17"/>
+      <c r="AW19" s="17"/>
+      <c r="AX19" s="17"/>
+      <c r="AY19" s="17"/>
+      <c r="AZ19" s="17"/>
+      <c r="BA19" s="17"/>
+      <c r="BB19" s="17"/>
+      <c r="BC19" s="17"/>
+      <c r="BD19" s="17"/>
+      <c r="BE19" s="17"/>
+      <c r="BF19" s="17"/>
+      <c r="BG19" s="17"/>
+      <c r="BH19" s="17"/>
+      <c r="BI19" s="17"/>
+      <c r="BJ19" s="17"/>
+      <c r="BK19" s="17"/>
+      <c r="BL19" s="17"/>
+      <c r="BM19" s="17"/>
+      <c r="BN19" s="17"/>
+      <c r="BO19" s="17"/>
+      <c r="BP19" s="17"/>
+      <c r="BQ19" s="17"/>
+      <c r="BR19" s="17"/>
+      <c r="BS19" s="17"/>
+      <c r="BT19" s="17"/>
+      <c r="BU19" s="17"/>
+      <c r="BV19" s="17"/>
+      <c r="BW19" s="17"/>
+      <c r="BX19" s="17"/>
+      <c r="BY19" s="17"/>
+      <c r="BZ19" s="17"/>
+      <c r="CA19" s="17"/>
+      <c r="CB19" s="17"/>
+      <c r="CC19" s="17"/>
+      <c r="CD19" s="17"/>
+      <c r="CE19" s="17"/>
+      <c r="CF19" s="17"/>
+      <c r="CG19" s="17"/>
+      <c r="CH19" s="17"/>
+      <c r="CI19" s="17"/>
+      <c r="CJ19" s="17"/>
+      <c r="CK19" s="17"/>
+      <c r="CL19" s="17"/>
+      <c r="CM19" s="17"/>
+      <c r="CN19" s="17"/>
+      <c r="CO19" s="17"/>
+      <c r="CP19" s="17"/>
+      <c r="CQ19" s="17"/>
+      <c r="CR19" s="17"/>
+      <c r="CS19" s="17"/>
+      <c r="CT19" s="17"/>
+      <c r="CU19" s="17"/>
+      <c r="CV19" s="17"/>
+      <c r="CW19" s="17"/>
+      <c r="CX19" s="17"/>
+      <c r="CY19" s="17"/>
+      <c r="CZ19" s="17"/>
+      <c r="DA19" s="17"/>
+      <c r="DB19" s="17"/>
+      <c r="DC19" s="17"/>
+      <c r="DD19" s="17"/>
+      <c r="DE19" s="17"/>
+      <c r="DF19" s="17"/>
+      <c r="DG19" s="17"/>
+      <c r="DH19" s="17"/>
+      <c r="DI19" s="17"/>
+      <c r="DJ19" s="17"/>
+      <c r="DK19" s="17"/>
+      <c r="DL19" s="17"/>
+      <c r="DM19" s="17"/>
+      <c r="DN19" s="17"/>
+      <c r="DO19" s="17"/>
+      <c r="DP19" s="17"/>
+      <c r="DQ19" s="17"/>
+      <c r="DR19" s="17"/>
+      <c r="DS19" s="17"/>
+      <c r="DT19" s="17"/>
+      <c r="DU19" s="17"/>
+      <c r="DV19" s="17"/>
+      <c r="DW19" s="17"/>
+      <c r="DX19" s="17"/>
+      <c r="DY19" s="17"/>
+      <c r="DZ19" s="17"/>
+      <c r="EA19" s="17"/>
+      <c r="EB19" s="17"/>
+      <c r="EC19" s="17"/>
+      <c r="ED19" s="17"/>
+      <c r="EE19" s="17"/>
+      <c r="EF19" s="17"/>
+      <c r="EG19" s="17"/>
+      <c r="EH19" s="17"/>
+      <c r="EI19" s="17"/>
+      <c r="EJ19" s="17"/>
+      <c r="EK19" s="17"/>
+      <c r="EL19" s="17"/>
+      <c r="EM19" s="17"/>
+      <c r="EN19" s="17"/>
+      <c r="EO19" s="17"/>
+      <c r="EP19" s="17"/>
+      <c r="EQ19" s="17"/>
+      <c r="ER19" s="17"/>
+      <c r="ES19" s="17"/>
+      <c r="ET19" s="17"/>
+      <c r="EU19" s="17"/>
+      <c r="EV19" s="17"/>
+      <c r="EW19" s="17"/>
+      <c r="EX19" s="17"/>
+      <c r="EY19" s="17"/>
+      <c r="EZ19" s="17"/>
+      <c r="FA19" s="17"/>
+      <c r="FB19" s="17"/>
+      <c r="FC19" s="17"/>
+      <c r="FD19" s="17"/>
+      <c r="FE19" s="17"/>
+      <c r="FF19" s="17"/>
+      <c r="FG19" s="17"/>
+      <c r="FH19" s="17"/>
+      <c r="FI19" s="17"/>
+      <c r="FJ19" s="17"/>
+      <c r="FK19" s="17"/>
+      <c r="FL19" s="17"/>
+      <c r="FM19" s="17"/>
+      <c r="FN19" s="17"/>
+      <c r="FO19" s="17"/>
+      <c r="FP19" s="17"/>
+      <c r="FQ19" s="17"/>
+      <c r="FR19" s="17"/>
+      <c r="FS19" s="17"/>
+      <c r="FT19" s="17"/>
+      <c r="FU19" s="17"/>
+      <c r="FV19" s="17"/>
+      <c r="FW19" s="17"/>
+      <c r="FX19" s="17"/>
+      <c r="FY19" s="17"/>
+      <c r="FZ19" s="17"/>
+      <c r="GA19" s="17"/>
+      <c r="GB19" s="17"/>
+      <c r="GC19" s="17"/>
+      <c r="GD19" s="17"/>
+      <c r="GE19" s="17"/>
+      <c r="GF19" s="17"/>
+      <c r="GG19" s="17"/>
+      <c r="GH19" s="17"/>
+      <c r="GI19" s="17"/>
+      <c r="GJ19" s="17"/>
+      <c r="GK19" s="17"/>
+      <c r="GL19" s="17"/>
+      <c r="GM19" s="17"/>
+      <c r="GN19" s="17"/>
+      <c r="GO19" s="17"/>
+      <c r="GP19" s="17"/>
+      <c r="GQ19" s="17"/>
+      <c r="GR19" s="17"/>
+      <c r="GS19" s="17"/>
+      <c r="GT19" s="17"/>
+      <c r="GU19" s="17"/>
+      <c r="GV19" s="17"/>
+      <c r="GW19" s="17"/>
+      <c r="GX19" s="17"/>
+      <c r="GY19" s="17"/>
+      <c r="GZ19" s="17"/>
+      <c r="HA19" s="17"/>
+      <c r="HB19" s="17"/>
+      <c r="HC19" s="17"/>
+      <c r="HD19" s="17"/>
+      <c r="HE19" s="17"/>
+      <c r="HF19" s="17"/>
+      <c r="HG19" s="17"/>
+      <c r="HH19" s="17"/>
+      <c r="HI19" s="17"/>
+      <c r="HJ19" s="17"/>
+      <c r="HK19" s="17"/>
+      <c r="HL19" s="17"/>
+      <c r="HM19" s="17"/>
+      <c r="HN19" s="17"/>
+      <c r="HO19" s="17"/>
+      <c r="HP19" s="17"/>
+      <c r="HQ19" s="17"/>
+      <c r="HR19" s="17"/>
+      <c r="HS19" s="17"/>
+      <c r="HT19" s="17"/>
+      <c r="HU19" s="17"/>
+      <c r="HV19" s="17"/>
+      <c r="HW19" s="17"/>
+      <c r="HX19" s="17"/>
+      <c r="HY19" s="17"/>
+      <c r="HZ19" s="17"/>
+      <c r="IA19" s="17"/>
+      <c r="IB19" s="17"/>
+      <c r="IC19" s="17"/>
+      <c r="ID19" s="17"/>
+      <c r="IE19" s="17"/>
+      <c r="IF19" s="17"/>
+      <c r="IG19" s="17"/>
+      <c r="IH19" s="17"/>
+      <c r="II19" s="17"/>
+      <c r="IJ19" s="17"/>
+      <c r="IK19" s="17"/>
+      <c r="IL19" s="17"/>
+      <c r="IM19" s="17"/>
+      <c r="IN19" s="17"/>
+      <c r="IO19" s="17"/>
+      <c r="IP19" s="17"/>
+      <c r="IQ19" s="17"/>
+      <c r="IR19" s="17"/>
+      <c r="IS19" s="17"/>
+      <c r="IT19" s="17"/>
+      <c r="IU19" s="17"/>
+      <c r="IV19" s="17"/>
     </row>
-    <row r="16" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A16" s="43" t="s">
+    <row r="20" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A20" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="17"/>
-      <c r="AA16" s="17"/>
-      <c r="AB16" s="17"/>
-      <c r="AC16" s="17"/>
-      <c r="AD16" s="17"/>
-      <c r="AE16" s="17"/>
-      <c r="AF16" s="17"/>
-      <c r="AG16" s="17"/>
-      <c r="AH16" s="17"/>
-      <c r="AI16" s="17"/>
-      <c r="AJ16" s="17"/>
-      <c r="AK16" s="17"/>
-      <c r="AL16" s="17"/>
-      <c r="AM16" s="17"/>
-      <c r="AN16" s="17"/>
-      <c r="AO16" s="17"/>
-      <c r="AP16" s="17"/>
-      <c r="AQ16" s="17"/>
-      <c r="AR16" s="17"/>
-      <c r="AS16" s="17"/>
-      <c r="AT16" s="17"/>
-      <c r="AU16" s="17"/>
-      <c r="AV16" s="17"/>
-      <c r="AW16" s="17"/>
-      <c r="AX16" s="17"/>
-      <c r="AY16" s="17"/>
-      <c r="AZ16" s="17"/>
-      <c r="BA16" s="17"/>
-      <c r="BB16" s="17"/>
-      <c r="BC16" s="17"/>
-      <c r="BD16" s="17"/>
-      <c r="BE16" s="17"/>
-      <c r="BF16" s="17"/>
-      <c r="BG16" s="17"/>
-      <c r="BH16" s="17"/>
-      <c r="BI16" s="17"/>
-      <c r="BJ16" s="17"/>
-      <c r="BK16" s="17"/>
-      <c r="BL16" s="17"/>
-      <c r="BM16" s="17"/>
-      <c r="BN16" s="17"/>
-      <c r="BO16" s="17"/>
-      <c r="BP16" s="17"/>
-      <c r="BQ16" s="17"/>
-      <c r="BR16" s="17"/>
-      <c r="BS16" s="17"/>
-      <c r="BT16" s="17"/>
-      <c r="BU16" s="17"/>
-      <c r="BV16" s="17"/>
-      <c r="BW16" s="17"/>
-      <c r="BX16" s="17"/>
-      <c r="BY16" s="17"/>
-      <c r="BZ16" s="17"/>
-      <c r="CA16" s="17"/>
-      <c r="CB16" s="17"/>
-      <c r="CC16" s="17"/>
-      <c r="CD16" s="17"/>
-      <c r="CE16" s="17"/>
-      <c r="CF16" s="17"/>
-      <c r="CG16" s="17"/>
-      <c r="CH16" s="17"/>
-      <c r="CI16" s="17"/>
-      <c r="CJ16" s="17"/>
-      <c r="CK16" s="17"/>
-      <c r="CL16" s="17"/>
-      <c r="CM16" s="17"/>
-      <c r="CN16" s="17"/>
-      <c r="CO16" s="17"/>
-      <c r="CP16" s="17"/>
-      <c r="CQ16" s="17"/>
-      <c r="CR16" s="17"/>
-      <c r="CS16" s="17"/>
-      <c r="CT16" s="17"/>
-      <c r="CU16" s="17"/>
-      <c r="CV16" s="17"/>
-      <c r="CW16" s="17"/>
-      <c r="CX16" s="17"/>
-      <c r="CY16" s="17"/>
-      <c r="CZ16" s="17"/>
-      <c r="DA16" s="17"/>
-      <c r="DB16" s="17"/>
-      <c r="DC16" s="17"/>
-      <c r="DD16" s="17"/>
-      <c r="DE16" s="17"/>
-      <c r="DF16" s="17"/>
-      <c r="DG16" s="17"/>
-      <c r="DH16" s="17"/>
-      <c r="DI16" s="17"/>
-      <c r="DJ16" s="17"/>
-      <c r="DK16" s="17"/>
-      <c r="DL16" s="17"/>
-      <c r="DM16" s="17"/>
-      <c r="DN16" s="17"/>
-      <c r="DO16" s="17"/>
-      <c r="DP16" s="17"/>
-      <c r="DQ16" s="17"/>
-      <c r="DR16" s="17"/>
-      <c r="DS16" s="17"/>
-      <c r="DT16" s="17"/>
-      <c r="DU16" s="17"/>
-      <c r="DV16" s="17"/>
-      <c r="DW16" s="17"/>
-      <c r="DX16" s="17"/>
-      <c r="DY16" s="17"/>
-      <c r="DZ16" s="17"/>
-      <c r="EA16" s="17"/>
-      <c r="EB16" s="17"/>
-      <c r="EC16" s="17"/>
-      <c r="ED16" s="17"/>
-      <c r="EE16" s="17"/>
-      <c r="EF16" s="17"/>
-      <c r="EG16" s="17"/>
-      <c r="EH16" s="17"/>
-      <c r="EI16" s="17"/>
-      <c r="EJ16" s="17"/>
-      <c r="EK16" s="17"/>
-      <c r="EL16" s="17"/>
-      <c r="EM16" s="17"/>
-      <c r="EN16" s="17"/>
-      <c r="EO16" s="17"/>
-      <c r="EP16" s="17"/>
-      <c r="EQ16" s="17"/>
-      <c r="ER16" s="17"/>
-      <c r="ES16" s="17"/>
-      <c r="ET16" s="17"/>
-      <c r="EU16" s="17"/>
-      <c r="EV16" s="17"/>
-      <c r="EW16" s="17"/>
-      <c r="EX16" s="17"/>
-      <c r="EY16" s="17"/>
-      <c r="EZ16" s="17"/>
-      <c r="FA16" s="17"/>
-      <c r="FB16" s="17"/>
-      <c r="FC16" s="17"/>
-      <c r="FD16" s="17"/>
-      <c r="FE16" s="17"/>
-      <c r="FF16" s="17"/>
-      <c r="FG16" s="17"/>
-      <c r="FH16" s="17"/>
-      <c r="FI16" s="17"/>
-      <c r="FJ16" s="17"/>
-      <c r="FK16" s="17"/>
-      <c r="FL16" s="17"/>
-      <c r="FM16" s="17"/>
-      <c r="FN16" s="17"/>
-      <c r="FO16" s="17"/>
-      <c r="FP16" s="17"/>
-      <c r="FQ16" s="17"/>
-      <c r="FR16" s="17"/>
-      <c r="FS16" s="17"/>
-      <c r="FT16" s="17"/>
-      <c r="FU16" s="17"/>
-      <c r="FV16" s="17"/>
-      <c r="FW16" s="17"/>
-      <c r="FX16" s="17"/>
-      <c r="FY16" s="17"/>
-      <c r="FZ16" s="17"/>
-      <c r="GA16" s="17"/>
-      <c r="GB16" s="17"/>
-      <c r="GC16" s="17"/>
-      <c r="GD16" s="17"/>
-      <c r="GE16" s="17"/>
-      <c r="GF16" s="17"/>
-      <c r="GG16" s="17"/>
-      <c r="GH16" s="17"/>
-      <c r="GI16" s="17"/>
-      <c r="GJ16" s="17"/>
-      <c r="GK16" s="17"/>
-      <c r="GL16" s="17"/>
-      <c r="GM16" s="17"/>
-      <c r="GN16" s="17"/>
-      <c r="GO16" s="17"/>
-      <c r="GP16" s="17"/>
-      <c r="GQ16" s="17"/>
-      <c r="GR16" s="17"/>
-      <c r="GS16" s="17"/>
-      <c r="GT16" s="17"/>
-      <c r="GU16" s="17"/>
-      <c r="GV16" s="17"/>
-      <c r="GW16" s="17"/>
-      <c r="GX16" s="17"/>
-      <c r="GY16" s="17"/>
-      <c r="GZ16" s="17"/>
-      <c r="HA16" s="17"/>
-      <c r="HB16" s="17"/>
-      <c r="HC16" s="17"/>
-      <c r="HD16" s="17"/>
-      <c r="HE16" s="17"/>
-      <c r="HF16" s="17"/>
-      <c r="HG16" s="17"/>
-      <c r="HH16" s="17"/>
-      <c r="HI16" s="17"/>
-      <c r="HJ16" s="17"/>
-      <c r="HK16" s="17"/>
-      <c r="HL16" s="17"/>
-      <c r="HM16" s="17"/>
-      <c r="HN16" s="17"/>
-      <c r="HO16" s="17"/>
-      <c r="HP16" s="17"/>
-      <c r="HQ16" s="17"/>
-      <c r="HR16" s="17"/>
-      <c r="HS16" s="17"/>
-      <c r="HT16" s="17"/>
-      <c r="HU16" s="17"/>
-      <c r="HV16" s="17"/>
-      <c r="HW16" s="17"/>
-      <c r="HX16" s="17"/>
-      <c r="HY16" s="17"/>
-      <c r="HZ16" s="17"/>
-      <c r="IA16" s="17"/>
-      <c r="IB16" s="17"/>
-      <c r="IC16" s="17"/>
-      <c r="ID16" s="17"/>
-      <c r="IE16" s="17"/>
-      <c r="IF16" s="17"/>
-      <c r="IG16" s="17"/>
-      <c r="IH16" s="17"/>
-      <c r="II16" s="17"/>
-      <c r="IJ16" s="17"/>
-      <c r="IK16" s="17"/>
-      <c r="IL16" s="17"/>
-      <c r="IM16" s="17"/>
-      <c r="IN16" s="17"/>
-      <c r="IO16" s="17"/>
-      <c r="IP16" s="17"/>
-      <c r="IQ16" s="17"/>
-      <c r="IR16" s="17"/>
-      <c r="IS16" s="17"/>
-      <c r="IT16" s="17"/>
-      <c r="IU16" s="17"/>
-      <c r="IV16" s="17"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="17"/>
+      <c r="AF20" s="17"/>
+      <c r="AG20" s="17"/>
+      <c r="AH20" s="17"/>
+      <c r="AI20" s="17"/>
+      <c r="AJ20" s="17"/>
+      <c r="AK20" s="17"/>
+      <c r="AL20" s="17"/>
+      <c r="AM20" s="17"/>
+      <c r="AN20" s="17"/>
+      <c r="AO20" s="17"/>
+      <c r="AP20" s="17"/>
+      <c r="AQ20" s="17"/>
+      <c r="AR20" s="17"/>
+      <c r="AS20" s="17"/>
+      <c r="AT20" s="17"/>
+      <c r="AU20" s="17"/>
+      <c r="AV20" s="17"/>
+      <c r="AW20" s="17"/>
+      <c r="AX20" s="17"/>
+      <c r="AY20" s="17"/>
+      <c r="AZ20" s="17"/>
+      <c r="BA20" s="17"/>
+      <c r="BB20" s="17"/>
+      <c r="BC20" s="17"/>
+      <c r="BD20" s="17"/>
+      <c r="BE20" s="17"/>
+      <c r="BF20" s="17"/>
+      <c r="BG20" s="17"/>
+      <c r="BH20" s="17"/>
+      <c r="BI20" s="17"/>
+      <c r="BJ20" s="17"/>
+      <c r="BK20" s="17"/>
+      <c r="BL20" s="17"/>
+      <c r="BM20" s="17"/>
+      <c r="BN20" s="17"/>
+      <c r="BO20" s="17"/>
+      <c r="BP20" s="17"/>
+      <c r="BQ20" s="17"/>
+      <c r="BR20" s="17"/>
+      <c r="BS20" s="17"/>
+      <c r="BT20" s="17"/>
+      <c r="BU20" s="17"/>
+      <c r="BV20" s="17"/>
+      <c r="BW20" s="17"/>
+      <c r="BX20" s="17"/>
+      <c r="BY20" s="17"/>
+      <c r="BZ20" s="17"/>
+      <c r="CA20" s="17"/>
+      <c r="CB20" s="17"/>
+      <c r="CC20" s="17"/>
+      <c r="CD20" s="17"/>
+      <c r="CE20" s="17"/>
+      <c r="CF20" s="17"/>
+      <c r="CG20" s="17"/>
+      <c r="CH20" s="17"/>
+      <c r="CI20" s="17"/>
+      <c r="CJ20" s="17"/>
+      <c r="CK20" s="17"/>
+      <c r="CL20" s="17"/>
+      <c r="CM20" s="17"/>
+      <c r="CN20" s="17"/>
+      <c r="CO20" s="17"/>
+      <c r="CP20" s="17"/>
+      <c r="CQ20" s="17"/>
+      <c r="CR20" s="17"/>
+      <c r="CS20" s="17"/>
+      <c r="CT20" s="17"/>
+      <c r="CU20" s="17"/>
+      <c r="CV20" s="17"/>
+      <c r="CW20" s="17"/>
+      <c r="CX20" s="17"/>
+      <c r="CY20" s="17"/>
+      <c r="CZ20" s="17"/>
+      <c r="DA20" s="17"/>
+      <c r="DB20" s="17"/>
+      <c r="DC20" s="17"/>
+      <c r="DD20" s="17"/>
+      <c r="DE20" s="17"/>
+      <c r="DF20" s="17"/>
+      <c r="DG20" s="17"/>
+      <c r="DH20" s="17"/>
+      <c r="DI20" s="17"/>
+      <c r="DJ20" s="17"/>
+      <c r="DK20" s="17"/>
+      <c r="DL20" s="17"/>
+      <c r="DM20" s="17"/>
+      <c r="DN20" s="17"/>
+      <c r="DO20" s="17"/>
+      <c r="DP20" s="17"/>
+      <c r="DQ20" s="17"/>
+      <c r="DR20" s="17"/>
+      <c r="DS20" s="17"/>
+      <c r="DT20" s="17"/>
+      <c r="DU20" s="17"/>
+      <c r="DV20" s="17"/>
+      <c r="DW20" s="17"/>
+      <c r="DX20" s="17"/>
+      <c r="DY20" s="17"/>
+      <c r="DZ20" s="17"/>
+      <c r="EA20" s="17"/>
+      <c r="EB20" s="17"/>
+      <c r="EC20" s="17"/>
+      <c r="ED20" s="17"/>
+      <c r="EE20" s="17"/>
+      <c r="EF20" s="17"/>
+      <c r="EG20" s="17"/>
+      <c r="EH20" s="17"/>
+      <c r="EI20" s="17"/>
+      <c r="EJ20" s="17"/>
+      <c r="EK20" s="17"/>
+      <c r="EL20" s="17"/>
+      <c r="EM20" s="17"/>
+      <c r="EN20" s="17"/>
+      <c r="EO20" s="17"/>
+      <c r="EP20" s="17"/>
+      <c r="EQ20" s="17"/>
+      <c r="ER20" s="17"/>
+      <c r="ES20" s="17"/>
+      <c r="ET20" s="17"/>
+      <c r="EU20" s="17"/>
+      <c r="EV20" s="17"/>
+      <c r="EW20" s="17"/>
+      <c r="EX20" s="17"/>
+      <c r="EY20" s="17"/>
+      <c r="EZ20" s="17"/>
+      <c r="FA20" s="17"/>
+      <c r="FB20" s="17"/>
+      <c r="FC20" s="17"/>
+      <c r="FD20" s="17"/>
+      <c r="FE20" s="17"/>
+      <c r="FF20" s="17"/>
+      <c r="FG20" s="17"/>
+      <c r="FH20" s="17"/>
+      <c r="FI20" s="17"/>
+      <c r="FJ20" s="17"/>
+      <c r="FK20" s="17"/>
+      <c r="FL20" s="17"/>
+      <c r="FM20" s="17"/>
+      <c r="FN20" s="17"/>
+      <c r="FO20" s="17"/>
+      <c r="FP20" s="17"/>
+      <c r="FQ20" s="17"/>
+      <c r="FR20" s="17"/>
+      <c r="FS20" s="17"/>
+      <c r="FT20" s="17"/>
+      <c r="FU20" s="17"/>
+      <c r="FV20" s="17"/>
+      <c r="FW20" s="17"/>
+      <c r="FX20" s="17"/>
+      <c r="FY20" s="17"/>
+      <c r="FZ20" s="17"/>
+      <c r="GA20" s="17"/>
+      <c r="GB20" s="17"/>
+      <c r="GC20" s="17"/>
+      <c r="GD20" s="17"/>
+      <c r="GE20" s="17"/>
+      <c r="GF20" s="17"/>
+      <c r="GG20" s="17"/>
+      <c r="GH20" s="17"/>
+      <c r="GI20" s="17"/>
+      <c r="GJ20" s="17"/>
+      <c r="GK20" s="17"/>
+      <c r="GL20" s="17"/>
+      <c r="GM20" s="17"/>
+      <c r="GN20" s="17"/>
+      <c r="GO20" s="17"/>
+      <c r="GP20" s="17"/>
+      <c r="GQ20" s="17"/>
+      <c r="GR20" s="17"/>
+      <c r="GS20" s="17"/>
+      <c r="GT20" s="17"/>
+      <c r="GU20" s="17"/>
+      <c r="GV20" s="17"/>
+      <c r="GW20" s="17"/>
+      <c r="GX20" s="17"/>
+      <c r="GY20" s="17"/>
+      <c r="GZ20" s="17"/>
+      <c r="HA20" s="17"/>
+      <c r="HB20" s="17"/>
+      <c r="HC20" s="17"/>
+      <c r="HD20" s="17"/>
+      <c r="HE20" s="17"/>
+      <c r="HF20" s="17"/>
+      <c r="HG20" s="17"/>
+      <c r="HH20" s="17"/>
+      <c r="HI20" s="17"/>
+      <c r="HJ20" s="17"/>
+      <c r="HK20" s="17"/>
+      <c r="HL20" s="17"/>
+      <c r="HM20" s="17"/>
+      <c r="HN20" s="17"/>
+      <c r="HO20" s="17"/>
+      <c r="HP20" s="17"/>
+      <c r="HQ20" s="17"/>
+      <c r="HR20" s="17"/>
+      <c r="HS20" s="17"/>
+      <c r="HT20" s="17"/>
+      <c r="HU20" s="17"/>
+      <c r="HV20" s="17"/>
+      <c r="HW20" s="17"/>
+      <c r="HX20" s="17"/>
+      <c r="HY20" s="17"/>
+      <c r="HZ20" s="17"/>
+      <c r="IA20" s="17"/>
+      <c r="IB20" s="17"/>
+      <c r="IC20" s="17"/>
+      <c r="ID20" s="17"/>
+      <c r="IE20" s="17"/>
+      <c r="IF20" s="17"/>
+      <c r="IG20" s="17"/>
+      <c r="IH20" s="17"/>
+      <c r="II20" s="17"/>
+      <c r="IJ20" s="17"/>
+      <c r="IK20" s="17"/>
+      <c r="IL20" s="17"/>
+      <c r="IM20" s="17"/>
+      <c r="IN20" s="17"/>
+      <c r="IO20" s="17"/>
+      <c r="IP20" s="17"/>
+      <c r="IQ20" s="17"/>
+      <c r="IR20" s="17"/>
+      <c r="IS20" s="17"/>
+      <c r="IT20" s="17"/>
+      <c r="IU20" s="17"/>
+      <c r="IV20" s="17"/>
     </row>
-    <row r="17" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A17" s="53"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="17"/>
-      <c r="AB17" s="17"/>
-      <c r="AC17" s="17"/>
-      <c r="AD17" s="17"/>
-      <c r="AE17" s="17"/>
-      <c r="AF17" s="17"/>
-      <c r="AG17" s="17"/>
-      <c r="AH17" s="17"/>
-      <c r="AI17" s="17"/>
-      <c r="AJ17" s="17"/>
-      <c r="AK17" s="17"/>
-      <c r="AL17" s="17"/>
-      <c r="AM17" s="17"/>
-      <c r="AN17" s="17"/>
-      <c r="AO17" s="17"/>
-      <c r="AP17" s="17"/>
-      <c r="AQ17" s="17"/>
-      <c r="AR17" s="17"/>
-      <c r="AS17" s="17"/>
-      <c r="AT17" s="17"/>
-      <c r="AU17" s="17"/>
-      <c r="AV17" s="17"/>
-      <c r="AW17" s="17"/>
-      <c r="AX17" s="17"/>
-      <c r="AY17" s="17"/>
-      <c r="AZ17" s="17"/>
-      <c r="BA17" s="17"/>
-      <c r="BB17" s="17"/>
-      <c r="BC17" s="17"/>
-      <c r="BD17" s="17"/>
-      <c r="BE17" s="17"/>
-      <c r="BF17" s="17"/>
-      <c r="BG17" s="17"/>
-      <c r="BH17" s="17"/>
-      <c r="BI17" s="17"/>
-      <c r="BJ17" s="17"/>
-      <c r="BK17" s="17"/>
-      <c r="BL17" s="17"/>
-      <c r="BM17" s="17"/>
-      <c r="BN17" s="17"/>
-      <c r="BO17" s="17"/>
-      <c r="BP17" s="17"/>
-      <c r="BQ17" s="17"/>
-      <c r="BR17" s="17"/>
-      <c r="BS17" s="17"/>
-      <c r="BT17" s="17"/>
-      <c r="BU17" s="17"/>
-      <c r="BV17" s="17"/>
-      <c r="BW17" s="17"/>
-      <c r="BX17" s="17"/>
-      <c r="BY17" s="17"/>
-      <c r="BZ17" s="17"/>
-      <c r="CA17" s="17"/>
-      <c r="CB17" s="17"/>
-      <c r="CC17" s="17"/>
-      <c r="CD17" s="17"/>
-      <c r="CE17" s="17"/>
-      <c r="CF17" s="17"/>
-      <c r="CG17" s="17"/>
-      <c r="CH17" s="17"/>
-      <c r="CI17" s="17"/>
-      <c r="CJ17" s="17"/>
-      <c r="CK17" s="17"/>
-      <c r="CL17" s="17"/>
-      <c r="CM17" s="17"/>
-      <c r="CN17" s="17"/>
-      <c r="CO17" s="17"/>
-      <c r="CP17" s="17"/>
-      <c r="CQ17" s="17"/>
-      <c r="CR17" s="17"/>
-      <c r="CS17" s="17"/>
-      <c r="CT17" s="17"/>
-      <c r="CU17" s="17"/>
-      <c r="CV17" s="17"/>
-      <c r="CW17" s="17"/>
-      <c r="CX17" s="17"/>
-      <c r="CY17" s="17"/>
-      <c r="CZ17" s="17"/>
-      <c r="DA17" s="17"/>
-      <c r="DB17" s="17"/>
-      <c r="DC17" s="17"/>
-      <c r="DD17" s="17"/>
-      <c r="DE17" s="17"/>
-      <c r="DF17" s="17"/>
-      <c r="DG17" s="17"/>
-      <c r="DH17" s="17"/>
-      <c r="DI17" s="17"/>
-      <c r="DJ17" s="17"/>
-      <c r="DK17" s="17"/>
-      <c r="DL17" s="17"/>
-      <c r="DM17" s="17"/>
-      <c r="DN17" s="17"/>
-      <c r="DO17" s="17"/>
-      <c r="DP17" s="17"/>
-      <c r="DQ17" s="17"/>
-      <c r="DR17" s="17"/>
-      <c r="DS17" s="17"/>
-      <c r="DT17" s="17"/>
-      <c r="DU17" s="17"/>
-      <c r="DV17" s="17"/>
-      <c r="DW17" s="17"/>
-      <c r="DX17" s="17"/>
-      <c r="DY17" s="17"/>
-      <c r="DZ17" s="17"/>
-      <c r="EA17" s="17"/>
-      <c r="EB17" s="17"/>
-      <c r="EC17" s="17"/>
-      <c r="ED17" s="17"/>
-      <c r="EE17" s="17"/>
-      <c r="EF17" s="17"/>
-      <c r="EG17" s="17"/>
-      <c r="EH17" s="17"/>
-      <c r="EI17" s="17"/>
-      <c r="EJ17" s="17"/>
-      <c r="EK17" s="17"/>
-      <c r="EL17" s="17"/>
-      <c r="EM17" s="17"/>
-      <c r="EN17" s="17"/>
-      <c r="EO17" s="17"/>
-      <c r="EP17" s="17"/>
-      <c r="EQ17" s="17"/>
-      <c r="ER17" s="17"/>
-      <c r="ES17" s="17"/>
-      <c r="ET17" s="17"/>
-      <c r="EU17" s="17"/>
-      <c r="EV17" s="17"/>
-      <c r="EW17" s="17"/>
-      <c r="EX17" s="17"/>
-      <c r="EY17" s="17"/>
-      <c r="EZ17" s="17"/>
-      <c r="FA17" s="17"/>
-      <c r="FB17" s="17"/>
-      <c r="FC17" s="17"/>
-      <c r="FD17" s="17"/>
-      <c r="FE17" s="17"/>
-      <c r="FF17" s="17"/>
-      <c r="FG17" s="17"/>
-      <c r="FH17" s="17"/>
-      <c r="FI17" s="17"/>
-      <c r="FJ17" s="17"/>
-      <c r="FK17" s="17"/>
-      <c r="FL17" s="17"/>
-      <c r="FM17" s="17"/>
-      <c r="FN17" s="17"/>
-      <c r="FO17" s="17"/>
-      <c r="FP17" s="17"/>
-      <c r="FQ17" s="17"/>
-      <c r="FR17" s="17"/>
-      <c r="FS17" s="17"/>
-      <c r="FT17" s="17"/>
-      <c r="FU17" s="17"/>
-      <c r="FV17" s="17"/>
-      <c r="FW17" s="17"/>
-      <c r="FX17" s="17"/>
-      <c r="FY17" s="17"/>
-      <c r="FZ17" s="17"/>
-      <c r="GA17" s="17"/>
-      <c r="GB17" s="17"/>
-      <c r="GC17" s="17"/>
-      <c r="GD17" s="17"/>
-      <c r="GE17" s="17"/>
-      <c r="GF17" s="17"/>
-      <c r="GG17" s="17"/>
-      <c r="GH17" s="17"/>
-      <c r="GI17" s="17"/>
-      <c r="GJ17" s="17"/>
-      <c r="GK17" s="17"/>
-      <c r="GL17" s="17"/>
-      <c r="GM17" s="17"/>
-      <c r="GN17" s="17"/>
-      <c r="GO17" s="17"/>
-      <c r="GP17" s="17"/>
-      <c r="GQ17" s="17"/>
-      <c r="GR17" s="17"/>
-      <c r="GS17" s="17"/>
-      <c r="GT17" s="17"/>
-      <c r="GU17" s="17"/>
-      <c r="GV17" s="17"/>
-      <c r="GW17" s="17"/>
-      <c r="GX17" s="17"/>
-      <c r="GY17" s="17"/>
-      <c r="GZ17" s="17"/>
-      <c r="HA17" s="17"/>
-      <c r="HB17" s="17"/>
-      <c r="HC17" s="17"/>
-      <c r="HD17" s="17"/>
-      <c r="HE17" s="17"/>
-      <c r="HF17" s="17"/>
-      <c r="HG17" s="17"/>
-      <c r="HH17" s="17"/>
-      <c r="HI17" s="17"/>
-      <c r="HJ17" s="17"/>
-      <c r="HK17" s="17"/>
-      <c r="HL17" s="17"/>
-      <c r="HM17" s="17"/>
-      <c r="HN17" s="17"/>
-      <c r="HO17" s="17"/>
-      <c r="HP17" s="17"/>
-      <c r="HQ17" s="17"/>
-      <c r="HR17" s="17"/>
-      <c r="HS17" s="17"/>
-      <c r="HT17" s="17"/>
-      <c r="HU17" s="17"/>
-      <c r="HV17" s="17"/>
-      <c r="HW17" s="17"/>
-      <c r="HX17" s="17"/>
-      <c r="HY17" s="17"/>
-      <c r="HZ17" s="17"/>
-      <c r="IA17" s="17"/>
-      <c r="IB17" s="17"/>
-      <c r="IC17" s="17"/>
-      <c r="ID17" s="17"/>
-      <c r="IE17" s="17"/>
-      <c r="IF17" s="17"/>
-      <c r="IG17" s="17"/>
-      <c r="IH17" s="17"/>
-      <c r="II17" s="17"/>
-      <c r="IJ17" s="17"/>
-      <c r="IK17" s="17"/>
-      <c r="IL17" s="17"/>
-      <c r="IM17" s="17"/>
-      <c r="IN17" s="17"/>
-      <c r="IO17" s="17"/>
-      <c r="IP17" s="17"/>
-      <c r="IQ17" s="17"/>
-      <c r="IR17" s="17"/>
-      <c r="IS17" s="17"/>
-      <c r="IT17" s="17"/>
-      <c r="IU17" s="17"/>
-      <c r="IV17" s="17"/>
-    </row>
-    <row r="18" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:256" ht="15" x14ac:dyDescent="0.35">
-      <c r="A19" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-    </row>
-    <row r="20" spans="1:256" ht="15" x14ac:dyDescent="0.35">
-      <c r="A20" s="34">
-        <v>1</v>
-      </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
+    <row r="21" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A21" s="53"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
+      <c r="AG21" s="17"/>
+      <c r="AH21" s="17"/>
+      <c r="AI21" s="17"/>
+      <c r="AJ21" s="17"/>
+      <c r="AK21" s="17"/>
+      <c r="AL21" s="17"/>
+      <c r="AM21" s="17"/>
+      <c r="AN21" s="17"/>
+      <c r="AO21" s="17"/>
+      <c r="AP21" s="17"/>
+      <c r="AQ21" s="17"/>
+      <c r="AR21" s="17"/>
+      <c r="AS21" s="17"/>
+      <c r="AT21" s="17"/>
+      <c r="AU21" s="17"/>
+      <c r="AV21" s="17"/>
+      <c r="AW21" s="17"/>
+      <c r="AX21" s="17"/>
+      <c r="AY21" s="17"/>
+      <c r="AZ21" s="17"/>
+      <c r="BA21" s="17"/>
+      <c r="BB21" s="17"/>
+      <c r="BC21" s="17"/>
+      <c r="BD21" s="17"/>
+      <c r="BE21" s="17"/>
+      <c r="BF21" s="17"/>
+      <c r="BG21" s="17"/>
+      <c r="BH21" s="17"/>
+      <c r="BI21" s="17"/>
+      <c r="BJ21" s="17"/>
+      <c r="BK21" s="17"/>
+      <c r="BL21" s="17"/>
+      <c r="BM21" s="17"/>
+      <c r="BN21" s="17"/>
+      <c r="BO21" s="17"/>
+      <c r="BP21" s="17"/>
+      <c r="BQ21" s="17"/>
+      <c r="BR21" s="17"/>
+      <c r="BS21" s="17"/>
+      <c r="BT21" s="17"/>
+      <c r="BU21" s="17"/>
+      <c r="BV21" s="17"/>
+      <c r="BW21" s="17"/>
+      <c r="BX21" s="17"/>
+      <c r="BY21" s="17"/>
+      <c r="BZ21" s="17"/>
+      <c r="CA21" s="17"/>
+      <c r="CB21" s="17"/>
+      <c r="CC21" s="17"/>
+      <c r="CD21" s="17"/>
+      <c r="CE21" s="17"/>
+      <c r="CF21" s="17"/>
+      <c r="CG21" s="17"/>
+      <c r="CH21" s="17"/>
+      <c r="CI21" s="17"/>
+      <c r="CJ21" s="17"/>
+      <c r="CK21" s="17"/>
+      <c r="CL21" s="17"/>
+      <c r="CM21" s="17"/>
+      <c r="CN21" s="17"/>
+      <c r="CO21" s="17"/>
+      <c r="CP21" s="17"/>
+      <c r="CQ21" s="17"/>
+      <c r="CR21" s="17"/>
+      <c r="CS21" s="17"/>
+      <c r="CT21" s="17"/>
+      <c r="CU21" s="17"/>
+      <c r="CV21" s="17"/>
+      <c r="CW21" s="17"/>
+      <c r="CX21" s="17"/>
+      <c r="CY21" s="17"/>
+      <c r="CZ21" s="17"/>
+      <c r="DA21" s="17"/>
+      <c r="DB21" s="17"/>
+      <c r="DC21" s="17"/>
+      <c r="DD21" s="17"/>
+      <c r="DE21" s="17"/>
+      <c r="DF21" s="17"/>
+      <c r="DG21" s="17"/>
+      <c r="DH21" s="17"/>
+      <c r="DI21" s="17"/>
+      <c r="DJ21" s="17"/>
+      <c r="DK21" s="17"/>
+      <c r="DL21" s="17"/>
+      <c r="DM21" s="17"/>
+      <c r="DN21" s="17"/>
+      <c r="DO21" s="17"/>
+      <c r="DP21" s="17"/>
+      <c r="DQ21" s="17"/>
+      <c r="DR21" s="17"/>
+      <c r="DS21" s="17"/>
+      <c r="DT21" s="17"/>
+      <c r="DU21" s="17"/>
+      <c r="DV21" s="17"/>
+      <c r="DW21" s="17"/>
+      <c r="DX21" s="17"/>
+      <c r="DY21" s="17"/>
+      <c r="DZ21" s="17"/>
+      <c r="EA21" s="17"/>
+      <c r="EB21" s="17"/>
+      <c r="EC21" s="17"/>
+      <c r="ED21" s="17"/>
+      <c r="EE21" s="17"/>
+      <c r="EF21" s="17"/>
+      <c r="EG21" s="17"/>
+      <c r="EH21" s="17"/>
+      <c r="EI21" s="17"/>
+      <c r="EJ21" s="17"/>
+      <c r="EK21" s="17"/>
+      <c r="EL21" s="17"/>
+      <c r="EM21" s="17"/>
+      <c r="EN21" s="17"/>
+      <c r="EO21" s="17"/>
+      <c r="EP21" s="17"/>
+      <c r="EQ21" s="17"/>
+      <c r="ER21" s="17"/>
+      <c r="ES21" s="17"/>
+      <c r="ET21" s="17"/>
+      <c r="EU21" s="17"/>
+      <c r="EV21" s="17"/>
+      <c r="EW21" s="17"/>
+      <c r="EX21" s="17"/>
+      <c r="EY21" s="17"/>
+      <c r="EZ21" s="17"/>
+      <c r="FA21" s="17"/>
+      <c r="FB21" s="17"/>
+      <c r="FC21" s="17"/>
+      <c r="FD21" s="17"/>
+      <c r="FE21" s="17"/>
+      <c r="FF21" s="17"/>
+      <c r="FG21" s="17"/>
+      <c r="FH21" s="17"/>
+      <c r="FI21" s="17"/>
+      <c r="FJ21" s="17"/>
+      <c r="FK21" s="17"/>
+      <c r="FL21" s="17"/>
+      <c r="FM21" s="17"/>
+      <c r="FN21" s="17"/>
+      <c r="FO21" s="17"/>
+      <c r="FP21" s="17"/>
+      <c r="FQ21" s="17"/>
+      <c r="FR21" s="17"/>
+      <c r="FS21" s="17"/>
+      <c r="FT21" s="17"/>
+      <c r="FU21" s="17"/>
+      <c r="FV21" s="17"/>
+      <c r="FW21" s="17"/>
+      <c r="FX21" s="17"/>
+      <c r="FY21" s="17"/>
+      <c r="FZ21" s="17"/>
+      <c r="GA21" s="17"/>
+      <c r="GB21" s="17"/>
+      <c r="GC21" s="17"/>
+      <c r="GD21" s="17"/>
+      <c r="GE21" s="17"/>
+      <c r="GF21" s="17"/>
+      <c r="GG21" s="17"/>
+      <c r="GH21" s="17"/>
+      <c r="GI21" s="17"/>
+      <c r="GJ21" s="17"/>
+      <c r="GK21" s="17"/>
+      <c r="GL21" s="17"/>
+      <c r="GM21" s="17"/>
+      <c r="GN21" s="17"/>
+      <c r="GO21" s="17"/>
+      <c r="GP21" s="17"/>
+      <c r="GQ21" s="17"/>
+      <c r="GR21" s="17"/>
+      <c r="GS21" s="17"/>
+      <c r="GT21" s="17"/>
+      <c r="GU21" s="17"/>
+      <c r="GV21" s="17"/>
+      <c r="GW21" s="17"/>
+      <c r="GX21" s="17"/>
+      <c r="GY21" s="17"/>
+      <c r="GZ21" s="17"/>
+      <c r="HA21" s="17"/>
+      <c r="HB21" s="17"/>
+      <c r="HC21" s="17"/>
+      <c r="HD21" s="17"/>
+      <c r="HE21" s="17"/>
+      <c r="HF21" s="17"/>
+      <c r="HG21" s="17"/>
+      <c r="HH21" s="17"/>
+      <c r="HI21" s="17"/>
+      <c r="HJ21" s="17"/>
+      <c r="HK21" s="17"/>
+      <c r="HL21" s="17"/>
+      <c r="HM21" s="17"/>
+      <c r="HN21" s="17"/>
+      <c r="HO21" s="17"/>
+      <c r="HP21" s="17"/>
+      <c r="HQ21" s="17"/>
+      <c r="HR21" s="17"/>
+      <c r="HS21" s="17"/>
+      <c r="HT21" s="17"/>
+      <c r="HU21" s="17"/>
+      <c r="HV21" s="17"/>
+      <c r="HW21" s="17"/>
+      <c r="HX21" s="17"/>
+      <c r="HY21" s="17"/>
+      <c r="HZ21" s="17"/>
+      <c r="IA21" s="17"/>
+      <c r="IB21" s="17"/>
+      <c r="IC21" s="17"/>
+      <c r="ID21" s="17"/>
+      <c r="IE21" s="17"/>
+      <c r="IF21" s="17"/>
+      <c r="IG21" s="17"/>
+      <c r="IH21" s="17"/>
+      <c r="II21" s="17"/>
+      <c r="IJ21" s="17"/>
+      <c r="IK21" s="17"/>
+      <c r="IL21" s="17"/>
+      <c r="IM21" s="17"/>
+      <c r="IN21" s="17"/>
+      <c r="IO21" s="17"/>
+      <c r="IP21" s="17"/>
+      <c r="IQ21" s="17"/>
+      <c r="IR21" s="17"/>
+      <c r="IS21" s="17"/>
+      <c r="IT21" s="17"/>
+      <c r="IU21" s="17"/>
+      <c r="IV21" s="17"/>
     </row>
     <row r="22" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">

--- a/src/test/java/com/nablarch/example/app/web/action/ProjectBulkActionRequestTest.xlsx
+++ b/src/test/java/com/nablarch/example/app/web/action/ProjectBulkActionRequestTest.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC21D07-36F6-4E4C-807D-204EB4D567CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540FE2DE-0644-4BCF-8D65-A644D1069CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="766" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/src/test/java/com/nablarch/example/app/web/action/ProjectBulkActionRequestTest.xlsx
+++ b/src/test/java/com/nablarch/example/app/web/action/ProjectBulkActionRequestTest.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4DC07D-AFBE-4F06-83D3-0423A02E15F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540FE2DE-0644-4BCF-8D65-A644D1069CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="766" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="766" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="setUpDb" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="245">
   <si>
     <t>LIST_MAP=user</t>
     <phoneticPr fontId="2"/>
@@ -608,10 +608,6 @@
   </si>
   <si>
     <t>searchForm.sortKey</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>name</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1284,6 +1280,10 @@
   </si>
   <si>
     <t>searchCondition</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>POST</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2021,7 +2021,7 @@
     </row>
     <row r="3" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2029,70 +2029,70 @@
     </row>
     <row r="4" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="C4" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="D4" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="E4" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="D4" s="39" t="s">
-        <v>241</v>
-      </c>
-      <c r="E4" s="39" t="s">
+      <c r="F4" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="G4" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="H4" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="I4" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="J4" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="K4" s="39" t="s">
         <v>172</v>
-      </c>
-      <c r="K4" s="39" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="C5" s="31" t="s">
         <v>175</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>176</v>
       </c>
       <c r="D5" s="35" t="s">
         <v>72</v>
       </c>
       <c r="E5" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="F5" s="49" t="s">
         <v>177</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="G5" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="H5" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="I5" s="42" t="s">
         <v>180</v>
-      </c>
-      <c r="I5" s="42" t="s">
-        <v>181</v>
       </c>
       <c r="J5" s="50"/>
       <c r="K5" s="42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.35">
@@ -2100,7 +2100,7 @@
     </row>
     <row r="7" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2108,25 +2108,25 @@
     </row>
     <row r="8" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="C8" s="39" t="s">
         <v>184</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>185</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="C9" s="31" t="s">
         <v>187</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>188</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -2607,7 +2607,7 @@
       <c r="G4" s="36"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -3137,7 +3137,9 @@
       <c r="B9" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="37" t="s">
+        <v>160</v>
+      </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -3394,12 +3396,14 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="18" t="s">
+        <v>244</v>
+      </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -4199,7 +4203,7 @@
     </row>
     <row r="18" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
@@ -4794,7 +4798,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -5342,7 +5346,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -5606,7 +5610,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -6198,40 +6202,40 @@
         <v>41</v>
       </c>
       <c r="E14" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="F14" s="40" t="s">
         <v>207</v>
-      </c>
-      <c r="F14" s="40" t="s">
-        <v>208</v>
       </c>
       <c r="G14" s="40" t="s">
         <v>76</v>
       </c>
       <c r="H14" s="40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J14" s="40" t="s">
         <v>22</v>
       </c>
       <c r="K14" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L14" s="40" t="s">
         <v>1</v>
       </c>
       <c r="M14" s="40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N14" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="O14" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="O14" s="40" t="s">
-        <v>199</v>
-      </c>
       <c r="P14" s="40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
@@ -6248,40 +6252,40 @@
         <v>41</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G15" s="40" t="s">
         <v>1</v>
       </c>
       <c r="H15" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I15" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J15" s="40" t="s">
         <v>22</v>
       </c>
       <c r="K15" s="40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L15" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="M15" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="M15" s="40" t="s">
+      <c r="N15" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="N15" s="40" t="s">
+      <c r="O15" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="O15" s="40" t="s">
-        <v>204</v>
-      </c>
       <c r="P15" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -8324,7 +8328,7 @@
         <v>47</v>
       </c>
       <c r="B60" s="52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -8332,7 +8336,7 @@
         <v>48</v>
       </c>
       <c r="B61" s="52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -8340,7 +8344,7 @@
         <v>50</v>
       </c>
       <c r="B62" s="40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -8348,7 +8352,7 @@
         <v>51</v>
       </c>
       <c r="B63" s="40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -8356,7 +8360,7 @@
         <v>52</v>
       </c>
       <c r="B64" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
@@ -8372,7 +8376,7 @@
         <v>54</v>
       </c>
       <c r="B66" s="40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
@@ -8380,7 +8384,7 @@
         <v>55</v>
       </c>
       <c r="B67" s="40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
@@ -8388,7 +8392,7 @@
         <v>56</v>
       </c>
       <c r="B68" s="40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
@@ -8396,7 +8400,7 @@
         <v>57</v>
       </c>
       <c r="B69" s="40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
@@ -8459,7 +8463,7 @@
         <v>47</v>
       </c>
       <c r="B78" s="52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
@@ -8467,7 +8471,7 @@
         <v>48</v>
       </c>
       <c r="B79" s="52" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
@@ -8475,7 +8479,7 @@
         <v>50</v>
       </c>
       <c r="B80" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -8483,7 +8487,7 @@
         <v>51</v>
       </c>
       <c r="B81" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -8491,7 +8495,7 @@
         <v>52</v>
       </c>
       <c r="B82" s="40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -8499,7 +8503,7 @@
         <v>53</v>
       </c>
       <c r="B83" s="40" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -8507,7 +8511,7 @@
         <v>54</v>
       </c>
       <c r="B84" s="40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -8515,7 +8519,7 @@
         <v>55</v>
       </c>
       <c r="B85" s="40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -8523,7 +8527,7 @@
         <v>56</v>
       </c>
       <c r="B86" s="40" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -8531,7 +8535,7 @@
         <v>57</v>
       </c>
       <c r="B87" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8854,7 +8858,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G3" s="37" t="s">
         <v>17</v>
@@ -8876,7 +8880,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -8888,7 +8892,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>5</v>
@@ -9427,7 +9431,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -9691,7 +9695,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -10205,1513 +10209,1501 @@
       <c r="IU11" s="17"/>
       <c r="IV11" s="17"/>
     </row>
-    <row r="12" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A12" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="17"/>
-      <c r="AC12" s="17"/>
-      <c r="AD12" s="17"/>
-      <c r="AE12" s="17"/>
-      <c r="AF12" s="17"/>
-      <c r="AG12" s="17"/>
-      <c r="AH12" s="17"/>
-      <c r="AI12" s="17"/>
-      <c r="AJ12" s="17"/>
-      <c r="AK12" s="17"/>
-      <c r="AL12" s="17"/>
-      <c r="AM12" s="17"/>
-      <c r="AN12" s="17"/>
-      <c r="AO12" s="17"/>
-      <c r="AP12" s="17"/>
-      <c r="AQ12" s="17"/>
-      <c r="AR12" s="17"/>
-      <c r="AS12" s="17"/>
-      <c r="AT12" s="17"/>
-      <c r="AU12" s="17"/>
-      <c r="AV12" s="17"/>
-      <c r="AW12" s="17"/>
-      <c r="AX12" s="17"/>
-      <c r="AY12" s="17"/>
-      <c r="AZ12" s="17"/>
-      <c r="BA12" s="17"/>
-      <c r="BB12" s="17"/>
-      <c r="BC12" s="17"/>
-      <c r="BD12" s="17"/>
-      <c r="BE12" s="17"/>
-      <c r="BF12" s="17"/>
-      <c r="BG12" s="17"/>
-      <c r="BH12" s="17"/>
-      <c r="BI12" s="17"/>
-      <c r="BJ12" s="17"/>
-      <c r="BK12" s="17"/>
-      <c r="BL12" s="17"/>
-      <c r="BM12" s="17"/>
-      <c r="BN12" s="17"/>
-      <c r="BO12" s="17"/>
-      <c r="BP12" s="17"/>
-      <c r="BQ12" s="17"/>
-      <c r="BR12" s="17"/>
-      <c r="BS12" s="17"/>
-      <c r="BT12" s="17"/>
-      <c r="BU12" s="17"/>
-      <c r="BV12" s="17"/>
-      <c r="BW12" s="17"/>
-      <c r="BX12" s="17"/>
-      <c r="BY12" s="17"/>
-      <c r="BZ12" s="17"/>
-      <c r="CA12" s="17"/>
-      <c r="CB12" s="17"/>
-      <c r="CC12" s="17"/>
-      <c r="CD12" s="17"/>
-      <c r="CE12" s="17"/>
-      <c r="CF12" s="17"/>
-      <c r="CG12" s="17"/>
-      <c r="CH12" s="17"/>
-      <c r="CI12" s="17"/>
-      <c r="CJ12" s="17"/>
-      <c r="CK12" s="17"/>
-      <c r="CL12" s="17"/>
-      <c r="CM12" s="17"/>
-      <c r="CN12" s="17"/>
-      <c r="CO12" s="17"/>
-      <c r="CP12" s="17"/>
-      <c r="CQ12" s="17"/>
-      <c r="CR12" s="17"/>
-      <c r="CS12" s="17"/>
-      <c r="CT12" s="17"/>
-      <c r="CU12" s="17"/>
-      <c r="CV12" s="17"/>
-      <c r="CW12" s="17"/>
-      <c r="CX12" s="17"/>
-      <c r="CY12" s="17"/>
-      <c r="CZ12" s="17"/>
-      <c r="DA12" s="17"/>
-      <c r="DB12" s="17"/>
-      <c r="DC12" s="17"/>
-      <c r="DD12" s="17"/>
-      <c r="DE12" s="17"/>
-      <c r="DF12" s="17"/>
-      <c r="DG12" s="17"/>
-      <c r="DH12" s="17"/>
-      <c r="DI12" s="17"/>
-      <c r="DJ12" s="17"/>
-      <c r="DK12" s="17"/>
-      <c r="DL12" s="17"/>
-      <c r="DM12" s="17"/>
-      <c r="DN12" s="17"/>
-      <c r="DO12" s="17"/>
-      <c r="DP12" s="17"/>
-      <c r="DQ12" s="17"/>
-      <c r="DR12" s="17"/>
-      <c r="DS12" s="17"/>
-      <c r="DT12" s="17"/>
-      <c r="DU12" s="17"/>
-      <c r="DV12" s="17"/>
-      <c r="DW12" s="17"/>
-      <c r="DX12" s="17"/>
-      <c r="DY12" s="17"/>
-      <c r="DZ12" s="17"/>
-      <c r="EA12" s="17"/>
-      <c r="EB12" s="17"/>
-      <c r="EC12" s="17"/>
-      <c r="ED12" s="17"/>
-      <c r="EE12" s="17"/>
-      <c r="EF12" s="17"/>
-      <c r="EG12" s="17"/>
-      <c r="EH12" s="17"/>
-      <c r="EI12" s="17"/>
-      <c r="EJ12" s="17"/>
-      <c r="EK12" s="17"/>
-      <c r="EL12" s="17"/>
-      <c r="EM12" s="17"/>
-      <c r="EN12" s="17"/>
-      <c r="EO12" s="17"/>
-      <c r="EP12" s="17"/>
-      <c r="EQ12" s="17"/>
-      <c r="ER12" s="17"/>
-      <c r="ES12" s="17"/>
-      <c r="ET12" s="17"/>
-      <c r="EU12" s="17"/>
-      <c r="EV12" s="17"/>
-      <c r="EW12" s="17"/>
-      <c r="EX12" s="17"/>
-      <c r="EY12" s="17"/>
-      <c r="EZ12" s="17"/>
-      <c r="FA12" s="17"/>
-      <c r="FB12" s="17"/>
-      <c r="FC12" s="17"/>
-      <c r="FD12" s="17"/>
-      <c r="FE12" s="17"/>
-      <c r="FF12" s="17"/>
-      <c r="FG12" s="17"/>
-      <c r="FH12" s="17"/>
-      <c r="FI12" s="17"/>
-      <c r="FJ12" s="17"/>
-      <c r="FK12" s="17"/>
-      <c r="FL12" s="17"/>
-      <c r="FM12" s="17"/>
-      <c r="FN12" s="17"/>
-      <c r="FO12" s="17"/>
-      <c r="FP12" s="17"/>
-      <c r="FQ12" s="17"/>
-      <c r="FR12" s="17"/>
-      <c r="FS12" s="17"/>
-      <c r="FT12" s="17"/>
-      <c r="FU12" s="17"/>
-      <c r="FV12" s="17"/>
-      <c r="FW12" s="17"/>
-      <c r="FX12" s="17"/>
-      <c r="FY12" s="17"/>
-      <c r="FZ12" s="17"/>
-      <c r="GA12" s="17"/>
-      <c r="GB12" s="17"/>
-      <c r="GC12" s="17"/>
-      <c r="GD12" s="17"/>
-      <c r="GE12" s="17"/>
-      <c r="GF12" s="17"/>
-      <c r="GG12" s="17"/>
-      <c r="GH12" s="17"/>
-      <c r="GI12" s="17"/>
-      <c r="GJ12" s="17"/>
-      <c r="GK12" s="17"/>
-      <c r="GL12" s="17"/>
-      <c r="GM12" s="17"/>
-      <c r="GN12" s="17"/>
-      <c r="GO12" s="17"/>
-      <c r="GP12" s="17"/>
-      <c r="GQ12" s="17"/>
-      <c r="GR12" s="17"/>
-      <c r="GS12" s="17"/>
-      <c r="GT12" s="17"/>
-      <c r="GU12" s="17"/>
-      <c r="GV12" s="17"/>
-      <c r="GW12" s="17"/>
-      <c r="GX12" s="17"/>
-      <c r="GY12" s="17"/>
-      <c r="GZ12" s="17"/>
-      <c r="HA12" s="17"/>
-      <c r="HB12" s="17"/>
-      <c r="HC12" s="17"/>
-      <c r="HD12" s="17"/>
-      <c r="HE12" s="17"/>
-      <c r="HF12" s="17"/>
-      <c r="HG12" s="17"/>
-      <c r="HH12" s="17"/>
-      <c r="HI12" s="17"/>
-      <c r="HJ12" s="17"/>
-      <c r="HK12" s="17"/>
-      <c r="HL12" s="17"/>
-      <c r="HM12" s="17"/>
-      <c r="HN12" s="17"/>
-      <c r="HO12" s="17"/>
-      <c r="HP12" s="17"/>
-      <c r="HQ12" s="17"/>
-      <c r="HR12" s="17"/>
-      <c r="HS12" s="17"/>
-      <c r="HT12" s="17"/>
-      <c r="HU12" s="17"/>
-      <c r="HV12" s="17"/>
-      <c r="HW12" s="17"/>
-      <c r="HX12" s="17"/>
-      <c r="HY12" s="17"/>
-      <c r="HZ12" s="17"/>
-      <c r="IA12" s="17"/>
-      <c r="IB12" s="17"/>
-      <c r="IC12" s="17"/>
-      <c r="ID12" s="17"/>
-      <c r="IE12" s="17"/>
-      <c r="IF12" s="17"/>
-      <c r="IG12" s="17"/>
-      <c r="IH12" s="17"/>
-      <c r="II12" s="17"/>
-      <c r="IJ12" s="17"/>
-      <c r="IK12" s="17"/>
-      <c r="IL12" s="17"/>
-      <c r="IM12" s="17"/>
-      <c r="IN12" s="17"/>
-      <c r="IO12" s="17"/>
-      <c r="IP12" s="17"/>
-      <c r="IQ12" s="17"/>
-      <c r="IR12" s="17"/>
-      <c r="IS12" s="17"/>
-      <c r="IT12" s="17"/>
-      <c r="IU12" s="17"/>
-      <c r="IV12" s="17"/>
+    <row r="12" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
     </row>
-    <row r="13" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="P13" s="29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="M14" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="N14" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="O14" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P14" s="40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="G15" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="L15" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="M15" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="N15" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="O15" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P15" s="40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="5"/>
+      <c r="AN17" s="5"/>
+      <c r="AO17" s="5"/>
+      <c r="AP17" s="5"/>
+      <c r="AQ17" s="5"/>
+      <c r="AR17" s="5"/>
+      <c r="AS17" s="5"/>
+      <c r="AT17" s="5"/>
+      <c r="AU17" s="5"/>
+      <c r="AV17" s="5"/>
+      <c r="AW17" s="5"/>
+      <c r="AX17" s="5"/>
+      <c r="AY17" s="5"/>
+      <c r="AZ17" s="5"/>
+      <c r="BA17" s="5"/>
+      <c r="BB17" s="5"/>
+      <c r="BC17" s="5"/>
+      <c r="BD17" s="5"/>
+      <c r="BE17" s="5"/>
+      <c r="BF17" s="5"/>
+      <c r="BG17" s="5"/>
+      <c r="BH17" s="5"/>
+      <c r="BI17" s="5"/>
+      <c r="BJ17" s="5"/>
+      <c r="BK17" s="5"/>
+      <c r="BL17" s="5"/>
+      <c r="BM17" s="5"/>
+      <c r="BN17" s="5"/>
+      <c r="BO17" s="5"/>
+      <c r="BP17" s="5"/>
+      <c r="BQ17" s="5"/>
+      <c r="BR17" s="5"/>
+      <c r="BS17" s="5"/>
+      <c r="BT17" s="5"/>
+      <c r="BU17" s="5"/>
+      <c r="BV17" s="5"/>
+      <c r="BW17" s="5"/>
+      <c r="BX17" s="5"/>
+      <c r="BY17" s="5"/>
+      <c r="BZ17" s="5"/>
+      <c r="CA17" s="5"/>
+      <c r="CB17" s="5"/>
+      <c r="CC17" s="5"/>
+      <c r="CD17" s="5"/>
+      <c r="CE17" s="5"/>
+      <c r="CF17" s="5"/>
+      <c r="CG17" s="5"/>
+      <c r="CH17" s="5"/>
+      <c r="CI17" s="5"/>
+      <c r="CJ17" s="5"/>
+      <c r="CK17" s="5"/>
+      <c r="CL17" s="5"/>
+      <c r="CM17" s="5"/>
+      <c r="CN17" s="5"/>
+      <c r="CO17" s="5"/>
+      <c r="CP17" s="5"/>
+      <c r="CQ17" s="5"/>
+      <c r="CR17" s="5"/>
+      <c r="CS17" s="5"/>
+      <c r="CT17" s="5"/>
+      <c r="CU17" s="5"/>
+      <c r="CV17" s="5"/>
+      <c r="CW17" s="5"/>
+      <c r="CX17" s="5"/>
+      <c r="CY17" s="5"/>
+      <c r="CZ17" s="5"/>
+      <c r="DA17" s="5"/>
+      <c r="DB17" s="5"/>
+      <c r="DC17" s="5"/>
+      <c r="DD17" s="5"/>
+      <c r="DE17" s="5"/>
+      <c r="DF17" s="5"/>
+      <c r="DG17" s="5"/>
+      <c r="DH17" s="5"/>
+      <c r="DI17" s="5"/>
+      <c r="DJ17" s="5"/>
+      <c r="DK17" s="5"/>
+      <c r="DL17" s="5"/>
+      <c r="DM17" s="5"/>
+      <c r="DN17" s="5"/>
+      <c r="DO17" s="5"/>
+      <c r="DP17" s="5"/>
+      <c r="DQ17" s="5"/>
+      <c r="DR17" s="5"/>
+      <c r="DS17" s="5"/>
+      <c r="DT17" s="5"/>
+      <c r="DU17" s="5"/>
+      <c r="DV17" s="5"/>
+      <c r="DW17" s="5"/>
+      <c r="DX17" s="5"/>
+      <c r="DY17" s="5"/>
+      <c r="DZ17" s="5"/>
+      <c r="EA17" s="5"/>
+      <c r="EB17" s="5"/>
+      <c r="EC17" s="5"/>
+      <c r="ED17" s="5"/>
+      <c r="EE17" s="5"/>
+      <c r="EF17" s="5"/>
+      <c r="EG17" s="5"/>
+      <c r="EH17" s="5"/>
+      <c r="EI17" s="5"/>
+      <c r="EJ17" s="5"/>
+      <c r="EK17" s="5"/>
+      <c r="EL17" s="5"/>
+      <c r="EM17" s="5"/>
+      <c r="EN17" s="5"/>
+      <c r="EO17" s="5"/>
+      <c r="EP17" s="5"/>
+      <c r="EQ17" s="5"/>
+      <c r="ER17" s="5"/>
+      <c r="ES17" s="5"/>
+      <c r="ET17" s="5"/>
+      <c r="EU17" s="5"/>
+      <c r="EV17" s="5"/>
+      <c r="EW17" s="5"/>
+      <c r="EX17" s="5"/>
+      <c r="EY17" s="5"/>
+      <c r="EZ17" s="5"/>
+      <c r="FA17" s="5"/>
+      <c r="FB17" s="5"/>
+      <c r="FC17" s="5"/>
+      <c r="FD17" s="5"/>
+      <c r="FE17" s="5"/>
+      <c r="FF17" s="5"/>
+      <c r="FG17" s="5"/>
+      <c r="FH17" s="5"/>
+      <c r="FI17" s="5"/>
+      <c r="FJ17" s="5"/>
+      <c r="FK17" s="5"/>
+      <c r="FL17" s="5"/>
+      <c r="FM17" s="5"/>
+      <c r="FN17" s="5"/>
+      <c r="FO17" s="5"/>
+      <c r="FP17" s="5"/>
+      <c r="FQ17" s="5"/>
+      <c r="FR17" s="5"/>
+      <c r="FS17" s="5"/>
+      <c r="FT17" s="5"/>
+      <c r="FU17" s="5"/>
+      <c r="FV17" s="5"/>
+      <c r="FW17" s="5"/>
+      <c r="FX17" s="5"/>
+      <c r="FY17" s="5"/>
+      <c r="FZ17" s="5"/>
+      <c r="GA17" s="5"/>
+      <c r="GB17" s="5"/>
+      <c r="GC17" s="5"/>
+      <c r="GD17" s="5"/>
+      <c r="GE17" s="5"/>
+      <c r="GF17" s="5"/>
+      <c r="GG17" s="5"/>
+      <c r="GH17" s="5"/>
+      <c r="GI17" s="5"/>
+      <c r="GJ17" s="5"/>
+      <c r="GK17" s="5"/>
+      <c r="GL17" s="5"/>
+      <c r="GM17" s="5"/>
+      <c r="GN17" s="5"/>
+      <c r="GO17" s="5"/>
+      <c r="GP17" s="5"/>
+      <c r="GQ17" s="5"/>
+      <c r="GR17" s="5"/>
+      <c r="GS17" s="5"/>
+      <c r="GT17" s="5"/>
+      <c r="GU17" s="5"/>
+      <c r="GV17" s="5"/>
+      <c r="GW17" s="5"/>
+      <c r="GX17" s="5"/>
+      <c r="GY17" s="5"/>
+      <c r="GZ17" s="5"/>
+      <c r="HA17" s="5"/>
+      <c r="HB17" s="5"/>
+      <c r="HC17" s="5"/>
+      <c r="HD17" s="5"/>
+      <c r="HE17" s="5"/>
+      <c r="HF17" s="5"/>
+      <c r="HG17" s="5"/>
+      <c r="HH17" s="5"/>
+      <c r="HI17" s="5"/>
+      <c r="HJ17" s="5"/>
+      <c r="HK17" s="5"/>
+      <c r="HL17" s="5"/>
+      <c r="HM17" s="5"/>
+      <c r="HN17" s="5"/>
+      <c r="HO17" s="5"/>
+      <c r="HP17" s="5"/>
+      <c r="HQ17" s="5"/>
+      <c r="HR17" s="5"/>
+      <c r="HS17" s="5"/>
+      <c r="HT17" s="5"/>
+      <c r="HU17" s="5"/>
+      <c r="HV17" s="5"/>
+      <c r="HW17" s="5"/>
+      <c r="HX17" s="5"/>
+      <c r="HY17" s="5"/>
+      <c r="HZ17" s="5"/>
+      <c r="IA17" s="5"/>
+      <c r="IB17" s="5"/>
+      <c r="IC17" s="5"/>
+      <c r="ID17" s="5"/>
+      <c r="IE17" s="5"/>
+      <c r="IF17" s="5"/>
+      <c r="IG17" s="5"/>
+      <c r="IH17" s="5"/>
+      <c r="II17" s="5"/>
+      <c r="IJ17" s="5"/>
+      <c r="IK17" s="5"/>
+      <c r="IL17" s="5"/>
+      <c r="IM17" s="5"/>
+      <c r="IN17" s="5"/>
+      <c r="IO17" s="5"/>
+      <c r="IP17" s="5"/>
+      <c r="IQ17" s="5"/>
+      <c r="IR17" s="5"/>
+      <c r="IS17" s="5"/>
+      <c r="IT17" s="5"/>
+      <c r="IU17" s="5"/>
+    </row>
+    <row r="18" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:256" ht="15" x14ac:dyDescent="0.35">
+      <c r="A19" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+    </row>
+    <row r="20" spans="1:256" ht="15" x14ac:dyDescent="0.35">
+      <c r="A20" s="34">
+        <v>1</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+    </row>
+    <row r="22" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A22" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="17"/>
+      <c r="AF22" s="17"/>
+      <c r="AG22" s="17"/>
+      <c r="AH22" s="17"/>
+      <c r="AI22" s="17"/>
+      <c r="AJ22" s="17"/>
+      <c r="AK22" s="17"/>
+      <c r="AL22" s="17"/>
+      <c r="AM22" s="17"/>
+      <c r="AN22" s="17"/>
+      <c r="AO22" s="17"/>
+      <c r="AP22" s="17"/>
+      <c r="AQ22" s="17"/>
+      <c r="AR22" s="17"/>
+      <c r="AS22" s="17"/>
+      <c r="AT22" s="17"/>
+      <c r="AU22" s="17"/>
+      <c r="AV22" s="17"/>
+      <c r="AW22" s="17"/>
+      <c r="AX22" s="17"/>
+      <c r="AY22" s="17"/>
+      <c r="AZ22" s="17"/>
+      <c r="BA22" s="17"/>
+      <c r="BB22" s="17"/>
+      <c r="BC22" s="17"/>
+      <c r="BD22" s="17"/>
+      <c r="BE22" s="17"/>
+      <c r="BF22" s="17"/>
+      <c r="BG22" s="17"/>
+      <c r="BH22" s="17"/>
+      <c r="BI22" s="17"/>
+      <c r="BJ22" s="17"/>
+      <c r="BK22" s="17"/>
+      <c r="BL22" s="17"/>
+      <c r="BM22" s="17"/>
+      <c r="BN22" s="17"/>
+      <c r="BO22" s="17"/>
+      <c r="BP22" s="17"/>
+      <c r="BQ22" s="17"/>
+      <c r="BR22" s="17"/>
+      <c r="BS22" s="17"/>
+      <c r="BT22" s="17"/>
+      <c r="BU22" s="17"/>
+      <c r="BV22" s="17"/>
+      <c r="BW22" s="17"/>
+      <c r="BX22" s="17"/>
+      <c r="BY22" s="17"/>
+      <c r="BZ22" s="17"/>
+      <c r="CA22" s="17"/>
+      <c r="CB22" s="17"/>
+      <c r="CC22" s="17"/>
+      <c r="CD22" s="17"/>
+      <c r="CE22" s="17"/>
+      <c r="CF22" s="17"/>
+      <c r="CG22" s="17"/>
+      <c r="CH22" s="17"/>
+      <c r="CI22" s="17"/>
+      <c r="CJ22" s="17"/>
+      <c r="CK22" s="17"/>
+      <c r="CL22" s="17"/>
+      <c r="CM22" s="17"/>
+      <c r="CN22" s="17"/>
+      <c r="CO22" s="17"/>
+      <c r="CP22" s="17"/>
+      <c r="CQ22" s="17"/>
+      <c r="CR22" s="17"/>
+      <c r="CS22" s="17"/>
+      <c r="CT22" s="17"/>
+      <c r="CU22" s="17"/>
+      <c r="CV22" s="17"/>
+      <c r="CW22" s="17"/>
+      <c r="CX22" s="17"/>
+      <c r="CY22" s="17"/>
+      <c r="CZ22" s="17"/>
+      <c r="DA22" s="17"/>
+      <c r="DB22" s="17"/>
+      <c r="DC22" s="17"/>
+      <c r="DD22" s="17"/>
+      <c r="DE22" s="17"/>
+      <c r="DF22" s="17"/>
+      <c r="DG22" s="17"/>
+      <c r="DH22" s="17"/>
+      <c r="DI22" s="17"/>
+      <c r="DJ22" s="17"/>
+      <c r="DK22" s="17"/>
+      <c r="DL22" s="17"/>
+      <c r="DM22" s="17"/>
+      <c r="DN22" s="17"/>
+      <c r="DO22" s="17"/>
+      <c r="DP22" s="17"/>
+      <c r="DQ22" s="17"/>
+      <c r="DR22" s="17"/>
+      <c r="DS22" s="17"/>
+      <c r="DT22" s="17"/>
+      <c r="DU22" s="17"/>
+      <c r="DV22" s="17"/>
+      <c r="DW22" s="17"/>
+      <c r="DX22" s="17"/>
+      <c r="DY22" s="17"/>
+      <c r="DZ22" s="17"/>
+      <c r="EA22" s="17"/>
+      <c r="EB22" s="17"/>
+      <c r="EC22" s="17"/>
+      <c r="ED22" s="17"/>
+      <c r="EE22" s="17"/>
+      <c r="EF22" s="17"/>
+      <c r="EG22" s="17"/>
+      <c r="EH22" s="17"/>
+      <c r="EI22" s="17"/>
+      <c r="EJ22" s="17"/>
+      <c r="EK22" s="17"/>
+      <c r="EL22" s="17"/>
+      <c r="EM22" s="17"/>
+      <c r="EN22" s="17"/>
+      <c r="EO22" s="17"/>
+      <c r="EP22" s="17"/>
+      <c r="EQ22" s="17"/>
+      <c r="ER22" s="17"/>
+      <c r="ES22" s="17"/>
+      <c r="ET22" s="17"/>
+      <c r="EU22" s="17"/>
+      <c r="EV22" s="17"/>
+      <c r="EW22" s="17"/>
+      <c r="EX22" s="17"/>
+      <c r="EY22" s="17"/>
+      <c r="EZ22" s="17"/>
+      <c r="FA22" s="17"/>
+      <c r="FB22" s="17"/>
+      <c r="FC22" s="17"/>
+      <c r="FD22" s="17"/>
+      <c r="FE22" s="17"/>
+      <c r="FF22" s="17"/>
+      <c r="FG22" s="17"/>
+      <c r="FH22" s="17"/>
+      <c r="FI22" s="17"/>
+      <c r="FJ22" s="17"/>
+      <c r="FK22" s="17"/>
+      <c r="FL22" s="17"/>
+      <c r="FM22" s="17"/>
+      <c r="FN22" s="17"/>
+      <c r="FO22" s="17"/>
+      <c r="FP22" s="17"/>
+      <c r="FQ22" s="17"/>
+      <c r="FR22" s="17"/>
+      <c r="FS22" s="17"/>
+      <c r="FT22" s="17"/>
+      <c r="FU22" s="17"/>
+      <c r="FV22" s="17"/>
+      <c r="FW22" s="17"/>
+      <c r="FX22" s="17"/>
+      <c r="FY22" s="17"/>
+      <c r="FZ22" s="17"/>
+      <c r="GA22" s="17"/>
+      <c r="GB22" s="17"/>
+      <c r="GC22" s="17"/>
+      <c r="GD22" s="17"/>
+      <c r="GE22" s="17"/>
+      <c r="GF22" s="17"/>
+      <c r="GG22" s="17"/>
+      <c r="GH22" s="17"/>
+      <c r="GI22" s="17"/>
+      <c r="GJ22" s="17"/>
+      <c r="GK22" s="17"/>
+      <c r="GL22" s="17"/>
+      <c r="GM22" s="17"/>
+      <c r="GN22" s="17"/>
+      <c r="GO22" s="17"/>
+      <c r="GP22" s="17"/>
+      <c r="GQ22" s="17"/>
+      <c r="GR22" s="17"/>
+      <c r="GS22" s="17"/>
+      <c r="GT22" s="17"/>
+      <c r="GU22" s="17"/>
+      <c r="GV22" s="17"/>
+      <c r="GW22" s="17"/>
+      <c r="GX22" s="17"/>
+      <c r="GY22" s="17"/>
+      <c r="GZ22" s="17"/>
+      <c r="HA22" s="17"/>
+      <c r="HB22" s="17"/>
+      <c r="HC22" s="17"/>
+      <c r="HD22" s="17"/>
+      <c r="HE22" s="17"/>
+      <c r="HF22" s="17"/>
+      <c r="HG22" s="17"/>
+      <c r="HH22" s="17"/>
+      <c r="HI22" s="17"/>
+      <c r="HJ22" s="17"/>
+      <c r="HK22" s="17"/>
+      <c r="HL22" s="17"/>
+      <c r="HM22" s="17"/>
+      <c r="HN22" s="17"/>
+      <c r="HO22" s="17"/>
+      <c r="HP22" s="17"/>
+      <c r="HQ22" s="17"/>
+      <c r="HR22" s="17"/>
+      <c r="HS22" s="17"/>
+      <c r="HT22" s="17"/>
+      <c r="HU22" s="17"/>
+      <c r="HV22" s="17"/>
+      <c r="HW22" s="17"/>
+      <c r="HX22" s="17"/>
+      <c r="HY22" s="17"/>
+      <c r="HZ22" s="17"/>
+      <c r="IA22" s="17"/>
+      <c r="IB22" s="17"/>
+      <c r="IC22" s="17"/>
+      <c r="ID22" s="17"/>
+      <c r="IE22" s="17"/>
+      <c r="IF22" s="17"/>
+      <c r="IG22" s="17"/>
+      <c r="IH22" s="17"/>
+      <c r="II22" s="17"/>
+      <c r="IJ22" s="17"/>
+      <c r="IK22" s="17"/>
+      <c r="IL22" s="17"/>
+      <c r="IM22" s="17"/>
+      <c r="IN22" s="17"/>
+      <c r="IO22" s="17"/>
+      <c r="IP22" s="17"/>
+      <c r="IQ22" s="17"/>
+      <c r="IR22" s="17"/>
+      <c r="IS22" s="17"/>
+      <c r="IT22" s="17"/>
+      <c r="IU22" s="17"/>
+      <c r="IV22" s="17"/>
+    </row>
+    <row r="23" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A23" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B23" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C23" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="17"/>
-      <c r="AI13" s="17"/>
-      <c r="AJ13" s="17"/>
-      <c r="AK13" s="17"/>
-      <c r="AL13" s="17"/>
-      <c r="AM13" s="17"/>
-      <c r="AN13" s="17"/>
-      <c r="AO13" s="17"/>
-      <c r="AP13" s="17"/>
-      <c r="AQ13" s="17"/>
-      <c r="AR13" s="17"/>
-      <c r="AS13" s="17"/>
-      <c r="AT13" s="17"/>
-      <c r="AU13" s="17"/>
-      <c r="AV13" s="17"/>
-      <c r="AW13" s="17"/>
-      <c r="AX13" s="17"/>
-      <c r="AY13" s="17"/>
-      <c r="AZ13" s="17"/>
-      <c r="BA13" s="17"/>
-      <c r="BB13" s="17"/>
-      <c r="BC13" s="17"/>
-      <c r="BD13" s="17"/>
-      <c r="BE13" s="17"/>
-      <c r="BF13" s="17"/>
-      <c r="BG13" s="17"/>
-      <c r="BH13" s="17"/>
-      <c r="BI13" s="17"/>
-      <c r="BJ13" s="17"/>
-      <c r="BK13" s="17"/>
-      <c r="BL13" s="17"/>
-      <c r="BM13" s="17"/>
-      <c r="BN13" s="17"/>
-      <c r="BO13" s="17"/>
-      <c r="BP13" s="17"/>
-      <c r="BQ13" s="17"/>
-      <c r="BR13" s="17"/>
-      <c r="BS13" s="17"/>
-      <c r="BT13" s="17"/>
-      <c r="BU13" s="17"/>
-      <c r="BV13" s="17"/>
-      <c r="BW13" s="17"/>
-      <c r="BX13" s="17"/>
-      <c r="BY13" s="17"/>
-      <c r="BZ13" s="17"/>
-      <c r="CA13" s="17"/>
-      <c r="CB13" s="17"/>
-      <c r="CC13" s="17"/>
-      <c r="CD13" s="17"/>
-      <c r="CE13" s="17"/>
-      <c r="CF13" s="17"/>
-      <c r="CG13" s="17"/>
-      <c r="CH13" s="17"/>
-      <c r="CI13" s="17"/>
-      <c r="CJ13" s="17"/>
-      <c r="CK13" s="17"/>
-      <c r="CL13" s="17"/>
-      <c r="CM13" s="17"/>
-      <c r="CN13" s="17"/>
-      <c r="CO13" s="17"/>
-      <c r="CP13" s="17"/>
-      <c r="CQ13" s="17"/>
-      <c r="CR13" s="17"/>
-      <c r="CS13" s="17"/>
-      <c r="CT13" s="17"/>
-      <c r="CU13" s="17"/>
-      <c r="CV13" s="17"/>
-      <c r="CW13" s="17"/>
-      <c r="CX13" s="17"/>
-      <c r="CY13" s="17"/>
-      <c r="CZ13" s="17"/>
-      <c r="DA13" s="17"/>
-      <c r="DB13" s="17"/>
-      <c r="DC13" s="17"/>
-      <c r="DD13" s="17"/>
-      <c r="DE13" s="17"/>
-      <c r="DF13" s="17"/>
-      <c r="DG13" s="17"/>
-      <c r="DH13" s="17"/>
-      <c r="DI13" s="17"/>
-      <c r="DJ13" s="17"/>
-      <c r="DK13" s="17"/>
-      <c r="DL13" s="17"/>
-      <c r="DM13" s="17"/>
-      <c r="DN13" s="17"/>
-      <c r="DO13" s="17"/>
-      <c r="DP13" s="17"/>
-      <c r="DQ13" s="17"/>
-      <c r="DR13" s="17"/>
-      <c r="DS13" s="17"/>
-      <c r="DT13" s="17"/>
-      <c r="DU13" s="17"/>
-      <c r="DV13" s="17"/>
-      <c r="DW13" s="17"/>
-      <c r="DX13" s="17"/>
-      <c r="DY13" s="17"/>
-      <c r="DZ13" s="17"/>
-      <c r="EA13" s="17"/>
-      <c r="EB13" s="17"/>
-      <c r="EC13" s="17"/>
-      <c r="ED13" s="17"/>
-      <c r="EE13" s="17"/>
-      <c r="EF13" s="17"/>
-      <c r="EG13" s="17"/>
-      <c r="EH13" s="17"/>
-      <c r="EI13" s="17"/>
-      <c r="EJ13" s="17"/>
-      <c r="EK13" s="17"/>
-      <c r="EL13" s="17"/>
-      <c r="EM13" s="17"/>
-      <c r="EN13" s="17"/>
-      <c r="EO13" s="17"/>
-      <c r="EP13" s="17"/>
-      <c r="EQ13" s="17"/>
-      <c r="ER13" s="17"/>
-      <c r="ES13" s="17"/>
-      <c r="ET13" s="17"/>
-      <c r="EU13" s="17"/>
-      <c r="EV13" s="17"/>
-      <c r="EW13" s="17"/>
-      <c r="EX13" s="17"/>
-      <c r="EY13" s="17"/>
-      <c r="EZ13" s="17"/>
-      <c r="FA13" s="17"/>
-      <c r="FB13" s="17"/>
-      <c r="FC13" s="17"/>
-      <c r="FD13" s="17"/>
-      <c r="FE13" s="17"/>
-      <c r="FF13" s="17"/>
-      <c r="FG13" s="17"/>
-      <c r="FH13" s="17"/>
-      <c r="FI13" s="17"/>
-      <c r="FJ13" s="17"/>
-      <c r="FK13" s="17"/>
-      <c r="FL13" s="17"/>
-      <c r="FM13" s="17"/>
-      <c r="FN13" s="17"/>
-      <c r="FO13" s="17"/>
-      <c r="FP13" s="17"/>
-      <c r="FQ13" s="17"/>
-      <c r="FR13" s="17"/>
-      <c r="FS13" s="17"/>
-      <c r="FT13" s="17"/>
-      <c r="FU13" s="17"/>
-      <c r="FV13" s="17"/>
-      <c r="FW13" s="17"/>
-      <c r="FX13" s="17"/>
-      <c r="FY13" s="17"/>
-      <c r="FZ13" s="17"/>
-      <c r="GA13" s="17"/>
-      <c r="GB13" s="17"/>
-      <c r="GC13" s="17"/>
-      <c r="GD13" s="17"/>
-      <c r="GE13" s="17"/>
-      <c r="GF13" s="17"/>
-      <c r="GG13" s="17"/>
-      <c r="GH13" s="17"/>
-      <c r="GI13" s="17"/>
-      <c r="GJ13" s="17"/>
-      <c r="GK13" s="17"/>
-      <c r="GL13" s="17"/>
-      <c r="GM13" s="17"/>
-      <c r="GN13" s="17"/>
-      <c r="GO13" s="17"/>
-      <c r="GP13" s="17"/>
-      <c r="GQ13" s="17"/>
-      <c r="GR13" s="17"/>
-      <c r="GS13" s="17"/>
-      <c r="GT13" s="17"/>
-      <c r="GU13" s="17"/>
-      <c r="GV13" s="17"/>
-      <c r="GW13" s="17"/>
-      <c r="GX13" s="17"/>
-      <c r="GY13" s="17"/>
-      <c r="GZ13" s="17"/>
-      <c r="HA13" s="17"/>
-      <c r="HB13" s="17"/>
-      <c r="HC13" s="17"/>
-      <c r="HD13" s="17"/>
-      <c r="HE13" s="17"/>
-      <c r="HF13" s="17"/>
-      <c r="HG13" s="17"/>
-      <c r="HH13" s="17"/>
-      <c r="HI13" s="17"/>
-      <c r="HJ13" s="17"/>
-      <c r="HK13" s="17"/>
-      <c r="HL13" s="17"/>
-      <c r="HM13" s="17"/>
-      <c r="HN13" s="17"/>
-      <c r="HO13" s="17"/>
-      <c r="HP13" s="17"/>
-      <c r="HQ13" s="17"/>
-      <c r="HR13" s="17"/>
-      <c r="HS13" s="17"/>
-      <c r="HT13" s="17"/>
-      <c r="HU13" s="17"/>
-      <c r="HV13" s="17"/>
-      <c r="HW13" s="17"/>
-      <c r="HX13" s="17"/>
-      <c r="HY13" s="17"/>
-      <c r="HZ13" s="17"/>
-      <c r="IA13" s="17"/>
-      <c r="IB13" s="17"/>
-      <c r="IC13" s="17"/>
-      <c r="ID13" s="17"/>
-      <c r="IE13" s="17"/>
-      <c r="IF13" s="17"/>
-      <c r="IG13" s="17"/>
-      <c r="IH13" s="17"/>
-      <c r="II13" s="17"/>
-      <c r="IJ13" s="17"/>
-      <c r="IK13" s="17"/>
-      <c r="IL13" s="17"/>
-      <c r="IM13" s="17"/>
-      <c r="IN13" s="17"/>
-      <c r="IO13" s="17"/>
-      <c r="IP13" s="17"/>
-      <c r="IQ13" s="17"/>
-      <c r="IR13" s="17"/>
-      <c r="IS13" s="17"/>
-      <c r="IT13" s="17"/>
-      <c r="IU13" s="17"/>
-      <c r="IV13" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="17"/>
+      <c r="AC23" s="17"/>
+      <c r="AD23" s="17"/>
+      <c r="AE23" s="17"/>
+      <c r="AF23" s="17"/>
+      <c r="AG23" s="17"/>
+      <c r="AH23" s="17"/>
+      <c r="AI23" s="17"/>
+      <c r="AJ23" s="17"/>
+      <c r="AK23" s="17"/>
+      <c r="AL23" s="17"/>
+      <c r="AM23" s="17"/>
+      <c r="AN23" s="17"/>
+      <c r="AO23" s="17"/>
+      <c r="AP23" s="17"/>
+      <c r="AQ23" s="17"/>
+      <c r="AR23" s="17"/>
+      <c r="AS23" s="17"/>
+      <c r="AT23" s="17"/>
+      <c r="AU23" s="17"/>
+      <c r="AV23" s="17"/>
+      <c r="AW23" s="17"/>
+      <c r="AX23" s="17"/>
+      <c r="AY23" s="17"/>
+      <c r="AZ23" s="17"/>
+      <c r="BA23" s="17"/>
+      <c r="BB23" s="17"/>
+      <c r="BC23" s="17"/>
+      <c r="BD23" s="17"/>
+      <c r="BE23" s="17"/>
+      <c r="BF23" s="17"/>
+      <c r="BG23" s="17"/>
+      <c r="BH23" s="17"/>
+      <c r="BI23" s="17"/>
+      <c r="BJ23" s="17"/>
+      <c r="BK23" s="17"/>
+      <c r="BL23" s="17"/>
+      <c r="BM23" s="17"/>
+      <c r="BN23" s="17"/>
+      <c r="BO23" s="17"/>
+      <c r="BP23" s="17"/>
+      <c r="BQ23" s="17"/>
+      <c r="BR23" s="17"/>
+      <c r="BS23" s="17"/>
+      <c r="BT23" s="17"/>
+      <c r="BU23" s="17"/>
+      <c r="BV23" s="17"/>
+      <c r="BW23" s="17"/>
+      <c r="BX23" s="17"/>
+      <c r="BY23" s="17"/>
+      <c r="BZ23" s="17"/>
+      <c r="CA23" s="17"/>
+      <c r="CB23" s="17"/>
+      <c r="CC23" s="17"/>
+      <c r="CD23" s="17"/>
+      <c r="CE23" s="17"/>
+      <c r="CF23" s="17"/>
+      <c r="CG23" s="17"/>
+      <c r="CH23" s="17"/>
+      <c r="CI23" s="17"/>
+      <c r="CJ23" s="17"/>
+      <c r="CK23" s="17"/>
+      <c r="CL23" s="17"/>
+      <c r="CM23" s="17"/>
+      <c r="CN23" s="17"/>
+      <c r="CO23" s="17"/>
+      <c r="CP23" s="17"/>
+      <c r="CQ23" s="17"/>
+      <c r="CR23" s="17"/>
+      <c r="CS23" s="17"/>
+      <c r="CT23" s="17"/>
+      <c r="CU23" s="17"/>
+      <c r="CV23" s="17"/>
+      <c r="CW23" s="17"/>
+      <c r="CX23" s="17"/>
+      <c r="CY23" s="17"/>
+      <c r="CZ23" s="17"/>
+      <c r="DA23" s="17"/>
+      <c r="DB23" s="17"/>
+      <c r="DC23" s="17"/>
+      <c r="DD23" s="17"/>
+      <c r="DE23" s="17"/>
+      <c r="DF23" s="17"/>
+      <c r="DG23" s="17"/>
+      <c r="DH23" s="17"/>
+      <c r="DI23" s="17"/>
+      <c r="DJ23" s="17"/>
+      <c r="DK23" s="17"/>
+      <c r="DL23" s="17"/>
+      <c r="DM23" s="17"/>
+      <c r="DN23" s="17"/>
+      <c r="DO23" s="17"/>
+      <c r="DP23" s="17"/>
+      <c r="DQ23" s="17"/>
+      <c r="DR23" s="17"/>
+      <c r="DS23" s="17"/>
+      <c r="DT23" s="17"/>
+      <c r="DU23" s="17"/>
+      <c r="DV23" s="17"/>
+      <c r="DW23" s="17"/>
+      <c r="DX23" s="17"/>
+      <c r="DY23" s="17"/>
+      <c r="DZ23" s="17"/>
+      <c r="EA23" s="17"/>
+      <c r="EB23" s="17"/>
+      <c r="EC23" s="17"/>
+      <c r="ED23" s="17"/>
+      <c r="EE23" s="17"/>
+      <c r="EF23" s="17"/>
+      <c r="EG23" s="17"/>
+      <c r="EH23" s="17"/>
+      <c r="EI23" s="17"/>
+      <c r="EJ23" s="17"/>
+      <c r="EK23" s="17"/>
+      <c r="EL23" s="17"/>
+      <c r="EM23" s="17"/>
+      <c r="EN23" s="17"/>
+      <c r="EO23" s="17"/>
+      <c r="EP23" s="17"/>
+      <c r="EQ23" s="17"/>
+      <c r="ER23" s="17"/>
+      <c r="ES23" s="17"/>
+      <c r="ET23" s="17"/>
+      <c r="EU23" s="17"/>
+      <c r="EV23" s="17"/>
+      <c r="EW23" s="17"/>
+      <c r="EX23" s="17"/>
+      <c r="EY23" s="17"/>
+      <c r="EZ23" s="17"/>
+      <c r="FA23" s="17"/>
+      <c r="FB23" s="17"/>
+      <c r="FC23" s="17"/>
+      <c r="FD23" s="17"/>
+      <c r="FE23" s="17"/>
+      <c r="FF23" s="17"/>
+      <c r="FG23" s="17"/>
+      <c r="FH23" s="17"/>
+      <c r="FI23" s="17"/>
+      <c r="FJ23" s="17"/>
+      <c r="FK23" s="17"/>
+      <c r="FL23" s="17"/>
+      <c r="FM23" s="17"/>
+      <c r="FN23" s="17"/>
+      <c r="FO23" s="17"/>
+      <c r="FP23" s="17"/>
+      <c r="FQ23" s="17"/>
+      <c r="FR23" s="17"/>
+      <c r="FS23" s="17"/>
+      <c r="FT23" s="17"/>
+      <c r="FU23" s="17"/>
+      <c r="FV23" s="17"/>
+      <c r="FW23" s="17"/>
+      <c r="FX23" s="17"/>
+      <c r="FY23" s="17"/>
+      <c r="FZ23" s="17"/>
+      <c r="GA23" s="17"/>
+      <c r="GB23" s="17"/>
+      <c r="GC23" s="17"/>
+      <c r="GD23" s="17"/>
+      <c r="GE23" s="17"/>
+      <c r="GF23" s="17"/>
+      <c r="GG23" s="17"/>
+      <c r="GH23" s="17"/>
+      <c r="GI23" s="17"/>
+      <c r="GJ23" s="17"/>
+      <c r="GK23" s="17"/>
+      <c r="GL23" s="17"/>
+      <c r="GM23" s="17"/>
+      <c r="GN23" s="17"/>
+      <c r="GO23" s="17"/>
+      <c r="GP23" s="17"/>
+      <c r="GQ23" s="17"/>
+      <c r="GR23" s="17"/>
+      <c r="GS23" s="17"/>
+      <c r="GT23" s="17"/>
+      <c r="GU23" s="17"/>
+      <c r="GV23" s="17"/>
+      <c r="GW23" s="17"/>
+      <c r="GX23" s="17"/>
+      <c r="GY23" s="17"/>
+      <c r="GZ23" s="17"/>
+      <c r="HA23" s="17"/>
+      <c r="HB23" s="17"/>
+      <c r="HC23" s="17"/>
+      <c r="HD23" s="17"/>
+      <c r="HE23" s="17"/>
+      <c r="HF23" s="17"/>
+      <c r="HG23" s="17"/>
+      <c r="HH23" s="17"/>
+      <c r="HI23" s="17"/>
+      <c r="HJ23" s="17"/>
+      <c r="HK23" s="17"/>
+      <c r="HL23" s="17"/>
+      <c r="HM23" s="17"/>
+      <c r="HN23" s="17"/>
+      <c r="HO23" s="17"/>
+      <c r="HP23" s="17"/>
+      <c r="HQ23" s="17"/>
+      <c r="HR23" s="17"/>
+      <c r="HS23" s="17"/>
+      <c r="HT23" s="17"/>
+      <c r="HU23" s="17"/>
+      <c r="HV23" s="17"/>
+      <c r="HW23" s="17"/>
+      <c r="HX23" s="17"/>
+      <c r="HY23" s="17"/>
+      <c r="HZ23" s="17"/>
+      <c r="IA23" s="17"/>
+      <c r="IB23" s="17"/>
+      <c r="IC23" s="17"/>
+      <c r="ID23" s="17"/>
+      <c r="IE23" s="17"/>
+      <c r="IF23" s="17"/>
+      <c r="IG23" s="17"/>
+      <c r="IH23" s="17"/>
+      <c r="II23" s="17"/>
+      <c r="IJ23" s="17"/>
+      <c r="IK23" s="17"/>
+      <c r="IL23" s="17"/>
+      <c r="IM23" s="17"/>
+      <c r="IN23" s="17"/>
+      <c r="IO23" s="17"/>
+      <c r="IP23" s="17"/>
+      <c r="IQ23" s="17"/>
+      <c r="IR23" s="17"/>
+      <c r="IS23" s="17"/>
+      <c r="IT23" s="17"/>
+      <c r="IU23" s="17"/>
+      <c r="IV23" s="17"/>
     </row>
-    <row r="14" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A14" s="43" t="s">
+    <row r="24" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A24" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B24" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C24" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="17"/>
-      <c r="AC14" s="17"/>
-      <c r="AD14" s="17"/>
-      <c r="AE14" s="17"/>
-      <c r="AF14" s="17"/>
-      <c r="AG14" s="17"/>
-      <c r="AH14" s="17"/>
-      <c r="AI14" s="17"/>
-      <c r="AJ14" s="17"/>
-      <c r="AK14" s="17"/>
-      <c r="AL14" s="17"/>
-      <c r="AM14" s="17"/>
-      <c r="AN14" s="17"/>
-      <c r="AO14" s="17"/>
-      <c r="AP14" s="17"/>
-      <c r="AQ14" s="17"/>
-      <c r="AR14" s="17"/>
-      <c r="AS14" s="17"/>
-      <c r="AT14" s="17"/>
-      <c r="AU14" s="17"/>
-      <c r="AV14" s="17"/>
-      <c r="AW14" s="17"/>
-      <c r="AX14" s="17"/>
-      <c r="AY14" s="17"/>
-      <c r="AZ14" s="17"/>
-      <c r="BA14" s="17"/>
-      <c r="BB14" s="17"/>
-      <c r="BC14" s="17"/>
-      <c r="BD14" s="17"/>
-      <c r="BE14" s="17"/>
-      <c r="BF14" s="17"/>
-      <c r="BG14" s="17"/>
-      <c r="BH14" s="17"/>
-      <c r="BI14" s="17"/>
-      <c r="BJ14" s="17"/>
-      <c r="BK14" s="17"/>
-      <c r="BL14" s="17"/>
-      <c r="BM14" s="17"/>
-      <c r="BN14" s="17"/>
-      <c r="BO14" s="17"/>
-      <c r="BP14" s="17"/>
-      <c r="BQ14" s="17"/>
-      <c r="BR14" s="17"/>
-      <c r="BS14" s="17"/>
-      <c r="BT14" s="17"/>
-      <c r="BU14" s="17"/>
-      <c r="BV14" s="17"/>
-      <c r="BW14" s="17"/>
-      <c r="BX14" s="17"/>
-      <c r="BY14" s="17"/>
-      <c r="BZ14" s="17"/>
-      <c r="CA14" s="17"/>
-      <c r="CB14" s="17"/>
-      <c r="CC14" s="17"/>
-      <c r="CD14" s="17"/>
-      <c r="CE14" s="17"/>
-      <c r="CF14" s="17"/>
-      <c r="CG14" s="17"/>
-      <c r="CH14" s="17"/>
-      <c r="CI14" s="17"/>
-      <c r="CJ14" s="17"/>
-      <c r="CK14" s="17"/>
-      <c r="CL14" s="17"/>
-      <c r="CM14" s="17"/>
-      <c r="CN14" s="17"/>
-      <c r="CO14" s="17"/>
-      <c r="CP14" s="17"/>
-      <c r="CQ14" s="17"/>
-      <c r="CR14" s="17"/>
-      <c r="CS14" s="17"/>
-      <c r="CT14" s="17"/>
-      <c r="CU14" s="17"/>
-      <c r="CV14" s="17"/>
-      <c r="CW14" s="17"/>
-      <c r="CX14" s="17"/>
-      <c r="CY14" s="17"/>
-      <c r="CZ14" s="17"/>
-      <c r="DA14" s="17"/>
-      <c r="DB14" s="17"/>
-      <c r="DC14" s="17"/>
-      <c r="DD14" s="17"/>
-      <c r="DE14" s="17"/>
-      <c r="DF14" s="17"/>
-      <c r="DG14" s="17"/>
-      <c r="DH14" s="17"/>
-      <c r="DI14" s="17"/>
-      <c r="DJ14" s="17"/>
-      <c r="DK14" s="17"/>
-      <c r="DL14" s="17"/>
-      <c r="DM14" s="17"/>
-      <c r="DN14" s="17"/>
-      <c r="DO14" s="17"/>
-      <c r="DP14" s="17"/>
-      <c r="DQ14" s="17"/>
-      <c r="DR14" s="17"/>
-      <c r="DS14" s="17"/>
-      <c r="DT14" s="17"/>
-      <c r="DU14" s="17"/>
-      <c r="DV14" s="17"/>
-      <c r="DW14" s="17"/>
-      <c r="DX14" s="17"/>
-      <c r="DY14" s="17"/>
-      <c r="DZ14" s="17"/>
-      <c r="EA14" s="17"/>
-      <c r="EB14" s="17"/>
-      <c r="EC14" s="17"/>
-      <c r="ED14" s="17"/>
-      <c r="EE14" s="17"/>
-      <c r="EF14" s="17"/>
-      <c r="EG14" s="17"/>
-      <c r="EH14" s="17"/>
-      <c r="EI14" s="17"/>
-      <c r="EJ14" s="17"/>
-      <c r="EK14" s="17"/>
-      <c r="EL14" s="17"/>
-      <c r="EM14" s="17"/>
-      <c r="EN14" s="17"/>
-      <c r="EO14" s="17"/>
-      <c r="EP14" s="17"/>
-      <c r="EQ14" s="17"/>
-      <c r="ER14" s="17"/>
-      <c r="ES14" s="17"/>
-      <c r="ET14" s="17"/>
-      <c r="EU14" s="17"/>
-      <c r="EV14" s="17"/>
-      <c r="EW14" s="17"/>
-      <c r="EX14" s="17"/>
-      <c r="EY14" s="17"/>
-      <c r="EZ14" s="17"/>
-      <c r="FA14" s="17"/>
-      <c r="FB14" s="17"/>
-      <c r="FC14" s="17"/>
-      <c r="FD14" s="17"/>
-      <c r="FE14" s="17"/>
-      <c r="FF14" s="17"/>
-      <c r="FG14" s="17"/>
-      <c r="FH14" s="17"/>
-      <c r="FI14" s="17"/>
-      <c r="FJ14" s="17"/>
-      <c r="FK14" s="17"/>
-      <c r="FL14" s="17"/>
-      <c r="FM14" s="17"/>
-      <c r="FN14" s="17"/>
-      <c r="FO14" s="17"/>
-      <c r="FP14" s="17"/>
-      <c r="FQ14" s="17"/>
-      <c r="FR14" s="17"/>
-      <c r="FS14" s="17"/>
-      <c r="FT14" s="17"/>
-      <c r="FU14" s="17"/>
-      <c r="FV14" s="17"/>
-      <c r="FW14" s="17"/>
-      <c r="FX14" s="17"/>
-      <c r="FY14" s="17"/>
-      <c r="FZ14" s="17"/>
-      <c r="GA14" s="17"/>
-      <c r="GB14" s="17"/>
-      <c r="GC14" s="17"/>
-      <c r="GD14" s="17"/>
-      <c r="GE14" s="17"/>
-      <c r="GF14" s="17"/>
-      <c r="GG14" s="17"/>
-      <c r="GH14" s="17"/>
-      <c r="GI14" s="17"/>
-      <c r="GJ14" s="17"/>
-      <c r="GK14" s="17"/>
-      <c r="GL14" s="17"/>
-      <c r="GM14" s="17"/>
-      <c r="GN14" s="17"/>
-      <c r="GO14" s="17"/>
-      <c r="GP14" s="17"/>
-      <c r="GQ14" s="17"/>
-      <c r="GR14" s="17"/>
-      <c r="GS14" s="17"/>
-      <c r="GT14" s="17"/>
-      <c r="GU14" s="17"/>
-      <c r="GV14" s="17"/>
-      <c r="GW14" s="17"/>
-      <c r="GX14" s="17"/>
-      <c r="GY14" s="17"/>
-      <c r="GZ14" s="17"/>
-      <c r="HA14" s="17"/>
-      <c r="HB14" s="17"/>
-      <c r="HC14" s="17"/>
-      <c r="HD14" s="17"/>
-      <c r="HE14" s="17"/>
-      <c r="HF14" s="17"/>
-      <c r="HG14" s="17"/>
-      <c r="HH14" s="17"/>
-      <c r="HI14" s="17"/>
-      <c r="HJ14" s="17"/>
-      <c r="HK14" s="17"/>
-      <c r="HL14" s="17"/>
-      <c r="HM14" s="17"/>
-      <c r="HN14" s="17"/>
-      <c r="HO14" s="17"/>
-      <c r="HP14" s="17"/>
-      <c r="HQ14" s="17"/>
-      <c r="HR14" s="17"/>
-      <c r="HS14" s="17"/>
-      <c r="HT14" s="17"/>
-      <c r="HU14" s="17"/>
-      <c r="HV14" s="17"/>
-      <c r="HW14" s="17"/>
-      <c r="HX14" s="17"/>
-      <c r="HY14" s="17"/>
-      <c r="HZ14" s="17"/>
-      <c r="IA14" s="17"/>
-      <c r="IB14" s="17"/>
-      <c r="IC14" s="17"/>
-      <c r="ID14" s="17"/>
-      <c r="IE14" s="17"/>
-      <c r="IF14" s="17"/>
-      <c r="IG14" s="17"/>
-      <c r="IH14" s="17"/>
-      <c r="II14" s="17"/>
-      <c r="IJ14" s="17"/>
-      <c r="IK14" s="17"/>
-      <c r="IL14" s="17"/>
-      <c r="IM14" s="17"/>
-      <c r="IN14" s="17"/>
-      <c r="IO14" s="17"/>
-      <c r="IP14" s="17"/>
-      <c r="IQ14" s="17"/>
-      <c r="IR14" s="17"/>
-      <c r="IS14" s="17"/>
-      <c r="IT14" s="17"/>
-      <c r="IU14" s="17"/>
-      <c r="IV14" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="17"/>
+      <c r="AC24" s="17"/>
+      <c r="AD24" s="17"/>
+      <c r="AE24" s="17"/>
+      <c r="AF24" s="17"/>
+      <c r="AG24" s="17"/>
+      <c r="AH24" s="17"/>
+      <c r="AI24" s="17"/>
+      <c r="AJ24" s="17"/>
+      <c r="AK24" s="17"/>
+      <c r="AL24" s="17"/>
+      <c r="AM24" s="17"/>
+      <c r="AN24" s="17"/>
+      <c r="AO24" s="17"/>
+      <c r="AP24" s="17"/>
+      <c r="AQ24" s="17"/>
+      <c r="AR24" s="17"/>
+      <c r="AS24" s="17"/>
+      <c r="AT24" s="17"/>
+      <c r="AU24" s="17"/>
+      <c r="AV24" s="17"/>
+      <c r="AW24" s="17"/>
+      <c r="AX24" s="17"/>
+      <c r="AY24" s="17"/>
+      <c r="AZ24" s="17"/>
+      <c r="BA24" s="17"/>
+      <c r="BB24" s="17"/>
+      <c r="BC24" s="17"/>
+      <c r="BD24" s="17"/>
+      <c r="BE24" s="17"/>
+      <c r="BF24" s="17"/>
+      <c r="BG24" s="17"/>
+      <c r="BH24" s="17"/>
+      <c r="BI24" s="17"/>
+      <c r="BJ24" s="17"/>
+      <c r="BK24" s="17"/>
+      <c r="BL24" s="17"/>
+      <c r="BM24" s="17"/>
+      <c r="BN24" s="17"/>
+      <c r="BO24" s="17"/>
+      <c r="BP24" s="17"/>
+      <c r="BQ24" s="17"/>
+      <c r="BR24" s="17"/>
+      <c r="BS24" s="17"/>
+      <c r="BT24" s="17"/>
+      <c r="BU24" s="17"/>
+      <c r="BV24" s="17"/>
+      <c r="BW24" s="17"/>
+      <c r="BX24" s="17"/>
+      <c r="BY24" s="17"/>
+      <c r="BZ24" s="17"/>
+      <c r="CA24" s="17"/>
+      <c r="CB24" s="17"/>
+      <c r="CC24" s="17"/>
+      <c r="CD24" s="17"/>
+      <c r="CE24" s="17"/>
+      <c r="CF24" s="17"/>
+      <c r="CG24" s="17"/>
+      <c r="CH24" s="17"/>
+      <c r="CI24" s="17"/>
+      <c r="CJ24" s="17"/>
+      <c r="CK24" s="17"/>
+      <c r="CL24" s="17"/>
+      <c r="CM24" s="17"/>
+      <c r="CN24" s="17"/>
+      <c r="CO24" s="17"/>
+      <c r="CP24" s="17"/>
+      <c r="CQ24" s="17"/>
+      <c r="CR24" s="17"/>
+      <c r="CS24" s="17"/>
+      <c r="CT24" s="17"/>
+      <c r="CU24" s="17"/>
+      <c r="CV24" s="17"/>
+      <c r="CW24" s="17"/>
+      <c r="CX24" s="17"/>
+      <c r="CY24" s="17"/>
+      <c r="CZ24" s="17"/>
+      <c r="DA24" s="17"/>
+      <c r="DB24" s="17"/>
+      <c r="DC24" s="17"/>
+      <c r="DD24" s="17"/>
+      <c r="DE24" s="17"/>
+      <c r="DF24" s="17"/>
+      <c r="DG24" s="17"/>
+      <c r="DH24" s="17"/>
+      <c r="DI24" s="17"/>
+      <c r="DJ24" s="17"/>
+      <c r="DK24" s="17"/>
+      <c r="DL24" s="17"/>
+      <c r="DM24" s="17"/>
+      <c r="DN24" s="17"/>
+      <c r="DO24" s="17"/>
+      <c r="DP24" s="17"/>
+      <c r="DQ24" s="17"/>
+      <c r="DR24" s="17"/>
+      <c r="DS24" s="17"/>
+      <c r="DT24" s="17"/>
+      <c r="DU24" s="17"/>
+      <c r="DV24" s="17"/>
+      <c r="DW24" s="17"/>
+      <c r="DX24" s="17"/>
+      <c r="DY24" s="17"/>
+      <c r="DZ24" s="17"/>
+      <c r="EA24" s="17"/>
+      <c r="EB24" s="17"/>
+      <c r="EC24" s="17"/>
+      <c r="ED24" s="17"/>
+      <c r="EE24" s="17"/>
+      <c r="EF24" s="17"/>
+      <c r="EG24" s="17"/>
+      <c r="EH24" s="17"/>
+      <c r="EI24" s="17"/>
+      <c r="EJ24" s="17"/>
+      <c r="EK24" s="17"/>
+      <c r="EL24" s="17"/>
+      <c r="EM24" s="17"/>
+      <c r="EN24" s="17"/>
+      <c r="EO24" s="17"/>
+      <c r="EP24" s="17"/>
+      <c r="EQ24" s="17"/>
+      <c r="ER24" s="17"/>
+      <c r="ES24" s="17"/>
+      <c r="ET24" s="17"/>
+      <c r="EU24" s="17"/>
+      <c r="EV24" s="17"/>
+      <c r="EW24" s="17"/>
+      <c r="EX24" s="17"/>
+      <c r="EY24" s="17"/>
+      <c r="EZ24" s="17"/>
+      <c r="FA24" s="17"/>
+      <c r="FB24" s="17"/>
+      <c r="FC24" s="17"/>
+      <c r="FD24" s="17"/>
+      <c r="FE24" s="17"/>
+      <c r="FF24" s="17"/>
+      <c r="FG24" s="17"/>
+      <c r="FH24" s="17"/>
+      <c r="FI24" s="17"/>
+      <c r="FJ24" s="17"/>
+      <c r="FK24" s="17"/>
+      <c r="FL24" s="17"/>
+      <c r="FM24" s="17"/>
+      <c r="FN24" s="17"/>
+      <c r="FO24" s="17"/>
+      <c r="FP24" s="17"/>
+      <c r="FQ24" s="17"/>
+      <c r="FR24" s="17"/>
+      <c r="FS24" s="17"/>
+      <c r="FT24" s="17"/>
+      <c r="FU24" s="17"/>
+      <c r="FV24" s="17"/>
+      <c r="FW24" s="17"/>
+      <c r="FX24" s="17"/>
+      <c r="FY24" s="17"/>
+      <c r="FZ24" s="17"/>
+      <c r="GA24" s="17"/>
+      <c r="GB24" s="17"/>
+      <c r="GC24" s="17"/>
+      <c r="GD24" s="17"/>
+      <c r="GE24" s="17"/>
+      <c r="GF24" s="17"/>
+      <c r="GG24" s="17"/>
+      <c r="GH24" s="17"/>
+      <c r="GI24" s="17"/>
+      <c r="GJ24" s="17"/>
+      <c r="GK24" s="17"/>
+      <c r="GL24" s="17"/>
+      <c r="GM24" s="17"/>
+      <c r="GN24" s="17"/>
+      <c r="GO24" s="17"/>
+      <c r="GP24" s="17"/>
+      <c r="GQ24" s="17"/>
+      <c r="GR24" s="17"/>
+      <c r="GS24" s="17"/>
+      <c r="GT24" s="17"/>
+      <c r="GU24" s="17"/>
+      <c r="GV24" s="17"/>
+      <c r="GW24" s="17"/>
+      <c r="GX24" s="17"/>
+      <c r="GY24" s="17"/>
+      <c r="GZ24" s="17"/>
+      <c r="HA24" s="17"/>
+      <c r="HB24" s="17"/>
+      <c r="HC24" s="17"/>
+      <c r="HD24" s="17"/>
+      <c r="HE24" s="17"/>
+      <c r="HF24" s="17"/>
+      <c r="HG24" s="17"/>
+      <c r="HH24" s="17"/>
+      <c r="HI24" s="17"/>
+      <c r="HJ24" s="17"/>
+      <c r="HK24" s="17"/>
+      <c r="HL24" s="17"/>
+      <c r="HM24" s="17"/>
+      <c r="HN24" s="17"/>
+      <c r="HO24" s="17"/>
+      <c r="HP24" s="17"/>
+      <c r="HQ24" s="17"/>
+      <c r="HR24" s="17"/>
+      <c r="HS24" s="17"/>
+      <c r="HT24" s="17"/>
+      <c r="HU24" s="17"/>
+      <c r="HV24" s="17"/>
+      <c r="HW24" s="17"/>
+      <c r="HX24" s="17"/>
+      <c r="HY24" s="17"/>
+      <c r="HZ24" s="17"/>
+      <c r="IA24" s="17"/>
+      <c r="IB24" s="17"/>
+      <c r="IC24" s="17"/>
+      <c r="ID24" s="17"/>
+      <c r="IE24" s="17"/>
+      <c r="IF24" s="17"/>
+      <c r="IG24" s="17"/>
+      <c r="IH24" s="17"/>
+      <c r="II24" s="17"/>
+      <c r="IJ24" s="17"/>
+      <c r="IK24" s="17"/>
+      <c r="IL24" s="17"/>
+      <c r="IM24" s="17"/>
+      <c r="IN24" s="17"/>
+      <c r="IO24" s="17"/>
+      <c r="IP24" s="17"/>
+      <c r="IQ24" s="17"/>
+      <c r="IR24" s="17"/>
+      <c r="IS24" s="17"/>
+      <c r="IT24" s="17"/>
+      <c r="IU24" s="17"/>
+      <c r="IV24" s="17"/>
     </row>
-    <row r="15" spans="1:256" s="56" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A15" s="53"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="55"/>
-      <c r="S15" s="55"/>
-      <c r="T15" s="55"/>
-      <c r="U15" s="55"/>
-      <c r="V15" s="55"/>
-      <c r="W15" s="55"/>
-      <c r="X15" s="55"/>
-      <c r="Y15" s="55"/>
-      <c r="Z15" s="55"/>
-      <c r="AA15" s="55"/>
-      <c r="AB15" s="55"/>
-      <c r="AC15" s="55"/>
-      <c r="AD15" s="55"/>
-      <c r="AE15" s="55"/>
-      <c r="AF15" s="55"/>
-      <c r="AG15" s="55"/>
-      <c r="AH15" s="55"/>
-      <c r="AI15" s="55"/>
-      <c r="AJ15" s="55"/>
-      <c r="AK15" s="55"/>
-      <c r="AL15" s="55"/>
-      <c r="AM15" s="55"/>
-      <c r="AN15" s="55"/>
-      <c r="AO15" s="55"/>
-      <c r="AP15" s="55"/>
-      <c r="AQ15" s="55"/>
-      <c r="AR15" s="55"/>
-      <c r="AS15" s="55"/>
-      <c r="AT15" s="55"/>
-      <c r="AU15" s="55"/>
-      <c r="AV15" s="55"/>
-      <c r="AW15" s="55"/>
-      <c r="AX15" s="55"/>
-      <c r="AY15" s="55"/>
-      <c r="AZ15" s="55"/>
-      <c r="BA15" s="55"/>
-      <c r="BB15" s="55"/>
-      <c r="BC15" s="55"/>
-      <c r="BD15" s="55"/>
-      <c r="BE15" s="55"/>
-      <c r="BF15" s="55"/>
-      <c r="BG15" s="55"/>
-      <c r="BH15" s="55"/>
-      <c r="BI15" s="55"/>
-      <c r="BJ15" s="55"/>
-      <c r="BK15" s="55"/>
-      <c r="BL15" s="55"/>
-      <c r="BM15" s="55"/>
-      <c r="BN15" s="55"/>
-      <c r="BO15" s="55"/>
-      <c r="BP15" s="55"/>
-      <c r="BQ15" s="55"/>
-      <c r="BR15" s="55"/>
-      <c r="BS15" s="55"/>
-      <c r="BT15" s="55"/>
-      <c r="BU15" s="55"/>
-      <c r="BV15" s="55"/>
-      <c r="BW15" s="55"/>
-      <c r="BX15" s="55"/>
-      <c r="BY15" s="55"/>
-      <c r="BZ15" s="55"/>
-      <c r="CA15" s="55"/>
-      <c r="CB15" s="55"/>
-      <c r="CC15" s="55"/>
-      <c r="CD15" s="55"/>
-      <c r="CE15" s="55"/>
-      <c r="CF15" s="55"/>
-      <c r="CG15" s="55"/>
-      <c r="CH15" s="55"/>
-      <c r="CI15" s="55"/>
-      <c r="CJ15" s="55"/>
-      <c r="CK15" s="55"/>
-      <c r="CL15" s="55"/>
-      <c r="CM15" s="55"/>
-      <c r="CN15" s="55"/>
-      <c r="CO15" s="55"/>
-      <c r="CP15" s="55"/>
-      <c r="CQ15" s="55"/>
-      <c r="CR15" s="55"/>
-      <c r="CS15" s="55"/>
-      <c r="CT15" s="55"/>
-      <c r="CU15" s="55"/>
-      <c r="CV15" s="55"/>
-      <c r="CW15" s="55"/>
-      <c r="CX15" s="55"/>
-      <c r="CY15" s="55"/>
-      <c r="CZ15" s="55"/>
-      <c r="DA15" s="55"/>
-      <c r="DB15" s="55"/>
-      <c r="DC15" s="55"/>
-      <c r="DD15" s="55"/>
-      <c r="DE15" s="55"/>
-      <c r="DF15" s="55"/>
-      <c r="DG15" s="55"/>
-      <c r="DH15" s="55"/>
-      <c r="DI15" s="55"/>
-      <c r="DJ15" s="55"/>
-      <c r="DK15" s="55"/>
-      <c r="DL15" s="55"/>
-      <c r="DM15" s="55"/>
-      <c r="DN15" s="55"/>
-      <c r="DO15" s="55"/>
-      <c r="DP15" s="55"/>
-      <c r="DQ15" s="55"/>
-      <c r="DR15" s="55"/>
-      <c r="DS15" s="55"/>
-      <c r="DT15" s="55"/>
-      <c r="DU15" s="55"/>
-      <c r="DV15" s="55"/>
-      <c r="DW15" s="55"/>
-      <c r="DX15" s="55"/>
-      <c r="DY15" s="55"/>
-      <c r="DZ15" s="55"/>
-      <c r="EA15" s="55"/>
-      <c r="EB15" s="55"/>
-      <c r="EC15" s="55"/>
-      <c r="ED15" s="55"/>
-      <c r="EE15" s="55"/>
-      <c r="EF15" s="55"/>
-      <c r="EG15" s="55"/>
-      <c r="EH15" s="55"/>
-      <c r="EI15" s="55"/>
-      <c r="EJ15" s="55"/>
-      <c r="EK15" s="55"/>
-      <c r="EL15" s="55"/>
-      <c r="EM15" s="55"/>
-      <c r="EN15" s="55"/>
-      <c r="EO15" s="55"/>
-      <c r="EP15" s="55"/>
-      <c r="EQ15" s="55"/>
-      <c r="ER15" s="55"/>
-      <c r="ES15" s="55"/>
-      <c r="ET15" s="55"/>
-      <c r="EU15" s="55"/>
-      <c r="EV15" s="55"/>
-      <c r="EW15" s="55"/>
-      <c r="EX15" s="55"/>
-      <c r="EY15" s="55"/>
-      <c r="EZ15" s="55"/>
-      <c r="FA15" s="55"/>
-      <c r="FB15" s="55"/>
-      <c r="FC15" s="55"/>
-      <c r="FD15" s="55"/>
-      <c r="FE15" s="55"/>
-      <c r="FF15" s="55"/>
-      <c r="FG15" s="55"/>
-      <c r="FH15" s="55"/>
-      <c r="FI15" s="55"/>
-      <c r="FJ15" s="55"/>
-      <c r="FK15" s="55"/>
-      <c r="FL15" s="55"/>
-      <c r="FM15" s="55"/>
-      <c r="FN15" s="55"/>
-      <c r="FO15" s="55"/>
-      <c r="FP15" s="55"/>
-      <c r="FQ15" s="55"/>
-      <c r="FR15" s="55"/>
-      <c r="FS15" s="55"/>
-      <c r="FT15" s="55"/>
-      <c r="FU15" s="55"/>
-      <c r="FV15" s="55"/>
-      <c r="FW15" s="55"/>
-      <c r="FX15" s="55"/>
-      <c r="FY15" s="55"/>
-      <c r="FZ15" s="55"/>
-      <c r="GA15" s="55"/>
-      <c r="GB15" s="55"/>
-      <c r="GC15" s="55"/>
-      <c r="GD15" s="55"/>
-      <c r="GE15" s="55"/>
-      <c r="GF15" s="55"/>
-      <c r="GG15" s="55"/>
-      <c r="GH15" s="55"/>
-      <c r="GI15" s="55"/>
-      <c r="GJ15" s="55"/>
-      <c r="GK15" s="55"/>
-      <c r="GL15" s="55"/>
-      <c r="GM15" s="55"/>
-      <c r="GN15" s="55"/>
-      <c r="GO15" s="55"/>
-      <c r="GP15" s="55"/>
-      <c r="GQ15" s="55"/>
-      <c r="GR15" s="55"/>
-      <c r="GS15" s="55"/>
-      <c r="GT15" s="55"/>
-      <c r="GU15" s="55"/>
-      <c r="GV15" s="55"/>
-      <c r="GW15" s="55"/>
-      <c r="GX15" s="55"/>
-      <c r="GY15" s="55"/>
-      <c r="GZ15" s="55"/>
-      <c r="HA15" s="55"/>
-      <c r="HB15" s="55"/>
-      <c r="HC15" s="55"/>
-      <c r="HD15" s="55"/>
-      <c r="HE15" s="55"/>
-      <c r="HF15" s="55"/>
-      <c r="HG15" s="55"/>
-      <c r="HH15" s="55"/>
-      <c r="HI15" s="55"/>
-      <c r="HJ15" s="55"/>
-      <c r="HK15" s="55"/>
-      <c r="HL15" s="55"/>
-      <c r="HM15" s="55"/>
-      <c r="HN15" s="55"/>
-      <c r="HO15" s="55"/>
-      <c r="HP15" s="55"/>
-      <c r="HQ15" s="55"/>
-      <c r="HR15" s="55"/>
-      <c r="HS15" s="55"/>
-      <c r="HT15" s="55"/>
-      <c r="HU15" s="55"/>
-      <c r="HV15" s="55"/>
-      <c r="HW15" s="55"/>
-      <c r="HX15" s="55"/>
-      <c r="HY15" s="55"/>
-      <c r="HZ15" s="55"/>
-      <c r="IA15" s="55"/>
-      <c r="IB15" s="55"/>
-      <c r="IC15" s="55"/>
-      <c r="ID15" s="55"/>
-      <c r="IE15" s="55"/>
-      <c r="IF15" s="55"/>
-      <c r="IG15" s="55"/>
-      <c r="IH15" s="55"/>
-      <c r="II15" s="55"/>
-      <c r="IJ15" s="55"/>
-      <c r="IK15" s="55"/>
-      <c r="IL15" s="55"/>
-      <c r="IM15" s="55"/>
-      <c r="IN15" s="55"/>
-      <c r="IO15" s="55"/>
-      <c r="IP15" s="55"/>
-      <c r="IQ15" s="55"/>
-      <c r="IR15" s="55"/>
-      <c r="IS15" s="55"/>
-      <c r="IT15" s="55"/>
-      <c r="IU15" s="55"/>
-      <c r="IV15" s="55"/>
+    <row r="25" spans="1:256" s="56" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A25" s="53"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="55"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="55"/>
+      <c r="W25" s="55"/>
+      <c r="X25" s="55"/>
+      <c r="Y25" s="55"/>
+      <c r="Z25" s="55"/>
+      <c r="AA25" s="55"/>
+      <c r="AB25" s="55"/>
+      <c r="AC25" s="55"/>
+      <c r="AD25" s="55"/>
+      <c r="AE25" s="55"/>
+      <c r="AF25" s="55"/>
+      <c r="AG25" s="55"/>
+      <c r="AH25" s="55"/>
+      <c r="AI25" s="55"/>
+      <c r="AJ25" s="55"/>
+      <c r="AK25" s="55"/>
+      <c r="AL25" s="55"/>
+      <c r="AM25" s="55"/>
+      <c r="AN25" s="55"/>
+      <c r="AO25" s="55"/>
+      <c r="AP25" s="55"/>
+      <c r="AQ25" s="55"/>
+      <c r="AR25" s="55"/>
+      <c r="AS25" s="55"/>
+      <c r="AT25" s="55"/>
+      <c r="AU25" s="55"/>
+      <c r="AV25" s="55"/>
+      <c r="AW25" s="55"/>
+      <c r="AX25" s="55"/>
+      <c r="AY25" s="55"/>
+      <c r="AZ25" s="55"/>
+      <c r="BA25" s="55"/>
+      <c r="BB25" s="55"/>
+      <c r="BC25" s="55"/>
+      <c r="BD25" s="55"/>
+      <c r="BE25" s="55"/>
+      <c r="BF25" s="55"/>
+      <c r="BG25" s="55"/>
+      <c r="BH25" s="55"/>
+      <c r="BI25" s="55"/>
+      <c r="BJ25" s="55"/>
+      <c r="BK25" s="55"/>
+      <c r="BL25" s="55"/>
+      <c r="BM25" s="55"/>
+      <c r="BN25" s="55"/>
+      <c r="BO25" s="55"/>
+      <c r="BP25" s="55"/>
+      <c r="BQ25" s="55"/>
+      <c r="BR25" s="55"/>
+      <c r="BS25" s="55"/>
+      <c r="BT25" s="55"/>
+      <c r="BU25" s="55"/>
+      <c r="BV25" s="55"/>
+      <c r="BW25" s="55"/>
+      <c r="BX25" s="55"/>
+      <c r="BY25" s="55"/>
+      <c r="BZ25" s="55"/>
+      <c r="CA25" s="55"/>
+      <c r="CB25" s="55"/>
+      <c r="CC25" s="55"/>
+      <c r="CD25" s="55"/>
+      <c r="CE25" s="55"/>
+      <c r="CF25" s="55"/>
+      <c r="CG25" s="55"/>
+      <c r="CH25" s="55"/>
+      <c r="CI25" s="55"/>
+      <c r="CJ25" s="55"/>
+      <c r="CK25" s="55"/>
+      <c r="CL25" s="55"/>
+      <c r="CM25" s="55"/>
+      <c r="CN25" s="55"/>
+      <c r="CO25" s="55"/>
+      <c r="CP25" s="55"/>
+      <c r="CQ25" s="55"/>
+      <c r="CR25" s="55"/>
+      <c r="CS25" s="55"/>
+      <c r="CT25" s="55"/>
+      <c r="CU25" s="55"/>
+      <c r="CV25" s="55"/>
+      <c r="CW25" s="55"/>
+      <c r="CX25" s="55"/>
+      <c r="CY25" s="55"/>
+      <c r="CZ25" s="55"/>
+      <c r="DA25" s="55"/>
+      <c r="DB25" s="55"/>
+      <c r="DC25" s="55"/>
+      <c r="DD25" s="55"/>
+      <c r="DE25" s="55"/>
+      <c r="DF25" s="55"/>
+      <c r="DG25" s="55"/>
+      <c r="DH25" s="55"/>
+      <c r="DI25" s="55"/>
+      <c r="DJ25" s="55"/>
+      <c r="DK25" s="55"/>
+      <c r="DL25" s="55"/>
+      <c r="DM25" s="55"/>
+      <c r="DN25" s="55"/>
+      <c r="DO25" s="55"/>
+      <c r="DP25" s="55"/>
+      <c r="DQ25" s="55"/>
+      <c r="DR25" s="55"/>
+      <c r="DS25" s="55"/>
+      <c r="DT25" s="55"/>
+      <c r="DU25" s="55"/>
+      <c r="DV25" s="55"/>
+      <c r="DW25" s="55"/>
+      <c r="DX25" s="55"/>
+      <c r="DY25" s="55"/>
+      <c r="DZ25" s="55"/>
+      <c r="EA25" s="55"/>
+      <c r="EB25" s="55"/>
+      <c r="EC25" s="55"/>
+      <c r="ED25" s="55"/>
+      <c r="EE25" s="55"/>
+      <c r="EF25" s="55"/>
+      <c r="EG25" s="55"/>
+      <c r="EH25" s="55"/>
+      <c r="EI25" s="55"/>
+      <c r="EJ25" s="55"/>
+      <c r="EK25" s="55"/>
+      <c r="EL25" s="55"/>
+      <c r="EM25" s="55"/>
+      <c r="EN25" s="55"/>
+      <c r="EO25" s="55"/>
+      <c r="EP25" s="55"/>
+      <c r="EQ25" s="55"/>
+      <c r="ER25" s="55"/>
+      <c r="ES25" s="55"/>
+      <c r="ET25" s="55"/>
+      <c r="EU25" s="55"/>
+      <c r="EV25" s="55"/>
+      <c r="EW25" s="55"/>
+      <c r="EX25" s="55"/>
+      <c r="EY25" s="55"/>
+      <c r="EZ25" s="55"/>
+      <c r="FA25" s="55"/>
+      <c r="FB25" s="55"/>
+      <c r="FC25" s="55"/>
+      <c r="FD25" s="55"/>
+      <c r="FE25" s="55"/>
+      <c r="FF25" s="55"/>
+      <c r="FG25" s="55"/>
+      <c r="FH25" s="55"/>
+      <c r="FI25" s="55"/>
+      <c r="FJ25" s="55"/>
+      <c r="FK25" s="55"/>
+      <c r="FL25" s="55"/>
+      <c r="FM25" s="55"/>
+      <c r="FN25" s="55"/>
+      <c r="FO25" s="55"/>
+      <c r="FP25" s="55"/>
+      <c r="FQ25" s="55"/>
+      <c r="FR25" s="55"/>
+      <c r="FS25" s="55"/>
+      <c r="FT25" s="55"/>
+      <c r="FU25" s="55"/>
+      <c r="FV25" s="55"/>
+      <c r="FW25" s="55"/>
+      <c r="FX25" s="55"/>
+      <c r="FY25" s="55"/>
+      <c r="FZ25" s="55"/>
+      <c r="GA25" s="55"/>
+      <c r="GB25" s="55"/>
+      <c r="GC25" s="55"/>
+      <c r="GD25" s="55"/>
+      <c r="GE25" s="55"/>
+      <c r="GF25" s="55"/>
+      <c r="GG25" s="55"/>
+      <c r="GH25" s="55"/>
+      <c r="GI25" s="55"/>
+      <c r="GJ25" s="55"/>
+      <c r="GK25" s="55"/>
+      <c r="GL25" s="55"/>
+      <c r="GM25" s="55"/>
+      <c r="GN25" s="55"/>
+      <c r="GO25" s="55"/>
+      <c r="GP25" s="55"/>
+      <c r="GQ25" s="55"/>
+      <c r="GR25" s="55"/>
+      <c r="GS25" s="55"/>
+      <c r="GT25" s="55"/>
+      <c r="GU25" s="55"/>
+      <c r="GV25" s="55"/>
+      <c r="GW25" s="55"/>
+      <c r="GX25" s="55"/>
+      <c r="GY25" s="55"/>
+      <c r="GZ25" s="55"/>
+      <c r="HA25" s="55"/>
+      <c r="HB25" s="55"/>
+      <c r="HC25" s="55"/>
+      <c r="HD25" s="55"/>
+      <c r="HE25" s="55"/>
+      <c r="HF25" s="55"/>
+      <c r="HG25" s="55"/>
+      <c r="HH25" s="55"/>
+      <c r="HI25" s="55"/>
+      <c r="HJ25" s="55"/>
+      <c r="HK25" s="55"/>
+      <c r="HL25" s="55"/>
+      <c r="HM25" s="55"/>
+      <c r="HN25" s="55"/>
+      <c r="HO25" s="55"/>
+      <c r="HP25" s="55"/>
+      <c r="HQ25" s="55"/>
+      <c r="HR25" s="55"/>
+      <c r="HS25" s="55"/>
+      <c r="HT25" s="55"/>
+      <c r="HU25" s="55"/>
+      <c r="HV25" s="55"/>
+      <c r="HW25" s="55"/>
+      <c r="HX25" s="55"/>
+      <c r="HY25" s="55"/>
+      <c r="HZ25" s="55"/>
+      <c r="IA25" s="55"/>
+      <c r="IB25" s="55"/>
+      <c r="IC25" s="55"/>
+      <c r="ID25" s="55"/>
+      <c r="IE25" s="55"/>
+      <c r="IF25" s="55"/>
+      <c r="IG25" s="55"/>
+      <c r="IH25" s="55"/>
+      <c r="II25" s="55"/>
+      <c r="IJ25" s="55"/>
+      <c r="IK25" s="55"/>
+      <c r="IL25" s="55"/>
+      <c r="IM25" s="55"/>
+      <c r="IN25" s="55"/>
+      <c r="IO25" s="55"/>
+      <c r="IP25" s="55"/>
+      <c r="IQ25" s="55"/>
+      <c r="IR25" s="55"/>
+      <c r="IS25" s="55"/>
+      <c r="IT25" s="55"/>
+      <c r="IU25" s="55"/>
+      <c r="IV25" s="55"/>
     </row>
-    <row r="16" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-    </row>
-    <row r="17" spans="1:255" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="L17" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="M17" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="N17" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="O17" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="P17" s="29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:255" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="40" t="s">
-        <v>207</v>
-      </c>
-      <c r="F18" s="40" t="s">
-        <v>208</v>
-      </c>
-      <c r="G18" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="I18" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="J18" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="L18" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="M18" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="N18" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="O18" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="P18" s="40" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:255" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>208</v>
-      </c>
-      <c r="F19" s="40" t="s">
-        <v>224</v>
-      </c>
-      <c r="G19" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="I19" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="J19" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="K19" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="L19" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="M19" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="N19" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="O19" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="P19" s="40" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="5"/>
-      <c r="AD21" s="5"/>
-      <c r="AE21" s="5"/>
-      <c r="AF21" s="5"/>
-      <c r="AG21" s="5"/>
-      <c r="AH21" s="5"/>
-      <c r="AI21" s="5"/>
-      <c r="AJ21" s="5"/>
-      <c r="AK21" s="5"/>
-      <c r="AL21" s="5"/>
-      <c r="AM21" s="5"/>
-      <c r="AN21" s="5"/>
-      <c r="AO21" s="5"/>
-      <c r="AP21" s="5"/>
-      <c r="AQ21" s="5"/>
-      <c r="AR21" s="5"/>
-      <c r="AS21" s="5"/>
-      <c r="AT21" s="5"/>
-      <c r="AU21" s="5"/>
-      <c r="AV21" s="5"/>
-      <c r="AW21" s="5"/>
-      <c r="AX21" s="5"/>
-      <c r="AY21" s="5"/>
-      <c r="AZ21" s="5"/>
-      <c r="BA21" s="5"/>
-      <c r="BB21" s="5"/>
-      <c r="BC21" s="5"/>
-      <c r="BD21" s="5"/>
-      <c r="BE21" s="5"/>
-      <c r="BF21" s="5"/>
-      <c r="BG21" s="5"/>
-      <c r="BH21" s="5"/>
-      <c r="BI21" s="5"/>
-      <c r="BJ21" s="5"/>
-      <c r="BK21" s="5"/>
-      <c r="BL21" s="5"/>
-      <c r="BM21" s="5"/>
-      <c r="BN21" s="5"/>
-      <c r="BO21" s="5"/>
-      <c r="BP21" s="5"/>
-      <c r="BQ21" s="5"/>
-      <c r="BR21" s="5"/>
-      <c r="BS21" s="5"/>
-      <c r="BT21" s="5"/>
-      <c r="BU21" s="5"/>
-      <c r="BV21" s="5"/>
-      <c r="BW21" s="5"/>
-      <c r="BX21" s="5"/>
-      <c r="BY21" s="5"/>
-      <c r="BZ21" s="5"/>
-      <c r="CA21" s="5"/>
-      <c r="CB21" s="5"/>
-      <c r="CC21" s="5"/>
-      <c r="CD21" s="5"/>
-      <c r="CE21" s="5"/>
-      <c r="CF21" s="5"/>
-      <c r="CG21" s="5"/>
-      <c r="CH21" s="5"/>
-      <c r="CI21" s="5"/>
-      <c r="CJ21" s="5"/>
-      <c r="CK21" s="5"/>
-      <c r="CL21" s="5"/>
-      <c r="CM21" s="5"/>
-      <c r="CN21" s="5"/>
-      <c r="CO21" s="5"/>
-      <c r="CP21" s="5"/>
-      <c r="CQ21" s="5"/>
-      <c r="CR21" s="5"/>
-      <c r="CS21" s="5"/>
-      <c r="CT21" s="5"/>
-      <c r="CU21" s="5"/>
-      <c r="CV21" s="5"/>
-      <c r="CW21" s="5"/>
-      <c r="CX21" s="5"/>
-      <c r="CY21" s="5"/>
-      <c r="CZ21" s="5"/>
-      <c r="DA21" s="5"/>
-      <c r="DB21" s="5"/>
-      <c r="DC21" s="5"/>
-      <c r="DD21" s="5"/>
-      <c r="DE21" s="5"/>
-      <c r="DF21" s="5"/>
-      <c r="DG21" s="5"/>
-      <c r="DH21" s="5"/>
-      <c r="DI21" s="5"/>
-      <c r="DJ21" s="5"/>
-      <c r="DK21" s="5"/>
-      <c r="DL21" s="5"/>
-      <c r="DM21" s="5"/>
-      <c r="DN21" s="5"/>
-      <c r="DO21" s="5"/>
-      <c r="DP21" s="5"/>
-      <c r="DQ21" s="5"/>
-      <c r="DR21" s="5"/>
-      <c r="DS21" s="5"/>
-      <c r="DT21" s="5"/>
-      <c r="DU21" s="5"/>
-      <c r="DV21" s="5"/>
-      <c r="DW21" s="5"/>
-      <c r="DX21" s="5"/>
-      <c r="DY21" s="5"/>
-      <c r="DZ21" s="5"/>
-      <c r="EA21" s="5"/>
-      <c r="EB21" s="5"/>
-      <c r="EC21" s="5"/>
-      <c r="ED21" s="5"/>
-      <c r="EE21" s="5"/>
-      <c r="EF21" s="5"/>
-      <c r="EG21" s="5"/>
-      <c r="EH21" s="5"/>
-      <c r="EI21" s="5"/>
-      <c r="EJ21" s="5"/>
-      <c r="EK21" s="5"/>
-      <c r="EL21" s="5"/>
-      <c r="EM21" s="5"/>
-      <c r="EN21" s="5"/>
-      <c r="EO21" s="5"/>
-      <c r="EP21" s="5"/>
-      <c r="EQ21" s="5"/>
-      <c r="ER21" s="5"/>
-      <c r="ES21" s="5"/>
-      <c r="ET21" s="5"/>
-      <c r="EU21" s="5"/>
-      <c r="EV21" s="5"/>
-      <c r="EW21" s="5"/>
-      <c r="EX21" s="5"/>
-      <c r="EY21" s="5"/>
-      <c r="EZ21" s="5"/>
-      <c r="FA21" s="5"/>
-      <c r="FB21" s="5"/>
-      <c r="FC21" s="5"/>
-      <c r="FD21" s="5"/>
-      <c r="FE21" s="5"/>
-      <c r="FF21" s="5"/>
-      <c r="FG21" s="5"/>
-      <c r="FH21" s="5"/>
-      <c r="FI21" s="5"/>
-      <c r="FJ21" s="5"/>
-      <c r="FK21" s="5"/>
-      <c r="FL21" s="5"/>
-      <c r="FM21" s="5"/>
-      <c r="FN21" s="5"/>
-      <c r="FO21" s="5"/>
-      <c r="FP21" s="5"/>
-      <c r="FQ21" s="5"/>
-      <c r="FR21" s="5"/>
-      <c r="FS21" s="5"/>
-      <c r="FT21" s="5"/>
-      <c r="FU21" s="5"/>
-      <c r="FV21" s="5"/>
-      <c r="FW21" s="5"/>
-      <c r="FX21" s="5"/>
-      <c r="FY21" s="5"/>
-      <c r="FZ21" s="5"/>
-      <c r="GA21" s="5"/>
-      <c r="GB21" s="5"/>
-      <c r="GC21" s="5"/>
-      <c r="GD21" s="5"/>
-      <c r="GE21" s="5"/>
-      <c r="GF21" s="5"/>
-      <c r="GG21" s="5"/>
-      <c r="GH21" s="5"/>
-      <c r="GI21" s="5"/>
-      <c r="GJ21" s="5"/>
-      <c r="GK21" s="5"/>
-      <c r="GL21" s="5"/>
-      <c r="GM21" s="5"/>
-      <c r="GN21" s="5"/>
-      <c r="GO21" s="5"/>
-      <c r="GP21" s="5"/>
-      <c r="GQ21" s="5"/>
-      <c r="GR21" s="5"/>
-      <c r="GS21" s="5"/>
-      <c r="GT21" s="5"/>
-      <c r="GU21" s="5"/>
-      <c r="GV21" s="5"/>
-      <c r="GW21" s="5"/>
-      <c r="GX21" s="5"/>
-      <c r="GY21" s="5"/>
-      <c r="GZ21" s="5"/>
-      <c r="HA21" s="5"/>
-      <c r="HB21" s="5"/>
-      <c r="HC21" s="5"/>
-      <c r="HD21" s="5"/>
-      <c r="HE21" s="5"/>
-      <c r="HF21" s="5"/>
-      <c r="HG21" s="5"/>
-      <c r="HH21" s="5"/>
-      <c r="HI21" s="5"/>
-      <c r="HJ21" s="5"/>
-      <c r="HK21" s="5"/>
-      <c r="HL21" s="5"/>
-      <c r="HM21" s="5"/>
-      <c r="HN21" s="5"/>
-      <c r="HO21" s="5"/>
-      <c r="HP21" s="5"/>
-      <c r="HQ21" s="5"/>
-      <c r="HR21" s="5"/>
-      <c r="HS21" s="5"/>
-      <c r="HT21" s="5"/>
-      <c r="HU21" s="5"/>
-      <c r="HV21" s="5"/>
-      <c r="HW21" s="5"/>
-      <c r="HX21" s="5"/>
-      <c r="HY21" s="5"/>
-      <c r="HZ21" s="5"/>
-      <c r="IA21" s="5"/>
-      <c r="IB21" s="5"/>
-      <c r="IC21" s="5"/>
-      <c r="ID21" s="5"/>
-      <c r="IE21" s="5"/>
-      <c r="IF21" s="5"/>
-      <c r="IG21" s="5"/>
-      <c r="IH21" s="5"/>
-      <c r="II21" s="5"/>
-      <c r="IJ21" s="5"/>
-      <c r="IK21" s="5"/>
-      <c r="IL21" s="5"/>
-      <c r="IM21" s="5"/>
-      <c r="IN21" s="5"/>
-      <c r="IO21" s="5"/>
-      <c r="IP21" s="5"/>
-      <c r="IQ21" s="5"/>
-      <c r="IR21" s="5"/>
-      <c r="IS21" s="5"/>
-      <c r="IT21" s="5"/>
-      <c r="IU21" s="5"/>
-    </row>
-    <row r="22" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:255" ht="15" x14ac:dyDescent="0.35">
-      <c r="A23" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:255" ht="15" x14ac:dyDescent="0.35">
-      <c r="A24" s="34">
-        <v>1</v>
-      </c>
-      <c r="B24" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="43" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>60</v>
       </c>
@@ -11970,17 +11962,17 @@
       <c r="IT26" s="5"/>
       <c r="IU26" s="5"/>
     </row>
-    <row r="27" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="29" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A29" s="33" t="s">
         <v>42</v>
       </c>
@@ -11988,19 +11980,19 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A30" s="31" t="s">
         <v>49</v>
       </c>
       <c r="B30" s="31"/>
     </row>
-    <row r="31" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A31" s="31" t="s">
         <v>77</v>
       </c>
       <c r="B31" s="31"/>
     </row>
-    <row r="32" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A32" s="31" t="s">
         <v>44</v>
       </c>
@@ -12551,7 +12543,7 @@
         <v>82</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E39" s="19"/>
       <c r="F39" s="19"/>
@@ -15196,7 +15188,7 @@
         <v>47</v>
       </c>
       <c r="B58" s="52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E58" s="19"/>
       <c r="F58" s="19"/>
@@ -15456,7 +15448,7 @@
         <v>48</v>
       </c>
       <c r="B59" s="52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E59" s="19"/>
       <c r="F59" s="19"/>
@@ -17779,7 +17771,7 @@
     </row>
     <row r="69" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E69" s="19"/>
       <c r="F69" s="19"/>
@@ -18036,7 +18028,7 @@
     </row>
     <row r="70" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -19344,7 +19336,7 @@
         <v>47</v>
       </c>
       <c r="B76" s="52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E76" s="19"/>
       <c r="F76" s="19"/>
@@ -19604,7 +19596,7 @@
         <v>48</v>
       </c>
       <c r="B77" s="52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E77" s="19"/>
       <c r="F77" s="19"/>
@@ -21927,7 +21919,7 @@
     </row>
     <row r="87" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E87" s="19"/>
       <c r="F87" s="19"/>
@@ -22184,7 +22176,7 @@
     </row>
     <row r="88" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="89" spans="1:256" x14ac:dyDescent="0.35">
@@ -23853,7 +23845,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G3" s="37" t="s">
         <v>17</v>
@@ -23875,7 +23867,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -23885,13 +23877,13 @@
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>59</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="14" t="s">
@@ -24426,7 +24418,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -24690,7 +24682,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -25204,1341 +25196,1333 @@
       <c r="IU11" s="17"/>
       <c r="IV11" s="17"/>
     </row>
-    <row r="12" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A12" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="17"/>
-      <c r="AC12" s="17"/>
-      <c r="AD12" s="17"/>
-      <c r="AE12" s="17"/>
-      <c r="AF12" s="17"/>
-      <c r="AG12" s="17"/>
-      <c r="AH12" s="17"/>
-      <c r="AI12" s="17"/>
-      <c r="AJ12" s="17"/>
-      <c r="AK12" s="17"/>
-      <c r="AL12" s="17"/>
-      <c r="AM12" s="17"/>
-      <c r="AN12" s="17"/>
-      <c r="AO12" s="17"/>
-      <c r="AP12" s="17"/>
-      <c r="AQ12" s="17"/>
-      <c r="AR12" s="17"/>
-      <c r="AS12" s="17"/>
-      <c r="AT12" s="17"/>
-      <c r="AU12" s="17"/>
-      <c r="AV12" s="17"/>
-      <c r="AW12" s="17"/>
-      <c r="AX12" s="17"/>
-      <c r="AY12" s="17"/>
-      <c r="AZ12" s="17"/>
-      <c r="BA12" s="17"/>
-      <c r="BB12" s="17"/>
-      <c r="BC12" s="17"/>
-      <c r="BD12" s="17"/>
-      <c r="BE12" s="17"/>
-      <c r="BF12" s="17"/>
-      <c r="BG12" s="17"/>
-      <c r="BH12" s="17"/>
-      <c r="BI12" s="17"/>
-      <c r="BJ12" s="17"/>
-      <c r="BK12" s="17"/>
-      <c r="BL12" s="17"/>
-      <c r="BM12" s="17"/>
-      <c r="BN12" s="17"/>
-      <c r="BO12" s="17"/>
-      <c r="BP12" s="17"/>
-      <c r="BQ12" s="17"/>
-      <c r="BR12" s="17"/>
-      <c r="BS12" s="17"/>
-      <c r="BT12" s="17"/>
-      <c r="BU12" s="17"/>
-      <c r="BV12" s="17"/>
-      <c r="BW12" s="17"/>
-      <c r="BX12" s="17"/>
-      <c r="BY12" s="17"/>
-      <c r="BZ12" s="17"/>
-      <c r="CA12" s="17"/>
-      <c r="CB12" s="17"/>
-      <c r="CC12" s="17"/>
-      <c r="CD12" s="17"/>
-      <c r="CE12" s="17"/>
-      <c r="CF12" s="17"/>
-      <c r="CG12" s="17"/>
-      <c r="CH12" s="17"/>
-      <c r="CI12" s="17"/>
-      <c r="CJ12" s="17"/>
-      <c r="CK12" s="17"/>
-      <c r="CL12" s="17"/>
-      <c r="CM12" s="17"/>
-      <c r="CN12" s="17"/>
-      <c r="CO12" s="17"/>
-      <c r="CP12" s="17"/>
-      <c r="CQ12" s="17"/>
-      <c r="CR12" s="17"/>
-      <c r="CS12" s="17"/>
-      <c r="CT12" s="17"/>
-      <c r="CU12" s="17"/>
-      <c r="CV12" s="17"/>
-      <c r="CW12" s="17"/>
-      <c r="CX12" s="17"/>
-      <c r="CY12" s="17"/>
-      <c r="CZ12" s="17"/>
-      <c r="DA12" s="17"/>
-      <c r="DB12" s="17"/>
-      <c r="DC12" s="17"/>
-      <c r="DD12" s="17"/>
-      <c r="DE12" s="17"/>
-      <c r="DF12" s="17"/>
-      <c r="DG12" s="17"/>
-      <c r="DH12" s="17"/>
-      <c r="DI12" s="17"/>
-      <c r="DJ12" s="17"/>
-      <c r="DK12" s="17"/>
-      <c r="DL12" s="17"/>
-      <c r="DM12" s="17"/>
-      <c r="DN12" s="17"/>
-      <c r="DO12" s="17"/>
-      <c r="DP12" s="17"/>
-      <c r="DQ12" s="17"/>
-      <c r="DR12" s="17"/>
-      <c r="DS12" s="17"/>
-      <c r="DT12" s="17"/>
-      <c r="DU12" s="17"/>
-      <c r="DV12" s="17"/>
-      <c r="DW12" s="17"/>
-      <c r="DX12" s="17"/>
-      <c r="DY12" s="17"/>
-      <c r="DZ12" s="17"/>
-      <c r="EA12" s="17"/>
-      <c r="EB12" s="17"/>
-      <c r="EC12" s="17"/>
-      <c r="ED12" s="17"/>
-      <c r="EE12" s="17"/>
-      <c r="EF12" s="17"/>
-      <c r="EG12" s="17"/>
-      <c r="EH12" s="17"/>
-      <c r="EI12" s="17"/>
-      <c r="EJ12" s="17"/>
-      <c r="EK12" s="17"/>
-      <c r="EL12" s="17"/>
-      <c r="EM12" s="17"/>
-      <c r="EN12" s="17"/>
-      <c r="EO12" s="17"/>
-      <c r="EP12" s="17"/>
-      <c r="EQ12" s="17"/>
-      <c r="ER12" s="17"/>
-      <c r="ES12" s="17"/>
-      <c r="ET12" s="17"/>
-      <c r="EU12" s="17"/>
-      <c r="EV12" s="17"/>
-      <c r="EW12" s="17"/>
-      <c r="EX12" s="17"/>
-      <c r="EY12" s="17"/>
-      <c r="EZ12" s="17"/>
-      <c r="FA12" s="17"/>
-      <c r="FB12" s="17"/>
-      <c r="FC12" s="17"/>
-      <c r="FD12" s="17"/>
-      <c r="FE12" s="17"/>
-      <c r="FF12" s="17"/>
-      <c r="FG12" s="17"/>
-      <c r="FH12" s="17"/>
-      <c r="FI12" s="17"/>
-      <c r="FJ12" s="17"/>
-      <c r="FK12" s="17"/>
-      <c r="FL12" s="17"/>
-      <c r="FM12" s="17"/>
-      <c r="FN12" s="17"/>
-      <c r="FO12" s="17"/>
-      <c r="FP12" s="17"/>
-      <c r="FQ12" s="17"/>
-      <c r="FR12" s="17"/>
-      <c r="FS12" s="17"/>
-      <c r="FT12" s="17"/>
-      <c r="FU12" s="17"/>
-      <c r="FV12" s="17"/>
-      <c r="FW12" s="17"/>
-      <c r="FX12" s="17"/>
-      <c r="FY12" s="17"/>
-      <c r="FZ12" s="17"/>
-      <c r="GA12" s="17"/>
-      <c r="GB12" s="17"/>
-      <c r="GC12" s="17"/>
-      <c r="GD12" s="17"/>
-      <c r="GE12" s="17"/>
-      <c r="GF12" s="17"/>
-      <c r="GG12" s="17"/>
-      <c r="GH12" s="17"/>
-      <c r="GI12" s="17"/>
-      <c r="GJ12" s="17"/>
-      <c r="GK12" s="17"/>
-      <c r="GL12" s="17"/>
-      <c r="GM12" s="17"/>
-      <c r="GN12" s="17"/>
-      <c r="GO12" s="17"/>
-      <c r="GP12" s="17"/>
-      <c r="GQ12" s="17"/>
-      <c r="GR12" s="17"/>
-      <c r="GS12" s="17"/>
-      <c r="GT12" s="17"/>
-      <c r="GU12" s="17"/>
-      <c r="GV12" s="17"/>
-      <c r="GW12" s="17"/>
-      <c r="GX12" s="17"/>
-      <c r="GY12" s="17"/>
-      <c r="GZ12" s="17"/>
-      <c r="HA12" s="17"/>
-      <c r="HB12" s="17"/>
-      <c r="HC12" s="17"/>
-      <c r="HD12" s="17"/>
-      <c r="HE12" s="17"/>
-      <c r="HF12" s="17"/>
-      <c r="HG12" s="17"/>
-      <c r="HH12" s="17"/>
-      <c r="HI12" s="17"/>
-      <c r="HJ12" s="17"/>
-      <c r="HK12" s="17"/>
-      <c r="HL12" s="17"/>
-      <c r="HM12" s="17"/>
-      <c r="HN12" s="17"/>
-      <c r="HO12" s="17"/>
-      <c r="HP12" s="17"/>
-      <c r="HQ12" s="17"/>
-      <c r="HR12" s="17"/>
-      <c r="HS12" s="17"/>
-      <c r="HT12" s="17"/>
-      <c r="HU12" s="17"/>
-      <c r="HV12" s="17"/>
-      <c r="HW12" s="17"/>
-      <c r="HX12" s="17"/>
-      <c r="HY12" s="17"/>
-      <c r="HZ12" s="17"/>
-      <c r="IA12" s="17"/>
-      <c r="IB12" s="17"/>
-      <c r="IC12" s="17"/>
-      <c r="ID12" s="17"/>
-      <c r="IE12" s="17"/>
-      <c r="IF12" s="17"/>
-      <c r="IG12" s="17"/>
-      <c r="IH12" s="17"/>
-      <c r="II12" s="17"/>
-      <c r="IJ12" s="17"/>
-      <c r="IK12" s="17"/>
-      <c r="IL12" s="17"/>
-      <c r="IM12" s="17"/>
-      <c r="IN12" s="17"/>
-      <c r="IO12" s="17"/>
-      <c r="IP12" s="17"/>
-      <c r="IQ12" s="17"/>
-      <c r="IR12" s="17"/>
-      <c r="IS12" s="17"/>
-      <c r="IT12" s="17"/>
-      <c r="IU12" s="17"/>
-      <c r="IV12" s="17"/>
+    <row r="13" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="5"/>
+      <c r="AN13" s="5"/>
+      <c r="AO13" s="5"/>
+      <c r="AP13" s="5"/>
+      <c r="AQ13" s="5"/>
+      <c r="AR13" s="5"/>
+      <c r="AS13" s="5"/>
+      <c r="AT13" s="5"/>
+      <c r="AU13" s="5"/>
+      <c r="AV13" s="5"/>
+      <c r="AW13" s="5"/>
+      <c r="AX13" s="5"/>
+      <c r="AY13" s="5"/>
+      <c r="AZ13" s="5"/>
+      <c r="BA13" s="5"/>
+      <c r="BB13" s="5"/>
+      <c r="BC13" s="5"/>
+      <c r="BD13" s="5"/>
+      <c r="BE13" s="5"/>
+      <c r="BF13" s="5"/>
+      <c r="BG13" s="5"/>
+      <c r="BH13" s="5"/>
+      <c r="BI13" s="5"/>
+      <c r="BJ13" s="5"/>
+      <c r="BK13" s="5"/>
+      <c r="BL13" s="5"/>
+      <c r="BM13" s="5"/>
+      <c r="BN13" s="5"/>
+      <c r="BO13" s="5"/>
+      <c r="BP13" s="5"/>
+      <c r="BQ13" s="5"/>
+      <c r="BR13" s="5"/>
+      <c r="BS13" s="5"/>
+      <c r="BT13" s="5"/>
+      <c r="BU13" s="5"/>
+      <c r="BV13" s="5"/>
+      <c r="BW13" s="5"/>
+      <c r="BX13" s="5"/>
+      <c r="BY13" s="5"/>
+      <c r="BZ13" s="5"/>
+      <c r="CA13" s="5"/>
+      <c r="CB13" s="5"/>
+      <c r="CC13" s="5"/>
+      <c r="CD13" s="5"/>
+      <c r="CE13" s="5"/>
+      <c r="CF13" s="5"/>
+      <c r="CG13" s="5"/>
+      <c r="CH13" s="5"/>
+      <c r="CI13" s="5"/>
+      <c r="CJ13" s="5"/>
+      <c r="CK13" s="5"/>
+      <c r="CL13" s="5"/>
+      <c r="CM13" s="5"/>
+      <c r="CN13" s="5"/>
+      <c r="CO13" s="5"/>
+      <c r="CP13" s="5"/>
+      <c r="CQ13" s="5"/>
+      <c r="CR13" s="5"/>
+      <c r="CS13" s="5"/>
+      <c r="CT13" s="5"/>
+      <c r="CU13" s="5"/>
+      <c r="CV13" s="5"/>
+      <c r="CW13" s="5"/>
+      <c r="CX13" s="5"/>
+      <c r="CY13" s="5"/>
+      <c r="CZ13" s="5"/>
+      <c r="DA13" s="5"/>
+      <c r="DB13" s="5"/>
+      <c r="DC13" s="5"/>
+      <c r="DD13" s="5"/>
+      <c r="DE13" s="5"/>
+      <c r="DF13" s="5"/>
+      <c r="DG13" s="5"/>
+      <c r="DH13" s="5"/>
+      <c r="DI13" s="5"/>
+      <c r="DJ13" s="5"/>
+      <c r="DK13" s="5"/>
+      <c r="DL13" s="5"/>
+      <c r="DM13" s="5"/>
+      <c r="DN13" s="5"/>
+      <c r="DO13" s="5"/>
+      <c r="DP13" s="5"/>
+      <c r="DQ13" s="5"/>
+      <c r="DR13" s="5"/>
+      <c r="DS13" s="5"/>
+      <c r="DT13" s="5"/>
+      <c r="DU13" s="5"/>
+      <c r="DV13" s="5"/>
+      <c r="DW13" s="5"/>
+      <c r="DX13" s="5"/>
+      <c r="DY13" s="5"/>
+      <c r="DZ13" s="5"/>
+      <c r="EA13" s="5"/>
+      <c r="EB13" s="5"/>
+      <c r="EC13" s="5"/>
+      <c r="ED13" s="5"/>
+      <c r="EE13" s="5"/>
+      <c r="EF13" s="5"/>
+      <c r="EG13" s="5"/>
+      <c r="EH13" s="5"/>
+      <c r="EI13" s="5"/>
+      <c r="EJ13" s="5"/>
+      <c r="EK13" s="5"/>
+      <c r="EL13" s="5"/>
+      <c r="EM13" s="5"/>
+      <c r="EN13" s="5"/>
+      <c r="EO13" s="5"/>
+      <c r="EP13" s="5"/>
+      <c r="EQ13" s="5"/>
+      <c r="ER13" s="5"/>
+      <c r="ES13" s="5"/>
+      <c r="ET13" s="5"/>
+      <c r="EU13" s="5"/>
+      <c r="EV13" s="5"/>
+      <c r="EW13" s="5"/>
+      <c r="EX13" s="5"/>
+      <c r="EY13" s="5"/>
+      <c r="EZ13" s="5"/>
+      <c r="FA13" s="5"/>
+      <c r="FB13" s="5"/>
+      <c r="FC13" s="5"/>
+      <c r="FD13" s="5"/>
+      <c r="FE13" s="5"/>
+      <c r="FF13" s="5"/>
+      <c r="FG13" s="5"/>
+      <c r="FH13" s="5"/>
+      <c r="FI13" s="5"/>
+      <c r="FJ13" s="5"/>
+      <c r="FK13" s="5"/>
+      <c r="FL13" s="5"/>
+      <c r="FM13" s="5"/>
+      <c r="FN13" s="5"/>
+      <c r="FO13" s="5"/>
+      <c r="FP13" s="5"/>
+      <c r="FQ13" s="5"/>
+      <c r="FR13" s="5"/>
+      <c r="FS13" s="5"/>
+      <c r="FT13" s="5"/>
+      <c r="FU13" s="5"/>
+      <c r="FV13" s="5"/>
+      <c r="FW13" s="5"/>
+      <c r="FX13" s="5"/>
+      <c r="FY13" s="5"/>
+      <c r="FZ13" s="5"/>
+      <c r="GA13" s="5"/>
+      <c r="GB13" s="5"/>
+      <c r="GC13" s="5"/>
+      <c r="GD13" s="5"/>
+      <c r="GE13" s="5"/>
+      <c r="GF13" s="5"/>
+      <c r="GG13" s="5"/>
+      <c r="GH13" s="5"/>
+      <c r="GI13" s="5"/>
+      <c r="GJ13" s="5"/>
+      <c r="GK13" s="5"/>
+      <c r="GL13" s="5"/>
+      <c r="GM13" s="5"/>
+      <c r="GN13" s="5"/>
+      <c r="GO13" s="5"/>
+      <c r="GP13" s="5"/>
+      <c r="GQ13" s="5"/>
+      <c r="GR13" s="5"/>
+      <c r="GS13" s="5"/>
+      <c r="GT13" s="5"/>
+      <c r="GU13" s="5"/>
+      <c r="GV13" s="5"/>
+      <c r="GW13" s="5"/>
+      <c r="GX13" s="5"/>
+      <c r="GY13" s="5"/>
+      <c r="GZ13" s="5"/>
+      <c r="HA13" s="5"/>
+      <c r="HB13" s="5"/>
+      <c r="HC13" s="5"/>
+      <c r="HD13" s="5"/>
+      <c r="HE13" s="5"/>
+      <c r="HF13" s="5"/>
+      <c r="HG13" s="5"/>
+      <c r="HH13" s="5"/>
+      <c r="HI13" s="5"/>
+      <c r="HJ13" s="5"/>
+      <c r="HK13" s="5"/>
+      <c r="HL13" s="5"/>
+      <c r="HM13" s="5"/>
+      <c r="HN13" s="5"/>
+      <c r="HO13" s="5"/>
+      <c r="HP13" s="5"/>
+      <c r="HQ13" s="5"/>
+      <c r="HR13" s="5"/>
+      <c r="HS13" s="5"/>
+      <c r="HT13" s="5"/>
+      <c r="HU13" s="5"/>
+      <c r="HV13" s="5"/>
+      <c r="HW13" s="5"/>
+      <c r="HX13" s="5"/>
+      <c r="HY13" s="5"/>
+      <c r="HZ13" s="5"/>
+      <c r="IA13" s="5"/>
+      <c r="IB13" s="5"/>
+      <c r="IC13" s="5"/>
+      <c r="ID13" s="5"/>
+      <c r="IE13" s="5"/>
+      <c r="IF13" s="5"/>
+      <c r="IG13" s="5"/>
+      <c r="IH13" s="5"/>
+      <c r="II13" s="5"/>
+      <c r="IJ13" s="5"/>
+      <c r="IK13" s="5"/>
+      <c r="IL13" s="5"/>
+      <c r="IM13" s="5"/>
+      <c r="IN13" s="5"/>
+      <c r="IO13" s="5"/>
+      <c r="IP13" s="5"/>
+      <c r="IQ13" s="5"/>
+      <c r="IR13" s="5"/>
+      <c r="IS13" s="5"/>
+      <c r="IT13" s="5"/>
+      <c r="IU13" s="5"/>
     </row>
-    <row r="13" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A13" s="30" t="s">
+    <row r="14" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:256" ht="15" x14ac:dyDescent="0.35">
+      <c r="A15" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+    </row>
+    <row r="16" spans="1:256" ht="15" x14ac:dyDescent="0.35">
+      <c r="A16" s="34">
+        <v>1</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+    </row>
+    <row r="18" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A18" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="17"/>
+      <c r="AG18" s="17"/>
+      <c r="AH18" s="17"/>
+      <c r="AI18" s="17"/>
+      <c r="AJ18" s="17"/>
+      <c r="AK18" s="17"/>
+      <c r="AL18" s="17"/>
+      <c r="AM18" s="17"/>
+      <c r="AN18" s="17"/>
+      <c r="AO18" s="17"/>
+      <c r="AP18" s="17"/>
+      <c r="AQ18" s="17"/>
+      <c r="AR18" s="17"/>
+      <c r="AS18" s="17"/>
+      <c r="AT18" s="17"/>
+      <c r="AU18" s="17"/>
+      <c r="AV18" s="17"/>
+      <c r="AW18" s="17"/>
+      <c r="AX18" s="17"/>
+      <c r="AY18" s="17"/>
+      <c r="AZ18" s="17"/>
+      <c r="BA18" s="17"/>
+      <c r="BB18" s="17"/>
+      <c r="BC18" s="17"/>
+      <c r="BD18" s="17"/>
+      <c r="BE18" s="17"/>
+      <c r="BF18" s="17"/>
+      <c r="BG18" s="17"/>
+      <c r="BH18" s="17"/>
+      <c r="BI18" s="17"/>
+      <c r="BJ18" s="17"/>
+      <c r="BK18" s="17"/>
+      <c r="BL18" s="17"/>
+      <c r="BM18" s="17"/>
+      <c r="BN18" s="17"/>
+      <c r="BO18" s="17"/>
+      <c r="BP18" s="17"/>
+      <c r="BQ18" s="17"/>
+      <c r="BR18" s="17"/>
+      <c r="BS18" s="17"/>
+      <c r="BT18" s="17"/>
+      <c r="BU18" s="17"/>
+      <c r="BV18" s="17"/>
+      <c r="BW18" s="17"/>
+      <c r="BX18" s="17"/>
+      <c r="BY18" s="17"/>
+      <c r="BZ18" s="17"/>
+      <c r="CA18" s="17"/>
+      <c r="CB18" s="17"/>
+      <c r="CC18" s="17"/>
+      <c r="CD18" s="17"/>
+      <c r="CE18" s="17"/>
+      <c r="CF18" s="17"/>
+      <c r="CG18" s="17"/>
+      <c r="CH18" s="17"/>
+      <c r="CI18" s="17"/>
+      <c r="CJ18" s="17"/>
+      <c r="CK18" s="17"/>
+      <c r="CL18" s="17"/>
+      <c r="CM18" s="17"/>
+      <c r="CN18" s="17"/>
+      <c r="CO18" s="17"/>
+      <c r="CP18" s="17"/>
+      <c r="CQ18" s="17"/>
+      <c r="CR18" s="17"/>
+      <c r="CS18" s="17"/>
+      <c r="CT18" s="17"/>
+      <c r="CU18" s="17"/>
+      <c r="CV18" s="17"/>
+      <c r="CW18" s="17"/>
+      <c r="CX18" s="17"/>
+      <c r="CY18" s="17"/>
+      <c r="CZ18" s="17"/>
+      <c r="DA18" s="17"/>
+      <c r="DB18" s="17"/>
+      <c r="DC18" s="17"/>
+      <c r="DD18" s="17"/>
+      <c r="DE18" s="17"/>
+      <c r="DF18" s="17"/>
+      <c r="DG18" s="17"/>
+      <c r="DH18" s="17"/>
+      <c r="DI18" s="17"/>
+      <c r="DJ18" s="17"/>
+      <c r="DK18" s="17"/>
+      <c r="DL18" s="17"/>
+      <c r="DM18" s="17"/>
+      <c r="DN18" s="17"/>
+      <c r="DO18" s="17"/>
+      <c r="DP18" s="17"/>
+      <c r="DQ18" s="17"/>
+      <c r="DR18" s="17"/>
+      <c r="DS18" s="17"/>
+      <c r="DT18" s="17"/>
+      <c r="DU18" s="17"/>
+      <c r="DV18" s="17"/>
+      <c r="DW18" s="17"/>
+      <c r="DX18" s="17"/>
+      <c r="DY18" s="17"/>
+      <c r="DZ18" s="17"/>
+      <c r="EA18" s="17"/>
+      <c r="EB18" s="17"/>
+      <c r="EC18" s="17"/>
+      <c r="ED18" s="17"/>
+      <c r="EE18" s="17"/>
+      <c r="EF18" s="17"/>
+      <c r="EG18" s="17"/>
+      <c r="EH18" s="17"/>
+      <c r="EI18" s="17"/>
+      <c r="EJ18" s="17"/>
+      <c r="EK18" s="17"/>
+      <c r="EL18" s="17"/>
+      <c r="EM18" s="17"/>
+      <c r="EN18" s="17"/>
+      <c r="EO18" s="17"/>
+      <c r="EP18" s="17"/>
+      <c r="EQ18" s="17"/>
+      <c r="ER18" s="17"/>
+      <c r="ES18" s="17"/>
+      <c r="ET18" s="17"/>
+      <c r="EU18" s="17"/>
+      <c r="EV18" s="17"/>
+      <c r="EW18" s="17"/>
+      <c r="EX18" s="17"/>
+      <c r="EY18" s="17"/>
+      <c r="EZ18" s="17"/>
+      <c r="FA18" s="17"/>
+      <c r="FB18" s="17"/>
+      <c r="FC18" s="17"/>
+      <c r="FD18" s="17"/>
+      <c r="FE18" s="17"/>
+      <c r="FF18" s="17"/>
+      <c r="FG18" s="17"/>
+      <c r="FH18" s="17"/>
+      <c r="FI18" s="17"/>
+      <c r="FJ18" s="17"/>
+      <c r="FK18" s="17"/>
+      <c r="FL18" s="17"/>
+      <c r="FM18" s="17"/>
+      <c r="FN18" s="17"/>
+      <c r="FO18" s="17"/>
+      <c r="FP18" s="17"/>
+      <c r="FQ18" s="17"/>
+      <c r="FR18" s="17"/>
+      <c r="FS18" s="17"/>
+      <c r="FT18" s="17"/>
+      <c r="FU18" s="17"/>
+      <c r="FV18" s="17"/>
+      <c r="FW18" s="17"/>
+      <c r="FX18" s="17"/>
+      <c r="FY18" s="17"/>
+      <c r="FZ18" s="17"/>
+      <c r="GA18" s="17"/>
+      <c r="GB18" s="17"/>
+      <c r="GC18" s="17"/>
+      <c r="GD18" s="17"/>
+      <c r="GE18" s="17"/>
+      <c r="GF18" s="17"/>
+      <c r="GG18" s="17"/>
+      <c r="GH18" s="17"/>
+      <c r="GI18" s="17"/>
+      <c r="GJ18" s="17"/>
+      <c r="GK18" s="17"/>
+      <c r="GL18" s="17"/>
+      <c r="GM18" s="17"/>
+      <c r="GN18" s="17"/>
+      <c r="GO18" s="17"/>
+      <c r="GP18" s="17"/>
+      <c r="GQ18" s="17"/>
+      <c r="GR18" s="17"/>
+      <c r="GS18" s="17"/>
+      <c r="GT18" s="17"/>
+      <c r="GU18" s="17"/>
+      <c r="GV18" s="17"/>
+      <c r="GW18" s="17"/>
+      <c r="GX18" s="17"/>
+      <c r="GY18" s="17"/>
+      <c r="GZ18" s="17"/>
+      <c r="HA18" s="17"/>
+      <c r="HB18" s="17"/>
+      <c r="HC18" s="17"/>
+      <c r="HD18" s="17"/>
+      <c r="HE18" s="17"/>
+      <c r="HF18" s="17"/>
+      <c r="HG18" s="17"/>
+      <c r="HH18" s="17"/>
+      <c r="HI18" s="17"/>
+      <c r="HJ18" s="17"/>
+      <c r="HK18" s="17"/>
+      <c r="HL18" s="17"/>
+      <c r="HM18" s="17"/>
+      <c r="HN18" s="17"/>
+      <c r="HO18" s="17"/>
+      <c r="HP18" s="17"/>
+      <c r="HQ18" s="17"/>
+      <c r="HR18" s="17"/>
+      <c r="HS18" s="17"/>
+      <c r="HT18" s="17"/>
+      <c r="HU18" s="17"/>
+      <c r="HV18" s="17"/>
+      <c r="HW18" s="17"/>
+      <c r="HX18" s="17"/>
+      <c r="HY18" s="17"/>
+      <c r="HZ18" s="17"/>
+      <c r="IA18" s="17"/>
+      <c r="IB18" s="17"/>
+      <c r="IC18" s="17"/>
+      <c r="ID18" s="17"/>
+      <c r="IE18" s="17"/>
+      <c r="IF18" s="17"/>
+      <c r="IG18" s="17"/>
+      <c r="IH18" s="17"/>
+      <c r="II18" s="17"/>
+      <c r="IJ18" s="17"/>
+      <c r="IK18" s="17"/>
+      <c r="IL18" s="17"/>
+      <c r="IM18" s="17"/>
+      <c r="IN18" s="17"/>
+      <c r="IO18" s="17"/>
+      <c r="IP18" s="17"/>
+      <c r="IQ18" s="17"/>
+      <c r="IR18" s="17"/>
+      <c r="IS18" s="17"/>
+      <c r="IT18" s="17"/>
+      <c r="IU18" s="17"/>
+      <c r="IV18" s="17"/>
+    </row>
+    <row r="19" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A19" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B19" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C19" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="17"/>
-      <c r="AI13" s="17"/>
-      <c r="AJ13" s="17"/>
-      <c r="AK13" s="17"/>
-      <c r="AL13" s="17"/>
-      <c r="AM13" s="17"/>
-      <c r="AN13" s="17"/>
-      <c r="AO13" s="17"/>
-      <c r="AP13" s="17"/>
-      <c r="AQ13" s="17"/>
-      <c r="AR13" s="17"/>
-      <c r="AS13" s="17"/>
-      <c r="AT13" s="17"/>
-      <c r="AU13" s="17"/>
-      <c r="AV13" s="17"/>
-      <c r="AW13" s="17"/>
-      <c r="AX13" s="17"/>
-      <c r="AY13" s="17"/>
-      <c r="AZ13" s="17"/>
-      <c r="BA13" s="17"/>
-      <c r="BB13" s="17"/>
-      <c r="BC13" s="17"/>
-      <c r="BD13" s="17"/>
-      <c r="BE13" s="17"/>
-      <c r="BF13" s="17"/>
-      <c r="BG13" s="17"/>
-      <c r="BH13" s="17"/>
-      <c r="BI13" s="17"/>
-      <c r="BJ13" s="17"/>
-      <c r="BK13" s="17"/>
-      <c r="BL13" s="17"/>
-      <c r="BM13" s="17"/>
-      <c r="BN13" s="17"/>
-      <c r="BO13" s="17"/>
-      <c r="BP13" s="17"/>
-      <c r="BQ13" s="17"/>
-      <c r="BR13" s="17"/>
-      <c r="BS13" s="17"/>
-      <c r="BT13" s="17"/>
-      <c r="BU13" s="17"/>
-      <c r="BV13" s="17"/>
-      <c r="BW13" s="17"/>
-      <c r="BX13" s="17"/>
-      <c r="BY13" s="17"/>
-      <c r="BZ13" s="17"/>
-      <c r="CA13" s="17"/>
-      <c r="CB13" s="17"/>
-      <c r="CC13" s="17"/>
-      <c r="CD13" s="17"/>
-      <c r="CE13" s="17"/>
-      <c r="CF13" s="17"/>
-      <c r="CG13" s="17"/>
-      <c r="CH13" s="17"/>
-      <c r="CI13" s="17"/>
-      <c r="CJ13" s="17"/>
-      <c r="CK13" s="17"/>
-      <c r="CL13" s="17"/>
-      <c r="CM13" s="17"/>
-      <c r="CN13" s="17"/>
-      <c r="CO13" s="17"/>
-      <c r="CP13" s="17"/>
-      <c r="CQ13" s="17"/>
-      <c r="CR13" s="17"/>
-      <c r="CS13" s="17"/>
-      <c r="CT13" s="17"/>
-      <c r="CU13" s="17"/>
-      <c r="CV13" s="17"/>
-      <c r="CW13" s="17"/>
-      <c r="CX13" s="17"/>
-      <c r="CY13" s="17"/>
-      <c r="CZ13" s="17"/>
-      <c r="DA13" s="17"/>
-      <c r="DB13" s="17"/>
-      <c r="DC13" s="17"/>
-      <c r="DD13" s="17"/>
-      <c r="DE13" s="17"/>
-      <c r="DF13" s="17"/>
-      <c r="DG13" s="17"/>
-      <c r="DH13" s="17"/>
-      <c r="DI13" s="17"/>
-      <c r="DJ13" s="17"/>
-      <c r="DK13" s="17"/>
-      <c r="DL13" s="17"/>
-      <c r="DM13" s="17"/>
-      <c r="DN13" s="17"/>
-      <c r="DO13" s="17"/>
-      <c r="DP13" s="17"/>
-      <c r="DQ13" s="17"/>
-      <c r="DR13" s="17"/>
-      <c r="DS13" s="17"/>
-      <c r="DT13" s="17"/>
-      <c r="DU13" s="17"/>
-      <c r="DV13" s="17"/>
-      <c r="DW13" s="17"/>
-      <c r="DX13" s="17"/>
-      <c r="DY13" s="17"/>
-      <c r="DZ13" s="17"/>
-      <c r="EA13" s="17"/>
-      <c r="EB13" s="17"/>
-      <c r="EC13" s="17"/>
-      <c r="ED13" s="17"/>
-      <c r="EE13" s="17"/>
-      <c r="EF13" s="17"/>
-      <c r="EG13" s="17"/>
-      <c r="EH13" s="17"/>
-      <c r="EI13" s="17"/>
-      <c r="EJ13" s="17"/>
-      <c r="EK13" s="17"/>
-      <c r="EL13" s="17"/>
-      <c r="EM13" s="17"/>
-      <c r="EN13" s="17"/>
-      <c r="EO13" s="17"/>
-      <c r="EP13" s="17"/>
-      <c r="EQ13" s="17"/>
-      <c r="ER13" s="17"/>
-      <c r="ES13" s="17"/>
-      <c r="ET13" s="17"/>
-      <c r="EU13" s="17"/>
-      <c r="EV13" s="17"/>
-      <c r="EW13" s="17"/>
-      <c r="EX13" s="17"/>
-      <c r="EY13" s="17"/>
-      <c r="EZ13" s="17"/>
-      <c r="FA13" s="17"/>
-      <c r="FB13" s="17"/>
-      <c r="FC13" s="17"/>
-      <c r="FD13" s="17"/>
-      <c r="FE13" s="17"/>
-      <c r="FF13" s="17"/>
-      <c r="FG13" s="17"/>
-      <c r="FH13" s="17"/>
-      <c r="FI13" s="17"/>
-      <c r="FJ13" s="17"/>
-      <c r="FK13" s="17"/>
-      <c r="FL13" s="17"/>
-      <c r="FM13" s="17"/>
-      <c r="FN13" s="17"/>
-      <c r="FO13" s="17"/>
-      <c r="FP13" s="17"/>
-      <c r="FQ13" s="17"/>
-      <c r="FR13" s="17"/>
-      <c r="FS13" s="17"/>
-      <c r="FT13" s="17"/>
-      <c r="FU13" s="17"/>
-      <c r="FV13" s="17"/>
-      <c r="FW13" s="17"/>
-      <c r="FX13" s="17"/>
-      <c r="FY13" s="17"/>
-      <c r="FZ13" s="17"/>
-      <c r="GA13" s="17"/>
-      <c r="GB13" s="17"/>
-      <c r="GC13" s="17"/>
-      <c r="GD13" s="17"/>
-      <c r="GE13" s="17"/>
-      <c r="GF13" s="17"/>
-      <c r="GG13" s="17"/>
-      <c r="GH13" s="17"/>
-      <c r="GI13" s="17"/>
-      <c r="GJ13" s="17"/>
-      <c r="GK13" s="17"/>
-      <c r="GL13" s="17"/>
-      <c r="GM13" s="17"/>
-      <c r="GN13" s="17"/>
-      <c r="GO13" s="17"/>
-      <c r="GP13" s="17"/>
-      <c r="GQ13" s="17"/>
-      <c r="GR13" s="17"/>
-      <c r="GS13" s="17"/>
-      <c r="GT13" s="17"/>
-      <c r="GU13" s="17"/>
-      <c r="GV13" s="17"/>
-      <c r="GW13" s="17"/>
-      <c r="GX13" s="17"/>
-      <c r="GY13" s="17"/>
-      <c r="GZ13" s="17"/>
-      <c r="HA13" s="17"/>
-      <c r="HB13" s="17"/>
-      <c r="HC13" s="17"/>
-      <c r="HD13" s="17"/>
-      <c r="HE13" s="17"/>
-      <c r="HF13" s="17"/>
-      <c r="HG13" s="17"/>
-      <c r="HH13" s="17"/>
-      <c r="HI13" s="17"/>
-      <c r="HJ13" s="17"/>
-      <c r="HK13" s="17"/>
-      <c r="HL13" s="17"/>
-      <c r="HM13" s="17"/>
-      <c r="HN13" s="17"/>
-      <c r="HO13" s="17"/>
-      <c r="HP13" s="17"/>
-      <c r="HQ13" s="17"/>
-      <c r="HR13" s="17"/>
-      <c r="HS13" s="17"/>
-      <c r="HT13" s="17"/>
-      <c r="HU13" s="17"/>
-      <c r="HV13" s="17"/>
-      <c r="HW13" s="17"/>
-      <c r="HX13" s="17"/>
-      <c r="HY13" s="17"/>
-      <c r="HZ13" s="17"/>
-      <c r="IA13" s="17"/>
-      <c r="IB13" s="17"/>
-      <c r="IC13" s="17"/>
-      <c r="ID13" s="17"/>
-      <c r="IE13" s="17"/>
-      <c r="IF13" s="17"/>
-      <c r="IG13" s="17"/>
-      <c r="IH13" s="17"/>
-      <c r="II13" s="17"/>
-      <c r="IJ13" s="17"/>
-      <c r="IK13" s="17"/>
-      <c r="IL13" s="17"/>
-      <c r="IM13" s="17"/>
-      <c r="IN13" s="17"/>
-      <c r="IO13" s="17"/>
-      <c r="IP13" s="17"/>
-      <c r="IQ13" s="17"/>
-      <c r="IR13" s="17"/>
-      <c r="IS13" s="17"/>
-      <c r="IT13" s="17"/>
-      <c r="IU13" s="17"/>
-      <c r="IV13" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="17"/>
+      <c r="AF19" s="17"/>
+      <c r="AG19" s="17"/>
+      <c r="AH19" s="17"/>
+      <c r="AI19" s="17"/>
+      <c r="AJ19" s="17"/>
+      <c r="AK19" s="17"/>
+      <c r="AL19" s="17"/>
+      <c r="AM19" s="17"/>
+      <c r="AN19" s="17"/>
+      <c r="AO19" s="17"/>
+      <c r="AP19" s="17"/>
+      <c r="AQ19" s="17"/>
+      <c r="AR19" s="17"/>
+      <c r="AS19" s="17"/>
+      <c r="AT19" s="17"/>
+      <c r="AU19" s="17"/>
+      <c r="AV19" s="17"/>
+      <c r="AW19" s="17"/>
+      <c r="AX19" s="17"/>
+      <c r="AY19" s="17"/>
+      <c r="AZ19" s="17"/>
+      <c r="BA19" s="17"/>
+      <c r="BB19" s="17"/>
+      <c r="BC19" s="17"/>
+      <c r="BD19" s="17"/>
+      <c r="BE19" s="17"/>
+      <c r="BF19" s="17"/>
+      <c r="BG19" s="17"/>
+      <c r="BH19" s="17"/>
+      <c r="BI19" s="17"/>
+      <c r="BJ19" s="17"/>
+      <c r="BK19" s="17"/>
+      <c r="BL19" s="17"/>
+      <c r="BM19" s="17"/>
+      <c r="BN19" s="17"/>
+      <c r="BO19" s="17"/>
+      <c r="BP19" s="17"/>
+      <c r="BQ19" s="17"/>
+      <c r="BR19" s="17"/>
+      <c r="BS19" s="17"/>
+      <c r="BT19" s="17"/>
+      <c r="BU19" s="17"/>
+      <c r="BV19" s="17"/>
+      <c r="BW19" s="17"/>
+      <c r="BX19" s="17"/>
+      <c r="BY19" s="17"/>
+      <c r="BZ19" s="17"/>
+      <c r="CA19" s="17"/>
+      <c r="CB19" s="17"/>
+      <c r="CC19" s="17"/>
+      <c r="CD19" s="17"/>
+      <c r="CE19" s="17"/>
+      <c r="CF19" s="17"/>
+      <c r="CG19" s="17"/>
+      <c r="CH19" s="17"/>
+      <c r="CI19" s="17"/>
+      <c r="CJ19" s="17"/>
+      <c r="CK19" s="17"/>
+      <c r="CL19" s="17"/>
+      <c r="CM19" s="17"/>
+      <c r="CN19" s="17"/>
+      <c r="CO19" s="17"/>
+      <c r="CP19" s="17"/>
+      <c r="CQ19" s="17"/>
+      <c r="CR19" s="17"/>
+      <c r="CS19" s="17"/>
+      <c r="CT19" s="17"/>
+      <c r="CU19" s="17"/>
+      <c r="CV19" s="17"/>
+      <c r="CW19" s="17"/>
+      <c r="CX19" s="17"/>
+      <c r="CY19" s="17"/>
+      <c r="CZ19" s="17"/>
+      <c r="DA19" s="17"/>
+      <c r="DB19" s="17"/>
+      <c r="DC19" s="17"/>
+      <c r="DD19" s="17"/>
+      <c r="DE19" s="17"/>
+      <c r="DF19" s="17"/>
+      <c r="DG19" s="17"/>
+      <c r="DH19" s="17"/>
+      <c r="DI19" s="17"/>
+      <c r="DJ19" s="17"/>
+      <c r="DK19" s="17"/>
+      <c r="DL19" s="17"/>
+      <c r="DM19" s="17"/>
+      <c r="DN19" s="17"/>
+      <c r="DO19" s="17"/>
+      <c r="DP19" s="17"/>
+      <c r="DQ19" s="17"/>
+      <c r="DR19" s="17"/>
+      <c r="DS19" s="17"/>
+      <c r="DT19" s="17"/>
+      <c r="DU19" s="17"/>
+      <c r="DV19" s="17"/>
+      <c r="DW19" s="17"/>
+      <c r="DX19" s="17"/>
+      <c r="DY19" s="17"/>
+      <c r="DZ19" s="17"/>
+      <c r="EA19" s="17"/>
+      <c r="EB19" s="17"/>
+      <c r="EC19" s="17"/>
+      <c r="ED19" s="17"/>
+      <c r="EE19" s="17"/>
+      <c r="EF19" s="17"/>
+      <c r="EG19" s="17"/>
+      <c r="EH19" s="17"/>
+      <c r="EI19" s="17"/>
+      <c r="EJ19" s="17"/>
+      <c r="EK19" s="17"/>
+      <c r="EL19" s="17"/>
+      <c r="EM19" s="17"/>
+      <c r="EN19" s="17"/>
+      <c r="EO19" s="17"/>
+      <c r="EP19" s="17"/>
+      <c r="EQ19" s="17"/>
+      <c r="ER19" s="17"/>
+      <c r="ES19" s="17"/>
+      <c r="ET19" s="17"/>
+      <c r="EU19" s="17"/>
+      <c r="EV19" s="17"/>
+      <c r="EW19" s="17"/>
+      <c r="EX19" s="17"/>
+      <c r="EY19" s="17"/>
+      <c r="EZ19" s="17"/>
+      <c r="FA19" s="17"/>
+      <c r="FB19" s="17"/>
+      <c r="FC19" s="17"/>
+      <c r="FD19" s="17"/>
+      <c r="FE19" s="17"/>
+      <c r="FF19" s="17"/>
+      <c r="FG19" s="17"/>
+      <c r="FH19" s="17"/>
+      <c r="FI19" s="17"/>
+      <c r="FJ19" s="17"/>
+      <c r="FK19" s="17"/>
+      <c r="FL19" s="17"/>
+      <c r="FM19" s="17"/>
+      <c r="FN19" s="17"/>
+      <c r="FO19" s="17"/>
+      <c r="FP19" s="17"/>
+      <c r="FQ19" s="17"/>
+      <c r="FR19" s="17"/>
+      <c r="FS19" s="17"/>
+      <c r="FT19" s="17"/>
+      <c r="FU19" s="17"/>
+      <c r="FV19" s="17"/>
+      <c r="FW19" s="17"/>
+      <c r="FX19" s="17"/>
+      <c r="FY19" s="17"/>
+      <c r="FZ19" s="17"/>
+      <c r="GA19" s="17"/>
+      <c r="GB19" s="17"/>
+      <c r="GC19" s="17"/>
+      <c r="GD19" s="17"/>
+      <c r="GE19" s="17"/>
+      <c r="GF19" s="17"/>
+      <c r="GG19" s="17"/>
+      <c r="GH19" s="17"/>
+      <c r="GI19" s="17"/>
+      <c r="GJ19" s="17"/>
+      <c r="GK19" s="17"/>
+      <c r="GL19" s="17"/>
+      <c r="GM19" s="17"/>
+      <c r="GN19" s="17"/>
+      <c r="GO19" s="17"/>
+      <c r="GP19" s="17"/>
+      <c r="GQ19" s="17"/>
+      <c r="GR19" s="17"/>
+      <c r="GS19" s="17"/>
+      <c r="GT19" s="17"/>
+      <c r="GU19" s="17"/>
+      <c r="GV19" s="17"/>
+      <c r="GW19" s="17"/>
+      <c r="GX19" s="17"/>
+      <c r="GY19" s="17"/>
+      <c r="GZ19" s="17"/>
+      <c r="HA19" s="17"/>
+      <c r="HB19" s="17"/>
+      <c r="HC19" s="17"/>
+      <c r="HD19" s="17"/>
+      <c r="HE19" s="17"/>
+      <c r="HF19" s="17"/>
+      <c r="HG19" s="17"/>
+      <c r="HH19" s="17"/>
+      <c r="HI19" s="17"/>
+      <c r="HJ19" s="17"/>
+      <c r="HK19" s="17"/>
+      <c r="HL19" s="17"/>
+      <c r="HM19" s="17"/>
+      <c r="HN19" s="17"/>
+      <c r="HO19" s="17"/>
+      <c r="HP19" s="17"/>
+      <c r="HQ19" s="17"/>
+      <c r="HR19" s="17"/>
+      <c r="HS19" s="17"/>
+      <c r="HT19" s="17"/>
+      <c r="HU19" s="17"/>
+      <c r="HV19" s="17"/>
+      <c r="HW19" s="17"/>
+      <c r="HX19" s="17"/>
+      <c r="HY19" s="17"/>
+      <c r="HZ19" s="17"/>
+      <c r="IA19" s="17"/>
+      <c r="IB19" s="17"/>
+      <c r="IC19" s="17"/>
+      <c r="ID19" s="17"/>
+      <c r="IE19" s="17"/>
+      <c r="IF19" s="17"/>
+      <c r="IG19" s="17"/>
+      <c r="IH19" s="17"/>
+      <c r="II19" s="17"/>
+      <c r="IJ19" s="17"/>
+      <c r="IK19" s="17"/>
+      <c r="IL19" s="17"/>
+      <c r="IM19" s="17"/>
+      <c r="IN19" s="17"/>
+      <c r="IO19" s="17"/>
+      <c r="IP19" s="17"/>
+      <c r="IQ19" s="17"/>
+      <c r="IR19" s="17"/>
+      <c r="IS19" s="17"/>
+      <c r="IT19" s="17"/>
+      <c r="IU19" s="17"/>
+      <c r="IV19" s="17"/>
     </row>
-    <row r="14" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A14" s="43" t="s">
+    <row r="20" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A20" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="17"/>
-      <c r="AC14" s="17"/>
-      <c r="AD14" s="17"/>
-      <c r="AE14" s="17"/>
-      <c r="AF14" s="17"/>
-      <c r="AG14" s="17"/>
-      <c r="AH14" s="17"/>
-      <c r="AI14" s="17"/>
-      <c r="AJ14" s="17"/>
-      <c r="AK14" s="17"/>
-      <c r="AL14" s="17"/>
-      <c r="AM14" s="17"/>
-      <c r="AN14" s="17"/>
-      <c r="AO14" s="17"/>
-      <c r="AP14" s="17"/>
-      <c r="AQ14" s="17"/>
-      <c r="AR14" s="17"/>
-      <c r="AS14" s="17"/>
-      <c r="AT14" s="17"/>
-      <c r="AU14" s="17"/>
-      <c r="AV14" s="17"/>
-      <c r="AW14" s="17"/>
-      <c r="AX14" s="17"/>
-      <c r="AY14" s="17"/>
-      <c r="AZ14" s="17"/>
-      <c r="BA14" s="17"/>
-      <c r="BB14" s="17"/>
-      <c r="BC14" s="17"/>
-      <c r="BD14" s="17"/>
-      <c r="BE14" s="17"/>
-      <c r="BF14" s="17"/>
-      <c r="BG14" s="17"/>
-      <c r="BH14" s="17"/>
-      <c r="BI14" s="17"/>
-      <c r="BJ14" s="17"/>
-      <c r="BK14" s="17"/>
-      <c r="BL14" s="17"/>
-      <c r="BM14" s="17"/>
-      <c r="BN14" s="17"/>
-      <c r="BO14" s="17"/>
-      <c r="BP14" s="17"/>
-      <c r="BQ14" s="17"/>
-      <c r="BR14" s="17"/>
-      <c r="BS14" s="17"/>
-      <c r="BT14" s="17"/>
-      <c r="BU14" s="17"/>
-      <c r="BV14" s="17"/>
-      <c r="BW14" s="17"/>
-      <c r="BX14" s="17"/>
-      <c r="BY14" s="17"/>
-      <c r="BZ14" s="17"/>
-      <c r="CA14" s="17"/>
-      <c r="CB14" s="17"/>
-      <c r="CC14" s="17"/>
-      <c r="CD14" s="17"/>
-      <c r="CE14" s="17"/>
-      <c r="CF14" s="17"/>
-      <c r="CG14" s="17"/>
-      <c r="CH14" s="17"/>
-      <c r="CI14" s="17"/>
-      <c r="CJ14" s="17"/>
-      <c r="CK14" s="17"/>
-      <c r="CL14" s="17"/>
-      <c r="CM14" s="17"/>
-      <c r="CN14" s="17"/>
-      <c r="CO14" s="17"/>
-      <c r="CP14" s="17"/>
-      <c r="CQ14" s="17"/>
-      <c r="CR14" s="17"/>
-      <c r="CS14" s="17"/>
-      <c r="CT14" s="17"/>
-      <c r="CU14" s="17"/>
-      <c r="CV14" s="17"/>
-      <c r="CW14" s="17"/>
-      <c r="CX14" s="17"/>
-      <c r="CY14" s="17"/>
-      <c r="CZ14" s="17"/>
-      <c r="DA14" s="17"/>
-      <c r="DB14" s="17"/>
-      <c r="DC14" s="17"/>
-      <c r="DD14" s="17"/>
-      <c r="DE14" s="17"/>
-      <c r="DF14" s="17"/>
-      <c r="DG14" s="17"/>
-      <c r="DH14" s="17"/>
-      <c r="DI14" s="17"/>
-      <c r="DJ14" s="17"/>
-      <c r="DK14" s="17"/>
-      <c r="DL14" s="17"/>
-      <c r="DM14" s="17"/>
-      <c r="DN14" s="17"/>
-      <c r="DO14" s="17"/>
-      <c r="DP14" s="17"/>
-      <c r="DQ14" s="17"/>
-      <c r="DR14" s="17"/>
-      <c r="DS14" s="17"/>
-      <c r="DT14" s="17"/>
-      <c r="DU14" s="17"/>
-      <c r="DV14" s="17"/>
-      <c r="DW14" s="17"/>
-      <c r="DX14" s="17"/>
-      <c r="DY14" s="17"/>
-      <c r="DZ14" s="17"/>
-      <c r="EA14" s="17"/>
-      <c r="EB14" s="17"/>
-      <c r="EC14" s="17"/>
-      <c r="ED14" s="17"/>
-      <c r="EE14" s="17"/>
-      <c r="EF14" s="17"/>
-      <c r="EG14" s="17"/>
-      <c r="EH14" s="17"/>
-      <c r="EI14" s="17"/>
-      <c r="EJ14" s="17"/>
-      <c r="EK14" s="17"/>
-      <c r="EL14" s="17"/>
-      <c r="EM14" s="17"/>
-      <c r="EN14" s="17"/>
-      <c r="EO14" s="17"/>
-      <c r="EP14" s="17"/>
-      <c r="EQ14" s="17"/>
-      <c r="ER14" s="17"/>
-      <c r="ES14" s="17"/>
-      <c r="ET14" s="17"/>
-      <c r="EU14" s="17"/>
-      <c r="EV14" s="17"/>
-      <c r="EW14" s="17"/>
-      <c r="EX14" s="17"/>
-      <c r="EY14" s="17"/>
-      <c r="EZ14" s="17"/>
-      <c r="FA14" s="17"/>
-      <c r="FB14" s="17"/>
-      <c r="FC14" s="17"/>
-      <c r="FD14" s="17"/>
-      <c r="FE14" s="17"/>
-      <c r="FF14" s="17"/>
-      <c r="FG14" s="17"/>
-      <c r="FH14" s="17"/>
-      <c r="FI14" s="17"/>
-      <c r="FJ14" s="17"/>
-      <c r="FK14" s="17"/>
-      <c r="FL14" s="17"/>
-      <c r="FM14" s="17"/>
-      <c r="FN14" s="17"/>
-      <c r="FO14" s="17"/>
-      <c r="FP14" s="17"/>
-      <c r="FQ14" s="17"/>
-      <c r="FR14" s="17"/>
-      <c r="FS14" s="17"/>
-      <c r="FT14" s="17"/>
-      <c r="FU14" s="17"/>
-      <c r="FV14" s="17"/>
-      <c r="FW14" s="17"/>
-      <c r="FX14" s="17"/>
-      <c r="FY14" s="17"/>
-      <c r="FZ14" s="17"/>
-      <c r="GA14" s="17"/>
-      <c r="GB14" s="17"/>
-      <c r="GC14" s="17"/>
-      <c r="GD14" s="17"/>
-      <c r="GE14" s="17"/>
-      <c r="GF14" s="17"/>
-      <c r="GG14" s="17"/>
-      <c r="GH14" s="17"/>
-      <c r="GI14" s="17"/>
-      <c r="GJ14" s="17"/>
-      <c r="GK14" s="17"/>
-      <c r="GL14" s="17"/>
-      <c r="GM14" s="17"/>
-      <c r="GN14" s="17"/>
-      <c r="GO14" s="17"/>
-      <c r="GP14" s="17"/>
-      <c r="GQ14" s="17"/>
-      <c r="GR14" s="17"/>
-      <c r="GS14" s="17"/>
-      <c r="GT14" s="17"/>
-      <c r="GU14" s="17"/>
-      <c r="GV14" s="17"/>
-      <c r="GW14" s="17"/>
-      <c r="GX14" s="17"/>
-      <c r="GY14" s="17"/>
-      <c r="GZ14" s="17"/>
-      <c r="HA14" s="17"/>
-      <c r="HB14" s="17"/>
-      <c r="HC14" s="17"/>
-      <c r="HD14" s="17"/>
-      <c r="HE14" s="17"/>
-      <c r="HF14" s="17"/>
-      <c r="HG14" s="17"/>
-      <c r="HH14" s="17"/>
-      <c r="HI14" s="17"/>
-      <c r="HJ14" s="17"/>
-      <c r="HK14" s="17"/>
-      <c r="HL14" s="17"/>
-      <c r="HM14" s="17"/>
-      <c r="HN14" s="17"/>
-      <c r="HO14" s="17"/>
-      <c r="HP14" s="17"/>
-      <c r="HQ14" s="17"/>
-      <c r="HR14" s="17"/>
-      <c r="HS14" s="17"/>
-      <c r="HT14" s="17"/>
-      <c r="HU14" s="17"/>
-      <c r="HV14" s="17"/>
-      <c r="HW14" s="17"/>
-      <c r="HX14" s="17"/>
-      <c r="HY14" s="17"/>
-      <c r="HZ14" s="17"/>
-      <c r="IA14" s="17"/>
-      <c r="IB14" s="17"/>
-      <c r="IC14" s="17"/>
-      <c r="ID14" s="17"/>
-      <c r="IE14" s="17"/>
-      <c r="IF14" s="17"/>
-      <c r="IG14" s="17"/>
-      <c r="IH14" s="17"/>
-      <c r="II14" s="17"/>
-      <c r="IJ14" s="17"/>
-      <c r="IK14" s="17"/>
-      <c r="IL14" s="17"/>
-      <c r="IM14" s="17"/>
-      <c r="IN14" s="17"/>
-      <c r="IO14" s="17"/>
-      <c r="IP14" s="17"/>
-      <c r="IQ14" s="17"/>
-      <c r="IR14" s="17"/>
-      <c r="IS14" s="17"/>
-      <c r="IT14" s="17"/>
-      <c r="IU14" s="17"/>
-      <c r="IV14" s="17"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="17"/>
+      <c r="AF20" s="17"/>
+      <c r="AG20" s="17"/>
+      <c r="AH20" s="17"/>
+      <c r="AI20" s="17"/>
+      <c r="AJ20" s="17"/>
+      <c r="AK20" s="17"/>
+      <c r="AL20" s="17"/>
+      <c r="AM20" s="17"/>
+      <c r="AN20" s="17"/>
+      <c r="AO20" s="17"/>
+      <c r="AP20" s="17"/>
+      <c r="AQ20" s="17"/>
+      <c r="AR20" s="17"/>
+      <c r="AS20" s="17"/>
+      <c r="AT20" s="17"/>
+      <c r="AU20" s="17"/>
+      <c r="AV20" s="17"/>
+      <c r="AW20" s="17"/>
+      <c r="AX20" s="17"/>
+      <c r="AY20" s="17"/>
+      <c r="AZ20" s="17"/>
+      <c r="BA20" s="17"/>
+      <c r="BB20" s="17"/>
+      <c r="BC20" s="17"/>
+      <c r="BD20" s="17"/>
+      <c r="BE20" s="17"/>
+      <c r="BF20" s="17"/>
+      <c r="BG20" s="17"/>
+      <c r="BH20" s="17"/>
+      <c r="BI20" s="17"/>
+      <c r="BJ20" s="17"/>
+      <c r="BK20" s="17"/>
+      <c r="BL20" s="17"/>
+      <c r="BM20" s="17"/>
+      <c r="BN20" s="17"/>
+      <c r="BO20" s="17"/>
+      <c r="BP20" s="17"/>
+      <c r="BQ20" s="17"/>
+      <c r="BR20" s="17"/>
+      <c r="BS20" s="17"/>
+      <c r="BT20" s="17"/>
+      <c r="BU20" s="17"/>
+      <c r="BV20" s="17"/>
+      <c r="BW20" s="17"/>
+      <c r="BX20" s="17"/>
+      <c r="BY20" s="17"/>
+      <c r="BZ20" s="17"/>
+      <c r="CA20" s="17"/>
+      <c r="CB20" s="17"/>
+      <c r="CC20" s="17"/>
+      <c r="CD20" s="17"/>
+      <c r="CE20" s="17"/>
+      <c r="CF20" s="17"/>
+      <c r="CG20" s="17"/>
+      <c r="CH20" s="17"/>
+      <c r="CI20" s="17"/>
+      <c r="CJ20" s="17"/>
+      <c r="CK20" s="17"/>
+      <c r="CL20" s="17"/>
+      <c r="CM20" s="17"/>
+      <c r="CN20" s="17"/>
+      <c r="CO20" s="17"/>
+      <c r="CP20" s="17"/>
+      <c r="CQ20" s="17"/>
+      <c r="CR20" s="17"/>
+      <c r="CS20" s="17"/>
+      <c r="CT20" s="17"/>
+      <c r="CU20" s="17"/>
+      <c r="CV20" s="17"/>
+      <c r="CW20" s="17"/>
+      <c r="CX20" s="17"/>
+      <c r="CY20" s="17"/>
+      <c r="CZ20" s="17"/>
+      <c r="DA20" s="17"/>
+      <c r="DB20" s="17"/>
+      <c r="DC20" s="17"/>
+      <c r="DD20" s="17"/>
+      <c r="DE20" s="17"/>
+      <c r="DF20" s="17"/>
+      <c r="DG20" s="17"/>
+      <c r="DH20" s="17"/>
+      <c r="DI20" s="17"/>
+      <c r="DJ20" s="17"/>
+      <c r="DK20" s="17"/>
+      <c r="DL20" s="17"/>
+      <c r="DM20" s="17"/>
+      <c r="DN20" s="17"/>
+      <c r="DO20" s="17"/>
+      <c r="DP20" s="17"/>
+      <c r="DQ20" s="17"/>
+      <c r="DR20" s="17"/>
+      <c r="DS20" s="17"/>
+      <c r="DT20" s="17"/>
+      <c r="DU20" s="17"/>
+      <c r="DV20" s="17"/>
+      <c r="DW20" s="17"/>
+      <c r="DX20" s="17"/>
+      <c r="DY20" s="17"/>
+      <c r="DZ20" s="17"/>
+      <c r="EA20" s="17"/>
+      <c r="EB20" s="17"/>
+      <c r="EC20" s="17"/>
+      <c r="ED20" s="17"/>
+      <c r="EE20" s="17"/>
+      <c r="EF20" s="17"/>
+      <c r="EG20" s="17"/>
+      <c r="EH20" s="17"/>
+      <c r="EI20" s="17"/>
+      <c r="EJ20" s="17"/>
+      <c r="EK20" s="17"/>
+      <c r="EL20" s="17"/>
+      <c r="EM20" s="17"/>
+      <c r="EN20" s="17"/>
+      <c r="EO20" s="17"/>
+      <c r="EP20" s="17"/>
+      <c r="EQ20" s="17"/>
+      <c r="ER20" s="17"/>
+      <c r="ES20" s="17"/>
+      <c r="ET20" s="17"/>
+      <c r="EU20" s="17"/>
+      <c r="EV20" s="17"/>
+      <c r="EW20" s="17"/>
+      <c r="EX20" s="17"/>
+      <c r="EY20" s="17"/>
+      <c r="EZ20" s="17"/>
+      <c r="FA20" s="17"/>
+      <c r="FB20" s="17"/>
+      <c r="FC20" s="17"/>
+      <c r="FD20" s="17"/>
+      <c r="FE20" s="17"/>
+      <c r="FF20" s="17"/>
+      <c r="FG20" s="17"/>
+      <c r="FH20" s="17"/>
+      <c r="FI20" s="17"/>
+      <c r="FJ20" s="17"/>
+      <c r="FK20" s="17"/>
+      <c r="FL20" s="17"/>
+      <c r="FM20" s="17"/>
+      <c r="FN20" s="17"/>
+      <c r="FO20" s="17"/>
+      <c r="FP20" s="17"/>
+      <c r="FQ20" s="17"/>
+      <c r="FR20" s="17"/>
+      <c r="FS20" s="17"/>
+      <c r="FT20" s="17"/>
+      <c r="FU20" s="17"/>
+      <c r="FV20" s="17"/>
+      <c r="FW20" s="17"/>
+      <c r="FX20" s="17"/>
+      <c r="FY20" s="17"/>
+      <c r="FZ20" s="17"/>
+      <c r="GA20" s="17"/>
+      <c r="GB20" s="17"/>
+      <c r="GC20" s="17"/>
+      <c r="GD20" s="17"/>
+      <c r="GE20" s="17"/>
+      <c r="GF20" s="17"/>
+      <c r="GG20" s="17"/>
+      <c r="GH20" s="17"/>
+      <c r="GI20" s="17"/>
+      <c r="GJ20" s="17"/>
+      <c r="GK20" s="17"/>
+      <c r="GL20" s="17"/>
+      <c r="GM20" s="17"/>
+      <c r="GN20" s="17"/>
+      <c r="GO20" s="17"/>
+      <c r="GP20" s="17"/>
+      <c r="GQ20" s="17"/>
+      <c r="GR20" s="17"/>
+      <c r="GS20" s="17"/>
+      <c r="GT20" s="17"/>
+      <c r="GU20" s="17"/>
+      <c r="GV20" s="17"/>
+      <c r="GW20" s="17"/>
+      <c r="GX20" s="17"/>
+      <c r="GY20" s="17"/>
+      <c r="GZ20" s="17"/>
+      <c r="HA20" s="17"/>
+      <c r="HB20" s="17"/>
+      <c r="HC20" s="17"/>
+      <c r="HD20" s="17"/>
+      <c r="HE20" s="17"/>
+      <c r="HF20" s="17"/>
+      <c r="HG20" s="17"/>
+      <c r="HH20" s="17"/>
+      <c r="HI20" s="17"/>
+      <c r="HJ20" s="17"/>
+      <c r="HK20" s="17"/>
+      <c r="HL20" s="17"/>
+      <c r="HM20" s="17"/>
+      <c r="HN20" s="17"/>
+      <c r="HO20" s="17"/>
+      <c r="HP20" s="17"/>
+      <c r="HQ20" s="17"/>
+      <c r="HR20" s="17"/>
+      <c r="HS20" s="17"/>
+      <c r="HT20" s="17"/>
+      <c r="HU20" s="17"/>
+      <c r="HV20" s="17"/>
+      <c r="HW20" s="17"/>
+      <c r="HX20" s="17"/>
+      <c r="HY20" s="17"/>
+      <c r="HZ20" s="17"/>
+      <c r="IA20" s="17"/>
+      <c r="IB20" s="17"/>
+      <c r="IC20" s="17"/>
+      <c r="ID20" s="17"/>
+      <c r="IE20" s="17"/>
+      <c r="IF20" s="17"/>
+      <c r="IG20" s="17"/>
+      <c r="IH20" s="17"/>
+      <c r="II20" s="17"/>
+      <c r="IJ20" s="17"/>
+      <c r="IK20" s="17"/>
+      <c r="IL20" s="17"/>
+      <c r="IM20" s="17"/>
+      <c r="IN20" s="17"/>
+      <c r="IO20" s="17"/>
+      <c r="IP20" s="17"/>
+      <c r="IQ20" s="17"/>
+      <c r="IR20" s="17"/>
+      <c r="IS20" s="17"/>
+      <c r="IT20" s="17"/>
+      <c r="IU20" s="17"/>
+      <c r="IV20" s="17"/>
     </row>
-    <row r="15" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A15" s="53"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="17"/>
-      <c r="AB15" s="17"/>
-      <c r="AC15" s="17"/>
-      <c r="AD15" s="17"/>
-      <c r="AE15" s="17"/>
-      <c r="AF15" s="17"/>
-      <c r="AG15" s="17"/>
-      <c r="AH15" s="17"/>
-      <c r="AI15" s="17"/>
-      <c r="AJ15" s="17"/>
-      <c r="AK15" s="17"/>
-      <c r="AL15" s="17"/>
-      <c r="AM15" s="17"/>
-      <c r="AN15" s="17"/>
-      <c r="AO15" s="17"/>
-      <c r="AP15" s="17"/>
-      <c r="AQ15" s="17"/>
-      <c r="AR15" s="17"/>
-      <c r="AS15" s="17"/>
-      <c r="AT15" s="17"/>
-      <c r="AU15" s="17"/>
-      <c r="AV15" s="17"/>
-      <c r="AW15" s="17"/>
-      <c r="AX15" s="17"/>
-      <c r="AY15" s="17"/>
-      <c r="AZ15" s="17"/>
-      <c r="BA15" s="17"/>
-      <c r="BB15" s="17"/>
-      <c r="BC15" s="17"/>
-      <c r="BD15" s="17"/>
-      <c r="BE15" s="17"/>
-      <c r="BF15" s="17"/>
-      <c r="BG15" s="17"/>
-      <c r="BH15" s="17"/>
-      <c r="BI15" s="17"/>
-      <c r="BJ15" s="17"/>
-      <c r="BK15" s="17"/>
-      <c r="BL15" s="17"/>
-      <c r="BM15" s="17"/>
-      <c r="BN15" s="17"/>
-      <c r="BO15" s="17"/>
-      <c r="BP15" s="17"/>
-      <c r="BQ15" s="17"/>
-      <c r="BR15" s="17"/>
-      <c r="BS15" s="17"/>
-      <c r="BT15" s="17"/>
-      <c r="BU15" s="17"/>
-      <c r="BV15" s="17"/>
-      <c r="BW15" s="17"/>
-      <c r="BX15" s="17"/>
-      <c r="BY15" s="17"/>
-      <c r="BZ15" s="17"/>
-      <c r="CA15" s="17"/>
-      <c r="CB15" s="17"/>
-      <c r="CC15" s="17"/>
-      <c r="CD15" s="17"/>
-      <c r="CE15" s="17"/>
-      <c r="CF15" s="17"/>
-      <c r="CG15" s="17"/>
-      <c r="CH15" s="17"/>
-      <c r="CI15" s="17"/>
-      <c r="CJ15" s="17"/>
-      <c r="CK15" s="17"/>
-      <c r="CL15" s="17"/>
-      <c r="CM15" s="17"/>
-      <c r="CN15" s="17"/>
-      <c r="CO15" s="17"/>
-      <c r="CP15" s="17"/>
-      <c r="CQ15" s="17"/>
-      <c r="CR15" s="17"/>
-      <c r="CS15" s="17"/>
-      <c r="CT15" s="17"/>
-      <c r="CU15" s="17"/>
-      <c r="CV15" s="17"/>
-      <c r="CW15" s="17"/>
-      <c r="CX15" s="17"/>
-      <c r="CY15" s="17"/>
-      <c r="CZ15" s="17"/>
-      <c r="DA15" s="17"/>
-      <c r="DB15" s="17"/>
-      <c r="DC15" s="17"/>
-      <c r="DD15" s="17"/>
-      <c r="DE15" s="17"/>
-      <c r="DF15" s="17"/>
-      <c r="DG15" s="17"/>
-      <c r="DH15" s="17"/>
-      <c r="DI15" s="17"/>
-      <c r="DJ15" s="17"/>
-      <c r="DK15" s="17"/>
-      <c r="DL15" s="17"/>
-      <c r="DM15" s="17"/>
-      <c r="DN15" s="17"/>
-      <c r="DO15" s="17"/>
-      <c r="DP15" s="17"/>
-      <c r="DQ15" s="17"/>
-      <c r="DR15" s="17"/>
-      <c r="DS15" s="17"/>
-      <c r="DT15" s="17"/>
-      <c r="DU15" s="17"/>
-      <c r="DV15" s="17"/>
-      <c r="DW15" s="17"/>
-      <c r="DX15" s="17"/>
-      <c r="DY15" s="17"/>
-      <c r="DZ15" s="17"/>
-      <c r="EA15" s="17"/>
-      <c r="EB15" s="17"/>
-      <c r="EC15" s="17"/>
-      <c r="ED15" s="17"/>
-      <c r="EE15" s="17"/>
-      <c r="EF15" s="17"/>
-      <c r="EG15" s="17"/>
-      <c r="EH15" s="17"/>
-      <c r="EI15" s="17"/>
-      <c r="EJ15" s="17"/>
-      <c r="EK15" s="17"/>
-      <c r="EL15" s="17"/>
-      <c r="EM15" s="17"/>
-      <c r="EN15" s="17"/>
-      <c r="EO15" s="17"/>
-      <c r="EP15" s="17"/>
-      <c r="EQ15" s="17"/>
-      <c r="ER15" s="17"/>
-      <c r="ES15" s="17"/>
-      <c r="ET15" s="17"/>
-      <c r="EU15" s="17"/>
-      <c r="EV15" s="17"/>
-      <c r="EW15" s="17"/>
-      <c r="EX15" s="17"/>
-      <c r="EY15" s="17"/>
-      <c r="EZ15" s="17"/>
-      <c r="FA15" s="17"/>
-      <c r="FB15" s="17"/>
-      <c r="FC15" s="17"/>
-      <c r="FD15" s="17"/>
-      <c r="FE15" s="17"/>
-      <c r="FF15" s="17"/>
-      <c r="FG15" s="17"/>
-      <c r="FH15" s="17"/>
-      <c r="FI15" s="17"/>
-      <c r="FJ15" s="17"/>
-      <c r="FK15" s="17"/>
-      <c r="FL15" s="17"/>
-      <c r="FM15" s="17"/>
-      <c r="FN15" s="17"/>
-      <c r="FO15" s="17"/>
-      <c r="FP15" s="17"/>
-      <c r="FQ15" s="17"/>
-      <c r="FR15" s="17"/>
-      <c r="FS15" s="17"/>
-      <c r="FT15" s="17"/>
-      <c r="FU15" s="17"/>
-      <c r="FV15" s="17"/>
-      <c r="FW15" s="17"/>
-      <c r="FX15" s="17"/>
-      <c r="FY15" s="17"/>
-      <c r="FZ15" s="17"/>
-      <c r="GA15" s="17"/>
-      <c r="GB15" s="17"/>
-      <c r="GC15" s="17"/>
-      <c r="GD15" s="17"/>
-      <c r="GE15" s="17"/>
-      <c r="GF15" s="17"/>
-      <c r="GG15" s="17"/>
-      <c r="GH15" s="17"/>
-      <c r="GI15" s="17"/>
-      <c r="GJ15" s="17"/>
-      <c r="GK15" s="17"/>
-      <c r="GL15" s="17"/>
-      <c r="GM15" s="17"/>
-      <c r="GN15" s="17"/>
-      <c r="GO15" s="17"/>
-      <c r="GP15" s="17"/>
-      <c r="GQ15" s="17"/>
-      <c r="GR15" s="17"/>
-      <c r="GS15" s="17"/>
-      <c r="GT15" s="17"/>
-      <c r="GU15" s="17"/>
-      <c r="GV15" s="17"/>
-      <c r="GW15" s="17"/>
-      <c r="GX15" s="17"/>
-      <c r="GY15" s="17"/>
-      <c r="GZ15" s="17"/>
-      <c r="HA15" s="17"/>
-      <c r="HB15" s="17"/>
-      <c r="HC15" s="17"/>
-      <c r="HD15" s="17"/>
-      <c r="HE15" s="17"/>
-      <c r="HF15" s="17"/>
-      <c r="HG15" s="17"/>
-      <c r="HH15" s="17"/>
-      <c r="HI15" s="17"/>
-      <c r="HJ15" s="17"/>
-      <c r="HK15" s="17"/>
-      <c r="HL15" s="17"/>
-      <c r="HM15" s="17"/>
-      <c r="HN15" s="17"/>
-      <c r="HO15" s="17"/>
-      <c r="HP15" s="17"/>
-      <c r="HQ15" s="17"/>
-      <c r="HR15" s="17"/>
-      <c r="HS15" s="17"/>
-      <c r="HT15" s="17"/>
-      <c r="HU15" s="17"/>
-      <c r="HV15" s="17"/>
-      <c r="HW15" s="17"/>
-      <c r="HX15" s="17"/>
-      <c r="HY15" s="17"/>
-      <c r="HZ15" s="17"/>
-      <c r="IA15" s="17"/>
-      <c r="IB15" s="17"/>
-      <c r="IC15" s="17"/>
-      <c r="ID15" s="17"/>
-      <c r="IE15" s="17"/>
-      <c r="IF15" s="17"/>
-      <c r="IG15" s="17"/>
-      <c r="IH15" s="17"/>
-      <c r="II15" s="17"/>
-      <c r="IJ15" s="17"/>
-      <c r="IK15" s="17"/>
-      <c r="IL15" s="17"/>
-      <c r="IM15" s="17"/>
-      <c r="IN15" s="17"/>
-      <c r="IO15" s="17"/>
-      <c r="IP15" s="17"/>
-      <c r="IQ15" s="17"/>
-      <c r="IR15" s="17"/>
-      <c r="IS15" s="17"/>
-      <c r="IT15" s="17"/>
-      <c r="IU15" s="17"/>
-      <c r="IV15" s="17"/>
+    <row r="21" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A21" s="53"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
+      <c r="AG21" s="17"/>
+      <c r="AH21" s="17"/>
+      <c r="AI21" s="17"/>
+      <c r="AJ21" s="17"/>
+      <c r="AK21" s="17"/>
+      <c r="AL21" s="17"/>
+      <c r="AM21" s="17"/>
+      <c r="AN21" s="17"/>
+      <c r="AO21" s="17"/>
+      <c r="AP21" s="17"/>
+      <c r="AQ21" s="17"/>
+      <c r="AR21" s="17"/>
+      <c r="AS21" s="17"/>
+      <c r="AT21" s="17"/>
+      <c r="AU21" s="17"/>
+      <c r="AV21" s="17"/>
+      <c r="AW21" s="17"/>
+      <c r="AX21" s="17"/>
+      <c r="AY21" s="17"/>
+      <c r="AZ21" s="17"/>
+      <c r="BA21" s="17"/>
+      <c r="BB21" s="17"/>
+      <c r="BC21" s="17"/>
+      <c r="BD21" s="17"/>
+      <c r="BE21" s="17"/>
+      <c r="BF21" s="17"/>
+      <c r="BG21" s="17"/>
+      <c r="BH21" s="17"/>
+      <c r="BI21" s="17"/>
+      <c r="BJ21" s="17"/>
+      <c r="BK21" s="17"/>
+      <c r="BL21" s="17"/>
+      <c r="BM21" s="17"/>
+      <c r="BN21" s="17"/>
+      <c r="BO21" s="17"/>
+      <c r="BP21" s="17"/>
+      <c r="BQ21" s="17"/>
+      <c r="BR21" s="17"/>
+      <c r="BS21" s="17"/>
+      <c r="BT21" s="17"/>
+      <c r="BU21" s="17"/>
+      <c r="BV21" s="17"/>
+      <c r="BW21" s="17"/>
+      <c r="BX21" s="17"/>
+      <c r="BY21" s="17"/>
+      <c r="BZ21" s="17"/>
+      <c r="CA21" s="17"/>
+      <c r="CB21" s="17"/>
+      <c r="CC21" s="17"/>
+      <c r="CD21" s="17"/>
+      <c r="CE21" s="17"/>
+      <c r="CF21" s="17"/>
+      <c r="CG21" s="17"/>
+      <c r="CH21" s="17"/>
+      <c r="CI21" s="17"/>
+      <c r="CJ21" s="17"/>
+      <c r="CK21" s="17"/>
+      <c r="CL21" s="17"/>
+      <c r="CM21" s="17"/>
+      <c r="CN21" s="17"/>
+      <c r="CO21" s="17"/>
+      <c r="CP21" s="17"/>
+      <c r="CQ21" s="17"/>
+      <c r="CR21" s="17"/>
+      <c r="CS21" s="17"/>
+      <c r="CT21" s="17"/>
+      <c r="CU21" s="17"/>
+      <c r="CV21" s="17"/>
+      <c r="CW21" s="17"/>
+      <c r="CX21" s="17"/>
+      <c r="CY21" s="17"/>
+      <c r="CZ21" s="17"/>
+      <c r="DA21" s="17"/>
+      <c r="DB21" s="17"/>
+      <c r="DC21" s="17"/>
+      <c r="DD21" s="17"/>
+      <c r="DE21" s="17"/>
+      <c r="DF21" s="17"/>
+      <c r="DG21" s="17"/>
+      <c r="DH21" s="17"/>
+      <c r="DI21" s="17"/>
+      <c r="DJ21" s="17"/>
+      <c r="DK21" s="17"/>
+      <c r="DL21" s="17"/>
+      <c r="DM21" s="17"/>
+      <c r="DN21" s="17"/>
+      <c r="DO21" s="17"/>
+      <c r="DP21" s="17"/>
+      <c r="DQ21" s="17"/>
+      <c r="DR21" s="17"/>
+      <c r="DS21" s="17"/>
+      <c r="DT21" s="17"/>
+      <c r="DU21" s="17"/>
+      <c r="DV21" s="17"/>
+      <c r="DW21" s="17"/>
+      <c r="DX21" s="17"/>
+      <c r="DY21" s="17"/>
+      <c r="DZ21" s="17"/>
+      <c r="EA21" s="17"/>
+      <c r="EB21" s="17"/>
+      <c r="EC21" s="17"/>
+      <c r="ED21" s="17"/>
+      <c r="EE21" s="17"/>
+      <c r="EF21" s="17"/>
+      <c r="EG21" s="17"/>
+      <c r="EH21" s="17"/>
+      <c r="EI21" s="17"/>
+      <c r="EJ21" s="17"/>
+      <c r="EK21" s="17"/>
+      <c r="EL21" s="17"/>
+      <c r="EM21" s="17"/>
+      <c r="EN21" s="17"/>
+      <c r="EO21" s="17"/>
+      <c r="EP21" s="17"/>
+      <c r="EQ21" s="17"/>
+      <c r="ER21" s="17"/>
+      <c r="ES21" s="17"/>
+      <c r="ET21" s="17"/>
+      <c r="EU21" s="17"/>
+      <c r="EV21" s="17"/>
+      <c r="EW21" s="17"/>
+      <c r="EX21" s="17"/>
+      <c r="EY21" s="17"/>
+      <c r="EZ21" s="17"/>
+      <c r="FA21" s="17"/>
+      <c r="FB21" s="17"/>
+      <c r="FC21" s="17"/>
+      <c r="FD21" s="17"/>
+      <c r="FE21" s="17"/>
+      <c r="FF21" s="17"/>
+      <c r="FG21" s="17"/>
+      <c r="FH21" s="17"/>
+      <c r="FI21" s="17"/>
+      <c r="FJ21" s="17"/>
+      <c r="FK21" s="17"/>
+      <c r="FL21" s="17"/>
+      <c r="FM21" s="17"/>
+      <c r="FN21" s="17"/>
+      <c r="FO21" s="17"/>
+      <c r="FP21" s="17"/>
+      <c r="FQ21" s="17"/>
+      <c r="FR21" s="17"/>
+      <c r="FS21" s="17"/>
+      <c r="FT21" s="17"/>
+      <c r="FU21" s="17"/>
+      <c r="FV21" s="17"/>
+      <c r="FW21" s="17"/>
+      <c r="FX21" s="17"/>
+      <c r="FY21" s="17"/>
+      <c r="FZ21" s="17"/>
+      <c r="GA21" s="17"/>
+      <c r="GB21" s="17"/>
+      <c r="GC21" s="17"/>
+      <c r="GD21" s="17"/>
+      <c r="GE21" s="17"/>
+      <c r="GF21" s="17"/>
+      <c r="GG21" s="17"/>
+      <c r="GH21" s="17"/>
+      <c r="GI21" s="17"/>
+      <c r="GJ21" s="17"/>
+      <c r="GK21" s="17"/>
+      <c r="GL21" s="17"/>
+      <c r="GM21" s="17"/>
+      <c r="GN21" s="17"/>
+      <c r="GO21" s="17"/>
+      <c r="GP21" s="17"/>
+      <c r="GQ21" s="17"/>
+      <c r="GR21" s="17"/>
+      <c r="GS21" s="17"/>
+      <c r="GT21" s="17"/>
+      <c r="GU21" s="17"/>
+      <c r="GV21" s="17"/>
+      <c r="GW21" s="17"/>
+      <c r="GX21" s="17"/>
+      <c r="GY21" s="17"/>
+      <c r="GZ21" s="17"/>
+      <c r="HA21" s="17"/>
+      <c r="HB21" s="17"/>
+      <c r="HC21" s="17"/>
+      <c r="HD21" s="17"/>
+      <c r="HE21" s="17"/>
+      <c r="HF21" s="17"/>
+      <c r="HG21" s="17"/>
+      <c r="HH21" s="17"/>
+      <c r="HI21" s="17"/>
+      <c r="HJ21" s="17"/>
+      <c r="HK21" s="17"/>
+      <c r="HL21" s="17"/>
+      <c r="HM21" s="17"/>
+      <c r="HN21" s="17"/>
+      <c r="HO21" s="17"/>
+      <c r="HP21" s="17"/>
+      <c r="HQ21" s="17"/>
+      <c r="HR21" s="17"/>
+      <c r="HS21" s="17"/>
+      <c r="HT21" s="17"/>
+      <c r="HU21" s="17"/>
+      <c r="HV21" s="17"/>
+      <c r="HW21" s="17"/>
+      <c r="HX21" s="17"/>
+      <c r="HY21" s="17"/>
+      <c r="HZ21" s="17"/>
+      <c r="IA21" s="17"/>
+      <c r="IB21" s="17"/>
+      <c r="IC21" s="17"/>
+      <c r="ID21" s="17"/>
+      <c r="IE21" s="17"/>
+      <c r="IF21" s="17"/>
+      <c r="IG21" s="17"/>
+      <c r="IH21" s="17"/>
+      <c r="II21" s="17"/>
+      <c r="IJ21" s="17"/>
+      <c r="IK21" s="17"/>
+      <c r="IL21" s="17"/>
+      <c r="IM21" s="17"/>
+      <c r="IN21" s="17"/>
+      <c r="IO21" s="17"/>
+      <c r="IP21" s="17"/>
+      <c r="IQ21" s="17"/>
+      <c r="IR21" s="17"/>
+      <c r="IS21" s="17"/>
+      <c r="IT21" s="17"/>
+      <c r="IU21" s="17"/>
+      <c r="IV21" s="17"/>
     </row>
-    <row r="17" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="5"/>
-      <c r="AF17" s="5"/>
-      <c r="AG17" s="5"/>
-      <c r="AH17" s="5"/>
-      <c r="AI17" s="5"/>
-      <c r="AJ17" s="5"/>
-      <c r="AK17" s="5"/>
-      <c r="AL17" s="5"/>
-      <c r="AM17" s="5"/>
-      <c r="AN17" s="5"/>
-      <c r="AO17" s="5"/>
-      <c r="AP17" s="5"/>
-      <c r="AQ17" s="5"/>
-      <c r="AR17" s="5"/>
-      <c r="AS17" s="5"/>
-      <c r="AT17" s="5"/>
-      <c r="AU17" s="5"/>
-      <c r="AV17" s="5"/>
-      <c r="AW17" s="5"/>
-      <c r="AX17" s="5"/>
-      <c r="AY17" s="5"/>
-      <c r="AZ17" s="5"/>
-      <c r="BA17" s="5"/>
-      <c r="BB17" s="5"/>
-      <c r="BC17" s="5"/>
-      <c r="BD17" s="5"/>
-      <c r="BE17" s="5"/>
-      <c r="BF17" s="5"/>
-      <c r="BG17" s="5"/>
-      <c r="BH17" s="5"/>
-      <c r="BI17" s="5"/>
-      <c r="BJ17" s="5"/>
-      <c r="BK17" s="5"/>
-      <c r="BL17" s="5"/>
-      <c r="BM17" s="5"/>
-      <c r="BN17" s="5"/>
-      <c r="BO17" s="5"/>
-      <c r="BP17" s="5"/>
-      <c r="BQ17" s="5"/>
-      <c r="BR17" s="5"/>
-      <c r="BS17" s="5"/>
-      <c r="BT17" s="5"/>
-      <c r="BU17" s="5"/>
-      <c r="BV17" s="5"/>
-      <c r="BW17" s="5"/>
-      <c r="BX17" s="5"/>
-      <c r="BY17" s="5"/>
-      <c r="BZ17" s="5"/>
-      <c r="CA17" s="5"/>
-      <c r="CB17" s="5"/>
-      <c r="CC17" s="5"/>
-      <c r="CD17" s="5"/>
-      <c r="CE17" s="5"/>
-      <c r="CF17" s="5"/>
-      <c r="CG17" s="5"/>
-      <c r="CH17" s="5"/>
-      <c r="CI17" s="5"/>
-      <c r="CJ17" s="5"/>
-      <c r="CK17" s="5"/>
-      <c r="CL17" s="5"/>
-      <c r="CM17" s="5"/>
-      <c r="CN17" s="5"/>
-      <c r="CO17" s="5"/>
-      <c r="CP17" s="5"/>
-      <c r="CQ17" s="5"/>
-      <c r="CR17" s="5"/>
-      <c r="CS17" s="5"/>
-      <c r="CT17" s="5"/>
-      <c r="CU17" s="5"/>
-      <c r="CV17" s="5"/>
-      <c r="CW17" s="5"/>
-      <c r="CX17" s="5"/>
-      <c r="CY17" s="5"/>
-      <c r="CZ17" s="5"/>
-      <c r="DA17" s="5"/>
-      <c r="DB17" s="5"/>
-      <c r="DC17" s="5"/>
-      <c r="DD17" s="5"/>
-      <c r="DE17" s="5"/>
-      <c r="DF17" s="5"/>
-      <c r="DG17" s="5"/>
-      <c r="DH17" s="5"/>
-      <c r="DI17" s="5"/>
-      <c r="DJ17" s="5"/>
-      <c r="DK17" s="5"/>
-      <c r="DL17" s="5"/>
-      <c r="DM17" s="5"/>
-      <c r="DN17" s="5"/>
-      <c r="DO17" s="5"/>
-      <c r="DP17" s="5"/>
-      <c r="DQ17" s="5"/>
-      <c r="DR17" s="5"/>
-      <c r="DS17" s="5"/>
-      <c r="DT17" s="5"/>
-      <c r="DU17" s="5"/>
-      <c r="DV17" s="5"/>
-      <c r="DW17" s="5"/>
-      <c r="DX17" s="5"/>
-      <c r="DY17" s="5"/>
-      <c r="DZ17" s="5"/>
-      <c r="EA17" s="5"/>
-      <c r="EB17" s="5"/>
-      <c r="EC17" s="5"/>
-      <c r="ED17" s="5"/>
-      <c r="EE17" s="5"/>
-      <c r="EF17" s="5"/>
-      <c r="EG17" s="5"/>
-      <c r="EH17" s="5"/>
-      <c r="EI17" s="5"/>
-      <c r="EJ17" s="5"/>
-      <c r="EK17" s="5"/>
-      <c r="EL17" s="5"/>
-      <c r="EM17" s="5"/>
-      <c r="EN17" s="5"/>
-      <c r="EO17" s="5"/>
-      <c r="EP17" s="5"/>
-      <c r="EQ17" s="5"/>
-      <c r="ER17" s="5"/>
-      <c r="ES17" s="5"/>
-      <c r="ET17" s="5"/>
-      <c r="EU17" s="5"/>
-      <c r="EV17" s="5"/>
-      <c r="EW17" s="5"/>
-      <c r="EX17" s="5"/>
-      <c r="EY17" s="5"/>
-      <c r="EZ17" s="5"/>
-      <c r="FA17" s="5"/>
-      <c r="FB17" s="5"/>
-      <c r="FC17" s="5"/>
-      <c r="FD17" s="5"/>
-      <c r="FE17" s="5"/>
-      <c r="FF17" s="5"/>
-      <c r="FG17" s="5"/>
-      <c r="FH17" s="5"/>
-      <c r="FI17" s="5"/>
-      <c r="FJ17" s="5"/>
-      <c r="FK17" s="5"/>
-      <c r="FL17" s="5"/>
-      <c r="FM17" s="5"/>
-      <c r="FN17" s="5"/>
-      <c r="FO17" s="5"/>
-      <c r="FP17" s="5"/>
-      <c r="FQ17" s="5"/>
-      <c r="FR17" s="5"/>
-      <c r="FS17" s="5"/>
-      <c r="FT17" s="5"/>
-      <c r="FU17" s="5"/>
-      <c r="FV17" s="5"/>
-      <c r="FW17" s="5"/>
-      <c r="FX17" s="5"/>
-      <c r="FY17" s="5"/>
-      <c r="FZ17" s="5"/>
-      <c r="GA17" s="5"/>
-      <c r="GB17" s="5"/>
-      <c r="GC17" s="5"/>
-      <c r="GD17" s="5"/>
-      <c r="GE17" s="5"/>
-      <c r="GF17" s="5"/>
-      <c r="GG17" s="5"/>
-      <c r="GH17" s="5"/>
-      <c r="GI17" s="5"/>
-      <c r="GJ17" s="5"/>
-      <c r="GK17" s="5"/>
-      <c r="GL17" s="5"/>
-      <c r="GM17" s="5"/>
-      <c r="GN17" s="5"/>
-      <c r="GO17" s="5"/>
-      <c r="GP17" s="5"/>
-      <c r="GQ17" s="5"/>
-      <c r="GR17" s="5"/>
-      <c r="GS17" s="5"/>
-      <c r="GT17" s="5"/>
-      <c r="GU17" s="5"/>
-      <c r="GV17" s="5"/>
-      <c r="GW17" s="5"/>
-      <c r="GX17" s="5"/>
-      <c r="GY17" s="5"/>
-      <c r="GZ17" s="5"/>
-      <c r="HA17" s="5"/>
-      <c r="HB17" s="5"/>
-      <c r="HC17" s="5"/>
-      <c r="HD17" s="5"/>
-      <c r="HE17" s="5"/>
-      <c r="HF17" s="5"/>
-      <c r="HG17" s="5"/>
-      <c r="HH17" s="5"/>
-      <c r="HI17" s="5"/>
-      <c r="HJ17" s="5"/>
-      <c r="HK17" s="5"/>
-      <c r="HL17" s="5"/>
-      <c r="HM17" s="5"/>
-      <c r="HN17" s="5"/>
-      <c r="HO17" s="5"/>
-      <c r="HP17" s="5"/>
-      <c r="HQ17" s="5"/>
-      <c r="HR17" s="5"/>
-      <c r="HS17" s="5"/>
-      <c r="HT17" s="5"/>
-      <c r="HU17" s="5"/>
-      <c r="HV17" s="5"/>
-      <c r="HW17" s="5"/>
-      <c r="HX17" s="5"/>
-      <c r="HY17" s="5"/>
-      <c r="HZ17" s="5"/>
-      <c r="IA17" s="5"/>
-      <c r="IB17" s="5"/>
-      <c r="IC17" s="5"/>
-      <c r="ID17" s="5"/>
-      <c r="IE17" s="5"/>
-      <c r="IF17" s="5"/>
-      <c r="IG17" s="5"/>
-      <c r="IH17" s="5"/>
-      <c r="II17" s="5"/>
-      <c r="IJ17" s="5"/>
-      <c r="IK17" s="5"/>
-      <c r="IL17" s="5"/>
-      <c r="IM17" s="5"/>
-      <c r="IN17" s="5"/>
-      <c r="IO17" s="5"/>
-      <c r="IP17" s="5"/>
-      <c r="IQ17" s="5"/>
-      <c r="IR17" s="5"/>
-      <c r="IS17" s="5"/>
-      <c r="IT17" s="5"/>
-      <c r="IU17" s="5"/>
-    </row>
-    <row r="18" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:255" ht="15" x14ac:dyDescent="0.35">
-      <c r="A19" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:255" ht="15" x14ac:dyDescent="0.35">
-      <c r="A20" s="34">
-        <v>1</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20" s="46"/>
-      <c r="D20" s="47"/>
-    </row>
-    <row r="22" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>60</v>
       </c>
@@ -27133,7 +27117,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -27150,7 +27134,7 @@
       <c r="G4" s="36"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -27680,7 +27664,9 @@
       <c r="B9" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="37" t="s">
+        <v>160</v>
+      </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -27942,7 +27928,9 @@
       <c r="B10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="18" t="s">
+        <v>244</v>
+      </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -28892,34 +28880,34 @@
         <v>8</v>
       </c>
       <c r="B19" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="H19" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C19" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="F19" s="30" t="s">
+      <c r="I19" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="J19" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="G19" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="H19" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="I19" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="J19" s="30" t="s">
+      <c r="K19" s="30" t="s">
         <v>236</v>
-      </c>
-      <c r="K19" s="30" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:256" ht="15" x14ac:dyDescent="0.35">
@@ -28927,34 +28915,34 @@
         <v>1</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C20" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="H20" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20" s="36" t="s">
+      <c r="I20" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="J20" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="K20" s="36" t="s">
         <v>238</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>239</v>
-      </c>
-      <c r="G20" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="H20" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="I20" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="J20" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="K20" s="36" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -29218,7 +29206,7 @@
     </row>
     <row r="23" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
@@ -29475,7 +29463,7 @@
     </row>
     <row r="24" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -29743,7 +29731,7 @@
         <v>44</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
@@ -30780,10 +30768,10 @@
     </row>
     <row r="30" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B30" s="52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
@@ -31040,10 +31028,10 @@
     </row>
     <row r="31" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B31" s="52" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
@@ -32077,7 +32065,7 @@
         <v>53</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
@@ -32337,7 +32325,7 @@
         <v>54</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
@@ -32597,7 +32585,7 @@
         <v>55</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
@@ -32857,7 +32845,7 @@
         <v>56</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E38" s="19"/>
       <c r="F38" s="19"/>
@@ -33374,7 +33362,7 @@
     </row>
     <row r="41" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -33642,7 +33630,7 @@
         <v>44</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E43" s="19"/>
       <c r="F43" s="19"/>
@@ -34682,7 +34670,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E47" s="19"/>
       <c r="F47" s="19"/>
@@ -34942,7 +34930,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="52" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="19"/>
@@ -35976,7 +35964,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="19"/>
@@ -36236,7 +36224,7 @@
         <v>54</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E53" s="19"/>
       <c r="F53" s="19"/>
@@ -36496,7 +36484,7 @@
         <v>55</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E54" s="19"/>
       <c r="F54" s="19"/>
@@ -36756,7 +36744,7 @@
         <v>56</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E55" s="19"/>
       <c r="F55" s="19"/>
@@ -37608,7 +37596,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -37623,11 +37611,11 @@
         <v>59</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -38157,7 +38145,9 @@
       <c r="B9" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="37" t="s">
+        <v>160</v>
+      </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -38419,7 +38409,9 @@
       <c r="B10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="18" t="s">
+        <v>244</v>
+      </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -39369,22 +39361,22 @@
         <v>8</v>
       </c>
       <c r="B19" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="F19" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C19" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="F19" s="30" t="s">
+      <c r="G19" s="30" t="s">
         <v>133</v>
-      </c>
-      <c r="G19" s="30" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:255" ht="15" x14ac:dyDescent="0.35">
@@ -39393,19 +39385,19 @@
       </c>
       <c r="B20" s="46"/>
       <c r="C20" s="43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D20" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="E20" s="42" t="s">
-        <v>129</v>
-      </c>
       <c r="F20" s="43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G20" s="43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -40003,7 +39995,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -40020,7 +40012,7 @@
       <c r="G4" s="36"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -40550,7 +40542,9 @@
       <c r="B9" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="37" t="s">
+        <v>160</v>
+      </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -40807,12 +40801,14 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="18" t="s">
+        <v>244</v>
+      </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -42034,7 +42030,7 @@
     </row>
     <row r="23" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
@@ -42291,7 +42287,7 @@
     </row>
     <row r="24" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -42559,7 +42555,7 @@
         <v>44</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
@@ -43599,7 +43595,7 @@
         <v>47</v>
       </c>
       <c r="B30" s="52" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
@@ -43859,7 +43855,7 @@
         <v>48</v>
       </c>
       <c r="B31" s="52" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
@@ -46182,7 +46178,7 @@
     </row>
     <row r="41" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -46968,7 +46964,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E45" s="19"/>
       <c r="F45" s="19"/>
@@ -48776,7 +48772,7 @@
         <v>82</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="19"/>
@@ -49866,7 +49862,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G3" s="37" t="s">
         <v>17</v>
@@ -49888,7 +49884,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -49900,15 +49896,15 @@
         <v>1</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H4" s="36"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -50438,7 +50434,9 @@
       <c r="B9" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="37" t="s">
+        <v>160</v>
+      </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -50695,12 +50693,14 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="18" t="s">
+        <v>244</v>
+      </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -51279,7 +51279,7 @@
     </row>
     <row r="14" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>39</v>
@@ -51291,37 +51291,37 @@
         <v>41</v>
       </c>
       <c r="E14" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="F14" s="40" t="s">
         <v>207</v>
-      </c>
-      <c r="F14" s="40" t="s">
-        <v>208</v>
       </c>
       <c r="G14" s="40" t="s">
         <v>1</v>
       </c>
       <c r="H14" s="40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J14" s="40" t="s">
         <v>22</v>
       </c>
       <c r="K14" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L14" s="40" t="s">
         <v>1</v>
       </c>
       <c r="M14" s="40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N14" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="O14" s="40" t="s">
         <v>198</v>
-      </c>
-      <c r="O14" s="40" t="s">
-        <v>199</v>
       </c>
       <c r="P14" s="40" t="s">
         <v>72</v>
@@ -51329,7 +51329,7 @@
     </row>
     <row r="15" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B15" s="40" t="s">
         <v>96</v>
@@ -51341,37 +51341,37 @@
         <v>41</v>
       </c>
       <c r="E15" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="F15" s="40" t="s">
         <v>209</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>210</v>
       </c>
       <c r="G15" s="40" t="s">
         <v>1</v>
       </c>
       <c r="H15" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I15" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J15" s="40" t="s">
         <v>22</v>
       </c>
       <c r="K15" s="40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L15" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="M15" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="M15" s="40" t="s">
+      <c r="N15" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="N15" s="40" t="s">
+      <c r="O15" s="40" t="s">
         <v>203</v>
-      </c>
-      <c r="O15" s="40" t="s">
-        <v>204</v>
       </c>
       <c r="P15" s="40" t="s">
         <v>72</v>
@@ -51922,7 +51922,7 @@
     </row>
     <row r="23" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
@@ -52179,7 +52179,7 @@
     </row>
     <row r="24" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
@@ -52243,10 +52243,10 @@
     </row>
     <row r="26" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C26" s="40" t="s">
         <v>40</v>
@@ -52255,37 +52255,37 @@
         <v>41</v>
       </c>
       <c r="E26" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="F26" s="40" t="s">
         <v>220</v>
-      </c>
-      <c r="F26" s="40" t="s">
-        <v>221</v>
       </c>
       <c r="G26" s="40" t="s">
         <v>1</v>
       </c>
       <c r="H26" s="40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I26" s="40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J26" s="40" t="s">
         <v>22</v>
       </c>
       <c r="K26" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L26" s="40" t="s">
         <v>1</v>
       </c>
       <c r="M26" s="40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N26" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="O26" s="40" t="s">
         <v>198</v>
-      </c>
-      <c r="O26" s="40" t="s">
-        <v>199</v>
       </c>
       <c r="P26" s="40" t="s">
         <v>1</v>
@@ -52293,10 +52293,10 @@
     </row>
     <row r="27" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C27" s="40" t="s">
         <v>40</v>
@@ -52305,37 +52305,37 @@
         <v>41</v>
       </c>
       <c r="E27" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="F27" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F27" s="40" t="s">
-        <v>223</v>
       </c>
       <c r="G27" s="40" t="s">
         <v>1</v>
       </c>
       <c r="H27" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I27" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J27" s="40" t="s">
         <v>22</v>
       </c>
       <c r="K27" s="40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L27" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="M27" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="M27" s="40" t="s">
+      <c r="N27" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="N27" s="40" t="s">
+      <c r="O27" s="40" t="s">
         <v>203</v>
-      </c>
-      <c r="O27" s="40" t="s">
-        <v>204</v>
       </c>
       <c r="P27" s="40" t="s">
         <v>1</v>
@@ -52677,13 +52677,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>1</v>
@@ -52692,11 +52692,11 @@
         <v>59</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -53226,7 +53226,9 @@
       <c r="B9" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="37" t="s">
+        <v>160</v>
+      </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -53483,12 +53485,14 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="18" t="s">
+        <v>244</v>
+      </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
